--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60CCDD9-23DC-47AD-8174-9E0F2AA89522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A698A2EE-D49F-43A7-8059-6F558F8D4FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>timeLimit|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>givenTime|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,6 +195,10 @@
   </si>
   <si>
     <t>free|Bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인(강제팝업 없다)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,21 +563,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="18.25" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -596,11 +596,8 @@
       <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -613,21 +610,18 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>300</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G12" si="0">IF(F2/60/60/24*1&gt;=1,INT(F2/60/60/24)&amp;"d","")
-&amp;IF(INT(MOD(F2/60/60,24))&gt;0,INT(MOD(F2/60/60,24))&amp;"h","")
-&amp;IF(INT(MOD(F2/60,60))&gt;0,INT(MOD(F2/60,60))&amp;"m","")
-&amp;IF(INT(MOD(F2,60))&gt;0,INT(MOD(F2,60))&amp;"s","")</f>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F13" si="0">IF(E2/60/60/24*1&gt;=1,INT(E2/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(E2/60/60,24))&gt;0,INT(MOD(E2/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(E2/60,60))&gt;0,INT(MOD(E2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(E2,60))&gt;0,INT(MOD(E2,60))&amp;"s","")</f>
         <v>5m</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -640,18 +634,15 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>300</v>
       </c>
-      <c r="G3" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>5m</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -661,19 +652,19 @@
       <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4">
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="G4" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -683,91 +674,91 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="G5" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-      <c r="G6" t="str">
+      <c r="E6">
+        <v>600</v>
+      </c>
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10m</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
+      <c r="E7">
+        <v>600</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10m</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="E8">
+        <v>600</v>
+      </c>
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10m</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" t="str">
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10m</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10" t="str">
+      <c r="E10">
+        <v>600</v>
+      </c>
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10m</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" t="str">
+      <c r="E11">
+        <v>600</v>
+      </c>
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10m</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -777,24 +768,28 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12">
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="G12" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
+      <c r="E13">
+        <v>600</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>10m</v>
       </c>
     </row>
   </sheetData>
@@ -824,22 +819,22 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -893,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4">
         <v>500</v>
@@ -947,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7">
         <v>15000</v>
@@ -1001,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>5000</v>
@@ -1027,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11">
         <v>10000</v>
@@ -1053,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>40000</v>
@@ -1079,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13">
         <v>17500</v>
@@ -1105,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14">
         <v>17500</v>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A698A2EE-D49F-43A7-8059-6F558F8D4FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F7E56-0F97-49DC-8156-8AFFE0825AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,55 +150,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>buyingGems|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyingGold|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>buyingSpins|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>serverItemId|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pack599</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pack599Sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pack299Sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pack1499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pack2999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pack4999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>free|Bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>로그인(강제팝업 없다)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원 플러스 투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스코 파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+  </si>
+  <si>
+    <t>GO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp_Verify</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardValue|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardCount|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +231,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +244,29 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -245,8 +293,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -565,11 +622,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="18.25" customWidth="1" outlineLevel="1"/>
@@ -577,7 +634,7 @@
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -597,7 +654,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -621,7 +678,7 @@
         <v>5m</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -642,7 +699,7 @@
         <v>5m</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -653,7 +710,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <f>50*60*60</f>
@@ -664,7 +721,7 @@
         <v>2d2h</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -675,7 +732,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <f>50*60*60</f>
@@ -686,9 +743,12 @@
         <v>2d2h</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
       </c>
       <c r="E6">
         <v>600</v>
@@ -698,9 +758,12 @@
         <v>10m</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
       </c>
       <c r="E7">
         <v>600</v>
@@ -710,7 +773,7 @@
         <v>10m</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -722,7 +785,7 @@
         <v>10m</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -734,7 +797,7 @@
         <v>10m</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -746,7 +809,7 @@
         <v>10m</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -758,7 +821,7 @@
         <v>10m</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -769,7 +832,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <f>50*60*60</f>
@@ -780,7 +843,7 @@
         <v>2d2h</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -800,18 +863,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="24.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="13" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -819,25 +887,37 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -847,17 +927,41 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2:D14" ca="1" si="0">IF(ISBLANK(E2),"",
+VLOOKUP(E2,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="H2" t="str">
+        <f ca="1">IF(LEN(D2)=0,"",D2)</f>
+        <v>cu</v>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(LEN(F2)=0,"",F2)</f>
+        <v>GO</v>
+      </c>
+      <c r="J2">
+        <f>IF(LEN(G2)=0,"",G2)</f>
+        <v>400</v>
+      </c>
+      <c r="L2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -867,14 +971,39 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <v>600</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H14" ca="1" si="1">IF(LEN(D3)=0,"",D3)</f>
+        <v>cu</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I14" si="2">IF(LEN(F3)=0,"",F3)</f>
+        <v>EN</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J14" si="3">IF(LEN(G3)=0,"",G3)</f>
+        <v>600</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -884,23 +1013,33 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
+      <c r="D4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>it</v>
       </c>
       <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F4">
-        <v>500</v>
-      </c>
       <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>it</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -910,11 +1049,33 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>600</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -924,11 +1085,33 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6">
+        <v>400</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -938,23 +1121,33 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" t="b">
-        <v>0</v>
+      <c r="D7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
       </c>
       <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7">
-        <v>15000</v>
+      <c r="F7" t="s">
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>250</v>
-      </c>
-      <c r="H7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -964,11 +1157,33 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8">
+        <v>400</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -978,11 +1193,33 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9">
+        <v>600</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -992,23 +1229,33 @@
       <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" t="b">
-        <v>0</v>
+      <c r="D10" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10">
-        <v>5000</v>
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
       </c>
       <c r="G10">
-        <v>100</v>
-      </c>
-      <c r="H10">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1018,23 +1265,33 @@
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="D11" t="b">
-        <v>0</v>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11">
-        <v>10000</v>
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
       </c>
       <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1044,23 +1301,33 @@
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" t="b">
-        <v>0</v>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>40000</v>
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
       </c>
       <c r="G12">
         <v>400</v>
       </c>
-      <c r="H12">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1070,23 +1337,33 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" t="b">
-        <v>0</v>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13">
-        <v>17500</v>
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>100</v>
-      </c>
-      <c r="H13">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>600</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1096,24 +1373,39 @@
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" t="b">
-        <v>0</v>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14">
-        <v>17500</v>
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
       </c>
       <c r="G14">
-        <v>100</v>
-      </c>
-      <c r="H14">
+        <v>400</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>GO</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6F7E56-0F97-49DC-8156-8AFFE0825AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77EAF73-634A-4B28-899A-DF27E028D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>빅부스트 패키지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>발동조건</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,14 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>올모스트 데어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세개 중 하나 사기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연속구매1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연속구매1 이벤트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연속구매2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,18 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>심플구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세로 3개 중 하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ev3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -158,14 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>원 플러스 투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>디스코 파티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +188,104 @@
   </si>
   <si>
     <t>rewardCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고타입_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_단일</t>
+  </si>
+  <si>
+    <t>구매_단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_연속</t>
+  </si>
+  <si>
+    <t>구매_연속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_셋중하나</t>
+  </si>
+  <si>
+    <t>구매_셋중하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_소환할수록풍선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_가챠결과+50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지저금통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그외기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_초고배율가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_구매600%더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_소환결과+50%골드버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_렙업비용20%감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_원플러스투</t>
+  </si>
+  <si>
+    <t>구매_원플러스투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_디스코파티</t>
+  </si>
+  <si>
+    <t>비구매_디스코파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_고블린공격1회더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_여름파티</t>
+  </si>
+  <si>
+    <t>구매_여름파티</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세개 중 하나 사기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅부스트 패키지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올모스트 데어1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -231,7 +293,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,22 +306,6 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -293,17 +339,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,11 +660,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
@@ -632,40 +670,48 @@
     <col min="4" max="4" width="18.25" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" outlineLevel="1"/>
+    <col min="10" max="10" width="9" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="27" customHeight="1">
+    <row r="1" spans="1:10" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>300</v>
@@ -677,19 +723,25 @@
 &amp;IF(INT(MOD(E2,60))&gt;0,INT(MOD(E2,60))&amp;"s","")</f>
         <v>5m</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>300</v>
@@ -698,19 +750,25 @@
         <f t="shared" si="0"/>
         <v>5m</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <f>50*60*60</f>
@@ -720,19 +778,22 @@
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
       </c>
       <c r="E5">
         <f>50*60*60</f>
@@ -742,13 +803,16 @@
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>600</v>
@@ -757,13 +821,16 @@
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>600</v>
@@ -772,10 +839,16 @@
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="H7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
       </c>
       <c r="E8">
         <v>600</v>
@@ -784,8 +857,11 @@
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="H8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -796,8 +872,11 @@
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -808,8 +887,11 @@
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="H10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -820,19 +902,22 @@
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>32</v>
       </c>
       <c r="E12">
         <f>50*60*60</f>
@@ -842,8 +927,11 @@
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -854,10 +942,24 @@
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
+      <c r="H13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="H14" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -865,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -881,48 +983,49 @@
   <sheetData>
     <row r="1" spans="1:13" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="L1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(A2,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -934,10 +1037,10 @@
         <v>cu</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G2">
         <v>400</v>
@@ -955,18 +1058,19 @@
         <v>400</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B3" t="str">
+        <f>VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -976,10 +1080,10 @@
         <v>cu</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>600</v>
@@ -997,18 +1101,19 @@
         <v>600</v>
       </c>
       <c r="L3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="str">
+        <f>VLOOKUP(A4,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1018,10 +1123,10 @@
         <v>it</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1041,10 +1146,11 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B5" t="str">
+        <f>VLOOKUP(A5,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1054,10 +1160,10 @@
         <v>cu</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G5">
         <v>600</v>
@@ -1077,10 +1183,11 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B6" t="str">
+        <f>VLOOKUP(A6,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C6">
         <v>5</v>
@@ -1090,10 +1197,10 @@
         <v>cu</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G6">
         <v>400</v>
@@ -1113,10 +1220,11 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B7" t="str">
+        <f>VLOOKUP(A7,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C7">
         <v>6</v>
@@ -1126,10 +1234,10 @@
         <v>cu</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G7">
         <v>600</v>
@@ -1149,10 +1257,11 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="str">
+        <f>VLOOKUP(A8,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C8">
         <v>7</v>
@@ -1162,10 +1271,10 @@
         <v>cu</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G8">
         <v>400</v>
@@ -1185,10 +1294,11 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B9" t="str">
+        <f>VLOOKUP(A9,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1198,10 +1308,10 @@
         <v>cu</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>600</v>
@@ -1221,10 +1331,11 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B10" t="str">
+        <f>VLOOKUP(A10,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1234,10 +1345,10 @@
         <v>cu</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G10">
         <v>400</v>
@@ -1257,10 +1368,11 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1270,10 +1382,10 @@
         <v>cu</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G11">
         <v>600</v>
@@ -1293,10 +1405,11 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1306,10 +1419,10 @@
         <v>cu</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G12">
         <v>400</v>
@@ -1331,8 +1444,9 @@
       <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>빅부스트 패키지1</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1342,10 +1456,10 @@
         <v>cu</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G13">
         <v>600</v>
@@ -1365,10 +1479,11 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>올모스트 데어1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1378,10 +1493,10 @@
         <v>cu</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>400</v>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A77EAF73-634A-4B28-899A-DF27E028D1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726749C2-6DF6-443F-BC3A-A53698394EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,9 +165,6 @@
   </si>
   <si>
     <t>아이템</t>
-  </si>
-  <si>
-    <t>아이템</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -220,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비구매_가챠결과+50%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출석체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,18 +229,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비구매_초고배율가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비구매_구매600%더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비구매_소환결과+50%골드버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>비구매_렙업비용20%감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +271,113 @@
   </si>
   <si>
     <t>올모스트 데어1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_이벤트포인트 두번째보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_골드 수입 50% 증가 (골드버튼)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드코딩. 프로그램이 제어</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>보스에서 패배</t>
+  </si>
+  <si>
+    <t>스핀 다 소모</t>
+  </si>
+  <si>
+    <t>referEvent|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startYear|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startMonth|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDay|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endYear|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endMonth|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDay|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>triggerCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +385,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +403,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -339,18 +439,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -660,302 +780,1166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:AU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" outlineLevel="1"/>
-    <col min="10" max="10" width="9" outlineLevel="1"/>
+    <col min="3" max="4" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="3.875" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="4.125" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="3.625" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.75" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="11.125" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="30" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1">
+    <row r="1" spans="1:32" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>80</v>
+      </c>
+      <c r="R1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U1" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>66</v>
-      </c>
       <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:I14" si="0">IF(F2/60/60/24*1&gt;=1,INT(F2/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(F2/60/60,24))&gt;0,INT(MOD(F2/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(F2/60,60))&gt;0,INT(MOD(F2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(F2,60))&gt;0,INT(MOD(F2,60))&amp;"s","")</f>
+        <v>5m</v>
+      </c>
+      <c r="H2">
+        <v>86400</v>
+      </c>
+      <c r="I2" t="str">
+        <f t="shared" si="0"/>
+        <v>1d</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(ISBLANK($P2),"",YEAR($P2))</f>
+        <v/>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(ISBLANK($P2),"",MONTH($P2))</f>
+        <v/>
+      </c>
+      <c r="L2" t="str">
+        <f>IF(ISBLANK($P2),"",DAY($P2))</f>
+        <v/>
+      </c>
+      <c r="M2" t="str">
+        <f>IF(ISBLANK($Q2),"",YEAR($Q2+1))</f>
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(ISBLANK($Q2),"",MONTH($Q2+1))</f>
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <f>IF(ISBLANK($Q2),"",DAY($Q2+1))</f>
+        <v/>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" t="str">
+        <f>J2</f>
+        <v/>
+      </c>
+      <c r="S2" t="str">
+        <f t="shared" ref="S2:W14" si="1">K2</f>
+        <v/>
+      </c>
+      <c r="T2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W2" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="4">
+        <f t="shared" ref="Y2:Y5" ca="1" si="2">VLOOKUP(X2,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AA2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>300</v>
-      </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F13" si="0">IF(E2/60/60/24*1&gt;=1,INT(E2/60/60/24)&amp;"d","")
-&amp;IF(INT(MOD(E2/60/60,24))&gt;0,INT(MOD(E2/60/60,24))&amp;"h","")
-&amp;IF(INT(MOD(E2/60,60))&gt;0,INT(MOD(E2/60,60))&amp;"m","")
-&amp;IF(INT(MOD(E2,60))&gt;0,INT(MOD(E2,60))&amp;"s","")</f>
-        <v>5m</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="AC2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>67</v>
-      </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>300</v>
       </c>
-      <c r="F3" t="str">
+      <c r="G3" t="str">
         <f t="shared" si="0"/>
         <v>5m</v>
       </c>
-      <c r="H3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="I3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J14" si="3">IF(ISBLANK($P3),"",YEAR($P3))</f>
+        <v/>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K14" si="4">IF(ISBLANK($P3),"",MONTH($P3))</f>
+        <v/>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L14" si="5">IF(ISBLANK($P3),"",DAY($P3))</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M14" si="6">IF(ISBLANK($Q3),"",YEAR($Q3+1))</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N14" si="7">IF(ISBLANK($Q3),"",MONTH($Q3+1))</f>
+        <v/>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O14" si="8">IF(ISBLANK($Q3),"",DAY($Q3+1))</f>
+        <v/>
+      </c>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R14" si="9">J3</f>
+        <v/>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="F4" t="str">
+      <c r="G4" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="H4">
+        <v>691200</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>8d</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="P4" s="3">
+        <v>44805</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>44819</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="9"/>
+        <v>2022</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
       <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="F5" t="str">
+      <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="H5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="H5">
+        <v>172800</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>2d</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="3"/>
+        <v>2022</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>2022</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="P5" s="3">
+        <v>44816</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>44831</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="9"/>
+        <v>2022</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>2022</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="X5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6">
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6">
         <v>600</v>
       </c>
-      <c r="F6" t="str">
+      <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7">
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7">
         <v>600</v>
       </c>
-      <c r="F7" t="str">
+      <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8">
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
         <v>600</v>
       </c>
-      <c r="F8" t="str">
+      <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>600</v>
       </c>
-      <c r="F9" t="str">
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>600</v>
       </c>
-      <c r="F10" t="str">
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>600</v>
       </c>
-      <c r="F11" t="str">
+      <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
       <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>25</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="F12" t="str">
+      <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>600</v>
       </c>
-      <c r="F13" t="str">
+      <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="H14" t="s">
-        <v>62</v>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14">
+        <v>420</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>7m</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="P1:Q1048576">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$Q1&lt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13 X2:X5" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -965,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1004,13 +1988,13 @@
         <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="L1" t="s">
         <v>29</v>
@@ -1024,14 +2008,14 @@
         <v>16</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(A2,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A2,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D14" ca="1" si="0">IF(ISBLANK(E2),"",
+        <f t="shared" ref="D2:E33" ca="1" si="0">IF(ISBLANK(E2),"",
 VLOOKUP(E2,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -1040,10 +2024,10 @@
         <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="H2" t="str">
         <f ca="1">IF(LEN(D2)=0,"",D2)</f>
@@ -1051,11 +2035,11 @@
       </c>
       <c r="I2" t="str">
         <f>IF(LEN(F2)=0,"",F2)</f>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="J2">
         <f>IF(LEN(G2)=0,"",G2)</f>
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s">
         <v>31</v>
@@ -1069,7 +2053,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A3,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C3">
@@ -1083,28 +2067,28 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G3">
-        <v>600</v>
+        <v>35000</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H14" ca="1" si="1">IF(LEN(D3)=0,"",D3)</f>
+        <f t="shared" ref="H3:H33" ca="1" si="1">IF(LEN(D3)=0,"",D3)</f>
         <v>cu</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I14" si="2">IF(LEN(F3)=0,"",F3)</f>
-        <v>EN</v>
+        <f t="shared" ref="I3:I33" si="2">IF(LEN(F3)=0,"",F3)</f>
+        <v>GO</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J14" si="3">IF(LEN(G3)=0,"",G3)</f>
-        <v>600</v>
+        <f t="shared" ref="J3:J33" si="3">IF(LEN(G3)=0,"",G3)</f>
+        <v>35000</v>
       </c>
       <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
         <v>36</v>
-      </c>
-      <c r="M3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1112,7 +2096,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A4,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C4">
@@ -1120,28 +2104,28 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>87</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>170</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>it</v>
+        <v>cu</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="J4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1149,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(A5,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A5,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C5">
@@ -1160,13 +2144,13 @@
         <v>cu</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1174,11 +2158,11 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="J5">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1186,7 +2170,7 @@
         <v>16</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(A6,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A6,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C6">
@@ -1203,7 +2187,7 @@
         <v>28</v>
       </c>
       <c r="G6">
-        <v>400</v>
+        <v>20000</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1215,7 +2199,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1223,7 +2207,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(A7,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A7,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C7">
@@ -1237,10 +2221,10 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G7">
-        <v>600</v>
+        <v>150</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1248,11 +2232,11 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="J7">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1260,7 +2244,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(A8,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A8,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C8">
@@ -1277,7 +2261,7 @@
         <v>28</v>
       </c>
       <c r="G8">
-        <v>400</v>
+        <v>35000</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1289,7 +2273,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="3"/>
-        <v>400</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1297,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(A9,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>VLOOKUP(A9,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>연속구매1</v>
       </c>
       <c r="C9">
@@ -1311,10 +2295,10 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G9">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -1322,194 +2306,905 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="J9">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(A10,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>VLOOKUP(A10,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="D10:D16" ca="1" si="4">IF(ISBLANK(E10),"",
+VLOOKUP(E10,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v>cu</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
       <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" ref="H10:H16" ca="1" si="5">IF(LEN(D10)=0,"",D10)</f>
+        <v>cu</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" ref="I10:I16" si="6">IF(LEN(F10)=0,"",F10)</f>
+        <v>EN</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:J16" si="7">IF(LEN(G10)=0,"",G10)</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="str">
+        <f>VLOOKUP(A11,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cu</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="G10">
-        <v>400</v>
-      </c>
-      <c r="H10" t="str">
+      <c r="G11">
+        <v>20000</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>cu</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="6"/>
+        <v>GO</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="7"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="str">
+        <f>VLOOKUP(A12,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cu</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12">
+        <v>80</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>cu</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="6"/>
+        <v>EN</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="str">
+        <f>VLOOKUP(A13,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cu</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>10000</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>cu</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="6"/>
+        <v>GO</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="str">
+        <f>VLOOKUP(A14,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cu</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>200</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>cu</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="6"/>
+        <v>EN</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="str">
+        <f>VLOOKUP(A15,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cu</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15">
+        <v>300</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>cu</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="6"/>
+        <v>EN</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="7"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="str">
+        <f>VLOOKUP(A16,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v>cu</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16">
+        <v>25000</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v>cu</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="6"/>
+        <v>GO</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="str">
+        <f>VLOOKUP(A17,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" ref="D17:D21" ca="1" si="8">IF(ISBLANK(E17),"",
+VLOOKUP(E17,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17">
+        <v>450</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" ref="H17:H21" ca="1" si="9">IF(LEN(D17)=0,"",D17)</f>
+        <v>cu</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" ref="I17:I21" si="10">IF(LEN(F17)=0,"",F17)</f>
+        <v>EN</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ref="J17:J21" si="11">IF(LEN(G17)=0,"",G17)</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" t="str">
+        <f>VLOOKUP(A18,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>cu</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18">
+        <v>35000</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="10"/>
+        <v>GO</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="11"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="str">
+        <f>VLOOKUP(A19,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>cu</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19">
+        <v>50000</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="10"/>
+        <v>GO</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="11"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="str">
+        <f>VLOOKUP(A20,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>cu</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20">
+        <v>350</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="10"/>
+        <v>EN</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="11"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="str">
+        <f>VLOOKUP(A21,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>연속구매1</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" ca="1" si="8"/>
+        <v>cu</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21">
+        <v>30000</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" ca="1" si="9"/>
+        <v>cu</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="10"/>
+        <v>GO</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="11"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="str">
+        <f>VLOOKUP(A22,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22">
+        <v>30</v>
+      </c>
+      <c r="H22" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
-      <c r="I10" t="str">
+      <c r="I22" t="str">
+        <f t="shared" si="2"/>
+        <v>EN</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="str">
+        <f>VLOOKUP(A23,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G23">
+        <v>25000</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
         <v>GO</v>
       </c>
-      <c r="J10">
+      <c r="J23">
         <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+      <c r="B24" t="str">
+        <f>VLOOKUP(A24,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C11">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="2"/>
+        <v>EN</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" ref="D25:D30" ca="1" si="12">IF(ISBLANK(E25),"",
+VLOOKUP(E25,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25">
+        <v>60</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" ref="H25:H30" ca="1" si="13">IF(LEN(D25)=0,"",D25)</f>
+        <v>cu</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" ref="I25:I30" si="14">IF(LEN(F25)=0,"",F25)</f>
+        <v>EN</v>
+      </c>
+      <c r="J25">
+        <f t="shared" ref="J25:J30" si="15">IF(LEN(G25)=0,"",G25)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G26">
+        <v>15000</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>cu</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="14"/>
+        <v>GO</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="15"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27">
+        <v>120</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>cu</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="14"/>
+        <v>EN</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="15"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C28">
+        <v>7</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>87</v>
+      </c>
+      <c r="G28">
+        <v>90</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>cu</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="14"/>
+        <v>EN</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="15"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C29">
+        <v>8</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" t="s">
+        <v>28</v>
+      </c>
+      <c r="G29">
+        <v>30000</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>cu</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="14"/>
+        <v>GO</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="15"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C30">
+        <v>9</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G30">
+        <v>150</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>cu</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="14"/>
+        <v>EN</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="15"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="D11" t="str">
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>세개 중 하나 사기1</v>
+      </c>
+      <c r="C31">
+        <v>10</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" ref="D31" ca="1" si="16">IF(ISBLANK(E31),"",
+VLOOKUP(E31,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31">
+        <v>300</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" ref="H31" ca="1" si="17">IF(LEN(D31)=0,"",D31)</f>
+        <v>cu</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" ref="I31" si="18">IF(LEN(F31)=0,"",F31)</f>
+        <v>EN</v>
+      </c>
+      <c r="J31">
+        <f t="shared" ref="J31" si="19">IF(LEN(G31)=0,"",G31)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>빅부스트 패키지1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>cu</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E32" t="s">
         <v>27</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F32" t="s">
         <v>28</v>
       </c>
-      <c r="G11">
+      <c r="G32">
         <v>600</v>
       </c>
-      <c r="H11" t="str">
+      <c r="H32" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
-      <c r="I11" t="str">
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
         <v>GO</v>
       </c>
-      <c r="J11">
+      <c r="J32">
         <f t="shared" si="3"/>
         <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12" t="str">
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>올모스트 데어1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>cu</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E33" t="s">
         <v>27</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F33" t="s">
         <v>28</v>
       </c>
-      <c r="G12">
+      <c r="G33">
         <v>400</v>
       </c>
-      <c r="H12" t="str">
+      <c r="H33" t="str">
         <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
-      <c r="I12" t="str">
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
         <v>GO</v>
       </c>
-      <c r="J12">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>빅부스트 패키지1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13">
-        <v>600</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="2"/>
-        <v>GO</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>올모스트 데어1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14">
-        <v>400</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="2"/>
-        <v>GO</v>
-      </c>
-      <c r="J14">
+      <c r="J33">
         <f t="shared" si="3"/>
         <v>400</v>
       </c>
@@ -1517,10 +3212,11 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E14" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{726749C2-6DF6-443F-BC3A-A53698394EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71557B5E-3184-4753-945F-5EAC95A6785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
     <sheet name="EventRewardTable" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>발동조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핀 다 소모할 때 랜덤하게 하나 나온다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>연속구매1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인(강제팝업 없다)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,10 +128,6 @@
     <t>재화</t>
   </si>
   <si>
-    <t>GO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tp_Verify</t>
   </si>
   <si>
@@ -362,9 +349,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EN</t>
-  </si>
-  <si>
     <t>triggerCondition</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -379,6 +363,40 @@
   <si>
     <t>coolTime|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>refer검증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ev4_Conti1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ev3_OneOfThree1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigBoost</t>
+  </si>
+  <si>
+    <t>ev1</t>
   </si>
 </sst>
 </file>
@@ -459,12 +477,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color theme="0" tint="-0.499984740745262"/>
@@ -481,6 +494,202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="ShopProductTable"/>
+      <sheetName val="LevelPassTable"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>productId|String</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>Research0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>Research5</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>Research15</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>Research25</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>Research35</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Research45</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>Research55</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>Research65</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>Research75</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>LevelPass</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>BigBoost</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>Ev5_OnePlusTwo1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Ev5_OnePlusTwo2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>Ev5_OnePlusTwo3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Ev3_OneOfThree1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Ev3_OneOfThree2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>Ev3_OneOfThree3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>Ev4_Conti1</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>Ev4_Conti2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>Ev4_Conti3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>Ev4_Conti4</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>Ev4_Conti5</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>Ev4_Conti6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>Ev4_Conti7</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>Ev4_Conti8</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>Ev6_Disco1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>Ev6_Disco2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>Ev6_Disco3</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>Ev6_Disco4</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>Ev7_Summer1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>Ev7_Summer2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>Ev7_Summer3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>Ev7_Summer4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>Ev7_Summer5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>Ev7_Summer6</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -780,16 +989,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AU14"/>
+  <dimension ref="A1:AW14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="4" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -811,105 +1020,107 @@
   <sheetData>
     <row r="1" spans="1:32" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>76</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" t="s">
         <v>77</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" t="s">
         <v>78</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>79</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>80</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>82</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>83</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>84</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AA1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
         <v>85</v>
       </c>
-      <c r="W1" t="s">
-        <v>86</v>
-      </c>
-      <c r="X1" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>90</v>
-      </c>
       <c r="AD1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
       <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="E2" t="str">
+        <f>IF(ISBLANK(D2),"",
+IF(C2=VLOOKUP(D2,A:C,MATCH($C$1,$A$1:$C$1,0),0),"","타입다름"))</f>
+        <v/>
       </c>
       <c r="F2">
         <v>300</v>
@@ -979,37 +1190,39 @@
         <v/>
       </c>
       <c r="X2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="Y2" s="4">
         <f t="shared" ref="Y2:Y5" ca="1" si="2">VLOOKUP(X2,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AC2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="AD2">
         <v>0</v>
       </c>
       <c r="AF2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
       <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>38</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E14" si="3">IF(ISBLANK(D3),"",
+IF(C3=VLOOKUP(D3,A:C,MATCH($C$1,$A$1:$C$1,0),0),"","타입다름"))</f>
+        <v/>
       </c>
       <c r="F3">
         <v>300</v>
@@ -1023,33 +1236,33 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J14" si="3">IF(ISBLANK($P3),"",YEAR($P3))</f>
+        <f>IF(ISBLANK($P3),"",YEAR($P3))</f>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K14" si="4">IF(ISBLANK($P3),"",MONTH($P3))</f>
+        <f>IF(ISBLANK($P3),"",MONTH($P3))</f>
         <v/>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L14" si="5">IF(ISBLANK($P3),"",DAY($P3))</f>
+        <f>IF(ISBLANK($P3),"",DAY($P3))</f>
         <v/>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M14" si="6">IF(ISBLANK($Q3),"",YEAR($Q3+1))</f>
+        <f>IF(ISBLANK($Q3),"",YEAR($Q3+1))</f>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N14" si="7">IF(ISBLANK($Q3),"",MONTH($Q3+1))</f>
+        <f>IF(ISBLANK($Q3),"",MONTH($Q3+1))</f>
         <v/>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ref="O3:O14" si="8">IF(ISBLANK($Q3),"",DAY($Q3+1))</f>
+        <f>IF(ISBLANK($Q3),"",DAY($Q3+1))</f>
         <v/>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R14" si="9">J3</f>
+        <f t="shared" ref="R3:R14" si="4">J3</f>
         <v/>
       </c>
       <c r="S3" t="str">
@@ -1073,37 +1286,38 @@
         <v/>
       </c>
       <c r="X3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Y3" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AD3">
         <v>1</v>
       </c>
       <c r="AF3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
       <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F4">
         <f>50*60*60</f>
@@ -1121,27 +1335,27 @@
         <v>8d</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P4),"",YEAR($P4))</f>
         <v>2022</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P4),"",MONTH($P4))</f>
         <v>9</v>
       </c>
       <c r="L4">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P4),"",DAY($P4))</f>
         <v>1</v>
       </c>
       <c r="M4">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q4),"",YEAR($Q4+1))</f>
         <v>2022</v>
       </c>
       <c r="N4">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q4),"",MONTH($Q4+1))</f>
         <v>9</v>
       </c>
       <c r="O4">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q4),"",DAY($Q4+1))</f>
         <v>16</v>
       </c>
       <c r="P4" s="3">
@@ -1151,7 +1365,7 @@
         <v>44819</v>
       </c>
       <c r="R4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="S4">
@@ -1175,17 +1389,17 @@
         <v>16</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y4" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="AC4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AD4">
         <v>2</v>
@@ -1195,14 +1409,15 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F5">
         <f>50*60*60</f>
@@ -1220,27 +1435,27 @@
         <v>2d</v>
       </c>
       <c r="J5">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P5),"",YEAR($P5))</f>
         <v>2022</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P5),"",MONTH($P5))</f>
         <v>9</v>
       </c>
       <c r="L5">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P5),"",DAY($P5))</f>
         <v>12</v>
       </c>
       <c r="M5">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q5),"",YEAR($Q5+1))</f>
         <v>2022</v>
       </c>
       <c r="N5">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q5),"",MONTH($Q5+1))</f>
         <v>9</v>
       </c>
       <c r="O5">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q5),"",DAY($Q5+1))</f>
         <v>28</v>
       </c>
       <c r="P5" s="3">
@@ -1250,7 +1465,7 @@
         <v>44831</v>
       </c>
       <c r="R5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="S5">
@@ -1274,17 +1489,17 @@
         <v>28</v>
       </c>
       <c r="X5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" ca="1" si="2"/>
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="AD5">
         <v>3</v>
@@ -1294,8 +1509,12 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
-        <v>54</v>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F6">
         <v>600</v>
@@ -1309,33 +1528,33 @@
         <v/>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P6),"",YEAR($P6))</f>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P6),"",MONTH($P6))</f>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P6),"",DAY($P6))</f>
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q6),"",YEAR($Q6+1))</f>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q6),"",MONTH($Q6+1))</f>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q6),"",DAY($Q6+1))</f>
         <v/>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S6" t="str">
@@ -1359,15 +1578,19 @@
         <v/>
       </c>
       <c r="AA6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>56</v>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F7">
         <v>600</v>
@@ -1381,33 +1604,33 @@
         <v/>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P7),"",YEAR($P7))</f>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P7),"",MONTH($P7))</f>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P7),"",DAY($P7))</f>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q7),"",YEAR($Q7+1))</f>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q7),"",MONTH($Q7+1))</f>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q7),"",DAY($Q7+1))</f>
         <v/>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S7" t="str">
@@ -1431,15 +1654,19 @@
         <v/>
       </c>
       <c r="AA7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>59</v>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F8">
         <v>600</v>
@@ -1453,33 +1680,33 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P8),"",YEAR($P8))</f>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P8),"",MONTH($P8))</f>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P8),"",DAY($P8))</f>
         <v/>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q8),"",YEAR($Q8+1))</f>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q8),"",MONTH($Q8+1))</f>
         <v/>
       </c>
       <c r="O8" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q8),"",DAY($Q8+1))</f>
         <v/>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S8" t="str">
@@ -1503,13 +1730,17 @@
         <v/>
       </c>
       <c r="AA8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>7</v>
       </c>
+      <c r="E9" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F9">
         <v>600</v>
       </c>
@@ -1522,33 +1753,33 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P9),"",YEAR($P9))</f>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P9),"",MONTH($P9))</f>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P9),"",DAY($P9))</f>
         <v/>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q9),"",YEAR($Q9+1))</f>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q9),"",MONTH($Q9+1))</f>
         <v/>
       </c>
       <c r="O9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q9),"",DAY($Q9+1))</f>
         <v/>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S9" t="str">
@@ -1572,13 +1803,17 @@
         <v/>
       </c>
       <c r="AA9" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>8</v>
       </c>
+      <c r="E10" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F10">
         <v>600</v>
       </c>
@@ -1591,33 +1826,33 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P10),"",YEAR($P10))</f>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P10),"",MONTH($P10))</f>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P10),"",DAY($P10))</f>
         <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q10),"",YEAR($Q10+1))</f>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q10),"",MONTH($Q10+1))</f>
         <v/>
       </c>
       <c r="O10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q10),"",DAY($Q10+1))</f>
         <v/>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S10" t="str">
@@ -1641,13 +1876,17 @@
         <v/>
       </c>
       <c r="AA10" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="E11" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F11">
         <v>600</v>
       </c>
@@ -1660,33 +1899,33 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P11),"",YEAR($P11))</f>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P11),"",MONTH($P11))</f>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P11),"",DAY($P11))</f>
         <v/>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q11),"",YEAR($Q11+1))</f>
         <v/>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q11),"",MONTH($Q11+1))</f>
         <v/>
       </c>
       <c r="O11" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q11),"",DAY($Q11+1))</f>
         <v/>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S11" t="str">
@@ -1710,21 +1949,22 @@
         <v/>
       </c>
       <c r="AA11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>10</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>25</v>
+        <v>40</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F12">
         <f>50*60*60</f>
@@ -1739,33 +1979,33 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P12),"",YEAR($P12))</f>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P12),"",MONTH($P12))</f>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P12),"",DAY($P12))</f>
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q12),"",YEAR($Q12+1))</f>
         <v/>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q12),"",MONTH($Q12+1))</f>
         <v/>
       </c>
       <c r="O12" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q12),"",DAY($Q12+1))</f>
         <v/>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S12" t="str">
@@ -1789,13 +2029,17 @@
         <v/>
       </c>
       <c r="AA12" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="E13" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="F13">
         <v>600</v>
       </c>
@@ -1808,33 +2052,33 @@
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P13),"",YEAR($P13))</f>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P13),"",MONTH($P13))</f>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P13),"",DAY($P13))</f>
         <v/>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q13),"",YEAR($Q13+1))</f>
         <v/>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q13),"",MONTH($Q13+1))</f>
         <v/>
       </c>
       <c r="O13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q13),"",DAY($Q13+1))</f>
         <v/>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S13" t="str">
@@ -1858,15 +2102,19 @@
         <v/>
       </c>
       <c r="AA13" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="F14">
         <v>420</v>
@@ -1880,33 +2128,33 @@
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($P14),"",YEAR($P14))</f>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($P14),"",MONTH($P14))</f>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($P14),"",DAY($P14))</f>
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($Q14),"",YEAR($Q14+1))</f>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($Q14),"",MONTH($Q14+1))</f>
         <v/>
       </c>
       <c r="O14" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(ISBLANK($Q14),"",DAY($Q14+1))</f>
         <v/>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S14" t="str">
@@ -1933,13 +2181,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="P1:Q1048576">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$Q1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D13 X2:X5" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(D$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5 C2:C14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,1270 +2197,2202 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="2" width="24.625" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="23.875" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="13" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="27" customHeight="1">
+    <row r="1" spans="1:21" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="str">
-        <f>VLOOKUP(A2,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>VLOOKUP(A2,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:E33" ca="1" si="0">IF(ISBLANK(E2),"",
+        <f t="shared" ref="D2:D34" ca="1" si="0">IF(ISBLANK(E2),"",
 VLOOKUP(E2,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="E2" t="s">
+        <v/>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2">
+        <f ca="1">IF(ISBLANK(OFFSET($H2,-($B2-1),0)),"",
+IF($B2=1,MATCH(OFFSET($H2,-($B2-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I2,-1,0)+OFFSET(K2,-1,0)
+))</f>
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <f ca="1">IF($B2=1,8,
+IF(OFFSET(K2,-1,0)=1,8,
+OFFSET(J2,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K2">
+        <f ca="1">IF($J2-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L2" t="str">
+        <f ca="1">IF(LEN(M2)=0,"",
+VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="M2" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2)</f>
+        <v>재화</v>
+      </c>
+      <c r="N2" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O2">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+2)</f>
+        <v>80</v>
+      </c>
+      <c r="P2" t="str">
+        <f ca="1">IF(LEN(D2)&lt;&gt;0,D2,
+IF(LEN(L2)&lt;&gt;0,L2,""))</f>
+        <v>cu</v>
+      </c>
+      <c r="Q2" t="str">
+        <f ca="1">IF(LEN(F2)&lt;&gt;0,F2,
+IF(LEN(N2)&lt;&gt;0,N2,""))</f>
+        <v>EN</v>
+      </c>
+      <c r="R2">
+        <f ca="1">IF(LEN(G2)&lt;&gt;0,G2,
+IF(LEN(O2)&lt;&gt;0,O2,""))</f>
+        <v>80</v>
+      </c>
+      <c r="T2" t="s">
         <v>27</v>
       </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2">
-        <v>80</v>
-      </c>
-      <c r="H2" t="str">
-        <f ca="1">IF(LEN(D2)=0,"",D2)</f>
-        <v>cu</v>
-      </c>
-      <c r="I2" t="str">
-        <f>IF(LEN(F2)=0,"",F2)</f>
-        <v>EN</v>
-      </c>
-      <c r="J2">
-        <f>IF(LEN(G2)=0,"",G2)</f>
-        <v>80</v>
-      </c>
-      <c r="L2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="U2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" t="str">
-        <f>VLOOKUP(A3,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f>VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
+        <v/>
+      </c>
+      <c r="I3">
+        <f ca="1">IF(ISBLANK(OFFSET($H3,-($B3-1),0)),"",
+IF($B3=1,MATCH(OFFSET($H3,-($B3-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I3,-1,0)+OFFSET(K3,-1,0)
+))</f>
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <f ca="1">IF($B3=1,8,
+IF(OFFSET(K3,-1,0)=1,8,
+OFFSET(J3,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <f ca="1">IF($J3-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L21" ca="1" si="1">IF(ISBLANK(M3),"",
+VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="M3" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3)</f>
+        <v>재화</v>
+      </c>
+      <c r="N3" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O3">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+2)</f>
         <v>35000</v>
       </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H33" ca="1" si="1">IF(LEN(D3)=0,"",D3)</f>
-        <v>cu</v>
-      </c>
-      <c r="I3" t="str">
-        <f t="shared" ref="I3:I33" si="2">IF(LEN(F3)=0,"",F3)</f>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P34" ca="1" si="2">IF(LEN(D3)&lt;&gt;0,D3,
+IF(LEN(L3)&lt;&gt;0,L3,""))</f>
+        <v>cu</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q34" ca="1" si="3">IF(LEN(F3)&lt;&gt;0,F3,
+IF(LEN(N3)&lt;&gt;0,N3,""))</f>
         <v>GO</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J33" si="3">IF(LEN(G3)=0,"",G3)</f>
+      <c r="R3">
+        <f t="shared" ref="R3:R34" ca="1" si="4">IF(LEN(G3)&lt;&gt;0,G3,
+IF(LEN(O3)&lt;&gt;0,O3,""))</f>
         <v>35000</v>
       </c>
-      <c r="L3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="str">
-        <f>VLOOKUP(A4,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="str">
+        <f>VLOOKUP(A4,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4">
+        <v/>
+      </c>
+      <c r="I4">
+        <f ca="1">IF(ISBLANK(OFFSET($H4,-($B4-1),0)),"",
+IF($B4=1,MATCH(OFFSET($H4,-($B4-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I4,-1,0)+OFFSET(K4,-1,0)
+))</f>
+        <v>19</v>
+      </c>
+      <c r="J4">
+        <f ca="1">IF($B4=1,8,
+IF(OFFSET(K4,-1,0)=1,8,
+OFFSET(J4,-1,0)+4))</f>
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <f ca="1">IF($J4-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M4" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4)</f>
+        <v>재화</v>
+      </c>
+      <c r="N4" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O4">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+2)</f>
         <v>170</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="2"/>
+      <c r="P4" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J4">
-        <f t="shared" si="3"/>
+      <c r="R4">
+        <f t="shared" ca="1" si="4"/>
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="str">
-        <f>VLOOKUP(A5,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="str">
+        <f>VLOOKUP(A5,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5">
+        <v/>
+      </c>
+      <c r="I5">
+        <f ca="1">IF(ISBLANK(OFFSET($H5,-($B5-1),0)),"",
+IF($B5=1,MATCH(OFFSET($H5,-($B5-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I5,-1,0)+OFFSET(K5,-1,0)
+))</f>
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <f ca="1">IF($B5=1,8,
+IF(OFFSET(K5,-1,0)=1,8,
+OFFSET(J5,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K5">
+        <f ca="1">IF($J5-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M5" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5)</f>
+        <v>재화</v>
+      </c>
+      <c r="N5" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O5">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+2)</f>
         <v>150</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I5" t="str">
-        <f t="shared" si="2"/>
+      <c r="P5" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J5">
-        <f t="shared" si="3"/>
+      <c r="R5">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="str">
-        <f>VLOOKUP(A6,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="str">
+        <f>VLOOKUP(A6,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
+        <v/>
+      </c>
+      <c r="I6">
+        <f ca="1">IF(ISBLANK(OFFSET($H6,-($B6-1),0)),"",
+IF($B6=1,MATCH(OFFSET($H6,-($B6-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I6,-1,0)+OFFSET(K6,-1,0)
+))</f>
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <f ca="1">IF($B6=1,8,
+IF(OFFSET(K6,-1,0)=1,8,
+OFFSET(J6,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <f ca="1">IF($J6-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M6" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6)</f>
+        <v>재화</v>
+      </c>
+      <c r="N6" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O6">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+2)</f>
         <v>20000</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
+      <c r="P6" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="3"/>
+      <c r="R6">
+        <f t="shared" ca="1" si="4"/>
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="str">
-        <f>VLOOKUP(A7,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="str">
+        <f>VLOOKUP(A7,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7">
+        <v/>
+      </c>
+      <c r="I7">
+        <f ca="1">IF(ISBLANK(OFFSET($H7,-($B7-1),0)),"",
+IF($B7=1,MATCH(OFFSET($H7,-($B7-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I7,-1,0)+OFFSET(K7,-1,0)
+))</f>
+        <v>21</v>
+      </c>
+      <c r="J7">
+        <f ca="1">IF($B7=1,8,
+IF(OFFSET(K7,-1,0)=1,8,
+OFFSET(J7,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <f ca="1">IF($J7-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M7" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7)</f>
+        <v>재화</v>
+      </c>
+      <c r="N7" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O7">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+2)</f>
         <v>150</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
+      <c r="P7" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J7">
-        <f t="shared" si="3"/>
+      <c r="R7">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="str">
-        <f>VLOOKUP(A8,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="str">
+        <f>VLOOKUP(A8,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8">
+        <v/>
+      </c>
+      <c r="I8">
+        <f ca="1">IF(ISBLANK(OFFSET($H8,-($B8-1),0)),"",
+IF($B8=1,MATCH(OFFSET($H8,-($B8-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I8,-1,0)+OFFSET(K8,-1,0)
+))</f>
+        <v>21</v>
+      </c>
+      <c r="J8">
+        <f ca="1">IF($B8=1,8,
+IF(OFFSET(K8,-1,0)=1,8,
+OFFSET(J8,-1,0)+4))</f>
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <f ca="1">IF($J8-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M8" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8)</f>
+        <v>재화</v>
+      </c>
+      <c r="N8" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O8">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+2)</f>
         <v>35000</v>
       </c>
-      <c r="H8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="2"/>
+      <c r="P8" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J8">
-        <f t="shared" si="3"/>
+      <c r="R8">
+        <f t="shared" ca="1" si="4"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="str">
-        <f>VLOOKUP(A9,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="str">
+        <f>VLOOKUP(A9,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9">
+        <v/>
+      </c>
+      <c r="I9">
+        <f ca="1">IF(ISBLANK(OFFSET($H9,-($B9-1),0)),"",
+IF($B9=1,MATCH(OFFSET($H9,-($B9-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I9,-1,0)+OFFSET(K9,-1,0)
+))</f>
+        <v>21</v>
+      </c>
+      <c r="J9">
+        <f ca="1">IF($B9=1,8,
+IF(OFFSET(K9,-1,0)=1,8,
+OFFSET(J9,-1,0)+4))</f>
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <f ca="1">IF($J9-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M9" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9)</f>
+        <v>재화</v>
+      </c>
+      <c r="N9" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O9">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+2)</f>
         <v>200</v>
       </c>
-      <c r="H9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="2"/>
+      <c r="P9" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J9">
-        <f t="shared" si="3"/>
+      <c r="R9">
+        <f t="shared" ca="1" si="4"/>
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="str">
-        <f>VLOOKUP(A10,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="str">
+        <f>VLOOKUP(A10,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D16" ca="1" si="4">IF(ISBLANK(E10),"",
+        <f t="shared" ref="D10:D16" ca="1" si="5">IF(ISBLANK(E10),"",
 VLOOKUP(E10,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10">
+        <v/>
+      </c>
+      <c r="I10">
+        <f ca="1">IF(ISBLANK(OFFSET($H10,-($B10-1),0)),"",
+IF($B10=1,MATCH(OFFSET($H10,-($B10-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I10,-1,0)+OFFSET(K10,-1,0)
+))</f>
+        <v>22</v>
+      </c>
+      <c r="J10">
+        <f ca="1">IF($B10=1,8,
+IF(OFFSET(K10,-1,0)=1,8,
+OFFSET(J10,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <f ca="1">IF($J10-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M10" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10)</f>
+        <v>재화</v>
+      </c>
+      <c r="N10" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O10">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+2)</f>
         <v>150</v>
       </c>
-      <c r="H10" t="str">
-        <f t="shared" ref="H10:H16" ca="1" si="5">IF(LEN(D10)=0,"",D10)</f>
-        <v>cu</v>
-      </c>
-      <c r="I10" t="str">
-        <f t="shared" ref="I10:I16" si="6">IF(LEN(F10)=0,"",F10)</f>
+      <c r="P10" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J10">
-        <f t="shared" ref="J10:J16" si="7">IF(LEN(G10)=0,"",G10)</f>
+      <c r="R10">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="str">
-        <f>VLOOKUP(A11,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(A11,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
       <c r="D11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="I11">
+        <f ca="1">IF(ISBLANK(OFFSET($H11,-($B11-1),0)),"",
+IF($B11=1,MATCH(OFFSET($H11,-($B11-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I11,-1,0)+OFFSET(K11,-1,0)
+))</f>
+        <v>22</v>
+      </c>
+      <c r="J11">
+        <f ca="1">IF($B11=1,8,
+IF(OFFSET(K11,-1,0)=1,8,
+OFFSET(J11,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K11">
+        <f ca="1">IF($J11-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M11" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11)</f>
+        <v>재화</v>
+      </c>
+      <c r="N11" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O11">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+2)</f>
+        <v>20000</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>GO</v>
+      </c>
+      <c r="R11">
         <f t="shared" ca="1" si="4"/>
-        <v>cu</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11">
         <v>20000</v>
       </c>
-      <c r="H11" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="6"/>
-        <v>GO</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="7"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" t="str">
-        <f>VLOOKUP(A12,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
       <c r="D12" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="I12">
+        <f ca="1">IF(ISBLANK(OFFSET($H12,-($B12-1),0)),"",
+IF($B12=1,MATCH(OFFSET($H12,-($B12-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I12,-1,0)+OFFSET(K12,-1,0)
+))</f>
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <f ca="1">IF($B12=1,8,
+IF(OFFSET(K12,-1,0)=1,8,
+OFFSET(J12,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <f ca="1">IF($J12-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M12" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12)</f>
+        <v>재화</v>
+      </c>
+      <c r="N12" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O12">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+2)</f>
+        <v>80</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EN</v>
+      </c>
+      <c r="R12">
         <f t="shared" ca="1" si="4"/>
-        <v>cu</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12">
         <v>80</v>
       </c>
-      <c r="H12" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-      <c r="I12" t="str">
-        <f t="shared" si="6"/>
-        <v>EN</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13" t="str">
-        <f>VLOOKUP(A13,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C13">
+      <c r="D13" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="I13">
+        <f ca="1">IF(ISBLANK(OFFSET($H13,-($B13-1),0)),"",
+IF($B13=1,MATCH(OFFSET($H13,-($B13-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I13,-1,0)+OFFSET(K13,-1,0)
+))</f>
+        <v>23</v>
+      </c>
+      <c r="J13">
+        <f ca="1">IF($B13=1,8,
+IF(OFFSET(K13,-1,0)=1,8,
+OFFSET(J13,-1,0)+4))</f>
         <v>12</v>
       </c>
-      <c r="D13" t="str">
+      <c r="K13">
+        <f ca="1">IF($J13-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M13" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13)</f>
+        <v>재화</v>
+      </c>
+      <c r="N13" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O13">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+2)</f>
+        <v>10000</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>GO</v>
+      </c>
+      <c r="R13">
         <f t="shared" ca="1" si="4"/>
-        <v>cu</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13">
         <v>10000</v>
       </c>
-      <c r="H13" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="6"/>
-        <v>GO</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="7"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" t="str">
-        <f>VLOOKUP(A14,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="str">
+        <f>VLOOKUP(A14,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
       <c r="D14" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="I14">
+        <f ca="1">IF(ISBLANK(OFFSET($H14,-($B14-1),0)),"",
+IF($B14=1,MATCH(OFFSET($H14,-($B14-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I14,-1,0)+OFFSET(K14,-1,0)
+))</f>
+        <v>23</v>
+      </c>
+      <c r="J14">
+        <f ca="1">IF($B14=1,8,
+IF(OFFSET(K14,-1,0)=1,8,
+OFFSET(J14,-1,0)+4))</f>
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <f ca="1">IF($J14-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M14" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14)</f>
+        <v>재화</v>
+      </c>
+      <c r="N14" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O14">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+2)</f>
+        <v>200</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EN</v>
+      </c>
+      <c r="R14">
         <f t="shared" ca="1" si="4"/>
-        <v>cu</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14">
         <v>200</v>
       </c>
-      <c r="H14" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-      <c r="I14" t="str">
-        <f t="shared" si="6"/>
-        <v>EN</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>3</v>
       </c>
-      <c r="B15" t="str">
-        <f>VLOOKUP(A15,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="str">
+        <f>VLOOKUP(A15,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
       <c r="D15" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="I15">
+        <f ca="1">IF(ISBLANK(OFFSET($H15,-($B15-1),0)),"",
+IF($B15=1,MATCH(OFFSET($H15,-($B15-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I15,-1,0)+OFFSET(K15,-1,0)
+))</f>
+        <v>24</v>
+      </c>
+      <c r="J15">
+        <f ca="1">IF($B15=1,8,
+IF(OFFSET(K15,-1,0)=1,8,
+OFFSET(J15,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <f ca="1">IF($J15-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M15" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15)</f>
+        <v>재화</v>
+      </c>
+      <c r="N15" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O15">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+2)</f>
+        <v>300</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EN</v>
+      </c>
+      <c r="R15">
         <f t="shared" ca="1" si="4"/>
-        <v>cu</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15">
         <v>300</v>
       </c>
-      <c r="H15" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="6"/>
-        <v>EN</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="7"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-      <c r="B16" t="str">
-        <f>VLOOKUP(A16,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="str">
+        <f>VLOOKUP(A16,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C16">
-        <v>15</v>
-      </c>
       <c r="D16" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="I16">
+        <f ca="1">IF(ISBLANK(OFFSET($H16,-($B16-1),0)),"",
+IF($B16=1,MATCH(OFFSET($H16,-($B16-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I16,-1,0)+OFFSET(K16,-1,0)
+))</f>
+        <v>24</v>
+      </c>
+      <c r="J16">
+        <f ca="1">IF($B16=1,8,
+IF(OFFSET(K16,-1,0)=1,8,
+OFFSET(J16,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <f ca="1">IF($J16-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M16" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16)</f>
+        <v>재화</v>
+      </c>
+      <c r="N16" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O16">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+2)</f>
+        <v>25000</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>GO</v>
+      </c>
+      <c r="R16">
         <f t="shared" ca="1" si="4"/>
-        <v>cu</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16">
         <v>25000</v>
       </c>
-      <c r="H16" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-      <c r="I16" t="str">
-        <f t="shared" si="6"/>
-        <v>GO</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="7"/>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" t="str">
-        <f>VLOOKUP(A17,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="str">
+        <f>VLOOKUP(A17,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C17">
-        <v>16</v>
-      </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D21" ca="1" si="8">IF(ISBLANK(E17),"",
+        <f t="shared" ref="D17:D21" ca="1" si="6">IF(ISBLANK(E17),"",
 VLOOKUP(E17,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17">
+        <v/>
+      </c>
+      <c r="I17">
+        <f ca="1">IF(ISBLANK(OFFSET($H17,-($B17-1),0)),"",
+IF($B17=1,MATCH(OFFSET($H17,-($B17-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I17,-1,0)+OFFSET(K17,-1,0)
+))</f>
+        <v>24</v>
+      </c>
+      <c r="J17">
+        <f ca="1">IF($B17=1,8,
+IF(OFFSET(K17,-1,0)=1,8,
+OFFSET(J17,-1,0)+4))</f>
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <f ca="1">IF($J17-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M17" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17)</f>
+        <v>재화</v>
+      </c>
+      <c r="N17" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O17">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+2)</f>
         <v>450</v>
       </c>
-      <c r="H17" t="str">
-        <f t="shared" ref="H17:H21" ca="1" si="9">IF(LEN(D17)=0,"",D17)</f>
-        <v>cu</v>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" ref="I17:I21" si="10">IF(LEN(F17)=0,"",F17)</f>
+      <c r="P17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J17">
-        <f t="shared" ref="J17:J21" si="11">IF(LEN(G17)=0,"",G17)</f>
+      <c r="R17">
+        <f t="shared" ca="1" si="4"/>
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="str">
-        <f>VLOOKUP(A18,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="str">
+        <f>VLOOKUP(A18,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C18">
-        <v>17</v>
-      </c>
       <c r="D18" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I18">
+        <f ca="1">IF(ISBLANK(OFFSET($H18,-($B18-1),0)),"",
+IF($B18=1,MATCH(OFFSET($H18,-($B18-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I18,-1,0)+OFFSET(K18,-1,0)
+))</f>
+        <v>24</v>
+      </c>
+      <c r="J18">
+        <f ca="1">IF($B18=1,8,
+IF(OFFSET(K18,-1,0)=1,8,
+OFFSET(J18,-1,0)+4))</f>
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <f ca="1">IF($J18-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M18" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18)</f>
+        <v>재화</v>
+      </c>
+      <c r="N18" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O18">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+2)</f>
         <v>35000</v>
       </c>
-      <c r="H18" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="10"/>
+      <c r="P18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J18">
-        <f t="shared" si="11"/>
+      <c r="R18">
+        <f t="shared" ca="1" si="4"/>
         <v>35000</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19" t="str">
-        <f>VLOOKUP(A19,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(A19,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C19">
-        <v>18</v>
-      </c>
       <c r="D19" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I19">
+        <f ca="1">IF(ISBLANK(OFFSET($H19,-($B19-1),0)),"",
+IF($B19=1,MATCH(OFFSET($H19,-($B19-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I19,-1,0)+OFFSET(K19,-1,0)
+))</f>
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <f ca="1">IF($B19=1,8,
+IF(OFFSET(K19,-1,0)=1,8,
+OFFSET(J19,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <f ca="1">IF($J19-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M19" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19)</f>
+        <v>재화</v>
+      </c>
+      <c r="N19" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O19">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+2)</f>
         <v>50000</v>
       </c>
-      <c r="H19" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="10"/>
+      <c r="P19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J19">
-        <f t="shared" si="11"/>
+      <c r="R19">
+        <f t="shared" ca="1" si="4"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="str">
-        <f>VLOOKUP(A20,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(A20,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C20">
-        <v>19</v>
-      </c>
       <c r="D20" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I20">
+        <f ca="1">IF(ISBLANK(OFFSET($H20,-($B20-1),0)),"",
+IF($B20=1,MATCH(OFFSET($H20,-($B20-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I20,-1,0)+OFFSET(K20,-1,0)
+))</f>
+        <v>26</v>
+      </c>
+      <c r="J20">
+        <f ca="1">IF($B20=1,8,
+IF(OFFSET(K20,-1,0)=1,8,
+OFFSET(J20,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <f ca="1">IF($J20-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M20" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20)</f>
+        <v>재화</v>
+      </c>
+      <c r="N20" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O20">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+2)</f>
         <v>350</v>
       </c>
-      <c r="H20" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="I20" t="str">
-        <f t="shared" si="10"/>
+      <c r="P20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J20">
-        <f t="shared" si="11"/>
+      <c r="R20">
+        <f t="shared" ca="1" si="4"/>
         <v>350</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="B21" t="str">
-        <f>VLOOKUP(A21,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="str">
+        <f>VLOOKUP(A21,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="C21">
-        <v>20</v>
-      </c>
       <c r="D21" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21">
+        <f t="shared" ca="1" si="6"/>
+        <v/>
+      </c>
+      <c r="I21">
+        <f ca="1">IF(ISBLANK(OFFSET($H21,-($B21-1),0)),"",
+IF($B21=1,MATCH(OFFSET($H21,-($B21-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I21,-1,0)+OFFSET(K21,-1,0)
+))</f>
+        <v>26</v>
+      </c>
+      <c r="J21">
+        <f ca="1">IF($B21=1,8,
+IF(OFFSET(K21,-1,0)=1,8,
+OFFSET(J21,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <f ca="1">IF($J21-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>cu</v>
+      </c>
+      <c r="M21" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21)</f>
+        <v>재화</v>
+      </c>
+      <c r="N21" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O21">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+2)</f>
         <v>30000</v>
       </c>
-      <c r="H21" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="I21" t="str">
-        <f t="shared" si="10"/>
+      <c r="P21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J21">
-        <f t="shared" si="11"/>
+      <c r="R21">
+        <f t="shared" ca="1" si="4"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="str">
-        <f>VLOOKUP(A22,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="str">
+        <f>VLOOKUP(A22,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22">
+        <v/>
+      </c>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22">
+        <f ca="1">IF(ISBLANK(OFFSET($H22,-($B22-1),0)),"",
+IF($B22=1,MATCH(OFFSET($H22,-($B22-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I22,-1,0)+OFFSET(K22,-1,0)
+))</f>
+        <v>16</v>
+      </c>
+      <c r="J22">
+        <f ca="1">IF($B22=1,8,
+IF(OFFSET(K22,-1,0)=1,8,
+OFFSET(J22,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <f ca="1">IF($J22-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" ref="L22:L34" ca="1" si="7">IF(ISBLANK(M22),"",
+VLOOKUP(M22,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="M22" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22)</f>
+        <v>재화</v>
+      </c>
+      <c r="N22" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O22">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+2)</f>
         <v>30</v>
       </c>
-      <c r="H22" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I22" t="str">
-        <f t="shared" si="2"/>
+      <c r="P22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J22">
-        <f t="shared" si="3"/>
+      <c r="R22">
+        <f t="shared" ca="1" si="4"/>
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" t="str">
-        <f>VLOOKUP(A23,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(A23,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="C23">
-        <v>2</v>
       </c>
       <c r="D23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23">
+        <v/>
+      </c>
+      <c r="I23">
+        <f ca="1">IF(ISBLANK(OFFSET($H23,-($B23-1),0)),"",
+IF($B23=1,MATCH(OFFSET($H23,-($B23-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I23,-1,0)+OFFSET(K23,-1,0)
+))</f>
+        <v>16</v>
+      </c>
+      <c r="J23">
+        <f ca="1">IF($B23=1,8,
+IF(OFFSET(K23,-1,0)=1,8,
+OFFSET(J23,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <f ca="1">IF($J23-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M23" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23)</f>
+        <v>재화</v>
+      </c>
+      <c r="N23" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O23">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+2)</f>
         <v>25000</v>
       </c>
-      <c r="H23" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I23" t="str">
-        <f t="shared" si="2"/>
+      <c r="P23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J23">
-        <f t="shared" si="3"/>
+      <c r="R23">
+        <f t="shared" ca="1" si="4"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" t="str">
-        <f>VLOOKUP(A24,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="str">
+        <f>VLOOKUP(A24,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E24" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24">
+        <v/>
+      </c>
+      <c r="I24">
+        <f ca="1">IF(ISBLANK(OFFSET($H24,-($B24-1),0)),"",
+IF($B24=1,MATCH(OFFSET($H24,-($B24-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I24,-1,0)+OFFSET(K24,-1,0)
+))</f>
+        <v>16</v>
+      </c>
+      <c r="J24">
+        <f ca="1">IF($B24=1,8,
+IF(OFFSET(K24,-1,0)=1,8,
+OFFSET(J24,-1,0)+4))</f>
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <f ca="1">IF($J24-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M24" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24)</f>
+        <v>재화</v>
+      </c>
+      <c r="N24" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O24">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24+2)</f>
         <v>100</v>
       </c>
-      <c r="H24" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I24" t="str">
-        <f t="shared" si="2"/>
+      <c r="P24" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J24">
-        <f t="shared" si="3"/>
+      <c r="R24">
+        <f t="shared" ca="1" si="4"/>
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" t="str">
-        <f>VLOOKUP(A25,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="str">
+        <f>VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C25">
-        <v>4</v>
-      </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:D30" ca="1" si="12">IF(ISBLANK(E25),"",
+        <f t="shared" ref="D25:D30" ca="1" si="8">IF(ISBLANK(E25),"",
 VLOOKUP(E25,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="E25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25">
+        <v/>
+      </c>
+      <c r="I25">
+        <f ca="1">IF(ISBLANK(OFFSET($H25,-($B25-1),0)),"",
+IF($B25=1,MATCH(OFFSET($H25,-($B25-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I25,-1,0)+OFFSET(K25,-1,0)
+))</f>
+        <v>17</v>
+      </c>
+      <c r="J25">
+        <f ca="1">IF($B25=1,8,
+IF(OFFSET(K25,-1,0)=1,8,
+OFFSET(J25,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K25">
+        <f ca="1">IF($J25-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M25" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25)</f>
+        <v>재화</v>
+      </c>
+      <c r="N25" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O25">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25+2)</f>
         <v>60</v>
       </c>
-      <c r="H25" t="str">
-        <f t="shared" ref="H25:H30" ca="1" si="13">IF(LEN(D25)=0,"",D25)</f>
-        <v>cu</v>
-      </c>
-      <c r="I25" t="str">
-        <f t="shared" ref="I25:I30" si="14">IF(LEN(F25)=0,"",F25)</f>
+      <c r="P25" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J25">
-        <f t="shared" ref="J25:J30" si="15">IF(LEN(G25)=0,"",G25)</f>
+      <c r="R25">
+        <f t="shared" ca="1" si="4"/>
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" t="str">
-        <f>VLOOKUP(A26,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
       <c r="D26" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="E26" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" t="s">
-        <v>28</v>
-      </c>
-      <c r="G26">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="I26">
+        <f ca="1">IF(ISBLANK(OFFSET($H26,-($B26-1),0)),"",
+IF($B26=1,MATCH(OFFSET($H26,-($B26-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I26,-1,0)+OFFSET(K26,-1,0)
+))</f>
+        <v>17</v>
+      </c>
+      <c r="J26">
+        <f ca="1">IF($B26=1,8,
+IF(OFFSET(K26,-1,0)=1,8,
+OFFSET(J26,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <f ca="1">IF($J26-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M26" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26)</f>
+        <v>재화</v>
+      </c>
+      <c r="N26" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O26">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26+2)</f>
         <v>15000</v>
       </c>
-      <c r="H26" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>cu</v>
-      </c>
-      <c r="I26" t="str">
-        <f t="shared" si="14"/>
+      <c r="P26" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J26">
-        <f t="shared" si="15"/>
+      <c r="R26">
+        <f t="shared" ca="1" si="4"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="str">
-        <f>VLOOKUP(A27,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="str">
+        <f>VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
       <c r="D27" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="E27" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G27">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="I27">
+        <f ca="1">IF(ISBLANK(OFFSET($H27,-($B27-1),0)),"",
+IF($B27=1,MATCH(OFFSET($H27,-($B27-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I27,-1,0)+OFFSET(K27,-1,0)
+))</f>
+        <v>17</v>
+      </c>
+      <c r="J27">
+        <f ca="1">IF($B27=1,8,
+IF(OFFSET(K27,-1,0)=1,8,
+OFFSET(J27,-1,0)+4))</f>
+        <v>16</v>
+      </c>
+      <c r="K27">
+        <f ca="1">IF($J27-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M27" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27)</f>
+        <v>재화</v>
+      </c>
+      <c r="N27" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O27">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27+2)</f>
         <v>120</v>
       </c>
-      <c r="H27" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>cu</v>
-      </c>
-      <c r="I27" t="str">
-        <f t="shared" si="14"/>
+      <c r="P27" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J27">
-        <f t="shared" si="15"/>
+      <c r="R27">
+        <f t="shared" ca="1" si="4"/>
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="str">
-        <f>VLOOKUP(A28,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B28">
+        <v>7</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C28">
-        <v>7</v>
-      </c>
       <c r="D28" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="E28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="I28">
+        <f ca="1">IF(ISBLANK(OFFSET($H28,-($B28-1),0)),"",
+IF($B28=1,MATCH(OFFSET($H28,-($B28-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I28,-1,0)+OFFSET(K28,-1,0)
+))</f>
+        <v>18</v>
+      </c>
+      <c r="J28">
+        <f ca="1">IF($B28=1,8,
+IF(OFFSET(K28,-1,0)=1,8,
+OFFSET(J28,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K28">
+        <f ca="1">IF($J28-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M28" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28)</f>
+        <v>재화</v>
+      </c>
+      <c r="N28" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O28">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28+2)</f>
         <v>90</v>
       </c>
-      <c r="H28" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>cu</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="14"/>
+      <c r="P28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J28">
-        <f t="shared" si="15"/>
+      <c r="R28">
+        <f t="shared" ca="1" si="4"/>
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="str">
-        <f>VLOOKUP(A29,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>8</v>
+      </c>
+      <c r="C29" t="str">
+        <f>VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C29">
-        <v>8</v>
-      </c>
       <c r="D29" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="E29" t="s">
-        <v>27</v>
-      </c>
-      <c r="F29" t="s">
-        <v>28</v>
-      </c>
-      <c r="G29">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="I29">
+        <f ca="1">IF(ISBLANK(OFFSET($H29,-($B29-1),0)),"",
+IF($B29=1,MATCH(OFFSET($H29,-($B29-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I29,-1,0)+OFFSET(K29,-1,0)
+))</f>
+        <v>18</v>
+      </c>
+      <c r="J29">
+        <f ca="1">IF($B29=1,8,
+IF(OFFSET(K29,-1,0)=1,8,
+OFFSET(J29,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K29">
+        <f ca="1">IF($J29-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M29" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29)</f>
+        <v>재화</v>
+      </c>
+      <c r="N29" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="O29">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29+2)</f>
         <v>30000</v>
       </c>
-      <c r="H29" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>cu</v>
-      </c>
-      <c r="I29" t="str">
-        <f t="shared" si="14"/>
+      <c r="P29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="J29">
-        <f t="shared" si="15"/>
+      <c r="R29">
+        <f t="shared" ca="1" si="4"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="str">
-        <f>VLOOKUP(A30,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+        <v>17</v>
+      </c>
+      <c r="B30">
+        <v>9</v>
+      </c>
+      <c r="C30" t="str">
+        <f>VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C30">
-        <v>9</v>
-      </c>
       <c r="D30" t="str">
-        <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="E30" t="s">
-        <v>27</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
-      </c>
-      <c r="G30">
+        <f t="shared" ca="1" si="8"/>
+        <v/>
+      </c>
+      <c r="I30">
+        <f ca="1">IF(ISBLANK(OFFSET($H30,-($B30-1),0)),"",
+IF($B30=1,MATCH(OFFSET($H30,-($B30-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I30,-1,0)+OFFSET(K30,-1,0)
+))</f>
+        <v>18</v>
+      </c>
+      <c r="J30">
+        <f ca="1">IF($B30=1,8,
+IF(OFFSET(K30,-1,0)=1,8,
+OFFSET(J30,-1,0)+4))</f>
+        <v>16</v>
+      </c>
+      <c r="K30">
+        <f ca="1">IF($J30-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M30" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30)</f>
+        <v>재화</v>
+      </c>
+      <c r="N30" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O30">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30+2)</f>
         <v>150</v>
       </c>
-      <c r="H30" t="str">
-        <f t="shared" ca="1" si="13"/>
-        <v>cu</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="14"/>
+      <c r="P30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J30">
-        <f t="shared" si="15"/>
+      <c r="R30">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-      <c r="B31" t="str">
-        <f>VLOOKUP(A31,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="str">
+        <f>VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="C31">
-        <v>10</v>
-      </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31" ca="1" si="16">IF(ISBLANK(E31),"",
+        <f t="shared" ref="D31" ca="1" si="9">IF(ISBLANK(E31),"",
 VLOOKUP(E31,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="E31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F31" t="s">
-        <v>87</v>
-      </c>
-      <c r="G31">
+        <v/>
+      </c>
+      <c r="I31">
+        <f ca="1">IF(ISBLANK(OFFSET($H31,-($B31-1),0)),"",
+IF($B31=1,MATCH(OFFSET($H31,-($B31-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I31,-1,0)+OFFSET(K31,-1,0)
+))</f>
+        <v>18</v>
+      </c>
+      <c r="J31">
+        <f ca="1">IF($B31=1,8,
+IF(OFFSET(K31,-1,0)=1,8,
+OFFSET(J31,-1,0)+4))</f>
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <f ca="1">IF($J31-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M31" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31)</f>
+        <v>재화</v>
+      </c>
+      <c r="N31" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O31">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31+2)</f>
         <v>300</v>
       </c>
-      <c r="H31" t="str">
-        <f t="shared" ref="H31" ca="1" si="17">IF(LEN(D31)=0,"",D31)</f>
-        <v>cu</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" ref="I31" si="18">IF(LEN(F31)=0,"",F31)</f>
+      <c r="P31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="J31">
-        <f t="shared" ref="J31" si="19">IF(LEN(G31)=0,"",G31)</f>
+      <c r="R31">
+        <f t="shared" ca="1" si="4"/>
         <v>300</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-      <c r="B32" t="str">
-        <f>VLOOKUP(A32,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <f>VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>빅부스트 패키지1</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
       </c>
       <c r="D32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E32" t="s">
-        <v>27</v>
-      </c>
-      <c r="F32" t="s">
-        <v>28</v>
-      </c>
-      <c r="G32">
+        <v/>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="I32">
+        <f ca="1">IF(ISBLANK(OFFSET($H32,-($B32-1),0)),"",
+IF($B32=1,MATCH(OFFSET($H32,-($B32-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I32,-1,0)+OFFSET(K32,-1,0)
+))</f>
+        <v>12</v>
+      </c>
+      <c r="J32">
+        <f ca="1">IF($B32=1,8,
+IF(OFFSET(K32,-1,0)=1,8,
+OFFSET(J32,-1,0)+4))</f>
+        <v>8</v>
+      </c>
+      <c r="K32">
+        <f ca="1">IF($J32-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="L32" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M32" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32)</f>
+        <v>재화</v>
+      </c>
+      <c r="N32" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="O32">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32+2)</f>
         <v>600</v>
       </c>
-      <c r="H32" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="2"/>
+      <c r="P32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>EN</v>
+      </c>
+      <c r="R32">
+        <f t="shared" ca="1" si="4"/>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f>VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>빅부스트 패키지1</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" ref="D33" ca="1" si="10">IF(ISBLANK(E33),"",
+VLOOKUP(E33,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I33">
+        <f ca="1">IF(ISBLANK(OFFSET($H33,-($B33-1),0)),"",
+IF($B33=1,MATCH(OFFSET($H33,-($B33-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I33,-1,0)+OFFSET(K33,-1,0)
+))</f>
+        <v>12</v>
+      </c>
+      <c r="J33">
+        <f ca="1">IF($B33=1,8,
+IF(OFFSET(K33,-1,0)=1,8,
+OFFSET(J33,-1,0)+4))</f>
+        <v>12</v>
+      </c>
+      <c r="K33">
+        <f ca="1">IF($J33-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="L33" t="str">
+        <f t="shared" ref="L33" ca="1" si="11">IF(ISBLANK(M33),"",
+VLOOKUP(M33,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
+      </c>
+      <c r="M33" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33)</f>
+        <v>재화</v>
+      </c>
+      <c r="N33" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33+1)</f>
         <v>GO</v>
       </c>
-      <c r="J32">
+      <c r="O33">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33+2)</f>
+        <v>50000</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" ca="1" si="3"/>
+        <v>GO</v>
+      </c>
+      <c r="R33">
+        <f t="shared" ca="1" si="4"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="str">
+        <f>VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>올모스트 데어1</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>cu</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34">
+        <v>100</v>
+      </c>
+      <c r="I34" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($H34,-($B34-1),0)),"",
+IF($B34=1,MATCH(OFFSET($H34,-($B34-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(I34,-1,0)+OFFSET(K34,-1,0)
+))</f>
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($H34,-($B34-1),0)),"",
+IF($B34=1,8,
+IF(OFFSET(K34,-1,0)=1,8,
+OFFSET(J34,-1,0)+4)))</f>
+        <v/>
+      </c>
+      <c r="K34" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($H34,-($B34-1),0)),"",
+IF($J34-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34-1+4))=0,1,0)))</f>
+        <v/>
+      </c>
+      <c r="L34" t="str">
+        <f ca="1">IF(LEN(M34)=0,"",
+VLOOKUP(M34,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="M34" t="str">
+        <f ca="1">IF(LEN($I34)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34))</f>
+        <v/>
+      </c>
+      <c r="N34" t="str">
+        <f ca="1">IF(LEN($I34)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34))</f>
+        <v/>
+      </c>
+      <c r="O34" t="str">
+        <f ca="1">IF(LEN($I34)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34))</f>
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="Q34" t="str">
         <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="str">
-        <f>VLOOKUP(A33,EventTypeTable!A:C,MATCH(EventTypeTable!$C$1,EventTypeTable!$A$1:$C$1,0),0)</f>
-        <v>올모스트 데어1</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" t="s">
-        <v>28</v>
-      </c>
-      <c r="G33">
-        <v>400</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="2"/>
-        <v>GO</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="3"/>
-        <v>400</v>
+        <v>EN</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="4"/>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E33" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E34" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71557B5E-3184-4753-945F-5EAC95A6785A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B069BF5B-5477-4EC5-A0BF-0CB1002588DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,18 @@
   </si>
   <si>
     <t>ev1</t>
+  </si>
+  <si>
+    <t>prob|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subTriggerCondition|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온앱포즈 &amp; 홈 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -502,6 +514,7 @@
     <sheetNames>
       <sheetName val="ShopProductTable"/>
       <sheetName val="LevelPassTable"/>
+      <sheetName val="ConsumeItemTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -687,6 +700,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -989,16 +1003,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AW14"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
@@ -1013,12 +1030,15 @@
     <col min="17" max="17" width="11.125" customWidth="1" outlineLevel="1"/>
     <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="9" customWidth="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="29" max="30" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="28" width="9" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="27" customHeight="1">
+    <row r="1" spans="1:35" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1094,20 +1114,29 @@
       <c r="Y1" t="s">
         <v>84</v>
       </c>
+      <c r="Z1" t="s">
+        <v>83</v>
+      </c>
       <c r="AA1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD1" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AF1" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AG1" t="s">
         <v>26</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AI1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1140,27 +1169,27 @@
         <v>1d</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(ISBLANK($P2),"",YEAR($P2))</f>
+        <f t="shared" ref="J2:J14" si="1">IF(ISBLANK($P2),"",YEAR($P2))</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(ISBLANK($P2),"",MONTH($P2))</f>
+        <f t="shared" ref="K2:K14" si="2">IF(ISBLANK($P2),"",MONTH($P2))</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f>IF(ISBLANK($P2),"",DAY($P2))</f>
+        <f t="shared" ref="L2:L14" si="3">IF(ISBLANK($P2),"",DAY($P2))</f>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f>IF(ISBLANK($Q2),"",YEAR($Q2+1))</f>
+        <f t="shared" ref="M2:M14" si="4">IF(ISBLANK($Q2),"",YEAR($Q2+1))</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f>IF(ISBLANK($Q2),"",MONTH($Q2+1))</f>
+        <f t="shared" ref="N2:N14" si="5">IF(ISBLANK($Q2),"",MONTH($Q2+1))</f>
         <v/>
       </c>
       <c r="O2" t="str">
-        <f>IF(ISBLANK($Q2),"",DAY($Q2+1))</f>
+        <f t="shared" ref="O2:O14" si="6">IF(ISBLANK($Q2),"",DAY($Q2+1))</f>
         <v/>
       </c>
       <c r="P2" s="3"/>
@@ -1170,46 +1199,56 @@
         <v/>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2:W14" si="1">K2</f>
+        <f t="shared" ref="S2:W14" si="7">K2</f>
         <v/>
       </c>
       <c r="T2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X2" t="s">
         <v>67</v>
       </c>
       <c r="Y2" s="4">
-        <f t="shared" ref="Y2:Y5" ca="1" si="2">VLOOKUP(X2,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="Y2:AA14" ca="1" si="8">VLOOKUP(X2,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="Z2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="4">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="AD2" t="s">
         <v>39</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AF2" t="s">
         <v>64</v>
       </c>
-      <c r="AD2">
+      <c r="AG2">
         <v>0</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AI2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1220,7 +1259,7 @@
         <v>38</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E14" si="3">IF(ISBLANK(D3),"",
+        <f t="shared" ref="E3:E14" si="9">IF(ISBLANK(D3),"",
 IF(C3=VLOOKUP(D3,A:C,MATCH($C$1,$A$1:$C$1,0),0),"","타입다름"))</f>
         <v/>
       </c>
@@ -1236,76 +1275,86 @@
         <v/>
       </c>
       <c r="J3" t="str">
-        <f>IF(ISBLANK($P3),"",YEAR($P3))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f>IF(ISBLANK($P3),"",MONTH($P3))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L3" t="str">
-        <f>IF(ISBLANK($P3),"",DAY($P3))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M3" t="str">
-        <f>IF(ISBLANK($Q3),"",YEAR($Q3+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f>IF(ISBLANK($Q3),"",MONTH($Q3+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O3" t="str">
-        <f>IF(ISBLANK($Q3),"",DAY($Q3+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R14" si="4">J3</f>
+        <f t="shared" ref="R3:R14" si="10">J3</f>
         <v/>
       </c>
       <c r="S3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X3" t="s">
         <v>64</v>
       </c>
       <c r="Y3" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="Z3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA3" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AD3" t="s">
         <v>41</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AF3" t="s">
         <v>65</v>
       </c>
-      <c r="AD3">
+      <c r="AG3">
         <v>1</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AI3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1316,7 +1365,7 @@
         <v>42</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F4">
@@ -1335,27 +1384,27 @@
         <v>8d</v>
       </c>
       <c r="J4">
-        <f>IF(ISBLANK($P4),"",YEAR($P4))</f>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="K4">
-        <f>IF(ISBLANK($P4),"",MONTH($P4))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L4">
-        <f>IF(ISBLANK($P4),"",DAY($P4))</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="M4">
-        <f>IF(ISBLANK($Q4),"",YEAR($Q4+1))</f>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="N4">
-        <f>IF(ISBLANK($Q4),"",MONTH($Q4+1))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="O4">
-        <f>IF(ISBLANK($Q4),"",DAY($Q4+1))</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="P4" s="3">
@@ -1365,47 +1414,57 @@
         <v>44819</v>
       </c>
       <c r="R4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2022</v>
       </c>
       <c r="S4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="T4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="U4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2022</v>
       </c>
       <c r="V4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="W4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>16</v>
       </c>
       <c r="X4" t="s">
         <v>65</v>
       </c>
       <c r="Y4" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="Z4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="s">
         <v>43</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AF4" t="s">
         <v>66</v>
       </c>
-      <c r="AD4">
+      <c r="AG4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1416,7 +1475,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F5">
@@ -1435,27 +1494,27 @@
         <v>2d</v>
       </c>
       <c r="J5">
-        <f>IF(ISBLANK($P5),"",YEAR($P5))</f>
+        <f t="shared" si="1"/>
         <v>2022</v>
       </c>
       <c r="K5">
-        <f>IF(ISBLANK($P5),"",MONTH($P5))</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="L5">
-        <f>IF(ISBLANK($P5),"",DAY($P5))</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="M5">
-        <f>IF(ISBLANK($Q5),"",YEAR($Q5+1))</f>
+        <f t="shared" si="4"/>
         <v>2022</v>
       </c>
       <c r="N5">
-        <f>IF(ISBLANK($Q5),"",MONTH($Q5+1))</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="O5">
-        <f>IF(ISBLANK($Q5),"",DAY($Q5+1))</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="P5" s="3">
@@ -1465,47 +1524,57 @@
         <v>44831</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>2022</v>
       </c>
       <c r="S5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="T5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>12</v>
       </c>
       <c r="U5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>2022</v>
       </c>
       <c r="V5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="W5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="X5" t="s">
         <v>65</v>
       </c>
       <c r="Y5" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="Z5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="s">
         <v>51</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AF5" t="s">
         <v>67</v>
       </c>
-      <c r="AD5">
+      <c r="AG5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1582,7 @@
         <v>50</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F6">
@@ -1528,60 +1597,67 @@
         <v/>
       </c>
       <c r="J6" t="str">
-        <f>IF(ISBLANK($P6),"",YEAR($P6))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF(ISBLANK($P6),"",MONTH($P6))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f>IF(ISBLANK($P6),"",DAY($P6))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M6" t="str">
-        <f>IF(ISBLANK($Q6),"",YEAR($Q6+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f>IF(ISBLANK($Q6),"",MONTH($Q6+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O6" t="str">
-        <f>IF(ISBLANK($Q6),"",DAY($Q6+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA6" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA6" s="4"/>
+      <c r="AD6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AF6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +1665,7 @@
         <v>52</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F7">
@@ -1604,60 +1680,61 @@
         <v/>
       </c>
       <c r="J7" t="str">
-        <f>IF(ISBLANK($P7),"",YEAR($P7))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF(ISBLANK($P7),"",MONTH($P7))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f>IF(ISBLANK($P7),"",DAY($P7))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f>IF(ISBLANK($Q7),"",YEAR($Q7+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f>IF(ISBLANK($Q7),"",MONTH($Q7+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O7" t="str">
-        <f>IF(ISBLANK($Q7),"",DAY($Q7+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA7" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA7" s="4"/>
+      <c r="AD7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +1742,7 @@
         <v>55</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F8">
@@ -1680,65 +1757,66 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <f>IF(ISBLANK($P8),"",YEAR($P8))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IF(ISBLANK($P8),"",MONTH($P8))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f>IF(ISBLANK($P8),"",DAY($P8))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M8" t="str">
-        <f>IF(ISBLANK($Q8),"",YEAR($Q8+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f>IF(ISBLANK($Q8),"",MONTH($Q8+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O8" t="str">
-        <f>IF(ISBLANK($Q8),"",DAY($Q8+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA8" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA8" s="4"/>
+      <c r="AD8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F9">
@@ -1753,65 +1831,66 @@
         <v/>
       </c>
       <c r="J9" t="str">
-        <f>IF(ISBLANK($P9),"",YEAR($P9))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IF(ISBLANK($P9),"",MONTH($P9))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f>IF(ISBLANK($P9),"",DAY($P9))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M9" t="str">
-        <f>IF(ISBLANK($Q9),"",YEAR($Q9+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f>IF(ISBLANK($Q9),"",MONTH($Q9+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O9" t="str">
-        <f>IF(ISBLANK($Q9),"",DAY($Q9+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA9" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA9" s="4"/>
+      <c r="AD9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F10">
@@ -1826,65 +1905,66 @@
         <v/>
       </c>
       <c r="J10" t="str">
-        <f>IF(ISBLANK($P10),"",YEAR($P10))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IF(ISBLANK($P10),"",MONTH($P10))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f>IF(ISBLANK($P10),"",DAY($P10))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M10" t="str">
-        <f>IF(ISBLANK($Q10),"",YEAR($Q10+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f>IF(ISBLANK($Q10),"",MONTH($Q10+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O10" t="str">
-        <f>IF(ISBLANK($Q10),"",DAY($Q10+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA10" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA10" s="4"/>
+      <c r="AD10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F11">
@@ -1899,60 +1979,61 @@
         <v/>
       </c>
       <c r="J11" t="str">
-        <f>IF(ISBLANK($P11),"",YEAR($P11))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f>IF(ISBLANK($P11),"",MONTH($P11))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f>IF(ISBLANK($P11),"",DAY($P11))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M11" t="str">
-        <f>IF(ISBLANK($Q11),"",YEAR($Q11+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N11" t="str">
-        <f>IF(ISBLANK($Q11),"",MONTH($Q11+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O11" t="str">
-        <f>IF(ISBLANK($Q11),"",DAY($Q11+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA11" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA11" s="4"/>
+      <c r="AD11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1963,7 +2044,7 @@
         <v>40</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F12">
@@ -1979,65 +2060,66 @@
         <v/>
       </c>
       <c r="J12" t="str">
-        <f>IF(ISBLANK($P12),"",YEAR($P12))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IF(ISBLANK($P12),"",MONTH($P12))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f>IF(ISBLANK($P12),"",DAY($P12))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M12" t="str">
-        <f>IF(ISBLANK($Q12),"",YEAR($Q12+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N12" t="str">
-        <f>IF(ISBLANK($Q12),"",MONTH($Q12+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O12" t="str">
-        <f>IF(ISBLANK($Q12),"",DAY($Q12+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA12" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA12" s="4"/>
+      <c r="AD12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F13">
@@ -2052,60 +2134,61 @@
         <v/>
       </c>
       <c r="J13" t="str">
-        <f>IF(ISBLANK($P13),"",YEAR($P13))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f>IF(ISBLANK($P13),"",MONTH($P13))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f>IF(ISBLANK($P13),"",DAY($P13))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M13" t="str">
-        <f>IF(ISBLANK($Q13),"",YEAR($Q13+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N13" t="str">
-        <f>IF(ISBLANK($Q13),"",MONTH($Q13+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O13" t="str">
-        <f>IF(ISBLANK($Q13),"",DAY($Q13+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="AA13" t="s">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA13" s="4"/>
+      <c r="AD13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2113,7 +2196,7 @@
         <v>63</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F14">
@@ -2128,55 +2211,56 @@
         <v/>
       </c>
       <c r="J14" t="str">
-        <f>IF(ISBLANK($P14),"",YEAR($P14))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f>IF(ISBLANK($P14),"",MONTH($P14))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f>IF(ISBLANK($P14),"",DAY($P14))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M14" t="str">
-        <f>IF(ISBLANK($Q14),"",YEAR($Q14+1))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f>IF(ISBLANK($Q14),"",MONTH($Q14+1))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O14" t="str">
-        <f>IF(ISBLANK($Q14),"",DAY($Q14+1))</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="S14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="U14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AA14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2186,7 +2270,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5 C2:C14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5 C2:C14 Z2:Z14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2197,25 +2281,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="3" width="24.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="24.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="23.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" collapsed="1"/>
+    <col min="20" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="22" max="22" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
@@ -2308,7 +2394,7 @@
         <v>19</v>
       </c>
       <c r="J2">
-        <f ca="1">IF($B2=1,8,
+        <f t="shared" ref="J2:J33" ca="1" si="1">IF($B2=1,8,
 IF(OFFSET(K2,-1,0)=1,8,
 OFFSET(J2,-1,0)+4))</f>
         <v>8</v>
@@ -2381,9 +2467,7 @@
         <v>19</v>
       </c>
       <c r="J3">
-        <f ca="1">IF($B3=1,8,
-IF(OFFSET(K3,-1,0)=1,8,
-OFFSET(J3,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K3">
@@ -2392,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ref="L3:L21" ca="1" si="1">IF(ISBLANK(M3),"",
+        <f t="shared" ref="L3:L21" ca="1" si="2">IF(ISBLANK(M3),"",
 VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -2410,17 +2494,17 @@
         <v>35000</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ref="P3:P34" ca="1" si="2">IF(LEN(D3)&lt;&gt;0,D3,
+        <f t="shared" ref="P3:P34" ca="1" si="3">IF(LEN(D3)&lt;&gt;0,D3,
 IF(LEN(L3)&lt;&gt;0,L3,""))</f>
         <v>cu</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q34" ca="1" si="3">IF(LEN(F3)&lt;&gt;0,F3,
+        <f t="shared" ref="Q3:Q34" ca="1" si="4">IF(LEN(F3)&lt;&gt;0,F3,
 IF(LEN(N3)&lt;&gt;0,N3,""))</f>
         <v>GO</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R34" ca="1" si="4">IF(LEN(G3)&lt;&gt;0,G3,
+        <f t="shared" ref="R3:R34" ca="1" si="5">IF(LEN(G3)&lt;&gt;0,G3,
 IF(LEN(O3)&lt;&gt;0,O3,""))</f>
         <v>35000</v>
       </c>
@@ -2454,9 +2538,7 @@
         <v>19</v>
       </c>
       <c r="J4">
-        <f ca="1">IF($B4=1,8,
-IF(OFFSET(K4,-1,0)=1,8,
-OFFSET(J4,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="K4">
@@ -2465,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M4" t="str">
@@ -2481,15 +2563,15 @@
         <v>170</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R4">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>170</v>
       </c>
     </row>
@@ -2516,9 +2598,7 @@
         <v>20</v>
       </c>
       <c r="J5">
-        <f ca="1">IF($B5=1,8,
-IF(OFFSET(K5,-1,0)=1,8,
-OFFSET(J5,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K5">
@@ -2527,7 +2607,7 @@
         <v>1</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M5" t="str">
@@ -2543,15 +2623,15 @@
         <v>150</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R5">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>150</v>
       </c>
     </row>
@@ -2578,9 +2658,7 @@
         <v>21</v>
       </c>
       <c r="J6">
-        <f ca="1">IF($B6=1,8,
-IF(OFFSET(K6,-1,0)=1,8,
-OFFSET(J6,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K6">
@@ -2589,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M6" t="str">
@@ -2605,15 +2683,15 @@
         <v>20000</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R6">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>20000</v>
       </c>
     </row>
@@ -2640,9 +2718,7 @@
         <v>21</v>
       </c>
       <c r="J7">
-        <f ca="1">IF($B7=1,8,
-IF(OFFSET(K7,-1,0)=1,8,
-OFFSET(J7,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K7">
@@ -2651,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M7" t="str">
@@ -2667,15 +2743,15 @@
         <v>150</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R7">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>150</v>
       </c>
     </row>
@@ -2702,9 +2778,7 @@
         <v>21</v>
       </c>
       <c r="J8">
-        <f ca="1">IF($B8=1,8,
-IF(OFFSET(K8,-1,0)=1,8,
-OFFSET(J8,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="K8">
@@ -2713,7 +2787,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M8" t="str">
@@ -2729,15 +2803,15 @@
         <v>35000</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R8">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>35000</v>
       </c>
     </row>
@@ -2764,9 +2838,7 @@
         <v>21</v>
       </c>
       <c r="J9">
-        <f ca="1">IF($B9=1,8,
-IF(OFFSET(K9,-1,0)=1,8,
-OFFSET(J9,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="K9">
@@ -2775,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M9" t="str">
@@ -2791,15 +2863,15 @@
         <v>200</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R9">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -2815,7 +2887,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D16" ca="1" si="5">IF(ISBLANK(E10),"",
+        <f t="shared" ref="D10:D16" ca="1" si="6">IF(ISBLANK(E10),"",
 VLOOKUP(E10,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -2828,9 +2900,7 @@
         <v>22</v>
       </c>
       <c r="J10">
-        <f ca="1">IF($B10=1,8,
-IF(OFFSET(K10,-1,0)=1,8,
-OFFSET(J10,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K10">
@@ -2839,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M10" t="str">
@@ -2855,15 +2925,15 @@
         <v>150</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>150</v>
       </c>
     </row>
@@ -2879,7 +2949,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I11">
@@ -2890,9 +2960,7 @@
         <v>22</v>
       </c>
       <c r="J11">
-        <f ca="1">IF($B11=1,8,
-IF(OFFSET(K11,-1,0)=1,8,
-OFFSET(J11,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K11">
@@ -2901,7 +2969,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M11" t="str">
@@ -2917,15 +2985,15 @@
         <v>20000</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R11">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>20000</v>
       </c>
     </row>
@@ -2941,7 +3009,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I12">
@@ -2952,9 +3020,7 @@
         <v>23</v>
       </c>
       <c r="J12">
-        <f ca="1">IF($B12=1,8,
-IF(OFFSET(K12,-1,0)=1,8,
-OFFSET(J12,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K12">
@@ -2963,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M12" t="str">
@@ -2979,15 +3045,15 @@
         <v>80</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -3003,7 +3069,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I13">
@@ -3014,9 +3080,7 @@
         <v>23</v>
       </c>
       <c r="J13">
-        <f ca="1">IF($B13=1,8,
-IF(OFFSET(K13,-1,0)=1,8,
-OFFSET(J13,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K13">
@@ -3025,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M13" t="str">
@@ -3041,15 +3105,15 @@
         <v>10000</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>10000</v>
       </c>
     </row>
@@ -3065,7 +3129,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I14">
@@ -3076,9 +3140,7 @@
         <v>23</v>
       </c>
       <c r="J14">
-        <f ca="1">IF($B14=1,8,
-IF(OFFSET(K14,-1,0)=1,8,
-OFFSET(J14,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="K14">
@@ -3087,7 +3149,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M14" t="str">
@@ -3103,15 +3165,15 @@
         <v>200</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R14">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>200</v>
       </c>
     </row>
@@ -3127,7 +3189,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I15">
@@ -3138,9 +3200,7 @@
         <v>24</v>
       </c>
       <c r="J15">
-        <f ca="1">IF($B15=1,8,
-IF(OFFSET(K15,-1,0)=1,8,
-OFFSET(J15,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K15">
@@ -3149,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M15" t="str">
@@ -3165,15 +3225,15 @@
         <v>300</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>300</v>
       </c>
     </row>
@@ -3189,7 +3249,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="I16">
@@ -3200,9 +3260,7 @@
         <v>24</v>
       </c>
       <c r="J16">
-        <f ca="1">IF($B16=1,8,
-IF(OFFSET(K16,-1,0)=1,8,
-OFFSET(J16,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K16">
@@ -3211,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M16" t="str">
@@ -3227,15 +3285,15 @@
         <v>25000</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R16">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>25000</v>
       </c>
     </row>
@@ -3251,7 +3309,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D21" ca="1" si="6">IF(ISBLANK(E17),"",
+        <f t="shared" ref="D17:D21" ca="1" si="7">IF(ISBLANK(E17),"",
 VLOOKUP(E17,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -3264,9 +3322,7 @@
         <v>24</v>
       </c>
       <c r="J17">
-        <f ca="1">IF($B17=1,8,
-IF(OFFSET(K17,-1,0)=1,8,
-OFFSET(J17,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="K17">
@@ -3275,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M17" t="str">
@@ -3291,15 +3347,15 @@
         <v>450</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R17">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>450</v>
       </c>
     </row>
@@ -3315,7 +3371,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="I18">
@@ -3326,9 +3382,7 @@
         <v>24</v>
       </c>
       <c r="J18">
-        <f ca="1">IF($B18=1,8,
-IF(OFFSET(K18,-1,0)=1,8,
-OFFSET(J18,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="K18">
@@ -3337,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M18" t="str">
@@ -3353,15 +3407,15 @@
         <v>35000</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R18">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>35000</v>
       </c>
     </row>
@@ -3377,7 +3431,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="I19">
@@ -3388,9 +3442,7 @@
         <v>25</v>
       </c>
       <c r="J19">
-        <f ca="1">IF($B19=1,8,
-IF(OFFSET(K19,-1,0)=1,8,
-OFFSET(J19,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K19">
@@ -3399,7 +3451,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M19" t="str">
@@ -3415,15 +3467,15 @@
         <v>50000</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -3439,7 +3491,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="I20">
@@ -3450,9 +3502,7 @@
         <v>26</v>
       </c>
       <c r="J20">
-        <f ca="1">IF($B20=1,8,
-IF(OFFSET(K20,-1,0)=1,8,
-OFFSET(J20,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K20">
@@ -3461,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M20" t="str">
@@ -3477,15 +3527,15 @@
         <v>350</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R20">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>350</v>
       </c>
     </row>
@@ -3501,7 +3551,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
       <c r="I21">
@@ -3512,9 +3562,7 @@
         <v>26</v>
       </c>
       <c r="J21">
-        <f ca="1">IF($B21=1,8,
-IF(OFFSET(K21,-1,0)=1,8,
-OFFSET(J21,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K21">
@@ -3523,7 +3571,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
       <c r="M21" t="str">
@@ -3539,15 +3587,15 @@
         <v>30000</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R21">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>30000</v>
       </c>
     </row>
@@ -3577,9 +3625,7 @@
         <v>16</v>
       </c>
       <c r="J22">
-        <f ca="1">IF($B22=1,8,
-IF(OFFSET(K22,-1,0)=1,8,
-OFFSET(J22,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K22">
@@ -3588,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" ref="L22:L34" ca="1" si="7">IF(ISBLANK(M22),"",
+        <f t="shared" ref="L22:L32" ca="1" si="8">IF(ISBLANK(M22),"",
 VLOOKUP(M22,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -3606,15 +3652,15 @@
         <v>30</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R22">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>30</v>
       </c>
     </row>
@@ -3641,9 +3687,7 @@
         <v>16</v>
       </c>
       <c r="J23">
-        <f ca="1">IF($B23=1,8,
-IF(OFFSET(K23,-1,0)=1,8,
-OFFSET(J23,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K23">
@@ -3652,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M23" t="str">
@@ -3668,15 +3712,15 @@
         <v>25000</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R23">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>25000</v>
       </c>
     </row>
@@ -3703,9 +3747,7 @@
         <v>16</v>
       </c>
       <c r="J24">
-        <f ca="1">IF($B24=1,8,
-IF(OFFSET(K24,-1,0)=1,8,
-OFFSET(J24,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="K24">
@@ -3714,7 +3756,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M24" t="str">
@@ -3730,15 +3772,15 @@
         <v>100</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R24">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>100</v>
       </c>
     </row>
@@ -3754,7 +3796,7 @@
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ref="D25:D30" ca="1" si="8">IF(ISBLANK(E25),"",
+        <f t="shared" ref="D25:D30" ca="1" si="9">IF(ISBLANK(E25),"",
 VLOOKUP(E25,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -3767,9 +3809,7 @@
         <v>17</v>
       </c>
       <c r="J25">
-        <f ca="1">IF($B25=1,8,
-IF(OFFSET(K25,-1,0)=1,8,
-OFFSET(J25,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K25">
@@ -3778,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M25" t="str">
@@ -3794,15 +3834,15 @@
         <v>60</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R25">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>60</v>
       </c>
     </row>
@@ -3818,7 +3858,7 @@
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I26">
@@ -3829,9 +3869,7 @@
         <v>17</v>
       </c>
       <c r="J26">
-        <f ca="1">IF($B26=1,8,
-IF(OFFSET(K26,-1,0)=1,8,
-OFFSET(J26,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K26">
@@ -3840,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M26" t="str">
@@ -3856,15 +3894,15 @@
         <v>15000</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R26">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>15000</v>
       </c>
     </row>
@@ -3880,7 +3918,7 @@
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I27">
@@ -3891,9 +3929,7 @@
         <v>17</v>
       </c>
       <c r="J27">
-        <f ca="1">IF($B27=1,8,
-IF(OFFSET(K27,-1,0)=1,8,
-OFFSET(J27,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="K27">
@@ -3902,7 +3938,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M27" t="str">
@@ -3918,15 +3954,15 @@
         <v>120</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R27">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>120</v>
       </c>
     </row>
@@ -3942,7 +3978,7 @@
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I28">
@@ -3953,9 +3989,7 @@
         <v>18</v>
       </c>
       <c r="J28">
-        <f ca="1">IF($B28=1,8,
-IF(OFFSET(K28,-1,0)=1,8,
-OFFSET(J28,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K28">
@@ -3964,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M28" t="str">
@@ -3980,15 +4014,15 @@
         <v>90</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R28">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>90</v>
       </c>
     </row>
@@ -4004,7 +4038,7 @@
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I29">
@@ -4015,9 +4049,7 @@
         <v>18</v>
       </c>
       <c r="J29">
-        <f ca="1">IF($B29=1,8,
-IF(OFFSET(K29,-1,0)=1,8,
-OFFSET(J29,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K29">
@@ -4026,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M29" t="str">
@@ -4042,15 +4074,15 @@
         <v>30000</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R29">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>30000</v>
       </c>
     </row>
@@ -4066,7 +4098,7 @@
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="I30">
@@ -4077,9 +4109,7 @@
         <v>18</v>
       </c>
       <c r="J30">
-        <f ca="1">IF($B30=1,8,
-IF(OFFSET(K30,-1,0)=1,8,
-OFFSET(J30,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>16</v>
       </c>
       <c r="K30">
@@ -4088,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M30" t="str">
@@ -4104,15 +4134,15 @@
         <v>150</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R30">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>150</v>
       </c>
     </row>
@@ -4128,7 +4158,7 @@
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ref="D31" ca="1" si="9">IF(ISBLANK(E31),"",
+        <f t="shared" ref="D31" ca="1" si="10">IF(ISBLANK(E31),"",
 VLOOKUP(E31,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -4141,9 +4171,7 @@
         <v>18</v>
       </c>
       <c r="J31">
-        <f ca="1">IF($B31=1,8,
-IF(OFFSET(K31,-1,0)=1,8,
-OFFSET(J31,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
       <c r="K31">
@@ -4152,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M31" t="str">
@@ -4168,15 +4196,15 @@
         <v>300</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R31">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>300</v>
       </c>
     </row>
@@ -4206,9 +4234,7 @@
         <v>12</v>
       </c>
       <c r="J32">
-        <f ca="1">IF($B32=1,8,
-IF(OFFSET(K32,-1,0)=1,8,
-OFFSET(J32,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>8</v>
       </c>
       <c r="K32">
@@ -4217,7 +4243,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="M32" t="str">
@@ -4233,15 +4259,15 @@
         <v>600</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>EN</v>
       </c>
       <c r="R32">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>600</v>
       </c>
     </row>
@@ -4257,7 +4283,7 @@
         <v>빅부스트 패키지1</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" ref="D33" ca="1" si="10">IF(ISBLANK(E33),"",
+        <f t="shared" ref="D33" ca="1" si="11">IF(ISBLANK(E33),"",
 VLOOKUP(E33,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -4270,9 +4296,7 @@
         <v>12</v>
       </c>
       <c r="J33">
-        <f ca="1">IF($B33=1,8,
-IF(OFFSET(K33,-1,0)=1,8,
-OFFSET(J33,-1,0)+4))</f>
+        <f t="shared" ca="1" si="1"/>
         <v>12</v>
       </c>
       <c r="K33">
@@ -4281,7 +4305,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" ref="L33" ca="1" si="11">IF(ISBLANK(M33),"",
+        <f t="shared" ref="L33" ca="1" si="12">IF(ISBLANK(M33),"",
 VLOOKUP(M33,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
@@ -4299,15 +4323,15 @@
         <v>50000</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="4"/>
         <v>GO</v>
       </c>
       <c r="R33">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>50000</v>
       </c>
     </row>
@@ -4377,15 +4401,15 @@
         <v/>
       </c>
       <c r="P34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="3"/>
         <v>cu</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>EN</v>
       </c>
       <c r="R34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B069BF5B-5477-4EC5-A0BF-0CB1002588DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0FC992-1D13-4AF1-BF3B-00151CD726D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,6 +408,18 @@
   </si>
   <si>
     <t>온앱포즈 &amp; 홈 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evCool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredAccumulatedTime값연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1003,13 +1015,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K6" sqref="K6"/>
+      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1032,13 +1044,14 @@
     <col min="25" max="25" width="9" customWidth="1"/>
     <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
     <col min="27" max="28" width="9" customWidth="1"/>
-    <col min="30" max="30" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="29" max="30" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="26.5" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="27" customHeight="1">
+    <row r="1" spans="1:39" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1123,20 +1136,29 @@
       <c r="AB1" t="s">
         <v>96</v>
       </c>
+      <c r="AC1" t="s">
+        <v>101</v>
+      </c>
       <c r="AD1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF1" t="s">
         <v>37</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>85</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AM1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1235,20 +1257,34 @@
       <c r="AB2" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AC2" t="str">
+        <f>AD2</f>
+        <v>"ev1":86400</v>
+      </c>
+      <c r="AD2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;H2</f>
+        <v>"ev1":86400</v>
+      </c>
+      <c r="AF2" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>0</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AK2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AM2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(AC1,COUNTA(AC:AC)-1,0),1)=",",SUBSTITUTE(OFFSET(AC1,COUNTA(AC:AC)-1,0),",","",1),OFFSET(AC1,COUNTA(AC:AC)-1,0))
+&amp;"}"</f>
+        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1269,6 +1305,9 @@
       <c r="G3" t="str">
         <f t="shared" si="0"/>
         <v>5m</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
@@ -1341,20 +1380,28 @@
       <c r="AB3" s="4">
         <v>0.5</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AC3" t="str">
+        <f>AC2&amp;","&amp;AD3</f>
+        <v>"ev1":86400,"ev2":0</v>
+      </c>
+      <c r="AD3" t="str">
+        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;H3</f>
+        <v>"ev2":0</v>
+      </c>
+      <c r="AF3" t="s">
         <v>41</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>65</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>1</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AK3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1454,17 +1501,25 @@
       <c r="AB4" s="4">
         <v>1</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" t="str">
+        <f t="shared" ref="AC4:AC14" si="11">AC3&amp;","&amp;AD4</f>
+        <v>"ev1":86400,"ev2":0,"ev3":691200</v>
+      </c>
+      <c r="AD4" t="str">
+        <f t="shared" ref="AD4:AD14" si="12">""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;H4</f>
+        <v>"ev3":691200</v>
+      </c>
+      <c r="AF4" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>66</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1564,17 +1619,25 @@
       <c r="AB5" s="4">
         <v>1</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AC5" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800</v>
+      </c>
+      <c r="AD5" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev4":172800</v>
+      </c>
+      <c r="AF5" t="s">
         <v>51</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>67</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1591,6 +1654,9 @@
       <c r="G6" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -1647,17 +1713,25 @@
         <v/>
       </c>
       <c r="AA6" s="4"/>
-      <c r="AD6" t="s">
+      <c r="AC6" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0</v>
+      </c>
+      <c r="AD6" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev5":0</v>
+      </c>
+      <c r="AF6" t="s">
         <v>56</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>98</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1674,6 +1748,9 @@
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -1730,11 +1807,19 @@
         <v/>
       </c>
       <c r="AA7" s="4"/>
-      <c r="AD7" t="s">
+      <c r="AC7" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0</v>
+      </c>
+      <c r="AD7" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev6":0</v>
+      </c>
+      <c r="AF7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1751,6 +1836,9 @@
       <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
@@ -1807,11 +1895,19 @@
         <v/>
       </c>
       <c r="AA8" s="4"/>
-      <c r="AD8" t="s">
+      <c r="AC8" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev7":0</v>
+      </c>
+      <c r="AF8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1825,6 +1921,9 @@
       <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -1881,11 +1980,19 @@
         <v/>
       </c>
       <c r="AA9" s="4"/>
-      <c r="AD9" t="s">
+      <c r="AC9" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0</v>
+      </c>
+      <c r="AD9" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev8":0</v>
+      </c>
+      <c r="AF9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1899,6 +2006,9 @@
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -1955,11 +2065,19 @@
         <v/>
       </c>
       <c r="AA10" s="4"/>
-      <c r="AD10" t="s">
+      <c r="AC10" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0</v>
+      </c>
+      <c r="AD10" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev9":0</v>
+      </c>
+      <c r="AF10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1973,6 +2091,9 @@
       <c r="G11" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -2029,11 +2150,19 @@
         <v/>
       </c>
       <c r="AA11" s="4"/>
-      <c r="AD11" t="s">
+      <c r="AC11" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
+      </c>
+      <c r="AD11" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev10":0</v>
+      </c>
+      <c r="AF11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2054,6 +2183,9 @@
       <c r="G12" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -2110,11 +2242,19 @@
         <v/>
       </c>
       <c r="AA12" s="4"/>
-      <c r="AD12" t="s">
+      <c r="AC12" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
+      </c>
+      <c r="AD12" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev11":0</v>
+      </c>
+      <c r="AF12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2128,6 +2268,9 @@
       <c r="G13" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -2184,11 +2327,19 @@
         <v/>
       </c>
       <c r="AA13" s="4"/>
-      <c r="AD13" t="s">
+      <c r="AC13" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
+      </c>
+      <c r="AD13" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev12":0</v>
+      </c>
+      <c r="AF13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2205,6 +2356,9 @@
       <c r="G14" t="str">
         <f t="shared" si="0"/>
         <v>7m</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -2261,6 +2415,14 @@
         <v/>
       </c>
       <c r="AA14" s="4"/>
+      <c r="AC14" t="str">
+        <f t="shared" si="11"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+      </c>
+      <c r="AD14" t="str">
+        <f t="shared" si="12"/>
+        <v>"ev13":0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0FC992-1D13-4AF1-BF3B-00151CD726D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17427FA9-5BF3-4DAE-BC13-1C8B39842B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ev12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하드코딩. 프로그램이 제어</t>
   </si>
   <si>
@@ -289,10 +285,6 @@
     <t>스핀 다 소모</t>
   </si>
   <si>
-    <t>referEvent|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,22 +357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>refer검증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>productId연결</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Ev4_Conti1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ev3_OneOfThree1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,9 +373,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BigBoost</t>
-  </si>
-  <si>
     <t>ev1</t>
   </si>
   <si>
@@ -420,6 +397,34 @@
   </si>
   <si>
     <t>requiredAccumulatedTime값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneofthree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneplustwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventSub|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev4_conti_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev3_oneofthree_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_bigboost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,177 +542,132 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>Research0</v>
+            <v>test_levelpass</v>
           </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>Research5</v>
+            <v>test_bigboost</v>
           </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>Research15</v>
+            <v>ev5_oneplustwo_1</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Research25</v>
+            <v>ev5_oneplustwo_2</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Research35</v>
+            <v>ev5_oneplustwo_3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Research45</v>
+            <v>ev3_oneofthree_1</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Research55</v>
+            <v>ev3_oneofthree_2</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Research65</v>
+            <v>ev3_oneofthree_3</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Research75</v>
+            <v>ev4_conti_1</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>LevelPass</v>
+            <v>ev4_conti_2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>BigBoost</v>
+            <v>ev4_conti_3</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>Ev5_OnePlusTwo1</v>
+            <v>ev4_conti_4</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>Ev5_OnePlusTwo2</v>
+            <v>ev4_conti_5</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>Ev5_OnePlusTwo3</v>
+            <v>ev4_conti_6</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>Ev3_OneOfThree1</v>
+            <v>ev4_conti_7</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>Ev3_OneOfThree2</v>
+            <v>ev4_conti_8</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>Ev3_OneOfThree3</v>
+            <v>ev6_disco_1</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>Ev4_Conti1</v>
+            <v>ev6_disco_2</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>Ev4_Conti2</v>
+            <v>ev6_disco_3</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>Ev4_Conti3</v>
+            <v>ev6_disco_4</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>Ev4_Conti4</v>
+            <v>ev7_summer_1</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>Ev4_Conti5</v>
+            <v>ev7_summer_2</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>Ev4_Conti6</v>
+            <v>ev7_summer_3</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>Ev4_Conti7</v>
+            <v>ev7_summer_4</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>Ev4_Conti8</v>
+            <v>ev7_summer_5</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>Ev6_Disco1</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Ev6_Disco2</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Ev6_Disco3</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>Ev6_Disco4</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>Ev7_Summer1</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Ev7_Summer2</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>Ev7_Summer3</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>Ev7_Summer4</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>Ev7_Summer5</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>Ev7_Summer6</v>
+            <v>ev7_summer_6</v>
           </cell>
         </row>
       </sheetData>
@@ -1015,43 +975,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AM14"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH2" sqref="AH2"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="3.875" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="4.125" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="3.625" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="11.75" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="11.125" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1"/>
-    <col min="26" max="26" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="28" width="9" customWidth="1"/>
-    <col min="29" max="30" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="3.875" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="4.125" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="3.625" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="11.125" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="27" width="9" customWidth="1"/>
+    <col min="28" max="29" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="27" customHeight="1">
+    <row r="1" spans="1:38" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1062,103 +1022,100 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" t="s">
         <v>73</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" t="s">
         <v>74</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>75</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>76</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>77</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>78</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>79</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>80</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>81</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>82</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>37</v>
-      </c>
       <c r="AH1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI1" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AJ1" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
+      <c r="AL1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1168,60 +1125,59 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="str">
-        <f>IF(ISBLANK(D2),"",
-IF(C2=VLOOKUP(D2,A:C,MATCH($C$1,$A$1:$C$1,0),0),"","타입다름"))</f>
-        <v/>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>300</v>
       </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:I14" si="0">IF(F2/60/60/24*1&gt;=1,INT(F2/60/60/24)&amp;"d","")
-&amp;IF(INT(MOD(F2/60/60,24))&gt;0,INT(MOD(F2/60/60,24))&amp;"h","")
-&amp;IF(INT(MOD(F2/60,60))&gt;0,INT(MOD(F2/60,60))&amp;"m","")
-&amp;IF(INT(MOD(F2,60))&gt;0,INT(MOD(F2,60))&amp;"s","")</f>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:H14" si="0">IF(E2/60/60/24*1&gt;=1,INT(E2/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(E2/60/60,24))&gt;0,INT(MOD(E2/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(E2/60,60))&gt;0,INT(MOD(E2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(E2,60))&gt;0,INT(MOD(E2,60))&amp;"s","")</f>
         <v>5m</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>86400</v>
       </c>
-      <c r="I2" t="str">
+      <c r="H2" t="str">
         <f t="shared" si="0"/>
         <v>1d</v>
       </c>
+      <c r="I2" t="str">
+        <f t="shared" ref="I2:I14" si="1">IF(ISBLANK($O2),"",YEAR($O2))</f>
+        <v/>
+      </c>
       <c r="J2" t="str">
-        <f t="shared" ref="J2:J14" si="1">IF(ISBLANK($P2),"",YEAR($P2))</f>
+        <f t="shared" ref="J2:J14" si="2">IF(ISBLANK($O2),"",MONTH($O2))</f>
         <v/>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K14" si="2">IF(ISBLANK($P2),"",MONTH($P2))</f>
+        <f t="shared" ref="K2:K14" si="3">IF(ISBLANK($O2),"",DAY($O2))</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L14" si="3">IF(ISBLANK($P2),"",DAY($P2))</f>
+        <f t="shared" ref="L2:L14" si="4">IF(ISBLANK($P2),"",YEAR($P2+1))</f>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M14" si="4">IF(ISBLANK($Q2),"",YEAR($Q2+1))</f>
+        <f t="shared" ref="M2:M14" si="5">IF(ISBLANK($P2),"",MONTH($P2+1))</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N14" si="5">IF(ISBLANK($Q2),"",MONTH($Q2+1))</f>
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <f t="shared" ref="O2:O14" si="6">IF(ISBLANK($Q2),"",DAY($Q2+1))</f>
-        <v/>
-      </c>
+        <f t="shared" ref="N2:N14" si="6">IF(ISBLANK($P2),"",DAY($P2+1))</f>
+        <v/>
+      </c>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" t="str">
+        <f>I2</f>
+        <v/>
+      </c>
       <c r="R2" t="str">
-        <f>J2</f>
+        <f t="shared" ref="R2:V14" si="7">J2</f>
         <v/>
       </c>
       <c r="S2" t="str">
-        <f t="shared" ref="S2:W14" si="7">K2</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T2" t="str">
@@ -1236,55 +1192,51 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W2" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X2" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y2" s="4">
-        <f t="shared" ref="Y2:AA14" ca="1" si="8">VLOOKUP(X2,OFFSET(INDIRECT("$A:$B"),0,MATCH(X$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" s="4">
+        <f t="shared" ref="X2:Z5" ca="1" si="8">VLOOKUP(W2,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
-      <c r="Z2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA2" s="4">
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB2" s="4">
+      <c r="AA2" s="4">
         <v>0.33329999999999999</v>
       </c>
+      <c r="AB2" t="str">
+        <f>AC2</f>
+        <v>"ev1":86400</v>
+      </c>
       <c r="AC2" t="str">
-        <f>AD2</f>
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;G2</f>
         <v>"ev1":86400</v>
       </c>
-      <c r="AD2" t="str">
-        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;H2</f>
-        <v>"ev1":86400</v>
-      </c>
-      <c r="AF2" t="s">
+      <c r="AE2" t="s">
         <v>39</v>
       </c>
-      <c r="AH2" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2">
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2">
         <v>0</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AJ2" t="s">
         <v>45</v>
       </c>
-      <c r="AM2" t="str">
+      <c r="AL2" t="str">
         <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(AC1,COUNTA(AC:AC)-1,0),1)=",",SUBSTITUTE(OFFSET(AC1,COUNTA(AC:AC)-1,0),",","",1),OFFSET(AC1,COUNTA(AC:AC)-1,0))
+IF(LEFT(OFFSET(AB1,COUNTA(AB:AB)-1,0),1)=",",SUBSTITUTE(OFFSET(AB1,COUNTA(AB:AB)-1,0),",","",1),OFFSET(AB1,COUNTA(AB:AB)-1,0))
 &amp;"}"</f>
         <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1294,53 +1246,52 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="str">
-        <f t="shared" ref="E3:E14" si="9">IF(ISBLANK(D3),"",
-IF(C3=VLOOKUP(D3,A:C,MATCH($C$1,$A$1:$C$1,0),0),"","타입다름"))</f>
-        <v/>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>300</v>
       </c>
-      <c r="G3" t="str">
+      <c r="F3" t="str">
         <f t="shared" si="0"/>
         <v>5m</v>
       </c>
-      <c r="H3">
+      <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J3" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K3" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M3" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N3" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q14" si="9">I3</f>
+        <v/>
+      </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R14" si="10">J3</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="S3" t="str">
@@ -1359,49 +1310,45 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y3" s="4">
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z3" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA3" s="4">
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z3" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AA3" s="4">
         <v>0.5</v>
       </c>
+      <c r="AB3" t="str">
+        <f>AB2&amp;","&amp;AC3</f>
+        <v>"ev1":86400,"ev2":0</v>
+      </c>
       <c r="AC3" t="str">
-        <f>AC2&amp;","&amp;AD3</f>
-        <v>"ev1":86400,"ev2":0</v>
-      </c>
-      <c r="AD3" t="str">
-        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;H3</f>
+        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;G3</f>
         <v>"ev2":0</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AE3" t="s">
         <v>41</v>
       </c>
-      <c r="AH3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI3">
+      <c r="AG3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH3">
         <v>1</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AJ3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1411,115 +1358,114 @@
       <c r="C4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F4">
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="G4" t="str">
+      <c r="F4" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="H4">
+      <c r="G4">
         <v>691200</v>
       </c>
-      <c r="I4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>8d</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="K4">
+      <c r="J4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L4">
+      <c r="K4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="M4">
+      <c r="L4">
         <f t="shared" si="4"/>
         <v>2022</v>
       </c>
-      <c r="N4">
+      <c r="M4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="O4">
+      <c r="N4">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
+      <c r="O4" s="3">
+        <v>44805</v>
+      </c>
       <c r="P4" s="3">
-        <v>44805</v>
-      </c>
-      <c r="Q4" s="3">
         <v>44819</v>
       </c>
+      <c r="Q4">
+        <f t="shared" si="9"/>
+        <v>2022</v>
+      </c>
       <c r="R4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="7"/>
         <v>2022</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="T4">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <f t="shared" si="7"/>
-        <v>2022</v>
-      </c>
       <c r="V4">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="X4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y4" s="4">
+      <c r="W4" t="s">
+        <v>64</v>
+      </c>
+      <c r="X4" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" s="4">
+      <c r="Y4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AA4" s="4">
         <v>1</v>
       </c>
+      <c r="AB4" t="str">
+        <f t="shared" ref="AB4:AB14" si="10">AB3&amp;","&amp;AC4</f>
+        <v>"ev1":86400,"ev2":0,"ev3":691200</v>
+      </c>
       <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC14" si="11">AC3&amp;","&amp;AD4</f>
-        <v>"ev1":86400,"ev2":0,"ev3":691200</v>
-      </c>
-      <c r="AD4" t="str">
-        <f t="shared" ref="AD4:AD14" si="12">""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;H4</f>
+        <f t="shared" ref="AC4:AC14" si="11">""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;G4</f>
         <v>"ev3":691200</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" t="s">
         <v>43</v>
       </c>
-      <c r="AH4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI4">
+      <c r="AG4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1529,640 +1475,618 @@
       <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F5">
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="G5" t="str">
+      <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="H5">
+      <c r="G5">
         <v>172800</v>
       </c>
-      <c r="I5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>2d</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="K5">
+      <c r="J5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="L5">
+      <c r="K5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="M5">
+      <c r="L5">
         <f t="shared" si="4"/>
         <v>2022</v>
       </c>
-      <c r="N5">
+      <c r="M5">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="O5">
+      <c r="N5">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
+      <c r="O5" s="3">
+        <v>44816</v>
+      </c>
       <c r="P5" s="3">
-        <v>44816</v>
-      </c>
-      <c r="Q5" s="3">
         <v>44831</v>
       </c>
+      <c r="Q5">
+        <f t="shared" si="9"/>
+        <v>2022</v>
+      </c>
       <c r="R5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="7"/>
         <v>2022</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="7"/>
-        <v>2022</v>
-      </c>
       <c r="V5">
         <f t="shared" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="X5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y5" s="4">
+      <c r="W5" t="s">
+        <v>64</v>
+      </c>
+      <c r="X5" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA5" s="4">
+      <c r="Y5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AA5" s="4">
         <v>1</v>
+      </c>
+      <c r="AB5" t="str">
+        <f t="shared" si="10"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800</v>
       </c>
       <c r="AC5" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800</v>
-      </c>
-      <c r="AD5" t="str">
-        <f t="shared" si="12"/>
         <v>"ev4":172800</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AE5" t="s">
         <v>51</v>
       </c>
-      <c r="AH5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI5">
+      <c r="AG5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F6">
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6">
         <v>600</v>
       </c>
-      <c r="G6" t="str">
+      <c r="F6" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H6">
+      <c r="G6">
         <v>0</v>
       </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z6" s="4"/>
+      <c r="AB6" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA6" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0</v>
+      </c>
       <c r="AC6" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0</v>
-      </c>
-      <c r="AD6" t="str">
-        <f t="shared" si="12"/>
         <v>"ev5":0</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AE6" t="s">
         <v>56</v>
       </c>
-      <c r="AH6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AI6">
+      <c r="AG6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F7">
+      <c r="E7">
         <v>600</v>
       </c>
-      <c r="G7" t="str">
+      <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H7">
+      <c r="G7">
         <v>0</v>
       </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z7" s="4"/>
+      <c r="AB7" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA7" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0</v>
+      </c>
       <c r="AC7" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0</v>
-      </c>
-      <c r="AD7" t="str">
-        <f t="shared" si="12"/>
         <v>"ev6":0</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AE7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F8">
+      <c r="E8">
         <v>600</v>
       </c>
-      <c r="G8" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H8">
+      <c r="G8">
         <v>0</v>
       </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N8" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O8" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z8" s="4"/>
+      <c r="AB8" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T8" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U8" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V8" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W8" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA8" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0</v>
+      </c>
       <c r="AC8" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0</v>
-      </c>
-      <c r="AD8" t="str">
-        <f t="shared" si="12"/>
         <v>"ev7":0</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AE8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F9">
+      <c r="E9">
         <v>600</v>
       </c>
-      <c r="G9" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H9">
+      <c r="G9">
         <v>0</v>
       </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N9" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z9" s="4"/>
+      <c r="AB9" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA9" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0</v>
+      </c>
       <c r="AC9" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0</v>
-      </c>
-      <c r="AD9" t="str">
-        <f t="shared" si="12"/>
         <v>"ev8":0</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AE9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F10">
+      <c r="E10">
         <v>600</v>
       </c>
-      <c r="G10" t="str">
+      <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H10">
+      <c r="G10">
         <v>0</v>
       </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N10" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O10" s="3"/>
       <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z10" s="4"/>
+      <c r="AB10" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA10" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0</v>
+      </c>
       <c r="AC10" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0</v>
-      </c>
-      <c r="AD10" t="str">
-        <f t="shared" si="12"/>
         <v>"ev9":0</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AE10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F11">
+      <c r="E11">
         <v>600</v>
       </c>
-      <c r="G11" t="str">
+      <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H11">
+      <c r="G11">
         <v>0</v>
       </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N11" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z11" s="4"/>
+      <c r="AB11" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA11" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
+      </c>
       <c r="AC11" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
-      </c>
-      <c r="AD11" t="str">
-        <f t="shared" si="12"/>
         <v>"ev10":0</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AE11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2172,267 +2096,252 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F12">
+      <c r="E12">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="G12" t="str">
+      <c r="F12" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="H12">
+      <c r="G12">
         <v>0</v>
       </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O12" s="3"/>
       <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z12" s="4"/>
+      <c r="AB12" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA12" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
+      </c>
       <c r="AC12" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
-      </c>
-      <c r="AD12" t="str">
-        <f t="shared" si="12"/>
         <v>"ev11":0</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AE12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F13">
+      <c r="E13">
         <v>600</v>
       </c>
-      <c r="G13" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="H13">
+      <c r="G13">
         <v>0</v>
       </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N13" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O13" s="3"/>
       <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z13" s="4"/>
+      <c r="AB13" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA13" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
+      </c>
       <c r="AC13" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
-      </c>
-      <c r="AD13" t="str">
-        <f t="shared" si="12"/>
         <v>"ev12":0</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AE13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="F14">
+      <c r="E14">
         <v>420</v>
       </c>
-      <c r="G14" t="str">
+      <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>7m</v>
       </c>
-      <c r="H14">
+      <c r="G14">
         <v>0</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="I14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
+      <c r="O14" s="3"/>
       <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
       <c r="R14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Z14" s="4"/>
+      <c r="AB14" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AA14" s="4"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+      </c>
       <c r="AC14" t="str">
         <f t="shared" si="11"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
-      </c>
-      <c r="AD14" t="str">
-        <f t="shared" si="12"/>
         <v>"ev13":0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="P1:Q1048576">
+  <conditionalFormatting sqref="O1:P1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$Q1&lt;TODAY()</formula>
+      <formula>$P1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X5 C2:C14 Z2:Z14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W5 Y2:Y14 C2:C14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2443,27 +2352,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="3" width="24.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="23.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="15" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" collapsed="1"/>
-    <col min="20" max="21" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="22" max="22" width="9" collapsed="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="23.875" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="15" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27" customHeight="1">
@@ -2489,16 +2396,16 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>23</v>
@@ -2546,20 +2453,20 @@
         <v/>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <f ca="1">IF(ISBLANK(OFFSET($H2,-($B2-1),0)),"",
 IF($B2=1,MATCH(OFFSET($H2,-($B2-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I2,-1,0)+OFFSET(K2,-1,0)
 ))</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J33" ca="1" si="1">IF($B2=1,8,
-IF(OFFSET(K2,-1,0)=1,8,
+        <f ca="1">IF($B2=1,9,
+IF(OFFSET(K2,-1,0)=1,9,
 OFFSET(J2,-1,0)+4))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2">
         <f ca="1">IF($J2-1+4=28,1,
@@ -2626,11 +2533,13 @@
 IF($B3=1,MATCH(OFFSET($H3,-($B3-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I3,-1,0)+OFFSET(K3,-1,0)
 ))</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J3">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <f t="shared" ref="J3:J34" ca="1" si="1">IF($B3=1,9,
+IF(OFFSET(K3,-1,0)=1,9,
+OFFSET(J3,-1,0)+4))</f>
+        <v>13</v>
       </c>
       <c r="K3">
         <f ca="1">IF($J3-1+4=28,1,
@@ -2697,11 +2606,11 @@
 IF($B4=1,MATCH(OFFSET($H4,-($B4-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I4,-1,0)+OFFSET(K4,-1,0)
 ))</f>
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K4">
         <f ca="1">IF($J4-1+4=28,1,
@@ -2757,11 +2666,11 @@
 IF($B5=1,MATCH(OFFSET($H5,-($B5-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I5,-1,0)+OFFSET(K5,-1,0)
 ))</f>
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <f ca="1">IF($J5-1+4=28,1,
@@ -2817,11 +2726,11 @@
 IF($B6=1,MATCH(OFFSET($H6,-($B6-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I6,-1,0)+OFFSET(K6,-1,0)
 ))</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K6">
         <f ca="1">IF($J6-1+4=28,1,
@@ -2877,11 +2786,11 @@
 IF($B7=1,MATCH(OFFSET($H7,-($B7-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I7,-1,0)+OFFSET(K7,-1,0)
 ))</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7">
         <f ca="1">IF($J7-1+4=28,1,
@@ -2937,11 +2846,11 @@
 IF($B8=1,MATCH(OFFSET($H8,-($B8-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I8,-1,0)+OFFSET(K8,-1,0)
 ))</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <f ca="1">IF($J8-1+4=28,1,
@@ -2997,11 +2906,11 @@
 IF($B9=1,MATCH(OFFSET($H9,-($B9-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I9,-1,0)+OFFSET(K9,-1,0)
 ))</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K9">
         <f ca="1">IF($J9-1+4=28,1,
@@ -3059,11 +2968,11 @@
 IF($B10=1,MATCH(OFFSET($H10,-($B10-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I10,-1,0)+OFFSET(K10,-1,0)
 ))</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <f ca="1">IF($J10-1+4=28,1,
@@ -3119,11 +3028,11 @@
 IF($B11=1,MATCH(OFFSET($H11,-($B11-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I11,-1,0)+OFFSET(K11,-1,0)
 ))</f>
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11">
         <f ca="1">IF($J11-1+4=28,1,
@@ -3179,11 +3088,11 @@
 IF($B12=1,MATCH(OFFSET($H12,-($B12-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I12,-1,0)+OFFSET(K12,-1,0)
 ))</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K12">
         <f ca="1">IF($J12-1+4=28,1,
@@ -3239,11 +3148,11 @@
 IF($B13=1,MATCH(OFFSET($H13,-($B13-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I13,-1,0)+OFFSET(K13,-1,0)
 ))</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13">
         <f ca="1">IF($J13-1+4=28,1,
@@ -3299,11 +3208,11 @@
 IF($B14=1,MATCH(OFFSET($H14,-($B14-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I14,-1,0)+OFFSET(K14,-1,0)
 ))</f>
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K14">
         <f ca="1">IF($J14-1+4=28,1,
@@ -3359,11 +3268,11 @@
 IF($B15=1,MATCH(OFFSET($H15,-($B15-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I15,-1,0)+OFFSET(K15,-1,0)
 ))</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <f ca="1">IF($J15-1+4=28,1,
@@ -3419,11 +3328,11 @@
 IF($B16=1,MATCH(OFFSET($H16,-($B16-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I16,-1,0)+OFFSET(K16,-1,0)
 ))</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16">
         <f ca="1">IF($J16-1+4=28,1,
@@ -3481,11 +3390,11 @@
 IF($B17=1,MATCH(OFFSET($H17,-($B17-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I17,-1,0)+OFFSET(K17,-1,0)
 ))</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K17">
         <f ca="1">IF($J17-1+4=28,1,
@@ -3541,11 +3450,11 @@
 IF($B18=1,MATCH(OFFSET($H18,-($B18-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I18,-1,0)+OFFSET(K18,-1,0)
 ))</f>
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K18">
         <f ca="1">IF($J18-1+4=28,1,
@@ -3601,11 +3510,11 @@
 IF($B19=1,MATCH(OFFSET($H19,-($B19-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I19,-1,0)+OFFSET(K19,-1,0)
 ))</f>
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K19">
         <f ca="1">IF($J19-1+4=28,1,
@@ -3661,11 +3570,11 @@
 IF($B20=1,MATCH(OFFSET($H20,-($B20-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I20,-1,0)+OFFSET(K20,-1,0)
 ))</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K20">
         <f ca="1">IF($J20-1+4=28,1,
@@ -3721,11 +3630,11 @@
 IF($B21=1,MATCH(OFFSET($H21,-($B21-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I21,-1,0)+OFFSET(K21,-1,0)
 ))</f>
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21">
         <f ca="1">IF($J21-1+4=28,1,
@@ -3777,18 +3686,18 @@
         <v/>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I22">
         <f ca="1">IF(ISBLANK(OFFSET($H22,-($B22-1),0)),"",
 IF($B22=1,MATCH(OFFSET($H22,-($B22-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I22,-1,0)+OFFSET(K22,-1,0)
 ))</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <f ca="1">IF($J22-1+4=28,1,
@@ -3846,11 +3755,11 @@
 IF($B23=1,MATCH(OFFSET($H23,-($B23-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I23,-1,0)+OFFSET(K23,-1,0)
 ))</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23">
         <f ca="1">IF($J23-1+4=28,1,
@@ -3906,11 +3815,11 @@
 IF($B24=1,MATCH(OFFSET($H24,-($B24-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I24,-1,0)+OFFSET(K24,-1,0)
 ))</f>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K24">
         <f ca="1">IF($J24-1+4=28,1,
@@ -3968,11 +3877,11 @@
 IF($B25=1,MATCH(OFFSET($H25,-($B25-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I25,-1,0)+OFFSET(K25,-1,0)
 ))</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K25">
         <f ca="1">IF($J25-1+4=28,1,
@@ -4028,11 +3937,11 @@
 IF($B26=1,MATCH(OFFSET($H26,-($B26-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I26,-1,0)+OFFSET(K26,-1,0)
 ))</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26">
         <f ca="1">IF($J26-1+4=28,1,
@@ -4088,11 +3997,11 @@
 IF($B27=1,MATCH(OFFSET($H27,-($B27-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I27,-1,0)+OFFSET(K27,-1,0)
 ))</f>
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K27">
         <f ca="1">IF($J27-1+4=28,1,
@@ -4148,11 +4057,11 @@
 IF($B28=1,MATCH(OFFSET($H28,-($B28-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I28,-1,0)+OFFSET(K28,-1,0)
 ))</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K28">
         <f ca="1">IF($J28-1+4=28,1,
@@ -4208,11 +4117,11 @@
 IF($B29=1,MATCH(OFFSET($H29,-($B29-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I29,-1,0)+OFFSET(K29,-1,0)
 ))</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29">
         <f ca="1">IF($J29-1+4=28,1,
@@ -4268,11 +4177,11 @@
 IF($B30=1,MATCH(OFFSET($H30,-($B30-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I30,-1,0)+OFFSET(K30,-1,0)
 ))</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K30">
         <f ca="1">IF($J30-1+4=28,1,
@@ -4330,11 +4239,11 @@
 IF($B31=1,MATCH(OFFSET($H31,-($B31-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I31,-1,0)+OFFSET(K31,-1,0)
 ))</f>
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K31">
         <f ca="1">IF($J31-1+4=28,1,
@@ -4386,18 +4295,18 @@
         <v/>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="I32">
         <f ca="1">IF(ISBLANK(OFFSET($H32,-($B32-1),0)),"",
 IF($B32=1,MATCH(OFFSET($H32,-($B32-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I32,-1,0)+OFFSET(K32,-1,0)
 ))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K32">
         <f ca="1">IF($J32-1+4=28,1,
@@ -4435,7 +4344,7 @@
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -4455,11 +4364,11 @@
 IF($B33=1,MATCH(OFFSET($H33,-($B33-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I33,-1,0)+OFFSET(K33,-1,0)
 ))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K33">
         <f ca="1">IF($J33-1+4=28,1,
@@ -4528,12 +4437,9 @@
 ))</f>
         <v/>
       </c>
-      <c r="J34" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($H34,-($B34-1),0)),"",
-IF($B34=1,8,
-IF(OFFSET(K34,-1,0)=1,8,
-OFFSET(J34,-1,0)+4)))</f>
-        <v/>
+      <c r="J34">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
       </c>
       <c r="K34" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($H34,-($B34-1),0)),"",

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17427FA9-5BF3-4DAE-BC13-1C8B39842B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D6D1B-4029-4DAA-A398-EAE1BAF6CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-35520" yWindow="3015" windowWidth="13515" windowHeight="14265" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>test_bigboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCount오버라이딩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,6 +546,156 @@
         <row r="1">
           <cell r="A1" t="str">
             <v>productId|String</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>내용</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>id</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>이벤트프로덕트카운트참고</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>indexSub|Int</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>free|Bool</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>eng|Float</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>kor|Int</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>serverItemId|String</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>key</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>key|Int</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>tp1</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>tp</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>vl1</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>cn1</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>tp2</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>tp</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>vl2</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>cn2</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>tp3</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>tp</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>vl3</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>cn3</v>
+          </cell>
+          <cell r="X1" t="str">
+            <v>tp4</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>tp</v>
+          </cell>
+          <cell r="Z1" t="str">
+            <v>vl4</v>
+          </cell>
+          <cell r="AA1" t="str">
+            <v>cn4</v>
+          </cell>
+          <cell r="AB1" t="str">
+            <v>tp5</v>
+          </cell>
+          <cell r="AC1" t="str">
+            <v>tp</v>
+          </cell>
+          <cell r="AD1" t="str">
+            <v>vl5</v>
+          </cell>
+          <cell r="AE1" t="str">
+            <v>cn5</v>
+          </cell>
+          <cell r="AF1" t="str">
+            <v>rewardType1|String</v>
+          </cell>
+          <cell r="AG1" t="str">
+            <v>rewardValue1|String</v>
+          </cell>
+          <cell r="AH1" t="str">
+            <v>rewardCount1|Int</v>
+          </cell>
+          <cell r="AI1" t="str">
+            <v>rewardType2|String</v>
+          </cell>
+          <cell r="AJ1" t="str">
+            <v>rewardValue2|String</v>
+          </cell>
+          <cell r="AK1" t="str">
+            <v>rewardCount2|Int</v>
+          </cell>
+          <cell r="AL1" t="str">
+            <v>rewardType3|String</v>
+          </cell>
+          <cell r="AM1" t="str">
+            <v>rewardValue3|String</v>
+          </cell>
+          <cell r="AN1" t="str">
+            <v>rewardCount3|Int</v>
+          </cell>
+          <cell r="AO1" t="str">
+            <v>rewardType4|String</v>
+          </cell>
+          <cell r="AP1" t="str">
+            <v>rewardValue4|String</v>
+          </cell>
+          <cell r="AQ1" t="str">
+            <v>rewardCount4|Int</v>
+          </cell>
+          <cell r="AR1" t="str">
+            <v>rewardType5|String</v>
+          </cell>
+          <cell r="AS1" t="str">
+            <v>rewardValue5|String</v>
+          </cell>
+          <cell r="AT1" t="str">
+            <v>rewardCount5|Int</v>
+          </cell>
+          <cell r="AU1" t="str">
+            <v>테이블연결</v>
+          </cell>
+          <cell r="AV1" t="str">
+            <v>Jason화</v>
+          </cell>
+          <cell r="AX1" t="str">
+            <v>tp_Verify</v>
+          </cell>
+          <cell r="AY1" t="str">
+            <v>value</v>
+          </cell>
+          <cell r="BA1" t="str">
+            <v>sProd</v>
           </cell>
         </row>
         <row r="2">
@@ -975,43 +1133,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="3.875" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="4.125" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="3.625" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="11.125" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="4.125" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="11.75" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1" outlineLevel="1"/>
     <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="27" width="9" customWidth="1"/>
-    <col min="28" max="29" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="29" width="9" customWidth="1"/>
+    <col min="30" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="26.5" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="9" customWidth="1" outlineLevel="1"/>
     <col min="38" max="38" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="27" customHeight="1">
+    <row r="1" spans="1:40" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1025,97 +1184,103 @@
         <v>99</v>
       </c>
       <c r="E1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>84</v>
       </c>
       <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>75</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>76</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>77</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>78</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>79</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>80</v>
-      </c>
-      <c r="W1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X1" t="s">
-        <v>82</v>
       </c>
       <c r="Y1" t="s">
         <v>81</v>
       </c>
       <c r="Z1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB1" t="s">
         <v>91</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>90</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>95</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>94</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>37</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AL1" t="s">
         <v>47</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:40">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1125,63 +1290,60 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="E2">
+      <c r="F2">
+        <f ca="1">IF(NOT(ISBLANK(E2)),E2,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A2))</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>300</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:H14" si="0">IF(E2/60/60/24*1&gt;=1,INT(E2/60/60/24)&amp;"d","")
-&amp;IF(INT(MOD(E2/60/60,24))&gt;0,INT(MOD(E2/60/60,24))&amp;"h","")
-&amp;IF(INT(MOD(E2/60,60))&gt;0,INT(MOD(E2/60,60))&amp;"m","")
-&amp;IF(INT(MOD(E2,60))&gt;0,INT(MOD(E2,60))&amp;"s","")</f>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:J14" si="0">IF(G2/60/60/24*1&gt;=1,INT(G2/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(G2/60/60,24))&gt;0,INT(MOD(G2/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(G2/60,60))&gt;0,INT(MOD(G2/60,60))&amp;"m","")
+&amp;IF(INT(MOD(G2,60))&gt;0,INT(MOD(G2,60))&amp;"s","")</f>
         <v>5m</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>86400</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <f t="shared" si="0"/>
         <v>1d</v>
       </c>
-      <c r="I2" t="str">
-        <f t="shared" ref="I2:I14" si="1">IF(ISBLANK($O2),"",YEAR($O2))</f>
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <f t="shared" ref="J2:J14" si="2">IF(ISBLANK($O2),"",MONTH($O2))</f>
-        <v/>
-      </c>
       <c r="K2" t="str">
-        <f t="shared" ref="K2:K14" si="3">IF(ISBLANK($O2),"",DAY($O2))</f>
+        <f t="shared" ref="K2:K14" si="1">IF(ISBLANK($Q2),"",YEAR($Q2))</f>
         <v/>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ref="L2:L14" si="4">IF(ISBLANK($P2),"",YEAR($P2+1))</f>
+        <f t="shared" ref="L2:L14" si="2">IF(ISBLANK($Q2),"",MONTH($Q2))</f>
         <v/>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M14" si="5">IF(ISBLANK($P2),"",MONTH($P2+1))</f>
+        <f t="shared" ref="M2:M14" si="3">IF(ISBLANK($Q2),"",DAY($Q2))</f>
         <v/>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ref="N2:N14" si="6">IF(ISBLANK($P2),"",DAY($P2+1))</f>
-        <v/>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" t="str">
-        <f>I2</f>
-        <v/>
-      </c>
-      <c r="R2" t="str">
-        <f t="shared" ref="R2:V14" si="7">J2</f>
-        <v/>
-      </c>
+        <f t="shared" ref="N2:N14" si="4">IF(ISBLANK($R2),"",YEAR($R2+1))</f>
+        <v/>
+      </c>
+      <c r="O2" t="str">
+        <f t="shared" ref="O2:O14" si="5">IF(ISBLANK($R2),"",MONTH($R2+1))</f>
+        <v/>
+      </c>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P14" si="6">IF(ISBLANK($R2),"",DAY($R2+1))</f>
+        <v/>
+      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
       <c r="S2" t="str">
-        <f t="shared" si="7"/>
+        <f>K2</f>
         <v/>
       </c>
       <c r="T2" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T2:X14" si="7">L2</f>
         <v/>
       </c>
       <c r="U2" t="str">
@@ -1192,51 +1354,59 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X2" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Y2" t="s">
         <v>66</v>
       </c>
-      <c r="X2" s="4">
-        <f t="shared" ref="X2:Z5" ca="1" si="8">VLOOKUP(W2,OFFSET(INDIRECT("$A:$B"),0,MATCH(W$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+      <c r="Z2" s="4">
+        <f t="shared" ref="Z2:AB5" ca="1" si="8">VLOOKUP(Y2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AA2" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="AB2" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AC2" s="4">
         <v>0.33329999999999999</v>
       </c>
-      <c r="AB2" t="str">
-        <f>AC2</f>
+      <c r="AD2" t="str">
+        <f>AE2</f>
         <v>"ev1":86400</v>
       </c>
-      <c r="AC2" t="str">
-        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;G2</f>
+      <c r="AE2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;I2</f>
         <v>"ev1":86400</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>39</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AI2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="s">
         <v>45</v>
       </c>
-      <c r="AL2" t="str">
+      <c r="AN2" t="str">
         <f ca="1">"{"&amp;
-IF(LEFT(OFFSET(AB1,COUNTA(AB:AB)-1,0),1)=",",SUBSTITUTE(OFFSET(AB1,COUNTA(AB:AB)-1,0),",","",1),OFFSET(AB1,COUNTA(AB:AB)-1,0))
+IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
         <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:40">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1246,56 +1416,53 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <f ca="1">IF(NOT(ISBLANK(E3)),E3,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A3))</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>300</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>5m</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="str">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J3" t="str">
+      <c r="L3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K3" t="str">
+      <c r="M3" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L3" t="str">
+      <c r="N3" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M3" t="str">
+      <c r="O3" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N3" t="str">
+      <c r="P3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q14" si="9">I3</f>
-        <v/>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
       <c r="S3" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="S3:S14" si="9">K3</f>
         <v/>
       </c>
       <c r="T3" t="str">
@@ -1310,12 +1477,13 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" s="4">
-        <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+      <c r="W3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="7"/>
+        <v/>
       </c>
       <c r="Y3" t="s">
         <v>63</v>
@@ -1324,31 +1492,38 @@
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="4">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
         <v>0.5</v>
       </c>
-      <c r="AB3" t="str">
-        <f>AB2&amp;","&amp;AC3</f>
+      <c r="AD3" t="str">
+        <f>AD2&amp;","&amp;AE3</f>
         <v>"ev1":86400,"ev2":0</v>
       </c>
-      <c r="AC3" t="str">
-        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;G3</f>
+      <c r="AE3" t="str">
+        <f>""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;I3</f>
         <v>"ev2":0</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>41</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AI3" t="s">
         <v>64</v>
       </c>
-      <c r="AH3">
+      <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AL3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:40">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1361,111 +1536,116 @@
       <c r="D4" t="s">
         <v>96</v>
       </c>
-      <c r="E4">
+      <c r="F4">
+        <f ca="1">IF(NOT(ISBLANK(E4)),E4,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A4))</f>
+        <v>3</v>
+      </c>
+      <c r="G4">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="F4" t="str">
+      <c r="H4" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>691200</v>
       </c>
-      <c r="H4" t="str">
+      <c r="J4" t="str">
         <f t="shared" si="0"/>
         <v>8d</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <f t="shared" si="4"/>
         <v>2022</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="O4" s="3">
+      <c r="Q4" s="3">
         <v>44805</v>
       </c>
-      <c r="P4" s="3">
+      <c r="R4" s="3">
         <v>44819</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <f t="shared" si="9"/>
         <v>2022</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <f t="shared" si="7"/>
         <v>2022</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <f t="shared" si="7"/>
         <v>16</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="4">
+      <c r="Z4" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>92</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="AB4" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AC4" s="4">
         <v>1</v>
       </c>
-      <c r="AB4" t="str">
-        <f t="shared" ref="AB4:AB14" si="10">AB3&amp;","&amp;AC4</f>
+      <c r="AD4" t="str">
+        <f t="shared" ref="AD4:AD14" si="10">AD3&amp;","&amp;AE4</f>
         <v>"ev1":86400,"ev2":0,"ev3":691200</v>
       </c>
-      <c r="AC4" t="str">
-        <f t="shared" ref="AC4:AC14" si="11">""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;G4</f>
+      <c r="AE4" t="str">
+        <f t="shared" ref="AE4:AE14" si="11">""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;I4</f>
         <v>"ev3":691200</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>43</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AI4" t="s">
         <v>65</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:40">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1478,111 +1658,116 @@
       <c r="D5" t="s">
         <v>97</v>
       </c>
-      <c r="E5">
+      <c r="F5">
+        <f ca="1">IF(NOT(ISBLANK(E5)),E5,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A5))</f>
+        <v>8</v>
+      </c>
+      <c r="G5">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="F5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>172800</v>
       </c>
-      <c r="H5" t="str">
+      <c r="J5" t="str">
         <f t="shared" si="0"/>
         <v>2d</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <f t="shared" si="1"/>
         <v>2022</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <f t="shared" si="4"/>
         <v>2022</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
-      <c r="O5" s="3">
+      <c r="Q5" s="3">
         <v>44816</v>
       </c>
-      <c r="P5" s="3">
+      <c r="R5" s="3">
         <v>44831</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <f t="shared" si="9"/>
         <v>2022</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <f t="shared" si="7"/>
         <v>2022</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <f t="shared" si="7"/>
         <v>9</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" t="s">
         <v>64</v>
       </c>
-      <c r="X5" s="4">
+      <c r="Z5" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="AA5" t="s">
         <v>92</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>4</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AC5" s="4">
         <v>1</v>
       </c>
-      <c r="AB5" t="str">
+      <c r="AD5" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800</v>
       </c>
-      <c r="AC5" t="str">
+      <c r="AE5" t="str">
         <f t="shared" si="11"/>
         <v>"ev4":172800</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>51</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AI5" t="s">
         <v>66</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:40">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1592,58 +1777,55 @@
       <c r="D6" t="s">
         <v>98</v>
       </c>
-      <c r="E6">
+      <c r="F6">
+        <f ca="1">IF(NOT(ISBLANK(E6)),E6,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A6))</f>
+        <v>3</v>
+      </c>
+      <c r="G6">
         <v>600</v>
       </c>
-      <c r="F6" t="str">
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="str">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I6" t="str">
+      <c r="K6" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J6" t="str">
+      <c r="L6" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K6" t="str">
+      <c r="M6" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M6" t="str">
+      <c r="O6" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N6" t="str">
+      <c r="P6" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" t="str">
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T6" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1656,84 +1838,89 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z6" s="4"/>
-      <c r="AB6" t="str">
+      <c r="W6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB6" s="4"/>
+      <c r="AD6" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0</v>
       </c>
-      <c r="AC6" t="str">
+      <c r="AE6" t="str">
         <f t="shared" si="11"/>
         <v>"ev5":0</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>56</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AI6" t="s">
         <v>92</v>
       </c>
-      <c r="AH6">
+      <c r="AJ6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:40">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="E7">
+      <c r="F7">
+        <f ca="1">IF(NOT(ISBLANK(E7)),E7,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A7))</f>
+        <v>4</v>
+      </c>
+      <c r="G7">
         <v>600</v>
       </c>
-      <c r="F7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="str">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I7" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K7" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M7" t="str">
+      <c r="O7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" t="str">
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T7" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1746,78 +1933,83 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z7" s="4"/>
-      <c r="AB7" t="str">
+      <c r="W7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB7" s="4"/>
+      <c r="AD7" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0</v>
       </c>
-      <c r="AC7" t="str">
+      <c r="AE7" t="str">
         <f t="shared" si="11"/>
         <v>"ev6":0</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="E8">
+      <c r="F8">
+        <f ca="1">IF(NOT(ISBLANK(E8)),E8,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A8))</f>
+        <v>6</v>
+      </c>
+      <c r="G8">
         <v>600</v>
       </c>
-      <c r="F8" t="str">
+      <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="str">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I8" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J8" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K8" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M8" t="str">
+      <c r="O8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" t="str">
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R8" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S8" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T8" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1830,75 +2022,80 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z8" s="4"/>
-      <c r="AB8" t="str">
+      <c r="W8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB8" s="4"/>
+      <c r="AD8" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0</v>
       </c>
-      <c r="AC8" t="str">
+      <c r="AE8" t="str">
         <f t="shared" si="11"/>
         <v>"ev7":0</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="F9">
+        <f ca="1">IF(NOT(ISBLANK(E9)),E9,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A9))</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>600</v>
       </c>
-      <c r="F9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="str">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I9" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J9" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M9" t="str">
+      <c r="O9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" t="str">
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S9" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T9" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1911,75 +2108,80 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z9" s="4"/>
-      <c r="AB9" t="str">
+      <c r="W9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB9" s="4"/>
+      <c r="AD9" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0</v>
       </c>
-      <c r="AC9" t="str">
+      <c r="AE9" t="str">
         <f t="shared" si="11"/>
         <v>"ev8":0</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AG9" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="F10">
+        <f ca="1">IF(NOT(ISBLANK(E10)),E10,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A10))</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>600</v>
       </c>
-      <c r="F10" t="str">
+      <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="str">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I10" t="str">
+      <c r="K10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J10" t="str">
+      <c r="L10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K10" t="str">
+      <c r="M10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M10" t="str">
+      <c r="O10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N10" t="str">
+      <c r="P10" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" t="str">
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S10" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T10" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -1992,75 +2194,80 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z10" s="4"/>
-      <c r="AB10" t="str">
+      <c r="W10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB10" s="4"/>
+      <c r="AD10" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0</v>
       </c>
-      <c r="AC10" t="str">
+      <c r="AE10" t="str">
         <f t="shared" si="11"/>
         <v>"ev9":0</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AG10" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="F11">
+        <f ca="1">IF(NOT(ISBLANK(E11)),E11,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A11))</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>600</v>
       </c>
-      <c r="F11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="str">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I11" t="str">
+      <c r="K11" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J11" t="str">
+      <c r="L11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K11" t="str">
+      <c r="M11" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M11" t="str">
+      <c r="O11" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N11" t="str">
+      <c r="P11" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" t="str">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T11" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2073,20 +2280,28 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z11" s="4"/>
-      <c r="AB11" t="str">
+      <c r="W11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB11" s="4"/>
+      <c r="AD11" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
       </c>
-      <c r="AC11" t="str">
+      <c r="AE11" t="str">
         <f t="shared" si="11"/>
         <v>"ev10":0</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AG11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2096,59 +2311,56 @@
       <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="E12">
+      <c r="F12">
+        <f ca="1">IF(NOT(ISBLANK(E12)),E12,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A12))</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
         <f>50*60*60</f>
         <v>180000</v>
       </c>
-      <c r="F12" t="str">
+      <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>2d2h</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="str">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I12" t="str">
+      <c r="K12" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J12" t="str">
+      <c r="L12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K12" t="str">
+      <c r="M12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M12" t="str">
+      <c r="O12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N12" t="str">
+      <c r="P12" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" t="str">
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S12" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T12" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2161,75 +2373,80 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z12" s="4"/>
-      <c r="AB12" t="str">
+      <c r="W12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB12" s="4"/>
+      <c r="AD12" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
       </c>
-      <c r="AC12" t="str">
+      <c r="AE12" t="str">
         <f t="shared" si="11"/>
         <v>"ev11":0</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AG12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:40">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="F13">
+        <f ca="1">IF(NOT(ISBLANK(E13)),E13,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A13))</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>600</v>
       </c>
-      <c r="F13" t="str">
+      <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>10m</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="str">
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I13" t="str">
+      <c r="K13" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J13" t="str">
+      <c r="L13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K13" t="str">
+      <c r="M13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M13" t="str">
+      <c r="O13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" t="str">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S13" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T13" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2242,75 +2459,80 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z13" s="4"/>
-      <c r="AB13" t="str">
+      <c r="W13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB13" s="4"/>
+      <c r="AD13" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
       </c>
-      <c r="AC13" t="str">
+      <c r="AE13" t="str">
         <f t="shared" si="11"/>
         <v>"ev12":0</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AG13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:40">
       <c r="A14" t="s">
         <v>62</v>
       </c>
-      <c r="E14">
+      <c r="F14">
+        <f ca="1">IF(NOT(ISBLANK(E14)),E14,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A14))</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>420</v>
       </c>
-      <c r="F14" t="str">
+      <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>7m</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="str">
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="I14" t="str">
+      <c r="K14" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J14" t="str">
+      <c r="L14" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K14" t="str">
+      <c r="M14" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" t="str">
+      <c r="O14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" t="str">
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="R14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="S14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
       <c r="T14" t="str">
         <f t="shared" si="7"/>
         <v/>
@@ -2323,25 +2545,33 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="Z14" s="4"/>
-      <c r="AB14" t="str">
+      <c r="W14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="AB14" s="4"/>
+      <c r="AD14" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
       </c>
-      <c r="AC14" t="str">
+      <c r="AE14" t="str">
         <f t="shared" si="11"/>
         <v>"ev13":0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="O1:P1048576">
+  <conditionalFormatting sqref="Q1:R1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$P1&lt;TODAY()</formula>
+      <formula>$R1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W5 Y2:Y14 C2:C14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y5 AA2:AA14 C2:C14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2358,7 +2588,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2473,38 +2703,38 @@
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L2" t="str">
+      <c r="L2" t="e">
         <f ca="1">IF(LEN(M2)=0,"",
 VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="M2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M2">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2)</f>
-        <v>재화</v>
-      </c>
-      <c r="N2" t="str">
+        <v>721</v>
+      </c>
+      <c r="N2">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O2">
+        <v>721</v>
+      </c>
+      <c r="O2" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+2)</f>
-        <v>80</v>
-      </c>
-      <c r="P2" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P2" t="e">
         <f ca="1">IF(LEN(D2)&lt;&gt;0,D2,
 IF(LEN(L2)&lt;&gt;0,L2,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="Q2" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q2">
         <f ca="1">IF(LEN(F2)&lt;&gt;0,F2,
 IF(LEN(N2)&lt;&gt;0,N2,""))</f>
-        <v>EN</v>
-      </c>
-      <c r="R2">
+        <v>721</v>
+      </c>
+      <c r="R2" t="str">
         <f ca="1">IF(LEN(G2)&lt;&gt;0,G2,
 IF(LEN(O2)&lt;&gt;0,O2,""))</f>
-        <v>80</v>
+        <v>cu</v>
       </c>
       <c r="T2" t="s">
         <v>27</v>
@@ -2546,38 +2776,38 @@
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L3" t="str">
+      <c r="L3" t="e">
         <f t="shared" ref="L3:L21" ca="1" si="2">IF(ISBLANK(M3),"",
 VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M3" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3)</f>
-        <v>재화</v>
-      </c>
-      <c r="N3" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N3">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O3">
+        <v>80</v>
+      </c>
+      <c r="O3" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+2)</f>
-        <v>35000</v>
-      </c>
-      <c r="P3" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P3" t="e">
         <f t="shared" ref="P3:P34" ca="1" si="3">IF(LEN(D3)&lt;&gt;0,D3,
 IF(LEN(L3)&lt;&gt;0,L3,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="Q3" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q3">
         <f t="shared" ref="Q3:Q34" ca="1" si="4">IF(LEN(F3)&lt;&gt;0,F3,
 IF(LEN(N3)&lt;&gt;0,N3,""))</f>
-        <v>GO</v>
-      </c>
-      <c r="R3">
+        <v>80</v>
+      </c>
+      <c r="R3" t="str">
         <f t="shared" ref="R3:R34" ca="1" si="5">IF(LEN(G3)&lt;&gt;0,G3,
 IF(LEN(O3)&lt;&gt;0,O3,""))</f>
-        <v>35000</v>
+        <v>cu</v>
       </c>
       <c r="T3" t="s">
         <v>31</v>
@@ -2615,35 +2845,35 @@
       <c r="K4">
         <f ca="1">IF($J4-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L4" t="str">
+        <v>0</v>
+      </c>
+      <c r="L4" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4)</f>
-        <v>재화</v>
-      </c>
-      <c r="N4" t="str">
+        <v>GO</v>
+      </c>
+      <c r="N4">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O4">
+        <v>35000</v>
+      </c>
+      <c r="O4" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+2)</f>
-        <v>170</v>
-      </c>
-      <c r="P4" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P4" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q4" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q4">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R4">
+        <v>35000</v>
+      </c>
+      <c r="R4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>170</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2666,44 +2896,44 @@
 IF($B5=1,MATCH(OFFSET($H5,-($B5-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I5,-1,0)+OFFSET(K5,-1,0)
 ))</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K5">
         <f ca="1">IF($J5-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5-1+4))=0,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L5" t="str">
+      <c r="L5" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5)</f>
-        <v>재화</v>
-      </c>
-      <c r="N5" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N5">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O5">
+        <v>170</v>
+      </c>
+      <c r="O5" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+2)</f>
-        <v>150</v>
-      </c>
-      <c r="P5" t="str">
+        <v/>
+      </c>
+      <c r="P5" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q5" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q5">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R5">
+        <v>170</v>
+      </c>
+      <c r="R5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
+        <v/>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2726,7 +2956,7 @@
 IF($B6=1,MATCH(OFFSET($H6,-($B6-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I6,-1,0)+OFFSET(K6,-1,0)
 ))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
@@ -2737,33 +2967,33 @@
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L6" t="str">
+      <c r="L6" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
-      </c>
-      <c r="M6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M6">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6)</f>
-        <v>재화</v>
-      </c>
-      <c r="N6" t="str">
+        <v>884</v>
+      </c>
+      <c r="N6">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O6">
+        <v>884</v>
+      </c>
+      <c r="O6" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+2)</f>
-        <v>20000</v>
-      </c>
-      <c r="P6" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P6" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q6" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q6">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R6">
+        <v>884</v>
+      </c>
+      <c r="R6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2786,7 +3016,7 @@
 IF($B7=1,MATCH(OFFSET($H7,-($B7-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I7,-1,0)+OFFSET(K7,-1,0)
 ))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
@@ -2795,35 +3025,35 @@
       <c r="K7">
         <f ca="1">IF($J7-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str">
+        <v>1</v>
+      </c>
+      <c r="L7" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7)</f>
-        <v>재화</v>
-      </c>
-      <c r="N7" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N7">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O7">
+        <v>150</v>
+      </c>
+      <c r="O7" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+2)</f>
+        <v/>
+      </c>
+      <c r="P7" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R7">
+      <c r="R7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
+        <v/>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2850,40 +3080,40 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K8">
         <f ca="1">IF($J8-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L8" t="str">
+      <c r="L8" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
-      </c>
-      <c r="M8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M8">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8)</f>
-        <v>재화</v>
-      </c>
-      <c r="N8" t="str">
+        <v>217</v>
+      </c>
+      <c r="N8">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O8">
+        <v>217</v>
+      </c>
+      <c r="O8" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+2)</f>
-        <v>35000</v>
-      </c>
-      <c r="P8" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P8" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q8" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q8">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R8">
+        <v>217</v>
+      </c>
+      <c r="R8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>35000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2910,40 +3140,40 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9">
         <f ca="1">IF($J9-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L9" t="str">
+        <v>0</v>
+      </c>
+      <c r="L9" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M9" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9)</f>
-        <v>재화</v>
-      </c>
-      <c r="N9" t="str">
+        <v>GO</v>
+      </c>
+      <c r="N9">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O9">
+        <v>20000</v>
+      </c>
+      <c r="O9" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+2)</f>
-        <v>200</v>
-      </c>
-      <c r="P9" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P9" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q9" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q9">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R9">
+        <v>20000</v>
+      </c>
+      <c r="R9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2968,44 +3198,44 @@
 IF($B10=1,MATCH(OFFSET($H10,-($B10-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I10,-1,0)+OFFSET(K10,-1,0)
 ))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K10">
         <f ca="1">IF($J10-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L10" t="str">
+      <c r="L10" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10)</f>
-        <v>재화</v>
-      </c>
-      <c r="N10" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N10">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O10">
+        <v>150</v>
+      </c>
+      <c r="O10" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+2)</f>
+        <v>cu</v>
+      </c>
+      <c r="P10" t="e">
+        <f t="shared" ca="1" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R10">
+      <c r="R10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3028,44 +3258,44 @@
 IF($B11=1,MATCH(OFFSET($H11,-($B11-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I11,-1,0)+OFFSET(K11,-1,0)
 ))</f>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <f ca="1">IF($J11-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L11" t="str">
+        <v>0</v>
+      </c>
+      <c r="L11" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M11" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11)</f>
-        <v>재화</v>
-      </c>
-      <c r="N11" t="str">
+        <v>GO</v>
+      </c>
+      <c r="N11">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O11">
+        <v>35000</v>
+      </c>
+      <c r="O11" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+2)</f>
-        <v>20000</v>
-      </c>
-      <c r="P11" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P11" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q11">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R11">
+        <v>35000</v>
+      </c>
+      <c r="R11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>20000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -3088,44 +3318,44 @@
 IF($B12=1,MATCH(OFFSET($H12,-($B12-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I12,-1,0)+OFFSET(K12,-1,0)
 ))</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="K12">
         <f ca="1">IF($J12-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L12" t="str">
+        <v>1</v>
+      </c>
+      <c r="L12" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M12" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12)</f>
-        <v>재화</v>
-      </c>
-      <c r="N12" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N12">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O12">
+        <v>200</v>
+      </c>
+      <c r="O12" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+2)</f>
-        <v>80</v>
-      </c>
-      <c r="P12" t="str">
+        <v/>
+      </c>
+      <c r="P12" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q12" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q12">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R12">
+        <v>200</v>
+      </c>
+      <c r="R12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -3148,44 +3378,44 @@
 IF($B13=1,MATCH(OFFSET($H13,-($B13-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I13,-1,0)+OFFSET(K13,-1,0)
 ))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K13">
         <f ca="1">IF($J13-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L13" t="str">
+      <c r="L13" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M13">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13)</f>
-        <v>재화</v>
-      </c>
-      <c r="N13" t="str">
+        <v>394</v>
+      </c>
+      <c r="N13">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O13">
+        <v>394</v>
+      </c>
+      <c r="O13" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+2)</f>
-        <v>10000</v>
-      </c>
-      <c r="P13" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P13" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q13" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q13">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R13">
+        <v>394</v>
+      </c>
+      <c r="R13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>10000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -3208,44 +3438,44 @@
 IF($B14=1,MATCH(OFFSET($H14,-($B14-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I14,-1,0)+OFFSET(K14,-1,0)
 ))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K14">
         <f ca="1">IF($J14-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L14" t="str">
+        <v>0</v>
+      </c>
+      <c r="L14" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14)</f>
-        <v>재화</v>
-      </c>
-      <c r="N14" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N14">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O14">
+        <v>150</v>
+      </c>
+      <c r="O14" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+2)</f>
-        <v>200</v>
-      </c>
-      <c r="P14" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P14" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q14" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q14">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R14">
+        <v>150</v>
+      </c>
+      <c r="R14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -3268,44 +3498,44 @@
 IF($B15=1,MATCH(OFFSET($H15,-($B15-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I15,-1,0)+OFFSET(K15,-1,0)
 ))</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K15">
         <f ca="1">IF($J15-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L15" t="str">
+        <v>1</v>
+      </c>
+      <c r="L15" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15)</f>
-        <v>재화</v>
-      </c>
-      <c r="N15" t="str">
+        <v>GO</v>
+      </c>
+      <c r="N15">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O15">
+        <v>20000</v>
+      </c>
+      <c r="O15" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+2)</f>
-        <v>300</v>
-      </c>
-      <c r="P15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q15" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q15">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R15">
+        <v>20000</v>
+      </c>
+      <c r="R15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>300</v>
+        <v/>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -3328,44 +3558,44 @@
 IF($B16=1,MATCH(OFFSET($H16,-($B16-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I16,-1,0)+OFFSET(K16,-1,0)
 ))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K16">
         <f ca="1">IF($J16-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L16" t="str">
+      <c r="L16" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
-      </c>
-      <c r="M16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M16">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16)</f>
-        <v>재화</v>
-      </c>
-      <c r="N16" t="str">
+        <v>612</v>
+      </c>
+      <c r="N16">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O16">
+        <v>612</v>
+      </c>
+      <c r="O16" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+2)</f>
-        <v>25000</v>
-      </c>
-      <c r="P16" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P16" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q16" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q16">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R16">
+        <v>612</v>
+      </c>
+      <c r="R16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>25000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3390,44 +3620,44 @@
 IF($B17=1,MATCH(OFFSET($H17,-($B17-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I17,-1,0)+OFFSET(K17,-1,0)
 ))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K17">
         <f ca="1">IF($J17-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L17" t="str">
+      <c r="L17" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17)</f>
-        <v>재화</v>
-      </c>
-      <c r="N17" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N17">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O17">
+        <v>80</v>
+      </c>
+      <c r="O17" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+2)</f>
-        <v>450</v>
-      </c>
-      <c r="P17" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P17" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q17" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q17">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R17">
+        <v>80</v>
+      </c>
+      <c r="R17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>450</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3450,44 +3680,44 @@
 IF($B18=1,MATCH(OFFSET($H18,-($B18-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I18,-1,0)+OFFSET(K18,-1,0)
 ))</f>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K18">
         <f ca="1">IF($J18-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L18" t="str">
+        <v>0</v>
+      </c>
+      <c r="L18" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M18" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18)</f>
-        <v>재화</v>
-      </c>
-      <c r="N18" t="str">
+        <v>GO</v>
+      </c>
+      <c r="N18">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O18">
+        <v>10000</v>
+      </c>
+      <c r="O18" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+2)</f>
-        <v>35000</v>
-      </c>
-      <c r="P18" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P18" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q18" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q18">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R18">
+        <v>10000</v>
+      </c>
+      <c r="R18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>35000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3510,44 +3740,44 @@
 IF($B19=1,MATCH(OFFSET($H19,-($B19-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I19,-1,0)+OFFSET(K19,-1,0)
 ))</f>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <f ca="1">IF($J19-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19-1+4))=0,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L19" t="str">
+      <c r="L19" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M19" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19)</f>
-        <v>재화</v>
-      </c>
-      <c r="N19" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N19">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O19">
+        <v>200</v>
+      </c>
+      <c r="O19" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+2)</f>
-        <v>50000</v>
-      </c>
-      <c r="P19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q19" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q19">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R19">
+        <v>200</v>
+      </c>
+      <c r="R19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>50000</v>
+        <v/>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3570,7 +3800,7 @@
 IF($B20=1,MATCH(OFFSET($H20,-($B20-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I20,-1,0)+OFFSET(K20,-1,0)
 ))</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
@@ -3581,33 +3811,33 @@
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L20" t="str">
+      <c r="L20" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
-      </c>
-      <c r="M20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M20">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20)</f>
-        <v>재화</v>
-      </c>
-      <c r="N20" t="str">
+        <v>501</v>
+      </c>
+      <c r="N20">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O20">
+        <v>501</v>
+      </c>
+      <c r="O20" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+2)</f>
-        <v>350</v>
-      </c>
-      <c r="P20" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P20" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q20" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q20">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R20">
+        <v>501</v>
+      </c>
+      <c r="R20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>350</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -3630,7 +3860,7 @@
 IF($B21=1,MATCH(OFFSET($H21,-($B21-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I21,-1,0)+OFFSET(K21,-1,0)
 ))</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
@@ -3639,35 +3869,35 @@
       <c r="K21">
         <f ca="1">IF($J21-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L21" t="str">
+        <v>0</v>
+      </c>
+      <c r="L21" t="e">
         <f t="shared" ca="1" si="2"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M21" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21)</f>
-        <v>재화</v>
-      </c>
-      <c r="N21" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N21">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O21">
+        <v>300</v>
+      </c>
+      <c r="O21" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+2)</f>
-        <v>30000</v>
-      </c>
-      <c r="P21" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P21" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q21" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q21">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R21">
+        <v>300</v>
+      </c>
+      <c r="R21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>30000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3704,35 +3934,35 @@
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L22" t="str">
+      <c r="L22" t="e">
         <f t="shared" ref="L22:L32" ca="1" si="8">IF(ISBLANK(M22),"",
 VLOOKUP(M22,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
-      </c>
-      <c r="M22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M22">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22)</f>
-        <v>재화</v>
-      </c>
-      <c r="N22" t="str">
+        <v>876</v>
+      </c>
+      <c r="N22">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O22">
+        <v>876</v>
+      </c>
+      <c r="O22" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+2)</f>
-        <v>30</v>
-      </c>
-      <c r="P22" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P22" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q22" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q22">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R22">
+        <v>876</v>
+      </c>
+      <c r="R22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>30</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3766,33 +3996,33 @@
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L23" t="str">
+      <c r="L23" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M23" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23)</f>
-        <v>재화</v>
-      </c>
-      <c r="N23" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N23">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O23">
+        <v>30</v>
+      </c>
+      <c r="O23" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+2)</f>
-        <v>25000</v>
-      </c>
-      <c r="P23" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P23" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q23" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q23">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R23">
+        <v>30</v>
+      </c>
+      <c r="R23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>25000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3824,35 +4054,35 @@
       <c r="K24">
         <f ca="1">IF($J24-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L24" t="str">
+        <v>0</v>
+      </c>
+      <c r="L24" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M24" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24)</f>
-        <v>재화</v>
-      </c>
-      <c r="N24" t="str">
+        <v>GO</v>
+      </c>
+      <c r="N24">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O24">
+        <v>25000</v>
+      </c>
+      <c r="O24" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24+2)</f>
-        <v>100</v>
-      </c>
-      <c r="P24" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P24" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q24" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q24">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R24">
+        <v>25000</v>
+      </c>
+      <c r="R24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>100</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3877,44 +4107,44 @@
 IF($B25=1,MATCH(OFFSET($H25,-($B25-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I25,-1,0)+OFFSET(K25,-1,0)
 ))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K25">
         <f ca="1">IF($J25-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L25" t="str">
+        <v>1</v>
+      </c>
+      <c r="L25" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M25" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25)</f>
-        <v>재화</v>
-      </c>
-      <c r="N25" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N25">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O25">
+        <v>100</v>
+      </c>
+      <c r="O25" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25+2)</f>
-        <v>60</v>
-      </c>
-      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q25" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q25">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R25">
+        <v>100</v>
+      </c>
+      <c r="R25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>60</v>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:18">
@@ -3941,40 +4171,40 @@
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K26">
         <f ca="1">IF($J26-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L26" t="str">
+      <c r="L26" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="M26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M26">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26)</f>
-        <v>재화</v>
-      </c>
-      <c r="N26" t="str">
+        <v>973</v>
+      </c>
+      <c r="N26">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O26">
+        <v>973</v>
+      </c>
+      <c r="O26" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26+2)</f>
-        <v>15000</v>
-      </c>
-      <c r="P26" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P26" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q26" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q26">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R26">
+        <v>973</v>
+      </c>
+      <c r="R26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>15000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -4001,40 +4231,40 @@
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K27">
         <f ca="1">IF($J27-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L27" t="str">
+        <v>0</v>
+      </c>
+      <c r="L27" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M27" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27)</f>
-        <v>재화</v>
-      </c>
-      <c r="N27" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N27">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O27">
+        <v>60</v>
+      </c>
+      <c r="O27" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27+2)</f>
-        <v>120</v>
-      </c>
-      <c r="P27" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P27" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q27" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q27">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R27">
+        <v>60</v>
+      </c>
+      <c r="R27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -4057,44 +4287,44 @@
 IF($B28=1,MATCH(OFFSET($H28,-($B28-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I28,-1,0)+OFFSET(K28,-1,0)
 ))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K28">
         <f ca="1">IF($J28-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L28" t="str">
+      <c r="L28" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M28" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28)</f>
-        <v>재화</v>
-      </c>
-      <c r="N28" t="str">
+        <v>GO</v>
+      </c>
+      <c r="N28">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O28">
+        <v>15000</v>
+      </c>
+      <c r="O28" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28+2)</f>
-        <v>90</v>
-      </c>
-      <c r="P28" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P28" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q28" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q28">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R28">
+        <v>15000</v>
+      </c>
+      <c r="R28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -4117,44 +4347,44 @@
 IF($B29=1,MATCH(OFFSET($H29,-($B29-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I29,-1,0)+OFFSET(K29,-1,0)
 ))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="K29">
         <f ca="1">IF($J29-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L29" t="str">
+        <v>1</v>
+      </c>
+      <c r="L29" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M29" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29)</f>
-        <v>재화</v>
-      </c>
-      <c r="N29" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N29">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O29">
+        <v>120</v>
+      </c>
+      <c r="O29" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29+2)</f>
-        <v>30000</v>
-      </c>
-      <c r="P29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q29" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q29">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R29">
+        <v>120</v>
+      </c>
+      <c r="R29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>30000</v>
+        <v/>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -4181,40 +4411,40 @@
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="K30">
         <f ca="1">IF($J30-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L30" t="str">
+      <c r="L30" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="M30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M30">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30)</f>
-        <v>재화</v>
-      </c>
-      <c r="N30" t="str">
+        <v>180</v>
+      </c>
+      <c r="N30">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O30">
+        <v>180</v>
+      </c>
+      <c r="O30" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30+2)</f>
-        <v>150</v>
-      </c>
-      <c r="P30" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P30" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q30">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R30">
+        <v>180</v>
+      </c>
+      <c r="R30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -4243,40 +4473,40 @@
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K31">
         <f ca="1">IF($J31-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L31" t="str">
+        <v>0</v>
+      </c>
+      <c r="L31" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M31" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31)</f>
-        <v>재화</v>
-      </c>
-      <c r="N31" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N31">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O31">
+        <v>90</v>
+      </c>
+      <c r="O31" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31+2)</f>
-        <v>300</v>
-      </c>
-      <c r="P31" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P31" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q31">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R31">
+        <v>90</v>
+      </c>
+      <c r="R31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>300</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -4313,33 +4543,33 @@
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L32" t="str">
+      <c r="L32" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="M32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="M32">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32)</f>
-        <v>재화</v>
-      </c>
-      <c r="N32" t="str">
+        <v>806</v>
+      </c>
+      <c r="N32">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32+1)</f>
-        <v>EN</v>
-      </c>
-      <c r="O32">
+        <v>806</v>
+      </c>
+      <c r="O32" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32+2)</f>
-        <v>600</v>
-      </c>
-      <c r="P32" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P32" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q32">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R32">
+        <v>806</v>
+      </c>
+      <c r="R32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>600</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -4373,37 +4603,37 @@
       <c r="K33">
         <f ca="1">IF($J33-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L33" t="str">
+        <v>0</v>
+      </c>
+      <c r="L33" t="e">
         <f t="shared" ref="L33" ca="1" si="12">IF(ISBLANK(M33),"",
 VLOOKUP(M33,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>cu</v>
+        <v>#N/A</v>
       </c>
       <c r="M33" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33)</f>
-        <v>재화</v>
-      </c>
-      <c r="N33" t="str">
+        <v>EN</v>
+      </c>
+      <c r="N33">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33+1)</f>
-        <v>GO</v>
-      </c>
-      <c r="O33">
+        <v>600</v>
+      </c>
+      <c r="O33" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33+2)</f>
-        <v>50000</v>
-      </c>
-      <c r="P33" t="str">
+        <v>cu</v>
+      </c>
+      <c r="P33" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="Q33">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R33">
+        <v>600</v>
+      </c>
+      <c r="R33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>50000</v>
+        <v>cu</v>
       </c>
     </row>
     <row r="34" spans="1:18">

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9D6D1B-4029-4DAA-A398-EAE1BAF6CC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEEE19-4056-4190-9257-7422E84947B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35520" yWindow="3015" windowWidth="13515" windowHeight="14265" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,71 +760,51 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>ev4_conti_5</v>
+            <v>ev6_disco_1</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>ev4_conti_6</v>
+            <v>ev6_disco_2</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>ev4_conti_7</v>
+            <v>ev6_disco_3</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>ev4_conti_8</v>
+            <v>ev6_disco_4</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>ev6_disco_1</v>
+            <v>ev7_summer_1</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>ev6_disco_2</v>
+            <v>ev7_summer_2</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>ev6_disco_3</v>
+            <v>ev7_summer_3</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>ev6_disco_4</v>
+            <v>ev7_summer_4</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>ev7_summer_1</v>
+            <v>ev7_summer_5</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>ev7_summer_2</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>ev7_summer_3</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>ev7_summer_4</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>ev7_summer_5</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
             <v>ev7_summer_6</v>
           </cell>
         </row>
@@ -1135,11 +1115,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1661,7 +1641,7 @@
       <c r="F5">
         <f ca="1">IF(NOT(ISBLANK(E5)),E5,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A5))</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f>50*60*60</f>
@@ -2582,13 +2562,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2677,7 +2657,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D34" ca="1" si="0">IF(ISBLANK(E2),"",
+        <f t="shared" ref="D2:D24" ca="1" si="0">IF(ISBLANK(E2),"",
 VLOOKUP(E2,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -2693,48 +2673,48 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <f ca="1">IF($B2=1,9,
-IF(OFFSET(K2,-1,0)=1,9,
+        <f ca="1">IF($B2=1,12,
+IF(OFFSET(K2,-1,0)=1,12,
 OFFSET(J2,-1,0)+4))</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K2">
         <f ca="1">IF($J2-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L2" t="e">
+      <c r="L2" t="str">
         <f ca="1">IF(LEN(M2)=0,"",
 VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M2">
+        <v>cu</v>
+      </c>
+      <c r="M2" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2)</f>
-        <v>721</v>
-      </c>
-      <c r="N2">
+        <v>재화</v>
+      </c>
+      <c r="N2" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+1)</f>
-        <v>721</v>
-      </c>
-      <c r="O2" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O2">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P2" t="e">
+        <v>80</v>
+      </c>
+      <c r="P2" t="str">
         <f ca="1">IF(LEN(D2)&lt;&gt;0,D2,
 IF(LEN(L2)&lt;&gt;0,L2,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q2">
+        <v>cu</v>
+      </c>
+      <c r="Q2" t="str">
         <f ca="1">IF(LEN(F2)&lt;&gt;0,F2,
 IF(LEN(N2)&lt;&gt;0,N2,""))</f>
-        <v>721</v>
-      </c>
-      <c r="R2" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R2">
         <f ca="1">IF(LEN(G2)&lt;&gt;0,G2,
 IF(LEN(O2)&lt;&gt;0,O2,""))</f>
-        <v>cu</v>
+        <v>80</v>
       </c>
       <c r="T2" t="s">
         <v>27</v>
@@ -2766,48 +2746,48 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J34" ca="1" si="1">IF($B3=1,9,
-IF(OFFSET(K3,-1,0)=1,9,
+        <f t="shared" ref="J3:J24" ca="1" si="1">IF($B3=1,12,
+IF(OFFSET(K3,-1,0)=1,12,
 OFFSET(J3,-1,0)+4))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <f ca="1">IF($J3-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L3" t="e">
-        <f t="shared" ref="L3:L21" ca="1" si="2">IF(ISBLANK(M3),"",
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L11" ca="1" si="2">IF(ISBLANK(M3),"",
 VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
-        <v>#N/A</v>
+        <v>cu</v>
       </c>
       <c r="M3" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3)</f>
-        <v>EN</v>
-      </c>
-      <c r="N3">
+        <v>재화</v>
+      </c>
+      <c r="N3" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+1)</f>
-        <v>80</v>
-      </c>
-      <c r="O3" t="str">
+        <v>GO</v>
+      </c>
+      <c r="O3">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P3" t="e">
-        <f t="shared" ref="P3:P34" ca="1" si="3">IF(LEN(D3)&lt;&gt;0,D3,
+        <v>35000</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P24" ca="1" si="3">IF(LEN(D3)&lt;&gt;0,D3,
 IF(LEN(L3)&lt;&gt;0,L3,""))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q34" ca="1" si="4">IF(LEN(F3)&lt;&gt;0,F3,
+        <v>cu</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q24" ca="1" si="4">IF(LEN(F3)&lt;&gt;0,F3,
 IF(LEN(N3)&lt;&gt;0,N3,""))</f>
-        <v>80</v>
-      </c>
-      <c r="R3" t="str">
-        <f t="shared" ref="R3:R34" ca="1" si="5">IF(LEN(G3)&lt;&gt;0,G3,
+        <v>GO</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R24" ca="1" si="5">IF(LEN(G3)&lt;&gt;0,G3,
 IF(LEN(O3)&lt;&gt;0,O3,""))</f>
-        <v>cu</v>
+        <v>35000</v>
       </c>
       <c r="T3" t="s">
         <v>31</v>
@@ -2840,40 +2820,40 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <f ca="1">IF($J4-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L4" t="e">
+        <v>1</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>cu</v>
       </c>
       <c r="M4" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4)</f>
-        <v>GO</v>
-      </c>
-      <c r="N4">
+        <v>재화</v>
+      </c>
+      <c r="N4" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+1)</f>
-        <v>35000</v>
-      </c>
-      <c r="O4" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O4">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P4" t="e">
+        <v>170</v>
+      </c>
+      <c r="P4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q4">
+        <v>cu</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>35000</v>
-      </c>
-      <c r="R4" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R4">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -2896,44 +2876,44 @@
 IF($B5=1,MATCH(OFFSET($H5,-($B5-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I5,-1,0)+OFFSET(K5,-1,0)
 ))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="K5">
         <f ca="1">IF($J5-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5-1+4))=0,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L5" t="e">
+      <c r="L5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>cu</v>
       </c>
       <c r="M5" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5)</f>
+        <v>재화</v>
+      </c>
+      <c r="N5" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+1)</f>
         <v>EN</v>
       </c>
-      <c r="N5">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+1)</f>
-        <v>170</v>
-      </c>
-      <c r="O5" t="str">
+      <c r="O5">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+2)</f>
-        <v/>
-      </c>
-      <c r="P5" t="e">
+        <v>150</v>
+      </c>
+      <c r="P5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q5">
+        <v>cu</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>170</v>
-      </c>
-      <c r="R5" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R5">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -2956,44 +2936,44 @@
 IF($B6=1,MATCH(OFFSET($H6,-($B6-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I6,-1,0)+OFFSET(K6,-1,0)
 ))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K6">
         <f ca="1">IF($J6-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L6" t="e">
+      <c r="L6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M6">
+        <v>cu</v>
+      </c>
+      <c r="M6" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6)</f>
-        <v>884</v>
-      </c>
-      <c r="N6">
+        <v>재화</v>
+      </c>
+      <c r="N6" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+1)</f>
-        <v>884</v>
-      </c>
-      <c r="O6" t="str">
+        <v>GO</v>
+      </c>
+      <c r="O6">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P6" t="e">
+        <v>20000</v>
+      </c>
+      <c r="P6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q6">
+        <v>cu</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>884</v>
-      </c>
-      <c r="R6" t="str">
+        <v>GO</v>
+      </c>
+      <c r="R6">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -3016,44 +2996,44 @@
 IF($B7=1,MATCH(OFFSET($H7,-($B7-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I7,-1,0)+OFFSET(K7,-1,0)
 ))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7">
         <f ca="1">IF($J7-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L7" t="e">
+        <v>0</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>cu</v>
       </c>
       <c r="M7" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7)</f>
+        <v>재화</v>
+      </c>
+      <c r="N7" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+1)</f>
         <v>EN</v>
       </c>
-      <c r="N7">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+1)</f>
+      <c r="O7">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+2)</f>
         <v>150</v>
       </c>
-      <c r="O7" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+2)</f>
-        <v/>
-      </c>
-      <c r="P7" t="e">
+      <c r="P7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q7">
+        <v>cu</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>EN</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ca="1" si="5"/>
         <v>150</v>
-      </c>
-      <c r="R7" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -3080,40 +3060,40 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <f ca="1">IF($J8-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L8" t="e">
+      <c r="L8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M8">
+        <v>cu</v>
+      </c>
+      <c r="M8" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8)</f>
-        <v>217</v>
-      </c>
-      <c r="N8">
+        <v>재화</v>
+      </c>
+      <c r="N8" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+1)</f>
-        <v>217</v>
-      </c>
-      <c r="O8" t="str">
+        <v>GO</v>
+      </c>
+      <c r="O8">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P8" t="e">
+        <v>35000</v>
+      </c>
+      <c r="P8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q8">
+        <v>cu</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>217</v>
-      </c>
-      <c r="R8" t="str">
+        <v>GO</v>
+      </c>
+      <c r="R8">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -3140,40 +3120,40 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K9">
         <f ca="1">IF($J9-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L9" t="e">
+        <v>1</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>cu</v>
       </c>
       <c r="M9" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9)</f>
-        <v>GO</v>
-      </c>
-      <c r="N9">
+        <v>재화</v>
+      </c>
+      <c r="N9" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+1)</f>
-        <v>20000</v>
-      </c>
-      <c r="O9" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O9">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P9" t="e">
+        <v>200</v>
+      </c>
+      <c r="P9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q9">
+        <v>cu</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="R9" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R9">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -3188,7 +3168,7 @@
         <v>연속구매1</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ref="D10:D16" ca="1" si="6">IF(ISBLANK(E10),"",
+        <f t="shared" ref="D10:D11" ca="1" si="6">IF(ISBLANK(E10),"",
 VLOOKUP(E10,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -3198,44 +3178,44 @@
 IF($B10=1,MATCH(OFFSET($H10,-($B10-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I10,-1,0)+OFFSET(K10,-1,0)
 ))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K10">
         <f ca="1">IF($J10-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L10" t="e">
+      <c r="L10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>cu</v>
       </c>
       <c r="M10" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10)</f>
+        <v>재화</v>
+      </c>
+      <c r="N10" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+1)</f>
         <v>EN</v>
       </c>
-      <c r="N10">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+1)</f>
+      <c r="O10">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+2)</f>
         <v>150</v>
       </c>
-      <c r="O10" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P10" t="e">
+      <c r="P10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q10">
+        <v>cu</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>EN</v>
+      </c>
+      <c r="R10">
+        <f t="shared" ca="1" si="5"/>
         <v>150</v>
-      </c>
-      <c r="R10" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -3258,119 +3238,124 @@
 IF($B11=1,MATCH(OFFSET($H11,-($B11-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I11,-1,0)+OFFSET(K11,-1,0)
 ))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K11">
         <f ca="1">IF($J11-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L11" t="e">
+        <v>1</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>cu</v>
       </c>
       <c r="M11" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11)</f>
+        <v>재화</v>
+      </c>
+      <c r="N11" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+1)</f>
         <v>GO</v>
       </c>
-      <c r="N11">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+1)</f>
-        <v>35000</v>
-      </c>
-      <c r="O11" t="str">
+      <c r="O11">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P11" t="e">
+        <v>20000</v>
+      </c>
+      <c r="P11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q11">
+        <v>cu</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>35000</v>
-      </c>
-      <c r="R11" t="str">
+        <v>GO</v>
+      </c>
+      <c r="R11">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C12" t="str">
         <f>VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="H12" t="s">
+        <v>101</v>
       </c>
       <c r="I12">
         <f ca="1">IF(ISBLANK(OFFSET($H12,-($B12-1),0)),"",
 IF($B12=1,MATCH(OFFSET($H12,-($B12-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I12,-1,0)+OFFSET(K12,-1,0)
 ))</f>
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K12">
         <f ca="1">IF($J12-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L12" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" ref="L12:L22" ca="1" si="7">IF(ISBLANK(M12),"",
+VLOOKUP(M12,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
       </c>
       <c r="M12" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12)</f>
+        <v>재화</v>
+      </c>
+      <c r="N12" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+1)</f>
         <v>EN</v>
       </c>
-      <c r="N12">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+1)</f>
-        <v>200</v>
-      </c>
-      <c r="O12" t="str">
+      <c r="O12">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+2)</f>
-        <v/>
-      </c>
-      <c r="P12" t="e">
+        <v>30</v>
+      </c>
+      <c r="P12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q12">
+        <v>cu</v>
+      </c>
+      <c r="Q12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="R12" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R12">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C13" t="str">
         <f>VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I13">
@@ -3378,59 +3363,59 @@
 IF($B13=1,MATCH(OFFSET($H13,-($B13-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I13,-1,0)+OFFSET(K13,-1,0)
 ))</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K13">
         <f ca="1">IF($J13-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L13" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M13">
+      <c r="L13" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M13" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13)</f>
-        <v>394</v>
-      </c>
-      <c r="N13">
+        <v>재화</v>
+      </c>
+      <c r="N13" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+1)</f>
-        <v>394</v>
-      </c>
-      <c r="O13" t="str">
+        <v>GO</v>
+      </c>
+      <c r="O13">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P13" t="e">
+        <v>25000</v>
+      </c>
+      <c r="P13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q13">
+        <v>cu</v>
+      </c>
+      <c r="Q13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>394</v>
-      </c>
-      <c r="R13" t="str">
+        <v>GO</v>
+      </c>
+      <c r="R13">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
         <v>3</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(A14,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="I14">
@@ -3438,59 +3423,61 @@
 IF($B14=1,MATCH(OFFSET($H14,-($B14-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I14,-1,0)+OFFSET(K14,-1,0)
 ))</f>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K14">
         <f ca="1">IF($J14-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L14" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
       </c>
       <c r="M14" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14)</f>
+        <v>재화</v>
+      </c>
+      <c r="N14" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+1)</f>
         <v>EN</v>
       </c>
-      <c r="N14">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+1)</f>
-        <v>150</v>
-      </c>
-      <c r="O14" t="str">
+      <c r="O14">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P14" t="e">
+        <v>100</v>
+      </c>
+      <c r="P14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q14">
+        <v>cu</v>
+      </c>
+      <c r="Q14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
-      </c>
-      <c r="R14" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R14">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(A15,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="D15:D20" ca="1" si="8">IF(ISBLANK(E15),"",
+VLOOKUP(E15,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="I15">
@@ -3498,59 +3485,59 @@
 IF($B15=1,MATCH(OFFSET($H15,-($B15-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I15,-1,0)+OFFSET(K15,-1,0)
 ))</f>
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K15">
         <f ca="1">IF($J15-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L15" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
       </c>
       <c r="M15" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15)</f>
-        <v>GO</v>
-      </c>
-      <c r="N15">
+        <v>재화</v>
+      </c>
+      <c r="N15" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+1)</f>
-        <v>20000</v>
-      </c>
-      <c r="O15" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O15">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+2)</f>
-        <v/>
-      </c>
-      <c r="P15" t="e">
+        <v>60</v>
+      </c>
+      <c r="P15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q15">
+        <v>cu</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="R15" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R15">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(A16,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="I16">
@@ -3558,61 +3545,59 @@
 IF($B16=1,MATCH(OFFSET($H16,-($B16-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I16,-1,0)+OFFSET(K16,-1,0)
 ))</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K16">
         <f ca="1">IF($J16-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L16" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M16">
+      <c r="L16" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M16" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16)</f>
-        <v>612</v>
-      </c>
-      <c r="N16">
+        <v>재화</v>
+      </c>
+      <c r="N16" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+1)</f>
-        <v>612</v>
-      </c>
-      <c r="O16" t="str">
+        <v>GO</v>
+      </c>
+      <c r="O16">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P16" t="e">
+        <v>15000</v>
+      </c>
+      <c r="P16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q16">
+        <v>cu</v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>612</v>
-      </c>
-      <c r="R16" t="str">
+        <v>GO</v>
+      </c>
+      <c r="R16">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(A17,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ref="D17:D21" ca="1" si="7">IF(ISBLANK(E17),"",
-VLOOKUP(E17,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="I17">
@@ -3620,59 +3605,59 @@
 IF($B17=1,MATCH(OFFSET($H17,-($B17-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I17,-1,0)+OFFSET(K17,-1,0)
 ))</f>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <f ca="1">IF($J17-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L17" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
       </c>
       <c r="M17" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17)</f>
+        <v>재화</v>
+      </c>
+      <c r="N17" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+1)</f>
         <v>EN</v>
       </c>
-      <c r="N17">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+1)</f>
-        <v>80</v>
-      </c>
-      <c r="O17" t="str">
+      <c r="O17">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P17" t="e">
+        <v>120</v>
+      </c>
+      <c r="P17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q17">
+        <v>cu</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="R17" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R17">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(A18,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="I18">
@@ -3680,59 +3665,59 @@
 IF($B18=1,MATCH(OFFSET($H18,-($B18-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I18,-1,0)+OFFSET(K18,-1,0)
 ))</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="K18">
         <f ca="1">IF($J18-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L18" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+      <c r="L18" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
       </c>
       <c r="M18" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18)</f>
-        <v>GO</v>
-      </c>
-      <c r="N18">
+        <v>재화</v>
+      </c>
+      <c r="N18" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+1)</f>
-        <v>10000</v>
-      </c>
-      <c r="O18" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O18">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P18" t="e">
+        <v>90</v>
+      </c>
+      <c r="P18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q18">
+        <v>cu</v>
+      </c>
+      <c r="Q18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="R18" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R18">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" t="str">
         <f>VLOOKUP(A19,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="I19">
@@ -3740,59 +3725,59 @@
 IF($B19=1,MATCH(OFFSET($H19,-($B19-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I19,-1,0)+OFFSET(K19,-1,0)
 ))</f>
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="1"/>
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K19">
         <f ca="1">IF($J19-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L19" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>0</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
       </c>
       <c r="M19" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19)</f>
-        <v>EN</v>
-      </c>
-      <c r="N19">
+        <v>재화</v>
+      </c>
+      <c r="N19" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+1)</f>
-        <v>200</v>
-      </c>
-      <c r="O19" t="str">
+        <v>GO</v>
+      </c>
+      <c r="O19">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+2)</f>
-        <v/>
-      </c>
-      <c r="P19" t="e">
+        <v>30000</v>
+      </c>
+      <c r="P19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q19">
+        <v>cu</v>
+      </c>
+      <c r="Q19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
-      </c>
-      <c r="R19" t="str">
+        <v>GO</v>
+      </c>
+      <c r="R19">
         <f t="shared" ca="1" si="5"/>
-        <v/>
+        <v>30000</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B20">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C20" t="str">
         <f>VLOOKUP(A20,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="I20">
@@ -3800,59 +3785,61 @@
 IF($B20=1,MATCH(OFFSET($H20,-($B20-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I20,-1,0)+OFFSET(K20,-1,0)
 ))</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K20">
         <f ca="1">IF($J20-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L20" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M20">
+      <c r="L20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M20" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20)</f>
-        <v>501</v>
-      </c>
-      <c r="N20">
+        <v>재화</v>
+      </c>
+      <c r="N20" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+1)</f>
-        <v>501</v>
-      </c>
-      <c r="O20" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O20">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P20" t="e">
+        <v>150</v>
+      </c>
+      <c r="P20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q20">
+        <v>cu</v>
+      </c>
+      <c r="Q20" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>501</v>
-      </c>
-      <c r="R20" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R20">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(A21,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ref="D21" ca="1" si="9">IF(ISBLANK(E21),"",
+VLOOKUP(E21,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="I21">
@@ -3860,124 +3847,124 @@
 IF($B21=1,MATCH(OFFSET($H21,-($B21-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I21,-1,0)+OFFSET(K21,-1,0)
 ))</f>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K21">
         <f ca="1">IF($J21-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L21" t="e">
-        <f t="shared" ca="1" si="2"/>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
       </c>
       <c r="M21" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21)</f>
+        <v>재화</v>
+      </c>
+      <c r="N21" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+1)</f>
         <v>EN</v>
       </c>
-      <c r="N21">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+1)</f>
+      <c r="O21">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+2)</f>
         <v>300</v>
       </c>
-      <c r="O21" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P21" t="e">
+      <c r="P21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q21">
+        <v>cu</v>
+      </c>
+      <c r="Q21" t="str">
         <f t="shared" ca="1" si="4"/>
+        <v>EN</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ca="1" si="5"/>
         <v>300</v>
-      </c>
-      <c r="R21" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(A22,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <v>빅부스트 패키지1</v>
       </c>
       <c r="D22" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I22">
         <f ca="1">IF(ISBLANK(OFFSET($H22,-($B22-1),0)),"",
 IF($B22=1,MATCH(OFFSET($H22,-($B22-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I22,-1,0)+OFFSET(K22,-1,0)
 ))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K22">
         <f ca="1">IF($J22-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L22" t="e">
-        <f t="shared" ref="L22:L32" ca="1" si="8">IF(ISBLANK(M22),"",
-VLOOKUP(M22,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M22">
+      <c r="L22" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v>cu</v>
+      </c>
+      <c r="M22" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22)</f>
-        <v>876</v>
-      </c>
-      <c r="N22">
+        <v>재화</v>
+      </c>
+      <c r="N22" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+1)</f>
-        <v>876</v>
-      </c>
-      <c r="O22" t="str">
+        <v>EN</v>
+      </c>
+      <c r="O22">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P22" t="e">
+        <v>600</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q22">
+        <v>cu</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>876</v>
-      </c>
-      <c r="R22" t="str">
+        <v>EN</v>
+      </c>
+      <c r="R22">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="B23">
         <v>2</v>
       </c>
       <c r="C23" t="str">
         <f>VLOOKUP(A23,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <v>빅부스트 패키지1</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="D23" ca="1" si="10">IF(ISBLANK(E23),"",
+VLOOKUP(E23,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="I23">
@@ -3985,728 +3972,119 @@
 IF($B23=1,MATCH(OFFSET($H23,-($B23-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I23,-1,0)+OFFSET(K23,-1,0)
 ))</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K23">
         <f ca="1">IF($J23-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L23" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>1</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23" ca="1" si="11">IF(ISBLANK(M23),"",
+VLOOKUP(M23,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v>cu</v>
       </c>
       <c r="M23" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23)</f>
-        <v>EN</v>
-      </c>
-      <c r="N23">
+        <v>재화</v>
+      </c>
+      <c r="N23" t="str">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+1)</f>
-        <v>30</v>
-      </c>
-      <c r="O23" t="str">
+        <v>GO</v>
+      </c>
+      <c r="O23">
         <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P23" t="e">
+        <v>50000</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q23">
+        <v>cu</v>
+      </c>
+      <c r="Q23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="R23" t="str">
+        <v>GO</v>
+      </c>
+      <c r="R23">
         <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(A24,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <v>올모스트 데어1</v>
       </c>
       <c r="D24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="I24">
+        <v>cu</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="I24" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($H24,-($B24-1),0)),"",
 IF($B24=1,MATCH(OFFSET($H24,-($B24-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(I24,-1,0)+OFFSET(K24,-1,0)
 ))</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="K24">
-        <f ca="1">IF($J24-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L24" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>12</v>
+      </c>
+      <c r="K24" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($H24,-($B24-1),0)),"",
+IF($J24-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24-1+4))=0,1,0)))</f>
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <f ca="1">IF(LEN(M24)=0,"",
+VLOOKUP(M24,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
       </c>
       <c r="M24" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24)</f>
-        <v>GO</v>
-      </c>
-      <c r="N24">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24+1)</f>
-        <v>25000</v>
+        <f ca="1">IF(LEN($I24)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24))</f>
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <f ca="1">IF(LEN($I24)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24))</f>
+        <v/>
       </c>
       <c r="O24" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P24" t="e">
+        <f ca="1">IF(LEN($I24)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24))</f>
+        <v/>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q24">
-        <f t="shared" ca="1" si="4"/>
-        <v>25000</v>
-      </c>
-      <c r="R24" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="str">
-        <f>VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="D25" t="str">
-        <f t="shared" ref="D25:D30" ca="1" si="9">IF(ISBLANK(E25),"",
-VLOOKUP(E25,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
-      </c>
-      <c r="I25">
-        <f ca="1">IF(ISBLANK(OFFSET($H25,-($B25-1),0)),"",
-IF($B25=1,MATCH(OFFSET($H25,-($B25-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I25,-1,0)+OFFSET(K25,-1,0)
-))</f>
-        <v>7</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="K25">
-        <f ca="1">IF($J25-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L25" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M25" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25)</f>
-        <v>EN</v>
-      </c>
-      <c r="N25">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25+1)</f>
-        <v>100</v>
-      </c>
-      <c r="O25" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I25-1,$J25+2)</f>
-        <v/>
-      </c>
-      <c r="P25" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q25">
-        <f t="shared" ca="1" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="R25" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26">
-        <v>5</v>
-      </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="D26" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I26">
-        <f ca="1">IF(ISBLANK(OFFSET($H26,-($B26-1),0)),"",
-IF($B26=1,MATCH(OFFSET($H26,-($B26-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I26,-1,0)+OFFSET(K26,-1,0)
-))</f>
-        <v>8</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K26">
-        <f ca="1">IF($J26-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L26" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M26">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26)</f>
-        <v>973</v>
-      </c>
-      <c r="N26">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26+1)</f>
-        <v>973</v>
-      </c>
-      <c r="O26" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I26-1,$J26+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P26" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" ca="1" si="4"/>
-        <v>973</v>
-      </c>
-      <c r="R26" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27">
-        <v>6</v>
-      </c>
-      <c r="C27" t="str">
-        <f>VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="D27" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I27">
-        <f ca="1">IF(ISBLANK(OFFSET($H27,-($B27-1),0)),"",
-IF($B27=1,MATCH(OFFSET($H27,-($B27-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I27,-1,0)+OFFSET(K27,-1,0)
-))</f>
-        <v>8</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K27">
-        <f ca="1">IF($J27-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L27" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M27" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27)</f>
-        <v>EN</v>
-      </c>
-      <c r="N27">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27+1)</f>
-        <v>60</v>
-      </c>
-      <c r="O27" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I27-1,$J27+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P27" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="R27" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28">
-        <v>7</v>
-      </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="D28" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I28">
-        <f ca="1">IF(ISBLANK(OFFSET($H28,-($B28-1),0)),"",
-IF($B28=1,MATCH(OFFSET($H28,-($B28-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I28,-1,0)+OFFSET(K28,-1,0)
-))</f>
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="K28">
-        <f ca="1">IF($J28-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L28" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M28" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28)</f>
-        <v>GO</v>
-      </c>
-      <c r="N28">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28+1)</f>
-        <v>15000</v>
-      </c>
-      <c r="O28" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I28-1,$J28+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P28" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" ca="1" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="R28" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" t="str">
-        <f>VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="D29" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I29">
-        <f ca="1">IF(ISBLANK(OFFSET($H29,-($B29-1),0)),"",
-IF($B29=1,MATCH(OFFSET($H29,-($B29-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I29,-1,0)+OFFSET(K29,-1,0)
-))</f>
-        <v>8</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="K29">
-        <f ca="1">IF($J29-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L29" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M29" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29)</f>
-        <v>EN</v>
-      </c>
-      <c r="N29">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29+1)</f>
-        <v>120</v>
-      </c>
-      <c r="O29" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I29-1,$J29+2)</f>
-        <v/>
-      </c>
-      <c r="P29" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" ca="1" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="R29" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30">
-        <v>9</v>
-      </c>
-      <c r="C30" t="str">
-        <f>VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="D30" t="str">
-        <f t="shared" ca="1" si="9"/>
-        <v/>
-      </c>
-      <c r="I30">
-        <f ca="1">IF(ISBLANK(OFFSET($H30,-($B30-1),0)),"",
-IF($B30=1,MATCH(OFFSET($H30,-($B30-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I30,-1,0)+OFFSET(K30,-1,0)
-))</f>
-        <v>9</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K30">
-        <f ca="1">IF($J30-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L30" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M30">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30)</f>
-        <v>180</v>
-      </c>
-      <c r="N30">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30+1)</f>
-        <v>180</v>
-      </c>
-      <c r="O30" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I30-1,$J30+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P30" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" ca="1" si="4"/>
-        <v>180</v>
-      </c>
-      <c r="R30" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31">
-        <v>10</v>
-      </c>
-      <c r="C31" t="str">
-        <f>VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
-      </c>
-      <c r="D31" t="str">
-        <f t="shared" ref="D31" ca="1" si="10">IF(ISBLANK(E31),"",
-VLOOKUP(E31,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
-      </c>
-      <c r="I31">
-        <f ca="1">IF(ISBLANK(OFFSET($H31,-($B31-1),0)),"",
-IF($B31=1,MATCH(OFFSET($H31,-($B31-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I31,-1,0)+OFFSET(K31,-1,0)
-))</f>
-        <v>9</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K31">
-        <f ca="1">IF($J31-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L31" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M31" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31)</f>
-        <v>EN</v>
-      </c>
-      <c r="N31">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31+1)</f>
-        <v>90</v>
-      </c>
-      <c r="O31" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I31-1,$J31+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P31" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" ca="1" si="4"/>
-        <v>90</v>
-      </c>
-      <c r="R31" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-      <c r="C32" t="str">
-        <f>VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>빅부스트 패키지1</v>
-      </c>
-      <c r="D32" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="H32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32">
-        <f ca="1">IF(ISBLANK(OFFSET($H32,-($B32-1),0)),"",
-IF($B32=1,MATCH(OFFSET($H32,-($B32-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I32,-1,0)+OFFSET(K32,-1,0)
-))</f>
-        <v>3</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K32">
-        <f ca="1">IF($J32-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L32" t="e">
-        <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M32">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32)</f>
-        <v>806</v>
-      </c>
-      <c r="N32">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32+1)</f>
-        <v>806</v>
-      </c>
-      <c r="O32" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I32-1,$J32+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P32" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" ca="1" si="4"/>
-        <v>806</v>
-      </c>
-      <c r="R32" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="str">
-        <f>VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>빅부스트 패키지1</v>
-      </c>
-      <c r="D33" t="str">
-        <f t="shared" ref="D33" ca="1" si="11">IF(ISBLANK(E33),"",
-VLOOKUP(E33,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
-      </c>
-      <c r="I33">
-        <f ca="1">IF(ISBLANK(OFFSET($H33,-($B33-1),0)),"",
-IF($B33=1,MATCH(OFFSET($H33,-($B33-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I33,-1,0)+OFFSET(K33,-1,0)
-))</f>
-        <v>3</v>
-      </c>
-      <c r="J33">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="K33">
-        <f ca="1">IF($J33-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L33" t="e">
-        <f t="shared" ref="L33" ca="1" si="12">IF(ISBLANK(M33),"",
-VLOOKUP(M33,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M33" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33)</f>
-        <v>EN</v>
-      </c>
-      <c r="N33">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33+1)</f>
-        <v>600</v>
-      </c>
-      <c r="O33" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I33-1,$J33+2)</f>
-        <v>cu</v>
-      </c>
-      <c r="P33" t="e">
-        <f t="shared" ca="1" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" ca="1" si="4"/>
-        <v>600</v>
-      </c>
-      <c r="R33" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>cu</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="str">
-        <f>VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>올모스트 데어1</v>
-      </c>
-      <c r="D34" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34">
-        <v>100</v>
-      </c>
-      <c r="I34" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($H34,-($B34-1),0)),"",
-IF($B34=1,MATCH(OFFSET($H34,-($B34-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I34,-1,0)+OFFSET(K34,-1,0)
-))</f>
-        <v/>
-      </c>
-      <c r="J34">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K34" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($H34,-($B34-1),0)),"",
-IF($J34-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34-1+4))=0,1,0)))</f>
-        <v/>
-      </c>
-      <c r="L34" t="str">
-        <f ca="1">IF(LEN(M34)=0,"",
-VLOOKUP(M34,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
-      </c>
-      <c r="M34" t="str">
-        <f ca="1">IF(LEN($I34)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34))</f>
-        <v/>
-      </c>
-      <c r="N34" t="str">
-        <f ca="1">IF(LEN($I34)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34))</f>
-        <v/>
-      </c>
-      <c r="O34" t="str">
-        <f ca="1">IF(LEN($I34)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$I34-1,$J34))</f>
-        <v/>
-      </c>
-      <c r="P34" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q34" t="str">
+        <v>cu</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" si="4"/>
         <v>EN</v>
       </c>
-      <c r="R34">
+      <c r="R24">
         <f t="shared" si="5"/>
         <v>100</v>
       </c>
@@ -4714,7 +4092,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E34" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E24" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAEEE19-4056-4190-9257-7422E84947B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3200E60-63CD-411E-AA4A-2D6BC314843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
     <sheet name="EventRewardTable" sheetId="2" r:id="rId2"/>
+    <sheet name="EnergyUsePaybackTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,6 +434,33 @@
   </si>
   <si>
     <t>productCount오버라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_에너지소비되돌림</t>
+  </si>
+  <si>
+    <t>비구매_에너지소비되돌림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyUsePaybackTable 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payback|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usPbk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,22 +788,22 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>ev6_disco_1</v>
+            <v>ev10_disco_1</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>ev6_disco_2</v>
+            <v>ev10_disco_2</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>ev6_disco_3</v>
+            <v>ev10_disco_3</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>ev6_disco_4</v>
+            <v>ev10_disco_4</v>
           </cell>
         </row>
         <row r="18">
@@ -1119,7 +1147,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I21" sqref="I21"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1383,7 +1411,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
-        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
+        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1849,86 +1877,111 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F7">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A7))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>600</v>
+        <f>60*60*24*7</f>
+        <v>604800</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>10m</v>
+        <v>7d</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <f>60*60*24*30</f>
+        <v>2592000</v>
       </c>
       <c r="J7" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K7" t="str">
+        <v>30d</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L7" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M7" t="str">
+        <v>9</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N7" t="str">
+        <v>12</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O7" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O7">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P7" t="str">
+        <v>9</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" t="str">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>44816</v>
+      </c>
+      <c r="R7" s="3">
+        <v>44831</v>
+      </c>
+      <c r="S7">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB7" s="4"/>
+        <v>2022</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" ref="Z7" ca="1" si="12">VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" ref="AB7" ca="1" si="13">VLOOKUP(AA7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC7" s="4">
+        <v>1</v>
+      </c>
       <c r="AD7" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="11"/>
-        <v>"ev6":0</v>
+        <v>"ev6":2592000</v>
       </c>
       <c r="AG7" t="s">
         <v>44</v>
@@ -2013,7 +2066,7 @@
       <c r="AB8" s="4"/>
       <c r="AD8" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="11"/>
@@ -2099,7 +2152,7 @@
       <c r="AB9" s="4"/>
       <c r="AD9" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="11"/>
@@ -2185,7 +2238,7 @@
       <c r="AB10" s="4"/>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="11"/>
@@ -2199,10 +2252,13 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
       <c r="F11">
         <f ca="1">IF(NOT(ISBLANK(E11)),E11,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A11))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>600</v>
@@ -2271,7 +2327,7 @@
       <c r="AB11" s="4"/>
       <c r="AD11" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="11"/>
@@ -2364,7 +2420,7 @@
       <c r="AB12" s="4"/>
       <c r="AD12" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="11"/>
@@ -2450,7 +2506,7 @@
       <c r="AB13" s="4"/>
       <c r="AD13" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="11"/>
@@ -2536,11 +2592,14 @@
       <c r="AB14" s="4"/>
       <c r="AD14" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":0,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="11"/>
         <v>"ev13":0</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2551,7 +2610,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y5 AA2:AA14 C2:C14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y5 C2:C14 AA2:AA14 Y7" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2564,11 +2623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -4099,4 +4158,144 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1E36DF-6F06-476F-82A1-5AA7FC9E8C19}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="3" max="4" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27" customHeight="1">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>500</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C7" ca="1" si="0">IF(ROW()=2,D2,OFFSET(C2,-1,0)&amp;IF(LEN(D2)=0,"",","&amp;D2))</f>
+        <v>"500":100</v>
+      </c>
+      <c r="D2" t="str">
+        <f>""""&amp;$A2&amp;""""&amp;""&amp;":"&amp;B2</f>
+        <v>"500":100</v>
+      </c>
+      <c r="F2" t="str">
+        <f ca="1">"{"&amp;
+IF(LEFT(OFFSET(C1,COUNTA(C:C)-1,0),1)=",",SUBSTITUTE(OFFSET(C1,COUNTA(C:C)-1,0),",","",1),OFFSET(C1,COUNTA(C:C)-1,0))
+&amp;"}"</f>
+        <v>{"500":100,"1000":150,"2000":300,"5000":800,"8000":1000,"12000":1500}</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"500":100,"1000":150</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D7" si="1">""""&amp;$A3&amp;""""&amp;""&amp;":"&amp;B3</f>
+        <v>"1000":150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"500":100,"1000":150,"2000":300</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>"2000":300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>5000</v>
+      </c>
+      <c r="B5">
+        <v>800</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"500":100,"1000":150,"2000":300,"5000":800</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>"5000":800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>8000</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"500":100,"1000":150,"2000":300,"5000":800,"8000":1000</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>"8000":1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>12000</v>
+      </c>
+      <c r="B7">
+        <v>1500</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>"500":100,"1000":150,"2000":300,"5000":800,"8000":1000,"12000":1500</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>"12000":1500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3200E60-63CD-411E-AA4A-2D6BC314843C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D99160-15AA-4AED-B0A8-9E567FED2213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,10 @@
   </si>
   <si>
     <t>usPbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energypayback</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1141,41 +1145,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="4.125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="3.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="11.75" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="4.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="11.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9" customWidth="1"/>
+    <col min="30" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" collapsed="1"/>
+    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9" collapsed="1"/>
+    <col min="35" max="35" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9" collapsed="1"/>
+    <col min="38" max="38" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="9" collapsed="1"/>
+    <col min="40" max="40" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="41" max="41" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="27" customHeight="1">
@@ -1882,6 +1895,9 @@
       </c>
       <c r="C7" t="s">
         <v>105</v>
+      </c>
+      <c r="D7" t="s">
+        <v>112</v>
       </c>
       <c r="F7">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
@@ -2624,7 +2640,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
@@ -4164,7 +4180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A1E36DF-6F06-476F-82A1-5AA7FC9E8C19}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D99160-15AA-4AED-B0A8-9E567FED2213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D7C079-EB9E-479A-9360-1B165F56FA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -465,6 +465,10 @@
   </si>
   <si>
     <t>energypayback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분모참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -589,144 +593,147 @@
             <v>이벤트프로덕트카운트참고</v>
           </cell>
           <cell r="E1" t="str">
+            <v>등록상품개수</v>
+          </cell>
+          <cell r="F1" t="str">
             <v>indexSub|Int</v>
           </cell>
-          <cell r="F1" t="str">
+          <cell r="G1" t="str">
             <v>free|Bool</v>
           </cell>
-          <cell r="G1" t="str">
+          <cell r="H1" t="str">
             <v>eng|Float</v>
           </cell>
-          <cell r="H1" t="str">
+          <cell r="I1" t="str">
             <v>kor|Int</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="J1" t="str">
             <v>serverItemId|String</v>
           </cell>
-          <cell r="J1" t="str">
+          <cell r="K1" t="str">
             <v>key</v>
           </cell>
-          <cell r="K1" t="str">
+          <cell r="L1" t="str">
             <v>key|Int</v>
           </cell>
-          <cell r="L1" t="str">
+          <cell r="M1" t="str">
             <v>tp1</v>
           </cell>
-          <cell r="M1" t="str">
+          <cell r="N1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="N1" t="str">
+          <cell r="O1" t="str">
             <v>vl1</v>
           </cell>
-          <cell r="O1" t="str">
+          <cell r="P1" t="str">
             <v>cn1</v>
           </cell>
-          <cell r="P1" t="str">
+          <cell r="Q1" t="str">
             <v>tp2</v>
           </cell>
-          <cell r="Q1" t="str">
+          <cell r="R1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="S1" t="str">
             <v>vl2</v>
           </cell>
-          <cell r="S1" t="str">
+          <cell r="T1" t="str">
             <v>cn2</v>
           </cell>
-          <cell r="T1" t="str">
+          <cell r="U1" t="str">
             <v>tp3</v>
           </cell>
-          <cell r="U1" t="str">
+          <cell r="V1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="V1" t="str">
+          <cell r="W1" t="str">
             <v>vl3</v>
           </cell>
-          <cell r="W1" t="str">
+          <cell r="X1" t="str">
             <v>cn3</v>
           </cell>
-          <cell r="X1" t="str">
+          <cell r="Y1" t="str">
             <v>tp4</v>
           </cell>
-          <cell r="Y1" t="str">
+          <cell r="Z1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="Z1" t="str">
+          <cell r="AA1" t="str">
             <v>vl4</v>
           </cell>
-          <cell r="AA1" t="str">
+          <cell r="AB1" t="str">
             <v>cn4</v>
           </cell>
-          <cell r="AB1" t="str">
+          <cell r="AC1" t="str">
             <v>tp5</v>
           </cell>
-          <cell r="AC1" t="str">
+          <cell r="AD1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="AD1" t="str">
+          <cell r="AE1" t="str">
             <v>vl5</v>
           </cell>
-          <cell r="AE1" t="str">
+          <cell r="AF1" t="str">
             <v>cn5</v>
           </cell>
-          <cell r="AF1" t="str">
+          <cell r="AG1" t="str">
             <v>rewardType1|String</v>
           </cell>
-          <cell r="AG1" t="str">
+          <cell r="AH1" t="str">
             <v>rewardValue1|String</v>
           </cell>
-          <cell r="AH1" t="str">
+          <cell r="AI1" t="str">
             <v>rewardCount1|Int</v>
           </cell>
-          <cell r="AI1" t="str">
+          <cell r="AJ1" t="str">
             <v>rewardType2|String</v>
           </cell>
-          <cell r="AJ1" t="str">
+          <cell r="AK1" t="str">
             <v>rewardValue2|String</v>
           </cell>
-          <cell r="AK1" t="str">
+          <cell r="AL1" t="str">
             <v>rewardCount2|Int</v>
           </cell>
-          <cell r="AL1" t="str">
+          <cell r="AM1" t="str">
             <v>rewardType3|String</v>
           </cell>
-          <cell r="AM1" t="str">
+          <cell r="AN1" t="str">
             <v>rewardValue3|String</v>
           </cell>
-          <cell r="AN1" t="str">
+          <cell r="AO1" t="str">
             <v>rewardCount3|Int</v>
           </cell>
-          <cell r="AO1" t="str">
+          <cell r="AP1" t="str">
             <v>rewardType4|String</v>
           </cell>
-          <cell r="AP1" t="str">
+          <cell r="AQ1" t="str">
             <v>rewardValue4|String</v>
           </cell>
-          <cell r="AQ1" t="str">
+          <cell r="AR1" t="str">
             <v>rewardCount4|Int</v>
           </cell>
-          <cell r="AR1" t="str">
+          <cell r="AS1" t="str">
             <v>rewardType5|String</v>
           </cell>
-          <cell r="AS1" t="str">
+          <cell r="AT1" t="str">
             <v>rewardValue5|String</v>
           </cell>
-          <cell r="AT1" t="str">
+          <cell r="AU1" t="str">
             <v>rewardCount5|Int</v>
           </cell>
-          <cell r="AU1" t="str">
+          <cell r="AV1" t="str">
             <v>테이블연결</v>
           </cell>
-          <cell r="AV1" t="str">
+          <cell r="AW1" t="str">
             <v>Jason화</v>
           </cell>
-          <cell r="AX1" t="str">
+          <cell r="AY1" t="str">
             <v>tp_Verify</v>
           </cell>
-          <cell r="AY1" t="str">
+          <cell r="AZ1" t="str">
             <v>value</v>
           </cell>
-          <cell r="BA1" t="str">
+          <cell r="BB1" t="str">
             <v>sProd</v>
           </cell>
         </row>
@@ -734,110 +741,242 @@
           <cell r="A2" t="str">
             <v>test_levelpass</v>
           </cell>
+          <cell r="D2" t="str">
+            <v>test</v>
+          </cell>
+          <cell r="E2">
+            <v>1</v>
+          </cell>
         </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>test_bigboost</v>
           </cell>
+          <cell r="D3" t="str">
+            <v>test</v>
+          </cell>
+          <cell r="E3">
+            <v>2</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
             <v>ev5_oneplustwo_1</v>
           </cell>
+          <cell r="D4" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="E4">
+            <v>2</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
             <v>ev5_oneplustwo_2</v>
           </cell>
+          <cell r="D5" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
             <v>ev5_oneplustwo_3</v>
           </cell>
+          <cell r="D6" t="str">
+            <v>ev5</v>
+          </cell>
+          <cell r="E6">
+            <v>1</v>
+          </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
             <v>ev3_oneofthree_1</v>
           </cell>
+          <cell r="D7" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="E7">
+            <v>3</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
             <v>ev3_oneofthree_2</v>
           </cell>
+          <cell r="D8" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="E8">
+            <v>3</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
             <v>ev3_oneofthree_3</v>
           </cell>
+          <cell r="D9" t="str">
+            <v>ev3</v>
+          </cell>
+          <cell r="E9">
+            <v>4</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
             <v>ev4_conti_1</v>
           </cell>
+          <cell r="D10" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E10">
+            <v>3</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
             <v>ev4_conti_2</v>
           </cell>
+          <cell r="D11" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E11">
+            <v>1</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>ev4_conti_3</v>
           </cell>
+          <cell r="D12" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E12">
+            <v>4</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
             <v>ev4_conti_4</v>
           </cell>
+          <cell r="D13" t="str">
+            <v>ev4</v>
+          </cell>
+          <cell r="E13">
+            <v>2</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
             <v>ev10_disco_1</v>
           </cell>
+          <cell r="D14" t="str">
+            <v>ev10</v>
+          </cell>
+          <cell r="E14">
+            <v>1</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
             <v>ev10_disco_2</v>
           </cell>
+          <cell r="D15" t="str">
+            <v>ev10</v>
+          </cell>
+          <cell r="E15">
+            <v>1</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>ev10_disco_3</v>
           </cell>
+          <cell r="D16" t="str">
+            <v>ev10</v>
+          </cell>
+          <cell r="E16">
+            <v>1</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>ev10_disco_4</v>
           </cell>
+          <cell r="D17" t="str">
+            <v>ev10</v>
+          </cell>
+          <cell r="E17">
+            <v>1</v>
+          </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
             <v>ev7_summer_1</v>
           </cell>
+          <cell r="D18" t="str">
+            <v>ev7</v>
+          </cell>
+          <cell r="E18">
+            <v>1</v>
+          </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
             <v>ev7_summer_2</v>
           </cell>
+          <cell r="D19" t="str">
+            <v>ev7</v>
+          </cell>
+          <cell r="E19">
+            <v>1</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
             <v>ev7_summer_3</v>
           </cell>
+          <cell r="D20" t="str">
+            <v>ev7</v>
+          </cell>
+          <cell r="E20">
+            <v>1</v>
+          </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
             <v>ev7_summer_4</v>
           </cell>
+          <cell r="D21" t="str">
+            <v>ev7</v>
+          </cell>
+          <cell r="E21">
+            <v>1</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
             <v>ev7_summer_5</v>
           </cell>
+          <cell r="D22" t="str">
+            <v>ev7</v>
+          </cell>
+          <cell r="E22">
+            <v>1</v>
+          </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
             <v>ev7_summer_6</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>ev7</v>
+          </cell>
+          <cell r="E23">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -1145,50 +1284,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="3" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" collapsed="1"/>
-    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" collapsed="1"/>
+    <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="4.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="3.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="11.75" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="9" collapsed="1"/>
-    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="28" width="9" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="32" max="32" width="9" collapsed="1"/>
-    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="9" collapsed="1"/>
-    <col min="35" max="35" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="9" collapsed="1"/>
-    <col min="38" max="38" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="39" max="39" width="9" collapsed="1"/>
-    <col min="40" max="40" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="41" max="41" width="9" collapsed="1"/>
+    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.875" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="5.5" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="4.125" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.625" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="11.75" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.125" customWidth="1" outlineLevel="1"/>
+    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" customWidth="1"/>
+    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="29" width="9" customWidth="1"/>
+    <col min="30" max="31" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="35" max="35" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="38" max="38" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="40" max="40" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="27" customHeight="1">
@@ -2637,1538 +2767,1699 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="3" max="3" width="24.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="23.875" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="15" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="20" max="21" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" outlineLevel="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="13.125" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="27" customHeight="1">
+    <row r="1" spans="1:22" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
+      <c r="D1" t="s">
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>25</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="str">
+      <c r="B2" t="str">
         <f>VLOOKUP(A2,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D2" t="str">
-        <f t="shared" ref="D2:D24" ca="1" si="0">IF(ISBLANK(E2),"",
-VLOOKUP(E2,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f ca="1">IF(C2&lt;&gt;1,OFFSET(D2,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A2,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E24" ca="1" si="0">IF(ISBLANK(F2),"",
+VLOOKUP(F2,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>100</v>
       </c>
-      <c r="I2">
-        <f ca="1">IF(ISBLANK(OFFSET($H2,-($B2-1),0)),"",
-IF($B2=1,MATCH(OFFSET($H2,-($B2-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I2,-1,0)+OFFSET(K2,-1,0)
+      <c r="J2">
+        <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+IF($C2=1,MATCH(OFFSET($I2,-($C2-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J2,-1,0)+OFFSET(L2,-1,0)
 ))</f>
         <v>10</v>
       </c>
-      <c r="J2">
-        <f ca="1">IF($B2=1,12,
-IF(OFFSET(K2,-1,0)=1,12,
-OFFSET(J2,-1,0)+4))</f>
-        <v>12</v>
-      </c>
       <c r="K2">
-        <f ca="1">IF($J2-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2-1+4))=0,1,0))</f>
+        <f ca="1">IF($C2=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L2,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K2,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L2">
+        <f ca="1">IF($K2-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L2" t="str">
-        <f ca="1">IF(LEN(M2)=0,"",
-VLOOKUP(M2,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M2" t="str">
+        <f ca="1">IF(LEN(N2)=0,"",
+VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="M2" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2)</f>
+      <c r="N2" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2)</f>
         <v>재화</v>
       </c>
-      <c r="N2" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+1)</f>
+      <c r="O2" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+1)</f>
         <v>EN</v>
       </c>
-      <c r="O2">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I2-1,$J2+2)</f>
+      <c r="P2">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+2)</f>
         <v>80</v>
       </c>
-      <c r="P2" t="str">
-        <f ca="1">IF(LEN(D2)&lt;&gt;0,D2,
-IF(LEN(L2)&lt;&gt;0,L2,""))</f>
+      <c r="Q2" t="str">
+        <f ca="1">IF(LEN(E2)&lt;&gt;0,E2,
+IF(LEN(M2)&lt;&gt;0,M2,""))</f>
         <v>cu</v>
       </c>
-      <c r="Q2" t="str">
-        <f ca="1">IF(LEN(F2)&lt;&gt;0,F2,
-IF(LEN(N2)&lt;&gt;0,N2,""))</f>
-        <v>EN</v>
-      </c>
-      <c r="R2">
+      <c r="R2" t="str">
         <f ca="1">IF(LEN(G2)&lt;&gt;0,G2,
 IF(LEN(O2)&lt;&gt;0,O2,""))</f>
+        <v>EN</v>
+      </c>
+      <c r="S2">
+        <f ca="1">IF(LEN(H2)&lt;&gt;0,H2,
+IF(LEN(P2)&lt;&gt;0,P2,""))</f>
         <v>80</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>27</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="B3" t="str">
         <f>VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D3" t="str">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f ca="1">IF(C3&lt;&gt;1,OFFSET(D3,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A3,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I3">
-        <f ca="1">IF(ISBLANK(OFFSET($H3,-($B3-1),0)),"",
-IF($B3=1,MATCH(OFFSET($H3,-($B3-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I3,-1,0)+OFFSET(K3,-1,0)
+      <c r="J3">
+        <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
+IF($C3=1,MATCH(OFFSET($I3,-($C3-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J3,-1,0)+OFFSET(L3,-1,0)
 ))</f>
         <v>10</v>
       </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J24" ca="1" si="1">IF($B3=1,12,
-IF(OFFSET(K3,-1,0)=1,12,
-OFFSET(J3,-1,0)+4))</f>
-        <v>16</v>
-      </c>
       <c r="K3">
-        <f ca="1">IF($J3-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3-1+4))=0,1,0))</f>
+        <f ca="1">IF($C3=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L3,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K3,-1,0)+4))</f>
+        <v>17</v>
+      </c>
+      <c r="L3">
+        <f ca="1">IF($K3-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L11" ca="1" si="2">IF(ISBLANK(M3),"",
-VLOOKUP(M3,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M11" ca="1" si="1">IF(ISBLANK(N3),"",
+VLOOKUP(N3,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="M3" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3)</f>
+      <c r="N3" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3)</f>
         <v>재화</v>
       </c>
-      <c r="N3" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+1)</f>
+      <c r="O3" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+1)</f>
         <v>GO</v>
       </c>
-      <c r="O3">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I3-1,$J3+2)</f>
+      <c r="P3">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+2)</f>
         <v>35000</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P24" ca="1" si="3">IF(LEN(D3)&lt;&gt;0,D3,
-IF(LEN(L3)&lt;&gt;0,L3,""))</f>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q24" ca="1" si="2">IF(LEN(E3)&lt;&gt;0,E3,
+IF(LEN(M3)&lt;&gt;0,M3,""))</f>
         <v>cu</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q24" ca="1" si="4">IF(LEN(F3)&lt;&gt;0,F3,
-IF(LEN(N3)&lt;&gt;0,N3,""))</f>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R24" ca="1" si="3">IF(LEN(G3)&lt;&gt;0,G3,
+IF(LEN(O3)&lt;&gt;0,O3,""))</f>
         <v>GO</v>
       </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R24" ca="1" si="5">IF(LEN(G3)&lt;&gt;0,G3,
-IF(LEN(O3)&lt;&gt;0,O3,""))</f>
+      <c r="S3">
+        <f t="shared" ref="S3:S24" ca="1" si="4">IF(LEN(H3)&lt;&gt;0,H3,
+IF(LEN(P3)&lt;&gt;0,P3,""))</f>
         <v>35000</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>31</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="B4" t="str">
         <f>VLOOKUP(A4,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D4" t="str">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f ca="1">IF(C4&lt;&gt;1,OFFSET(D4,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A4,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I4">
-        <f ca="1">IF(ISBLANK(OFFSET($H4,-($B4-1),0)),"",
-IF($B4=1,MATCH(OFFSET($H4,-($B4-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I4,-1,0)+OFFSET(K4,-1,0)
+      <c r="J4">
+        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+IF($C4=1,MATCH(OFFSET($I4,-($C4-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J4,-1,0)+OFFSET(L4,-1,0)
 ))</f>
         <v>10</v>
       </c>
-      <c r="J4">
+      <c r="K4">
+        <f ca="1">IF($C4=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L4,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K4,-1,0)+4))</f>
+        <v>21</v>
+      </c>
+      <c r="L4">
+        <f ca="1">IF($K4-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="M4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="K4">
-        <f ca="1">IF($J4-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L4" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N4" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4)</f>
+        <v>재화</v>
+      </c>
+      <c r="O4" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="P4">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+2)</f>
+        <v>170</v>
+      </c>
+      <c r="Q4" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M4" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4)</f>
-        <v>재화</v>
-      </c>
-      <c r="N4" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+1)</f>
+      <c r="R4" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="O4">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I4-1,$J4+2)</f>
+      <c r="S4">
+        <f t="shared" ca="1" si="4"/>
         <v>170</v>
       </c>
-      <c r="P4" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q4" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R4">
-        <f t="shared" ca="1" si="5"/>
-        <v>170</v>
-      </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="B5" t="str">
         <f>VLOOKUP(A5,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D5" t="str">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f ca="1">IF(C5&lt;&gt;1,OFFSET(D5,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A5,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I5">
-        <f ca="1">IF(ISBLANK(OFFSET($H5,-($B5-1),0)),"",
-IF($B5=1,MATCH(OFFSET($H5,-($B5-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I5,-1,0)+OFFSET(K5,-1,0)
+      <c r="J5">
+        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
+IF($C5=1,MATCH(OFFSET($I5,-($C5-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J5,-1,0)+OFFSET(L5,-1,0)
 ))</f>
         <v>11</v>
       </c>
-      <c r="J5">
+      <c r="K5">
+        <f ca="1">IF($C5=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L5,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K5,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L5">
+        <f ca="1">IF($K5-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K5">
-        <f ca="1">IF($J5-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L5" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N5" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5)</f>
+        <v>재화</v>
+      </c>
+      <c r="O5" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="P5">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+2)</f>
+        <v>150</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M5" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5)</f>
-        <v>재화</v>
-      </c>
-      <c r="N5" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+1)</f>
+      <c r="R5" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="O5">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I5-1,$J5+2)</f>
+      <c r="S5">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
-      <c r="P5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R5">
-        <f t="shared" ca="1" si="5"/>
-        <v>150</v>
-      </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="B6" t="str">
         <f>VLOOKUP(A6,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D6" t="str">
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f ca="1">IF(C6&lt;&gt;1,OFFSET(D6,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A6,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I6">
-        <f ca="1">IF(ISBLANK(OFFSET($H6,-($B6-1),0)),"",
-IF($B6=1,MATCH(OFFSET($H6,-($B6-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I6,-1,0)+OFFSET(K6,-1,0)
+      <c r="J6">
+        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
+IF($C6=1,MATCH(OFFSET($I6,-($C6-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J6,-1,0)+OFFSET(L6,-1,0)
 ))</f>
         <v>12</v>
       </c>
-      <c r="J6">
+      <c r="K6">
+        <f ca="1">IF($C6=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L6,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K6,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <f ca="1">IF($K6-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <f ca="1">IF($J6-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L6" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N6" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6)</f>
+        <v>재화</v>
+      </c>
+      <c r="O6" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="P6">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+2)</f>
+        <v>20000</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M6" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6)</f>
-        <v>재화</v>
-      </c>
-      <c r="N6" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+1)</f>
+      <c r="R6" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="O6">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I6-1,$J6+2)</f>
+      <c r="S6">
+        <f t="shared" ca="1" si="4"/>
         <v>20000</v>
       </c>
-      <c r="P6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R6">
-        <f t="shared" ca="1" si="5"/>
-        <v>20000</v>
-      </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="B7" t="str">
         <f>VLOOKUP(A7,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D7" t="str">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f ca="1">IF(C7&lt;&gt;1,OFFSET(D7,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A7,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I7">
-        <f ca="1">IF(ISBLANK(OFFSET($H7,-($B7-1),0)),"",
-IF($B7=1,MATCH(OFFSET($H7,-($B7-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I7,-1,0)+OFFSET(K7,-1,0)
+      <c r="J7">
+        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
+IF($C7=1,MATCH(OFFSET($I7,-($C7-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J7,-1,0)+OFFSET(L7,-1,0)
 ))</f>
         <v>12</v>
       </c>
-      <c r="J7">
+      <c r="K7">
+        <f ca="1">IF($C7=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L7,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K7,-1,0)+4))</f>
+        <v>17</v>
+      </c>
+      <c r="L7">
+        <f ca="1">IF($K7-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K7">
-        <f ca="1">IF($J7-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L7" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N7" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7)</f>
+        <v>재화</v>
+      </c>
+      <c r="O7" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="P7">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+2)</f>
+        <v>150</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M7" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7)</f>
-        <v>재화</v>
-      </c>
-      <c r="N7" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+1)</f>
+      <c r="R7" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="O7">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I7-1,$J7+2)</f>
+      <c r="S7">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
-      <c r="P7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ca="1" si="5"/>
-        <v>150</v>
-      </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="B8" t="str">
         <f>VLOOKUP(A8,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D8" t="str">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f ca="1">IF(C8&lt;&gt;1,OFFSET(D8,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A8,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I8">
-        <f ca="1">IF(ISBLANK(OFFSET($H8,-($B8-1),0)),"",
-IF($B8=1,MATCH(OFFSET($H8,-($B8-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I8,-1,0)+OFFSET(K8,-1,0)
+      <c r="J8">
+        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
+IF($C8=1,MATCH(OFFSET($I8,-($C8-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J8,-1,0)+OFFSET(L8,-1,0)
 ))</f>
         <v>12</v>
       </c>
-      <c r="J8">
+      <c r="K8">
+        <f ca="1">IF($C8=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L8,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K8,-1,0)+4))</f>
+        <v>21</v>
+      </c>
+      <c r="L8">
+        <f ca="1">IF($K8-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <f ca="1">IF($J8-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L8" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N8" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8)</f>
+        <v>재화</v>
+      </c>
+      <c r="O8" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="P8">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+2)</f>
+        <v>35000</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M8" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8)</f>
-        <v>재화</v>
-      </c>
-      <c r="N8" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+1)</f>
+      <c r="R8" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="O8">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I8-1,$J8+2)</f>
+      <c r="S8">
+        <f t="shared" ca="1" si="4"/>
         <v>35000</v>
       </c>
-      <c r="P8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R8">
-        <f t="shared" ca="1" si="5"/>
-        <v>35000</v>
-      </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="str">
+      <c r="B9" t="str">
         <f>VLOOKUP(A9,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D9" t="str">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f ca="1">IF(C9&lt;&gt;1,OFFSET(D9,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A9,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I9">
-        <f ca="1">IF(ISBLANK(OFFSET($H9,-($B9-1),0)),"",
-IF($B9=1,MATCH(OFFSET($H9,-($B9-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I9,-1,0)+OFFSET(K9,-1,0)
+      <c r="J9">
+        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
+IF($C9=1,MATCH(OFFSET($I9,-($C9-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J9,-1,0)+OFFSET(L9,-1,0)
 ))</f>
         <v>12</v>
       </c>
-      <c r="J9">
+      <c r="K9">
+        <f ca="1">IF($C9=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L9,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K9,-1,0)+4))</f>
+        <v>25</v>
+      </c>
+      <c r="L9">
+        <f ca="1">IF($K9-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="K9">
-        <f ca="1">IF($J9-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L9" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N9" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9)</f>
+        <v>재화</v>
+      </c>
+      <c r="O9" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="P9">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+2)</f>
+        <v>200</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M9" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9)</f>
-        <v>재화</v>
-      </c>
-      <c r="N9" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+1)</f>
+      <c r="R9" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="O9">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I9-1,$J9+2)</f>
+      <c r="S9">
+        <f t="shared" ca="1" si="4"/>
         <v>200</v>
       </c>
-      <c r="P9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R9">
-        <f t="shared" ca="1" si="5"/>
-        <v>200</v>
-      </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="B10" t="str">
         <f>VLOOKUP(A10,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" ref="D10:D11" ca="1" si="6">IF(ISBLANK(E10),"",
-VLOOKUP(E10,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f ca="1">IF(C10&lt;&gt;1,OFFSET(D10,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A10,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" ref="E10:E11" ca="1" si="5">IF(ISBLANK(F10),"",
+VLOOKUP(F10,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="I10">
-        <f ca="1">IF(ISBLANK(OFFSET($H10,-($B10-1),0)),"",
-IF($B10=1,MATCH(OFFSET($H10,-($B10-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I10,-1,0)+OFFSET(K10,-1,0)
+      <c r="J10">
+        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
+IF($C10=1,MATCH(OFFSET($I10,-($C10-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J10,-1,0)+OFFSET(L10,-1,0)
 ))</f>
         <v>13</v>
       </c>
-      <c r="J10">
+      <c r="K10">
+        <f ca="1">IF($C10=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L10,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K10,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L10">
+        <f ca="1">IF($K10-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10-1+4))=0,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K10">
-        <f ca="1">IF($J10-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10-1+4))=0,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="L10" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N10" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10)</f>
+        <v>재화</v>
+      </c>
+      <c r="O10" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+1)</f>
+        <v>EN</v>
+      </c>
+      <c r="P10">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+2)</f>
+        <v>150</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M10" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10)</f>
-        <v>재화</v>
-      </c>
-      <c r="N10" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+1)</f>
+      <c r="R10" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>EN</v>
       </c>
-      <c r="O10">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I10-1,$J10+2)</f>
+      <c r="S10">
+        <f t="shared" ca="1" si="4"/>
         <v>150</v>
       </c>
-      <c r="P10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R10">
-        <f t="shared" ca="1" si="5"/>
-        <v>150</v>
-      </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="str">
+      <c r="B11" t="str">
         <f>VLOOKUP(A11,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>연속구매1</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="I11">
-        <f ca="1">IF(ISBLANK(OFFSET($H11,-($B11-1),0)),"",
-IF($B11=1,MATCH(OFFSET($H11,-($B11-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I11,-1,0)+OFFSET(K11,-1,0)
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f ca="1">IF(C11&lt;&gt;1,OFFSET(D11,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A11,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="J11">
+        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
+IF($C11=1,MATCH(OFFSET($I11,-($C11-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J11,-1,0)+OFFSET(L11,-1,0)
 ))</f>
         <v>13</v>
       </c>
-      <c r="J11">
+      <c r="K11">
+        <f ca="1">IF($C11=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L11,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K11,-1,0)+4))</f>
+        <v>17</v>
+      </c>
+      <c r="L11">
+        <f ca="1">IF($K11-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11-1+4))=0,1,0))</f>
+        <v>1</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="K11">
-        <f ca="1">IF($J11-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11-1+4))=0,1,0))</f>
-        <v>1</v>
-      </c>
-      <c r="L11" t="str">
+        <v>cu</v>
+      </c>
+      <c r="N11" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11)</f>
+        <v>재화</v>
+      </c>
+      <c r="O11" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+1)</f>
+        <v>GO</v>
+      </c>
+      <c r="P11">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+2)</f>
+        <v>20000</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="M11" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11)</f>
-        <v>재화</v>
-      </c>
-      <c r="N11" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+1)</f>
+      <c r="R11" t="str">
+        <f t="shared" ca="1" si="3"/>
         <v>GO</v>
       </c>
-      <c r="O11">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I11-1,$J11+2)</f>
+      <c r="S11">
+        <f t="shared" ca="1" si="4"/>
         <v>20000</v>
       </c>
-      <c r="P11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R11">
-        <f t="shared" ca="1" si="5"/>
-        <v>20000</v>
-      </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="B12" t="str">
         <f>VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D12" t="str">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f ca="1">IF(C12&lt;&gt;1,OFFSET(D12,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A12,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>101</v>
       </c>
-      <c r="I12">
-        <f ca="1">IF(ISBLANK(OFFSET($H12,-($B12-1),0)),"",
-IF($B12=1,MATCH(OFFSET($H12,-($B12-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I12,-1,0)+OFFSET(K12,-1,0)
+      <c r="J12">
+        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
+IF($C12=1,MATCH(OFFSET($I12,-($C12-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J12,-1,0)+OFFSET(L12,-1,0)
 ))</f>
         <v>7</v>
       </c>
-      <c r="J12">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
       <c r="K12">
-        <f ca="1">IF($J12-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12-1+4))=0,1,0))</f>
+        <f ca="1">IF($C12=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L12,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K12,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L12">
+        <f ca="1">IF($K12-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L12" t="str">
-        <f t="shared" ref="L12:L22" ca="1" si="7">IF(ISBLANK(M12),"",
-VLOOKUP(M12,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M12" t="str">
+        <f t="shared" ref="M12:M22" ca="1" si="6">IF(ISBLANK(N12),"",
+VLOOKUP(N12,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="M12" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12)</f>
+      <c r="N12" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12)</f>
         <v>재화</v>
       </c>
-      <c r="N12" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+1)</f>
+      <c r="O12" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+1)</f>
         <v>EN</v>
       </c>
-      <c r="O12">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I12-1,$J12+2)</f>
+      <c r="P12">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+2)</f>
         <v>30</v>
       </c>
-      <c r="P12" t="str">
+      <c r="Q12" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q12" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S12">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R12">
-        <f t="shared" ca="1" si="5"/>
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="str">
+      <c r="B13" t="str">
         <f>VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D13" t="str">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f ca="1">IF(C13&lt;&gt;1,OFFSET(D13,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A13,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I13">
-        <f ca="1">IF(ISBLANK(OFFSET($H13,-($B13-1),0)),"",
-IF($B13=1,MATCH(OFFSET($H13,-($B13-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I13,-1,0)+OFFSET(K13,-1,0)
+      <c r="J13">
+        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
+IF($C13=1,MATCH(OFFSET($I13,-($C13-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J13,-1,0)+OFFSET(L13,-1,0)
 ))</f>
         <v>7</v>
       </c>
-      <c r="J13">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="K13">
-        <f ca="1">IF($J13-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13-1+4))=0,1,0))</f>
+        <f ca="1">IF($C13=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L13,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K13,-1,0)+4))</f>
+        <v>17</v>
+      </c>
+      <c r="L13">
+        <f ca="1">IF($K13-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L13" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M13" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M13" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13)</f>
+      <c r="N13" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13)</f>
         <v>재화</v>
       </c>
-      <c r="N13" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+1)</f>
+      <c r="O13" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+1)</f>
         <v>GO</v>
       </c>
-      <c r="O13">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I13-1,$J13+2)</f>
+      <c r="P13">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+2)</f>
         <v>25000</v>
       </c>
-      <c r="P13" t="str">
+      <c r="Q13" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q13" t="str">
+        <v>GO</v>
+      </c>
+      <c r="S13">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R13">
-        <f t="shared" ca="1" si="5"/>
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="B14" t="str">
         <f>VLOOKUP(A14,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D14" t="str">
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <f ca="1">IF(C14&lt;&gt;1,OFFSET(D14,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A14,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I14">
-        <f ca="1">IF(ISBLANK(OFFSET($H14,-($B14-1),0)),"",
-IF($B14=1,MATCH(OFFSET($H14,-($B14-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I14,-1,0)+OFFSET(K14,-1,0)
+      <c r="J14">
+        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
+IF($C14=1,MATCH(OFFSET($I14,-($C14-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J14,-1,0)+OFFSET(L14,-1,0)
 ))</f>
         <v>7</v>
       </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
       <c r="K14">
-        <f ca="1">IF($J14-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14-1+4))=0,1,0))</f>
+        <f ca="1">IF($C14=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L14,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K14,-1,0)+4))</f>
+        <v>21</v>
+      </c>
+      <c r="L14">
+        <f ca="1">IF($K14-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14-1+4))=0,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L14" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M14" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M14" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14)</f>
+      <c r="N14" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14)</f>
         <v>재화</v>
       </c>
-      <c r="N14" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+1)</f>
+      <c r="O14" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+1)</f>
         <v>EN</v>
       </c>
-      <c r="O14">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I14-1,$J14+2)</f>
+      <c r="P14">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+2)</f>
         <v>100</v>
       </c>
-      <c r="P14" t="str">
+      <c r="Q14" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q14" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S14">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R14">
-        <f t="shared" ca="1" si="5"/>
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15" t="str">
+      <c r="B15" t="str">
         <f>VLOOKUP(A15,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D15" t="str">
-        <f t="shared" ref="D15:D20" ca="1" si="8">IF(ISBLANK(E15),"",
-VLOOKUP(E15,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f ca="1">IF(C15&lt;&gt;1,OFFSET(D15,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A15,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" ref="E15:E20" ca="1" si="7">IF(ISBLANK(F15),"",
+VLOOKUP(F15,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="I15">
-        <f ca="1">IF(ISBLANK(OFFSET($H15,-($B15-1),0)),"",
-IF($B15=1,MATCH(OFFSET($H15,-($B15-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I15,-1,0)+OFFSET(K15,-1,0)
+      <c r="J15">
+        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
+IF($C15=1,MATCH(OFFSET($I15,-($C15-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J15,-1,0)+OFFSET(L15,-1,0)
 ))</f>
         <v>8</v>
       </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
       <c r="K15">
-        <f ca="1">IF($J15-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15-1+4))=0,1,0))</f>
+        <f ca="1">IF($C15=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L15,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K15,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L15">
+        <f ca="1">IF($K15-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L15" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M15" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M15" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15)</f>
+      <c r="N15" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15)</f>
         <v>재화</v>
       </c>
-      <c r="N15" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+1)</f>
+      <c r="O15" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+1)</f>
         <v>EN</v>
       </c>
-      <c r="O15">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I15-1,$J15+2)</f>
+      <c r="P15">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+2)</f>
         <v>60</v>
       </c>
-      <c r="P15" t="str">
+      <c r="Q15" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q15" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S15">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ca="1" si="5"/>
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16" t="str">
+      <c r="B16" t="str">
         <f>VLOOKUP(A16,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D16" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="I16">
-        <f ca="1">IF(ISBLANK(OFFSET($H16,-($B16-1),0)),"",
-IF($B16=1,MATCH(OFFSET($H16,-($B16-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I16,-1,0)+OFFSET(K16,-1,0)
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <f ca="1">IF(C16&lt;&gt;1,OFFSET(D16,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A16,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J16">
+        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
+IF($C16=1,MATCH(OFFSET($I16,-($C16-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J16,-1,0)+OFFSET(L16,-1,0)
 ))</f>
         <v>8</v>
       </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="K16">
-        <f ca="1">IF($J16-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16-1+4))=0,1,0))</f>
+        <f ca="1">IF($C16=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L16,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K16,-1,0)+4))</f>
+        <v>17</v>
+      </c>
+      <c r="L16">
+        <f ca="1">IF($K16-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L16" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M16" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M16" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16)</f>
+      <c r="N16" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16)</f>
         <v>재화</v>
       </c>
-      <c r="N16" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+1)</f>
+      <c r="O16" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+1)</f>
         <v>GO</v>
       </c>
-      <c r="O16">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I16-1,$J16+2)</f>
+      <c r="P16">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+2)</f>
         <v>15000</v>
       </c>
-      <c r="P16" t="str">
+      <c r="Q16" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q16" t="str">
+        <v>GO</v>
+      </c>
+      <c r="S16">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R16">
-        <f t="shared" ca="1" si="5"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="str">
+      <c r="B17" t="str">
         <f>VLOOKUP(A17,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D17" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="I17">
-        <f ca="1">IF(ISBLANK(OFFSET($H17,-($B17-1),0)),"",
-IF($B17=1,MATCH(OFFSET($H17,-($B17-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I17,-1,0)+OFFSET(K17,-1,0)
+      <c r="C17">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <f ca="1">IF(C17&lt;&gt;1,OFFSET(D17,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A17,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J17">
+        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
+IF($C17=1,MATCH(OFFSET($I17,-($C17-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J17,-1,0)+OFFSET(L17,-1,0)
 ))</f>
         <v>8</v>
       </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
       <c r="K17">
-        <f ca="1">IF($J17-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17-1+4))=0,1,0))</f>
+        <f ca="1">IF($C17=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L17,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K17,-1,0)+4))</f>
+        <v>21</v>
+      </c>
+      <c r="L17">
+        <f ca="1">IF($K17-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17-1+4))=0,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L17" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M17" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M17" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17)</f>
+      <c r="N17" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17)</f>
         <v>재화</v>
       </c>
-      <c r="N17" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+1)</f>
+      <c r="O17" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+1)</f>
         <v>EN</v>
       </c>
-      <c r="O17">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I17-1,$J17+2)</f>
+      <c r="P17">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+2)</f>
         <v>120</v>
       </c>
-      <c r="P17" t="str">
+      <c r="Q17" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q17" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S17">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R17">
-        <f t="shared" ca="1" si="5"/>
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>7</v>
-      </c>
-      <c r="C18" t="str">
+      <c r="B18" t="str">
         <f>VLOOKUP(A18,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D18" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="I18">
-        <f ca="1">IF(ISBLANK(OFFSET($H18,-($B18-1),0)),"",
-IF($B18=1,MATCH(OFFSET($H18,-($B18-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I18,-1,0)+OFFSET(K18,-1,0)
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <f ca="1">IF(C18&lt;&gt;1,OFFSET(D18,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A18,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J18">
+        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
+IF($C18=1,MATCH(OFFSET($I18,-($C18-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J18,-1,0)+OFFSET(L18,-1,0)
 ))</f>
         <v>9</v>
       </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
       <c r="K18">
-        <f ca="1">IF($J18-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18-1+4))=0,1,0))</f>
+        <f ca="1">IF($C18=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L18,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K18,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L18">
+        <f ca="1">IF($K18-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L18" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M18" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M18" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18)</f>
+      <c r="N18" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18)</f>
         <v>재화</v>
       </c>
-      <c r="N18" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+1)</f>
+      <c r="O18" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+1)</f>
         <v>EN</v>
       </c>
-      <c r="O18">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I18-1,$J18+2)</f>
+      <c r="P18">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+2)</f>
         <v>90</v>
       </c>
-      <c r="P18" t="str">
+      <c r="Q18" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q18" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S18">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R18">
-        <f t="shared" ca="1" si="5"/>
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" t="str">
+      <c r="B19" t="str">
         <f>VLOOKUP(A19,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D19" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="I19">
-        <f ca="1">IF(ISBLANK(OFFSET($H19,-($B19-1),0)),"",
-IF($B19=1,MATCH(OFFSET($H19,-($B19-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I19,-1,0)+OFFSET(K19,-1,0)
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <f ca="1">IF(C19&lt;&gt;1,OFFSET(D19,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A19,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J19">
+        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
+IF($C19=1,MATCH(OFFSET($I19,-($C19-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J19,-1,0)+OFFSET(L19,-1,0)
 ))</f>
         <v>9</v>
       </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="K19">
-        <f ca="1">IF($J19-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19-1+4))=0,1,0))</f>
+        <f ca="1">IF($C19=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L19,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K19,-1,0)+4))</f>
+        <v>17</v>
+      </c>
+      <c r="L19">
+        <f ca="1">IF($K19-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L19" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M19" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M19" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19)</f>
+      <c r="N19" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19)</f>
         <v>재화</v>
       </c>
-      <c r="N19" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+1)</f>
+      <c r="O19" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+1)</f>
         <v>GO</v>
       </c>
-      <c r="O19">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I19-1,$J19+2)</f>
+      <c r="P19">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+2)</f>
         <v>30000</v>
       </c>
-      <c r="P19" t="str">
+      <c r="Q19" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q19" t="str">
+        <v>GO</v>
+      </c>
+      <c r="S19">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R19">
-        <f t="shared" ca="1" si="5"/>
         <v>30000</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>9</v>
-      </c>
-      <c r="C20" t="str">
+      <c r="B20" t="str">
         <f>VLOOKUP(A20,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D20" t="str">
-        <f t="shared" ca="1" si="8"/>
-        <v/>
-      </c>
-      <c r="I20">
-        <f ca="1">IF(ISBLANK(OFFSET($H20,-($B20-1),0)),"",
-IF($B20=1,MATCH(OFFSET($H20,-($B20-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I20,-1,0)+OFFSET(K20,-1,0)
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <f ca="1">IF(C20&lt;&gt;1,OFFSET(D20,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A20,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="J20">
+        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
+IF($C20=1,MATCH(OFFSET($I20,-($C20-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J20,-1,0)+OFFSET(L20,-1,0)
 ))</f>
         <v>9</v>
       </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="1"/>
-        <v>20</v>
-      </c>
       <c r="K20">
-        <f ca="1">IF($J20-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20-1+4))=0,1,0))</f>
+        <f ca="1">IF($C20=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L20,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K20,-1,0)+4))</f>
+        <v>21</v>
+      </c>
+      <c r="L20">
+        <f ca="1">IF($K20-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L20" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M20" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M20" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20)</f>
+      <c r="N20" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20)</f>
         <v>재화</v>
       </c>
-      <c r="N20" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+1)</f>
+      <c r="O20" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+1)</f>
         <v>EN</v>
       </c>
-      <c r="O20">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I20-1,$J20+2)</f>
+      <c r="P20">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+2)</f>
         <v>150</v>
       </c>
-      <c r="P20" t="str">
+      <c r="Q20" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q20" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S20">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ca="1" si="5"/>
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="B21" t="str">
         <f>VLOOKUP(A21,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>세개 중 하나 사기1</v>
       </c>
-      <c r="D21" t="str">
-        <f t="shared" ref="D21" ca="1" si="9">IF(ISBLANK(E21),"",
-VLOOKUP(E21,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <f ca="1">IF(C21&lt;&gt;1,OFFSET(D21,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A21,[1]ShopProductTable!$E:$E))</f>
+        <v>10</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" ref="E21" ca="1" si="8">IF(ISBLANK(F21),"",
+VLOOKUP(F21,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="I21">
-        <f ca="1">IF(ISBLANK(OFFSET($H21,-($B21-1),0)),"",
-IF($B21=1,MATCH(OFFSET($H21,-($B21-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I21,-1,0)+OFFSET(K21,-1,0)
+      <c r="J21">
+        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
+IF($C21=1,MATCH(OFFSET($I21,-($C21-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J21,-1,0)+OFFSET(L21,-1,0)
 ))</f>
         <v>9</v>
       </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="1"/>
-        <v>24</v>
-      </c>
       <c r="K21">
-        <f ca="1">IF($J21-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21-1+4))=0,1,0))</f>
+        <f ca="1">IF($C21=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L21,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K21,-1,0)+4))</f>
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <f ca="1">IF($K21-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21-1+4))=0,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M21" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M21" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21)</f>
+      <c r="N21" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21)</f>
         <v>재화</v>
       </c>
-      <c r="N21" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+1)</f>
+      <c r="O21" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+1)</f>
         <v>EN</v>
       </c>
-      <c r="O21">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I21-1,$J21+2)</f>
+      <c r="P21">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+2)</f>
         <v>300</v>
       </c>
-      <c r="P21" t="str">
+      <c r="Q21" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q21" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S21">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R21">
-        <f t="shared" ca="1" si="5"/>
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:19">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="str">
+      <c r="B22" t="str">
         <f>VLOOKUP(A22,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>빅부스트 패키지1</v>
       </c>
-      <c r="D22" t="str">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f ca="1">IF(C22&lt;&gt;1,OFFSET(D22,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A22,[1]ShopProductTable!$E:$E))</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>102</v>
       </c>
-      <c r="I22">
-        <f ca="1">IF(ISBLANK(OFFSET($H22,-($B22-1),0)),"",
-IF($B22=1,MATCH(OFFSET($H22,-($B22-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I22,-1,0)+OFFSET(K22,-1,0)
+      <c r="J22">
+        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
+IF($C22=1,MATCH(OFFSET($I22,-($C22-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J22,-1,0)+OFFSET(L22,-1,0)
 ))</f>
         <v>3</v>
       </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
       <c r="K22">
-        <f ca="1">IF($J22-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22-1+4))=0,1,0))</f>
+        <f ca="1">IF($C22=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L22,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K22,-1,0)+4))</f>
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <f ca="1">IF($K22-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22-1+4))=0,1,0))</f>
         <v>0</v>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" ca="1" si="7"/>
+      <c r="M22" t="str">
+        <f t="shared" ca="1" si="6"/>
         <v>cu</v>
       </c>
-      <c r="M22" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22)</f>
+      <c r="N22" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22)</f>
         <v>재화</v>
       </c>
-      <c r="N22" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+1)</f>
+      <c r="O22" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+1)</f>
         <v>EN</v>
       </c>
-      <c r="O22">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I22-1,$J22+2)</f>
+      <c r="P22">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+2)</f>
         <v>600</v>
       </c>
-      <c r="P22" t="str">
+      <c r="Q22" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q22" t="str">
+        <v>EN</v>
+      </c>
+      <c r="S22">
         <f t="shared" ca="1" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R22">
-        <f t="shared" ca="1" si="5"/>
         <v>600</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:19">
       <c r="A23" t="s">
         <v>89</v>
       </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="str">
+      <c r="B23" t="str">
         <f>VLOOKUP(A23,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>빅부스트 패키지1</v>
       </c>
-      <c r="D23" t="str">
-        <f t="shared" ref="D23" ca="1" si="10">IF(ISBLANK(E23),"",
-VLOOKUP(E23,OFFSET(INDIRECT("$A:$B"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <f ca="1">IF(C23&lt;&gt;1,OFFSET(D23,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A23,[1]ShopProductTable!$E:$E))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" ref="E23" ca="1" si="9">IF(ISBLANK(F23),"",
+VLOOKUP(F23,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="I23">
-        <f ca="1">IF(ISBLANK(OFFSET($H23,-($B23-1),0)),"",
-IF($B23=1,MATCH(OFFSET($H23,-($B23-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I23,-1,0)+OFFSET(K23,-1,0)
+      <c r="J23">
+        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
+IF($C23=1,MATCH(OFFSET($I23,-($C23-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J23,-1,0)+OFFSET(L23,-1,0)
 ))</f>
         <v>3</v>
       </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="1"/>
-        <v>16</v>
-      </c>
       <c r="K23">
-        <f ca="1">IF($J23-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23-1+4))=0,1,0))</f>
+        <f ca="1">IF($C23=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L23,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K23,-1,0)+4))</f>
+        <v>17</v>
+      </c>
+      <c r="L23">
+        <f ca="1">IF($K23-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23-1+4))=0,1,0))</f>
         <v>1</v>
       </c>
-      <c r="L23" t="str">
-        <f t="shared" ref="L23" ca="1" si="11">IF(ISBLANK(M23),"",
-VLOOKUP(M23,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+      <c r="M23" t="str">
+        <f t="shared" ref="M23" ca="1" si="10">IF(ISBLANK(N23),"",
+VLOOKUP(N23,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v>cu</v>
       </c>
-      <c r="M23" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23)</f>
+      <c r="N23" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23)</f>
         <v>재화</v>
       </c>
-      <c r="N23" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+1)</f>
+      <c r="O23" t="str">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+1)</f>
         <v>GO</v>
       </c>
-      <c r="O23">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$I23-1,$J23+2)</f>
+      <c r="P23">
+        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+2)</f>
         <v>50000</v>
       </c>
-      <c r="P23" t="str">
+      <c r="Q23" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>cu</v>
+      </c>
+      <c r="R23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>cu</v>
-      </c>
-      <c r="Q23" t="str">
+        <v>GO</v>
+      </c>
+      <c r="S23">
         <f t="shared" ca="1" si="4"/>
-        <v>GO</v>
-      </c>
-      <c r="R23">
-        <f t="shared" ca="1" si="5"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:19">
       <c r="A24" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="str">
+      <c r="B24" t="str">
         <f>VLOOKUP(A24,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
         <v>올모스트 데어1</v>
       </c>
-      <c r="D24" t="str">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <f ca="1">IF(C24&lt;&gt;1,OFFSET(D24,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A24,[1]ShopProductTable!$E:$E))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" t="str">
         <f t="shared" ca="1" si="0"/>
         <v>cu</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>24</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>33</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>100</v>
       </c>
-      <c r="I24" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($H24,-($B24-1),0)),"",
-IF($B24=1,MATCH(OFFSET($H24,-($B24-1),0),[1]ShopProductTable!$A:$A,0),
-OFFSET(I24,-1,0)+OFFSET(K24,-1,0)
+      <c r="J24" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
+IF($C24=1,MATCH(OFFSET($I24,-($C24-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J24,-1,0)+OFFSET(L24,-1,0)
 ))</f>
         <v/>
       </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="K24" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($H24,-($B24-1),0)),"",
-IF($J24-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24-1+4))=0,1,0)))</f>
-        <v/>
+      <c r="K24">
+        <f ca="1">IF($C24=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L24,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K24,-1,0)+4))</f>
+        <v>13</v>
       </c>
       <c r="L24" t="str">
-        <f ca="1">IF(LEN(M24)=0,"",
-VLOOKUP(M24,OFFSET(INDIRECT("$A:$B"),0,MATCH(M$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
+IF($K24-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24-1+4))=0,1,0)))</f>
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <f ca="1">IF(LEN(N24)=0,"",
+VLOOKUP(N24,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
-      <c r="M24" t="str">
-        <f ca="1">IF(LEN($I24)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24))</f>
-        <v/>
-      </c>
       <c r="N24" t="str">
-        <f ca="1">IF(LEN($I24)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24))</f>
+        <f ca="1">IF(LEN($J24)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
         <v/>
       </c>
       <c r="O24" t="str">
-        <f ca="1">IF(LEN($I24)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$I24-1,$J24))</f>
+        <f ca="1">IF(LEN($J24)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
         <v/>
       </c>
       <c r="P24" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN($J24)=0,"",
+OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" ca="1" si="2"/>
         <v>cu</v>
       </c>
-      <c r="Q24" t="str">
+      <c r="R24" t="str">
+        <f t="shared" si="3"/>
+        <v>EN</v>
+      </c>
+      <c r="S24">
         <f t="shared" si="4"/>
-        <v>EN</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="5"/>
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E24" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
-      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(E$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+      <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D7C079-EB9E-479A-9360-1B165F56FA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4159C1D-E90F-4386-84CB-D88A6EB762F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +469,18 @@
   </si>
   <si>
     <t>분모참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원플투1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev5_oneplustwo_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,7 +779,7 @@
             <v>ev5</v>
           </cell>
           <cell r="E4">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="5">
@@ -778,7 +790,7 @@
             <v>ev5</v>
           </cell>
           <cell r="E5">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="6">
@@ -789,7 +801,7 @@
             <v>ev5</v>
           </cell>
           <cell r="E6">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="7">
@@ -1286,11 +1298,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1346,28 +1358,28 @@
       <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="J1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>72</v>
       </c>
       <c r="Q1" t="s">
@@ -1554,7 +1566,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
-        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
+        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1922,6 +1934,9 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
       <c r="C6" t="s">
         <v>50</v>
       </c>
@@ -1934,77 +1949,98 @@
         <v>3</v>
       </c>
       <c r="G6">
-        <v>600</v>
+        <f>I6*3/4</f>
+        <v>64800</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>10m</v>
+        <v>18h</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>86400</v>
       </c>
       <c r="J6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K6" t="str">
+        <v>1d</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M6" t="str">
+        <v>9</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N6" t="str">
+        <v>25</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O6" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P6" t="str">
+        <v>10</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" t="str">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>44829</v>
+      </c>
+      <c r="R6" s="3">
+        <v>44849</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB6" s="4"/>
+        <v>2022</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="7"/>
+        <v>2022</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" ref="Z6" ca="1" si="12">VLOOKUP(Y6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" ref="AB6" ca="1" si="13">VLOOKUP(AA6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>1</v>
+      </c>
       <c r="AD6" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400</v>
       </c>
       <c r="AE6" t="str">
         <f t="shared" si="11"/>
-        <v>"ev5":0</v>
+        <v>"ev5":86400</v>
       </c>
       <c r="AG6" t="s">
         <v>56</v>
@@ -2108,14 +2144,14 @@
         <v>64</v>
       </c>
       <c r="Z7" s="4">
-        <f t="shared" ref="Z7" ca="1" si="12">VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="Z7" ca="1" si="14">VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA7" t="s">
         <v>92</v>
       </c>
       <c r="AB7" s="4">
-        <f t="shared" ref="AB7" ca="1" si="13">VLOOKUP(AA7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="AB7" ca="1" si="15">VLOOKUP(AA7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
       <c r="AC7" s="4">
@@ -2123,7 +2159,7 @@
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000</v>
       </c>
       <c r="AE7" t="str">
         <f t="shared" si="11"/>
@@ -2212,7 +2248,7 @@
       <c r="AB8" s="4"/>
       <c r="AD8" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="11"/>
@@ -2298,7 +2334,7 @@
       <c r="AB9" s="4"/>
       <c r="AD9" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="11"/>
@@ -2384,7 +2420,7 @@
       <c r="AB10" s="4"/>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="11"/>
@@ -2473,7 +2509,7 @@
       <c r="AB11" s="4"/>
       <c r="AD11" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="11"/>
@@ -2566,7 +2602,7 @@
       <c r="AB12" s="4"/>
       <c r="AD12" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="11"/>
@@ -2652,7 +2688,7 @@
       <c r="AB13" s="4"/>
       <c r="AD13" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="11"/>
@@ -2738,7 +2774,7 @@
       <c r="AB14" s="4"/>
       <c r="AD14" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":0,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="11"/>
@@ -2756,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y5 C2:C14 AA2:AA14 Y7" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14 Y2:Y7 AA2:AA14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2767,19 +2803,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="24.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" outlineLevel="1"/>
+    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="23.875" customWidth="1" outlineLevel="1"/>
@@ -2887,32 +2923,38 @@
         <v>10</v>
       </c>
       <c r="K2">
-        <f ca="1">IF($C2=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+IF($C2=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L2,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K2,-1,0)+4))</f>
+OFFSET(K2,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L2">
-        <f ca="1">IF($K2-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+IF($K2-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <f ca="1">IF(LEN(N2)=0,"",
+        <f t="shared" ref="M2:M23" ca="1" si="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+IF(ISBLANK(N2),"",
 VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+))</f>
         <v>cu</v>
       </c>
       <c r="N2" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2))</f>
         <v>재화</v>
       </c>
       <c r="O2" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+1))</f>
         <v>EN</v>
       </c>
       <c r="P2">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+2))</f>
         <v>80</v>
       </c>
       <c r="Q2" t="str">
@@ -2965,46 +3007,49 @@
         <v>10</v>
       </c>
       <c r="K3">
-        <f ca="1">IF($C3=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
+IF($C3=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L3,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K3,-1,0)+4))</f>
+OFFSET(K3,-1,0)+4)))</f>
         <v>17</v>
       </c>
       <c r="L3">
-        <f ca="1">IF($K3-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
+IF($K3-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ref="M3:M11" ca="1" si="1">IF(ISBLANK(N3),"",
-VLOOKUP(N3,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N3" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3))</f>
         <v>재화</v>
       </c>
       <c r="O3" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+1))</f>
         <v>GO</v>
       </c>
       <c r="P3">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+2))</f>
         <v>35000</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q24" ca="1" si="2">IF(LEN(E3)&lt;&gt;0,E3,
+        <f t="shared" ref="Q3:Q22" ca="1" si="2">IF(LEN(E3)&lt;&gt;0,E3,
 IF(LEN(M3)&lt;&gt;0,M3,""))</f>
         <v>cu</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R24" ca="1" si="3">IF(LEN(G3)&lt;&gt;0,G3,
+        <f t="shared" ref="R3:R22" ca="1" si="3">IF(LEN(G3)&lt;&gt;0,G3,
 IF(LEN(O3)&lt;&gt;0,O3,""))</f>
         <v>GO</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S24" ca="1" si="4">IF(LEN(H3)&lt;&gt;0,H3,
+        <f t="shared" ref="S3:S22" ca="1" si="4">IF(LEN(H3)&lt;&gt;0,H3,
 IF(LEN(P3)&lt;&gt;0,P3,""))</f>
         <v>35000</v>
       </c>
@@ -3043,14 +3088,16 @@
         <v>10</v>
       </c>
       <c r="K4">
-        <f ca="1">IF($C4=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+IF($C4=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L4,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K4,-1,0)+4))</f>
+OFFSET(K4,-1,0)+4)))</f>
         <v>21</v>
       </c>
       <c r="L4">
-        <f ca="1">IF($K4-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+IF($K4-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M4" t="str">
@@ -3058,15 +3105,18 @@
         <v>cu</v>
       </c>
       <c r="N4" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4))</f>
         <v>재화</v>
       </c>
       <c r="O4" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+1))</f>
         <v>EN</v>
       </c>
       <c r="P4">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+2))</f>
         <v>170</v>
       </c>
       <c r="Q4" t="str">
@@ -3110,14 +3160,16 @@
         <v>11</v>
       </c>
       <c r="K5">
-        <f ca="1">IF($C5=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
+IF($C5=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L5,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K5,-1,0)+4))</f>
+OFFSET(K5,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L5">
-        <f ca="1">IF($K5-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
+IF($K5-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M5" t="str">
@@ -3125,15 +3177,18 @@
         <v>cu</v>
       </c>
       <c r="N5" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5))</f>
         <v>재화</v>
       </c>
       <c r="O5" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+1))</f>
         <v>EN</v>
       </c>
       <c r="P5">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+2))</f>
         <v>150</v>
       </c>
       <c r="Q5" t="str">
@@ -3177,14 +3232,16 @@
         <v>12</v>
       </c>
       <c r="K6">
-        <f ca="1">IF($C6=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
+IF($C6=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L6,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K6,-1,0)+4))</f>
+OFFSET(K6,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L6">
-        <f ca="1">IF($K6-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
+IF($K6-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M6" t="str">
@@ -3192,15 +3249,18 @@
         <v>cu</v>
       </c>
       <c r="N6" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6))</f>
         <v>재화</v>
       </c>
       <c r="O6" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+1))</f>
         <v>GO</v>
       </c>
       <c r="P6">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+2))</f>
         <v>20000</v>
       </c>
       <c r="Q6" t="str">
@@ -3244,14 +3304,16 @@
         <v>12</v>
       </c>
       <c r="K7">
-        <f ca="1">IF($C7=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
+IF($C7=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L7,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K7,-1,0)+4))</f>
+OFFSET(K7,-1,0)+4)))</f>
         <v>17</v>
       </c>
       <c r="L7">
-        <f ca="1">IF($K7-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
+IF($K7-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M7" t="str">
@@ -3259,15 +3321,18 @@
         <v>cu</v>
       </c>
       <c r="N7" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7))</f>
         <v>재화</v>
       </c>
       <c r="O7" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+1))</f>
         <v>EN</v>
       </c>
       <c r="P7">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+2))</f>
         <v>150</v>
       </c>
       <c r="Q7" t="str">
@@ -3311,14 +3376,16 @@
         <v>12</v>
       </c>
       <c r="K8">
-        <f ca="1">IF($C8=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
+IF($C8=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L8,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K8,-1,0)+4))</f>
+OFFSET(K8,-1,0)+4)))</f>
         <v>21</v>
       </c>
       <c r="L8">
-        <f ca="1">IF($K8-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
+IF($K8-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M8" t="str">
@@ -3326,15 +3393,18 @@
         <v>cu</v>
       </c>
       <c r="N8" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8))</f>
         <v>재화</v>
       </c>
       <c r="O8" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+1))</f>
         <v>GO</v>
       </c>
       <c r="P8">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+2))</f>
         <v>35000</v>
       </c>
       <c r="Q8" t="str">
@@ -3378,14 +3448,16 @@
         <v>12</v>
       </c>
       <c r="K9">
-        <f ca="1">IF($C9=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
+IF($C9=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L9,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K9,-1,0)+4))</f>
+OFFSET(K9,-1,0)+4)))</f>
         <v>25</v>
       </c>
       <c r="L9">
-        <f ca="1">IF($K9-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
+IF($K9-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M9" t="str">
@@ -3393,15 +3465,18 @@
         <v>cu</v>
       </c>
       <c r="N9" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9))</f>
         <v>재화</v>
       </c>
       <c r="O9" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+1))</f>
         <v>EN</v>
       </c>
       <c r="P9">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+2))</f>
         <v>200</v>
       </c>
       <c r="Q9" t="str">
@@ -3447,14 +3522,16 @@
         <v>13</v>
       </c>
       <c r="K10">
-        <f ca="1">IF($C10=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
+IF($C10=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L10,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K10,-1,0)+4))</f>
+OFFSET(K10,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L10">
-        <f ca="1">IF($K10-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
+IF($K10-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M10" t="str">
@@ -3462,15 +3539,18 @@
         <v>cu</v>
       </c>
       <c r="N10" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10))</f>
         <v>재화</v>
       </c>
       <c r="O10" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+1))</f>
         <v>EN</v>
       </c>
       <c r="P10">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+2))</f>
         <v>150</v>
       </c>
       <c r="Q10" t="str">
@@ -3514,14 +3594,16 @@
         <v>13</v>
       </c>
       <c r="K11">
-        <f ca="1">IF($C11=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
+IF($C11=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L11,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K11,-1,0)+4))</f>
+OFFSET(K11,-1,0)+4)))</f>
         <v>17</v>
       </c>
       <c r="L11">
-        <f ca="1">IF($K11-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
+IF($K11-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M11" t="str">
@@ -3529,15 +3611,18 @@
         <v>cu</v>
       </c>
       <c r="N11" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11))</f>
         <v>재화</v>
       </c>
       <c r="O11" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+1))</f>
         <v>GO</v>
       </c>
       <c r="P11">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+2))</f>
         <v>20000</v>
       </c>
       <c r="Q11" t="str">
@@ -3584,32 +3669,35 @@
         <v>7</v>
       </c>
       <c r="K12">
-        <f ca="1">IF($C12=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
+IF($C12=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L12,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K12,-1,0)+4))</f>
+OFFSET(K12,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L12">
-        <f ca="1">IF($K12-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
+IF($K12-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ref="M12:M22" ca="1" si="6">IF(ISBLANK(N12),"",
-VLOOKUP(N12,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N12" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12))</f>
         <v>재화</v>
       </c>
       <c r="O12" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+1))</f>
         <v>EN</v>
       </c>
       <c r="P12">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+2))</f>
         <v>30</v>
       </c>
       <c r="Q12" t="str">
@@ -3653,30 +3741,35 @@
         <v>7</v>
       </c>
       <c r="K13">
-        <f ca="1">IF($C13=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
+IF($C13=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L13,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K13,-1,0)+4))</f>
+OFFSET(K13,-1,0)+4)))</f>
         <v>17</v>
       </c>
       <c r="L13">
-        <f ca="1">IF($K13-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
+IF($K13-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N13" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13))</f>
         <v>재화</v>
       </c>
       <c r="O13" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+1))</f>
         <v>GO</v>
       </c>
       <c r="P13">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+2))</f>
         <v>25000</v>
       </c>
       <c r="Q13" t="str">
@@ -3720,30 +3813,35 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <f ca="1">IF($C14=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
+IF($C14=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L14,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K14,-1,0)+4))</f>
+OFFSET(K14,-1,0)+4)))</f>
         <v>21</v>
       </c>
       <c r="L14">
-        <f ca="1">IF($K14-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
+IF($K14-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N14" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14))</f>
         <v>재화</v>
       </c>
       <c r="O14" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+1))</f>
         <v>EN</v>
       </c>
       <c r="P14">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+2))</f>
         <v>100</v>
       </c>
       <c r="Q14" t="str">
@@ -3776,7 +3874,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:E20" ca="1" si="7">IF(ISBLANK(F15),"",
+        <f t="shared" ref="E15:E20" ca="1" si="6">IF(ISBLANK(F15),"",
 VLOOKUP(F15,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -3789,30 +3887,35 @@
         <v>8</v>
       </c>
       <c r="K15">
-        <f ca="1">IF($C15=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
+IF($C15=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L15,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K15,-1,0)+4))</f>
+OFFSET(K15,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L15">
-        <f ca="1">IF($K15-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
+IF($K15-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N15" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15))</f>
         <v>재화</v>
       </c>
       <c r="O15" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+1))</f>
         <v>EN</v>
       </c>
       <c r="P15">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+2))</f>
         <v>60</v>
       </c>
       <c r="Q15" t="str">
@@ -3845,7 +3948,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J16">
@@ -3856,30 +3959,35 @@
         <v>8</v>
       </c>
       <c r="K16">
-        <f ca="1">IF($C16=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
+IF($C16=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L16,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K16,-1,0)+4))</f>
+OFFSET(K16,-1,0)+4)))</f>
         <v>17</v>
       </c>
       <c r="L16">
-        <f ca="1">IF($K16-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
+IF($K16-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N16" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16))</f>
         <v>재화</v>
       </c>
       <c r="O16" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+1))</f>
         <v>GO</v>
       </c>
       <c r="P16">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+2))</f>
         <v>15000</v>
       </c>
       <c r="Q16" t="str">
@@ -3912,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J17">
@@ -3923,30 +4031,35 @@
         <v>8</v>
       </c>
       <c r="K17">
-        <f ca="1">IF($C17=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
+IF($C17=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L17,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K17,-1,0)+4))</f>
+OFFSET(K17,-1,0)+4)))</f>
         <v>21</v>
       </c>
       <c r="L17">
-        <f ca="1">IF($K17-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
+IF($K17-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N17" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17))</f>
         <v>재화</v>
       </c>
       <c r="O17" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+1))</f>
         <v>EN</v>
       </c>
       <c r="P17">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+2))</f>
         <v>120</v>
       </c>
       <c r="Q17" t="str">
@@ -3979,7 +4092,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J18">
@@ -3990,30 +4103,35 @@
         <v>9</v>
       </c>
       <c r="K18">
-        <f ca="1">IF($C18=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
+IF($C18=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L18,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K18,-1,0)+4))</f>
+OFFSET(K18,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L18">
-        <f ca="1">IF($K18-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
+IF($K18-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N18" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18))</f>
         <v>재화</v>
       </c>
       <c r="O18" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+1))</f>
         <v>EN</v>
       </c>
       <c r="P18">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+2))</f>
         <v>90</v>
       </c>
       <c r="Q18" t="str">
@@ -4046,7 +4164,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J19">
@@ -4057,30 +4175,35 @@
         <v>9</v>
       </c>
       <c r="K19">
-        <f ca="1">IF($C19=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
+IF($C19=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L19,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K19,-1,0)+4))</f>
+OFFSET(K19,-1,0)+4)))</f>
         <v>17</v>
       </c>
       <c r="L19">
-        <f ca="1">IF($K19-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
+IF($K19-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N19" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19))</f>
         <v>재화</v>
       </c>
       <c r="O19" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+1))</f>
         <v>GO</v>
       </c>
       <c r="P19">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+2))</f>
         <v>30000</v>
       </c>
       <c r="Q19" t="str">
@@ -4113,7 +4236,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="J20">
@@ -4124,30 +4247,35 @@
         <v>9</v>
       </c>
       <c r="K20">
-        <f ca="1">IF($C20=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
+IF($C20=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L20,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K20,-1,0)+4))</f>
+OFFSET(K20,-1,0)+4)))</f>
         <v>21</v>
       </c>
       <c r="L20">
-        <f ca="1">IF($K20-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
+IF($K20-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N20" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20))</f>
         <v>재화</v>
       </c>
       <c r="O20" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+1))</f>
         <v>EN</v>
       </c>
       <c r="P20">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+2))</f>
         <v>150</v>
       </c>
       <c r="Q20" t="str">
@@ -4180,7 +4308,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ref="E21" ca="1" si="8">IF(ISBLANK(F21),"",
+        <f t="shared" ref="E21" ca="1" si="7">IF(ISBLANK(F21),"",
 VLOOKUP(F21,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -4193,30 +4321,35 @@
         <v>9</v>
       </c>
       <c r="K21">
-        <f ca="1">IF($C21=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
+IF($C21=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L21,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K21,-1,0)+4))</f>
+OFFSET(K21,-1,0)+4)))</f>
         <v>25</v>
       </c>
       <c r="L21">
-        <f ca="1">IF($K21-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
+IF($K21-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N21" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21))</f>
         <v>재화</v>
       </c>
       <c r="O21" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+1))</f>
         <v>EN</v>
       </c>
       <c r="P21">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+2))</f>
         <v>300</v>
       </c>
       <c r="Q21" t="str">
@@ -4263,30 +4396,35 @@
         <v>3</v>
       </c>
       <c r="K22">
-        <f ca="1">IF($C22=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
+IF($C22=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L22,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K22,-1,0)+4))</f>
+OFFSET(K22,-1,0)+4)))</f>
         <v>13</v>
       </c>
       <c r="L22">
-        <f ca="1">IF($K22-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
+IF($K22-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22-1+4))=0,1,0)))</f>
         <v>0</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N22" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22))</f>
         <v>재화</v>
       </c>
       <c r="O22" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+1))</f>
         <v>EN</v>
       </c>
       <c r="P22">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+2))</f>
         <v>600</v>
       </c>
       <c r="Q22" t="str">
@@ -4319,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23" ca="1" si="9">IF(ISBLANK(F23),"",
+        <f t="shared" ref="E23" ca="1" si="8">IF(ISBLANK(F23),"",
 VLOOKUP(F23,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -4332,44 +4470,50 @@
         <v>3</v>
       </c>
       <c r="K23">
-        <f ca="1">IF($C23=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
+IF($C23=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L23,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K23,-1,0)+4))</f>
+OFFSET(K23,-1,0)+4)))</f>
         <v>17</v>
       </c>
       <c r="L23">
-        <f ca="1">IF($K23-1+4=28,1,
-IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23-1+4))=0,1,0))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
+IF($K23-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23-1+4))=0,1,0)))</f>
         <v>1</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ref="M23" ca="1" si="10">IF(ISBLANK(N23),"",
-VLOOKUP(N23,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="1"/>
         <v>cu</v>
       </c>
       <c r="N23" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23))</f>
         <v>재화</v>
       </c>
       <c r="O23" t="str">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+1)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+1))</f>
         <v>GO</v>
       </c>
       <c r="P23">
-        <f ca="1">OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+2)</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+2))</f>
         <v>50000</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ref="Q23:Q24" ca="1" si="9">IF(LEN(E23)&lt;&gt;0,E23,
+IF(LEN(M23)&lt;&gt;0,M23,""))</f>
         <v>cu</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ref="R23:R24" ca="1" si="10">IF(LEN(G23)&lt;&gt;0,G23,
+IF(LEN(O23)&lt;&gt;0,O23,""))</f>
         <v>GO</v>
       </c>
       <c r="S23">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="S23:S24" ca="1" si="11">IF(LEN(H23)&lt;&gt;0,H23,
+IF(LEN(P23)&lt;&gt;0,P23,""))</f>
         <v>50000</v>
       </c>
     </row>
@@ -4409,11 +4553,12 @@
 ))</f>
         <v/>
       </c>
-      <c r="K24">
-        <f ca="1">IF($C24=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+      <c r="K24" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
+IF($C24=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L24,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
-OFFSET(K24,-1,0)+4))</f>
-        <v>13</v>
+OFFSET(K24,-1,0)+4)))</f>
+        <v/>
       </c>
       <c r="L24" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
@@ -4422,37 +4567,798 @@
         <v/>
       </c>
       <c r="M24" t="str">
-        <f ca="1">IF(LEN(N24)=0,"",
+        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
+IF(ISBLANK(N24),"",
 VLOOKUP(N24,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+))</f>
         <v/>
       </c>
       <c r="N24" t="str">
-        <f ca="1">IF(LEN($J24)=0,"",
+        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
         <v/>
       </c>
       <c r="O24" t="str">
-        <f ca="1">IF(LEN($J24)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+1))</f>
         <v/>
       </c>
       <c r="P24" t="str">
-        <f ca="1">IF(LEN($J24)=0,"",
-OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
+        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+2))</f>
         <v/>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>EN</v>
       </c>
       <c r="S24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" t="str">
+        <f>VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f ca="1">IF(C25&lt;&gt;1,OFFSET(D25,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A25,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25">
+        <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+IF($C25=1,MATCH(OFFSET($I25,-($C25-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J25,-1,0)+OFFSET(L25,-1,0)
+))</f>
+        <v>4</v>
+      </c>
+      <c r="K25">
+        <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+IF($C25=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L25,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K25,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L25">
+        <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+IF($K25-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" ref="M25:M35" ca="1" si="12">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+IF(ISBLANK(N25),"",
+VLOOKUP(N25,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>cu</v>
+      </c>
+      <c r="N25" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25))</f>
+        <v>재화</v>
+      </c>
+      <c r="O25" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P25">
+        <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25+2))</f>
+        <v>350</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" ref="Q25" ca="1" si="13">IF(LEN(E25)&lt;&gt;0,E25,
+IF(LEN(M25)&lt;&gt;0,M25,""))</f>
+        <v>cu</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" ref="R25" ca="1" si="14">IF(LEN(G25)&lt;&gt;0,G25,
+IF(LEN(O25)&lt;&gt;0,O25,""))</f>
+        <v>EN</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25" ca="1" si="15">IF(LEN(H25)&lt;&gt;0,H25,
+IF(LEN(P25)&lt;&gt;0,P25,""))</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" t="str">
+        <f>VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <f ca="1">IF(C26&lt;&gt;1,OFFSET(D26,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A26,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J26">
+        <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
+IF($C26=1,MATCH(OFFSET($I26,-($C26-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J26,-1,0)+OFFSET(L26,-1,0)
+))</f>
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
+IF($C26=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L26,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K26,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L26">
+        <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
+IF($K26-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N26" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26))</f>
+        <v>재화</v>
+      </c>
+      <c r="O26" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P26">
+        <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26+2))</f>
+        <v>80000</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" ref="Q26:Q35" ca="1" si="16">IF(LEN(E26)&lt;&gt;0,E26,
+IF(LEN(M26)&lt;&gt;0,M26,""))</f>
+        <v>cu</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" ref="R26:R35" ca="1" si="17">IF(LEN(G26)&lt;&gt;0,G26,
+IF(LEN(O26)&lt;&gt;0,O26,""))</f>
+        <v>GO</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26:S35" ca="1" si="18">IF(LEN(H26)&lt;&gt;0,H26,
+IF(LEN(P26)&lt;&gt;0,P26,""))</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" t="str">
+        <f>VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f ca="1">IF(C27&lt;&gt;1,OFFSET(D27,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A27,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J27">
+        <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
+IF($C27=1,MATCH(OFFSET($I27,-($C27-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J27,-1,0)+OFFSET(L27,-1,0)
+))</f>
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
+IF($C27=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L27,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K27,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L27">
+        <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
+IF($K27-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N27" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27))</f>
+        <v>재화</v>
+      </c>
+      <c r="O27" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P27">
+        <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27+2))</f>
+        <v>800</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S27">
+        <f t="shared" ca="1" si="18"/>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="str">
+        <f>VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <f ca="1">IF(C28&lt;&gt;1,OFFSET(D28,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A28,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J28">
+        <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
+IF($C28=1,MATCH(OFFSET($I28,-($C28-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J28,-1,0)+OFFSET(L28,-1,0)
+))</f>
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
+IF($C28=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L28,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K28,-1,0)+4)))</f>
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
+IF($K28-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N28" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28))</f>
+        <v>재화</v>
+      </c>
+      <c r="O28" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P28">
+        <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28+2))</f>
+        <v>100000</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S28">
+        <f t="shared" ca="1" si="18"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="str">
+        <f>VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f ca="1">IF(C29&lt;&gt;1,OFFSET(D29,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A29,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
+IF($C29=1,MATCH(OFFSET($I29,-($C29-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J29,-1,0)+OFFSET(L29,-1,0)
+))</f>
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
+IF($C29=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L29,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K29,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L29">
+        <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
+IF($K29-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N29" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29))</f>
+        <v>재화</v>
+      </c>
+      <c r="O29" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P29">
+        <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29+2))</f>
+        <v>50000</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S29">
+        <f t="shared" ca="1" si="18"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" t="str">
+        <f>VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <f ca="1">IF(C30&lt;&gt;1,OFFSET(D30,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A30,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J30">
+        <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
+IF($C30=1,MATCH(OFFSET($I30,-($C30-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J30,-1,0)+OFFSET(L30,-1,0)
+))</f>
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
+IF($C30=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L30,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K30,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L30">
+        <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
+IF($K30-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N30" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30))</f>
+        <v>재화</v>
+      </c>
+      <c r="O30" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P30">
+        <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S30">
+        <f t="shared" ca="1" si="18"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" t="str">
+        <f>VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+      <c r="D31">
+        <f ca="1">IF(C31&lt;&gt;1,OFFSET(D31,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A31,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
+IF($C31=1,MATCH(OFFSET($I31,-($C31-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J31,-1,0)+OFFSET(L31,-1,0)
+))</f>
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
+IF($C31=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L31,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K31,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L31">
+        <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
+IF($K31-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N31" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31))</f>
+        <v>재화</v>
+      </c>
+      <c r="O31" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P31">
+        <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31+2))</f>
+        <v>70000</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S31">
+        <f t="shared" ca="1" si="18"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" t="str">
+        <f>VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C32">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <f ca="1">IF(C32&lt;&gt;1,OFFSET(D32,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A32,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J32">
+        <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
+IF($C32=1,MATCH(OFFSET($I32,-($C32-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J32,-1,0)+OFFSET(L32,-1,0)
+))</f>
+        <v>6</v>
+      </c>
+      <c r="K32">
+        <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
+IF($C32=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L32,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K32,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L32">
+        <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
+IF($K32-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N32" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32))</f>
+        <v>재화</v>
+      </c>
+      <c r="O32" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P32">
+        <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32+2))</f>
+        <v>450</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S32">
+        <f t="shared" ca="1" si="18"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" t="str">
+        <f>VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C33">
+        <v>9</v>
+      </c>
+      <c r="D33">
+        <f ca="1">IF(C33&lt;&gt;1,OFFSET(D33,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A33,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J33">
+        <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
+IF($C33=1,MATCH(OFFSET($I33,-($C33-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J33,-1,0)+OFFSET(L33,-1,0)
+))</f>
+        <v>6</v>
+      </c>
+      <c r="K33">
+        <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
+IF($C33=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L33,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K33,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L33">
+        <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
+IF($K33-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N33" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33))</f>
+        <v>재화</v>
+      </c>
+      <c r="O33" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P33">
+        <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S33">
+        <f t="shared" ca="1" si="18"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="str">
+        <f>VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <f ca="1">IF(C34&lt;&gt;1,OFFSET(D34,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A34,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J34">
+        <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
+IF($C34=1,MATCH(OFFSET($I34,-($C34-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J34,-1,0)+OFFSET(L34,-1,0)
+))</f>
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
+IF($C34=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L34,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K34,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L34">
+        <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
+IF($K34-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N34" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34))</f>
+        <v>재화</v>
+      </c>
+      <c r="O34" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P34">
+        <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34+2))</f>
+        <v>90000</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ca="1" si="18"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="str">
+        <f>VLOOKUP(A35,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <v>원플투1</v>
+      </c>
+      <c r="C35">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <f ca="1">IF(C35&lt;&gt;1,OFFSET(D35,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A35,[1]ShopProductTable!$E:$E))</f>
+        <v>11</v>
+      </c>
+      <c r="J35">
+        <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
+IF($C35=1,MATCH(OFFSET($I35,-($C35-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J35,-1,0)+OFFSET(L35,-1,0)
+))</f>
+        <v>6</v>
+      </c>
+      <c r="K35">
+        <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
+IF($C35=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L35,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K35,-1,0)+4)))</f>
+        <v>25</v>
+      </c>
+      <c r="L35">
+        <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
+IF($K35-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="N35" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35))</f>
+        <v>재화</v>
+      </c>
+      <c r="O35" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P35">
+        <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35+2))</f>
+        <v>650</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ca="1" si="18"/>
+        <v>650</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4159C1D-E90F-4386-84CB-D88A6EB762F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC2CC56-A338-489F-8942-2EE0FE692FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="115">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>연속구매2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>참고타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,10 +197,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비구매_소환할수록풍선</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>출석체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,14 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비구매_구매600%더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비구매_렙업비용20%감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매_원플러스투</t>
   </si>
   <si>
@@ -232,24 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비구매_디스코파티</t>
-  </si>
-  <si>
-    <t>비구매_디스코파티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비구매_고블린공격1회더</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매_여름파티</t>
-  </si>
-  <si>
-    <t>구매_여름파티</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>세개 중 하나 사기1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,225 +228,250 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ev13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드코딩. 프로그램이 제어</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>보스에서 패배</t>
+  </si>
+  <si>
+    <t>스핀 다 소모</t>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startYear|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startMonth|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDay|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endYear|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endMonth|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDay|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev1</t>
+  </si>
+  <si>
+    <t>prob|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subTriggerCondition|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온앱포즈 &amp; 홈 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evCool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredAccumulatedTime값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneofthree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneplustwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventSub|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev4_conti_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev3_oneofthree_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_bigboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCount오버라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_에너지소비되돌림</t>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyUsePaybackTable 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payback|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usPbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energypayback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분모참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원플투1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev5_oneplustwo_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>비구매_이벤트포인트 두번째보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비구매_골드 수입 50% 증가 (골드버튼)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드코딩. 프로그램이 제어</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>보스에서 패배</t>
-  </si>
-  <si>
-    <t>스핀 다 소모</t>
-  </si>
-  <si>
-    <t>sy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startYear|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startMonth|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startDay|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endYear|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endMonth|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDay|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerCondition|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerCondition_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coolTime|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev1</t>
-  </si>
-  <si>
-    <t>prob|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subTriggerCondition|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온앱포즈 &amp; 홈 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evCool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requiredAccumulatedTime값연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneofthree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneplustwo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventSub|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev4_conti_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev3_oneofthree_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_bigboost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCount오버라이딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비구매_에너지소비되돌림</t>
-  </si>
-  <si>
-    <t>비구매_에너지소비되돌림</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>테이블연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyUsePaybackTable 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payback|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usPbk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energypayback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분모참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원플투1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev5_oneplustwo_1</t>
+  </si>
+  <si>
+    <t>비구매_구매200%더</t>
+  </si>
+  <si>
+    <t>비구매_렙업비용50%감소</t>
+  </si>
+  <si>
+    <t>소환추가보상1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -773,21 +764,21 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>ev5_oneplustwo_1</v>
+            <v>ev3_oneofthree_1</v>
           </cell>
           <cell r="D4" t="str">
-            <v>ev5</v>
+            <v>ev3</v>
           </cell>
           <cell r="E4">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ev5_oneplustwo_2</v>
+            <v>ev3_oneofthree_2</v>
           </cell>
           <cell r="D5" t="str">
-            <v>ev5</v>
+            <v>ev3</v>
           </cell>
           <cell r="E5">
             <v>3</v>
@@ -795,10 +786,10 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>ev5_oneplustwo_3</v>
+            <v>ev3_oneofthree_3</v>
           </cell>
           <cell r="D6" t="str">
-            <v>ev5</v>
+            <v>ev3</v>
           </cell>
           <cell r="E6">
             <v>4</v>
@@ -806,10 +797,10 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>ev3_oneofthree_1</v>
+            <v>ev4_conti_1</v>
           </cell>
           <cell r="D7" t="str">
-            <v>ev3</v>
+            <v>ev4</v>
           </cell>
           <cell r="E7">
             <v>3</v>
@@ -817,21 +808,21 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>ev3_oneofthree_2</v>
+            <v>ev4_conti_2</v>
           </cell>
           <cell r="D8" t="str">
-            <v>ev3</v>
+            <v>ev4</v>
           </cell>
           <cell r="E8">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>ev3_oneofthree_3</v>
+            <v>ev4_conti_3</v>
           </cell>
           <cell r="D9" t="str">
-            <v>ev3</v>
+            <v>ev4</v>
           </cell>
           <cell r="E9">
             <v>4</v>
@@ -839,156 +830,178 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>ev4_conti_1</v>
+            <v>ev4_conti_4</v>
           </cell>
           <cell r="D10" t="str">
             <v>ev4</v>
           </cell>
           <cell r="E10">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>ev4_conti_2</v>
+            <v>ev5_oneplustwo_1</v>
           </cell>
           <cell r="D11" t="str">
-            <v>ev4</v>
+            <v>ev5</v>
           </cell>
           <cell r="E11">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>ev4_conti_3</v>
+            <v>ev5_oneplustwo_2</v>
           </cell>
           <cell r="D12" t="str">
-            <v>ev4</v>
+            <v>ev5</v>
           </cell>
           <cell r="E12">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>ev4_conti_4</v>
+            <v>ev5_oneplustwo_3</v>
           </cell>
           <cell r="D13" t="str">
-            <v>ev4</v>
+            <v>ev5</v>
           </cell>
           <cell r="E13">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>ev10_disco_1</v>
+            <v>seventotalgroup1_1</v>
           </cell>
           <cell r="D14" t="str">
-            <v>ev10</v>
+            <v>seventotalgroup1</v>
           </cell>
           <cell r="E14">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>ev10_disco_2</v>
+            <v>seventotalgroup1_2</v>
           </cell>
           <cell r="D15" t="str">
-            <v>ev10</v>
+            <v>seventotalgroup1</v>
           </cell>
           <cell r="E15">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>ev10_disco_3</v>
+            <v>seventotalgroup1_3</v>
           </cell>
           <cell r="D16" t="str">
-            <v>ev10</v>
+            <v>seventotalgroup1</v>
           </cell>
           <cell r="E16">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>ev10_disco_4</v>
+            <v>seventotalgroup1_4</v>
           </cell>
           <cell r="D17" t="str">
-            <v>ev10</v>
+            <v>seventotalgroup1</v>
           </cell>
           <cell r="E17">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>ev7_summer_1</v>
+            <v>seventotalgroup2_1</v>
           </cell>
           <cell r="D18" t="str">
-            <v>ev7</v>
+            <v>seventotalgroup2</v>
           </cell>
           <cell r="E18">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>ev7_summer_2</v>
+            <v>seventotalgroup2_2</v>
           </cell>
           <cell r="D19" t="str">
-            <v>ev7</v>
+            <v>seventotalgroup2</v>
           </cell>
           <cell r="E19">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>ev7_summer_3</v>
+            <v>seventotalgroup2_3</v>
           </cell>
           <cell r="D20" t="str">
-            <v>ev7</v>
+            <v>seventotalgroup2</v>
           </cell>
           <cell r="E20">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>ev7_summer_4</v>
+            <v>seventotalgroup2_4</v>
           </cell>
           <cell r="D21" t="str">
-            <v>ev7</v>
+            <v>seventotalgroup2</v>
           </cell>
           <cell r="E21">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>ev7_summer_5</v>
+            <v>seventotalgroup3_1</v>
           </cell>
           <cell r="D22" t="str">
-            <v>ev7</v>
+            <v>seventotalgroup3</v>
           </cell>
           <cell r="E22">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>ev7_summer_6</v>
+            <v>seventotalgroup3_2</v>
           </cell>
           <cell r="D23" t="str">
-            <v>ev7</v>
+            <v>seventotalgroup3</v>
           </cell>
           <cell r="E23">
-            <v>1</v>
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>seventotalgroup3_3</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="E24">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>seventotalgroup3_4</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>seventotalgroup3</v>
+          </cell>
+          <cell r="E25">
+            <v>3</v>
           </cell>
         </row>
       </sheetData>
@@ -1298,11 +1311,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1335,112 +1348,112 @@
   <sheetData>
     <row r="1" spans="1:40" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E1" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U1" t="s">
+        <v>66</v>
+      </c>
+      <c r="V1" t="s">
+        <v>67</v>
+      </c>
+      <c r="W1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" t="s">
         <v>84</v>
       </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="AE1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI1" t="s">
         <v>72</v>
       </c>
-      <c r="Q1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" t="s">
+      <c r="AJ1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN1" t="s">
         <v>82</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -1448,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F2">
         <f ca="1">IF(NOT(ISBLANK(E2)),E2,
@@ -1526,14 +1539,14 @@
         <v/>
       </c>
       <c r="Y2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" ref="Z2:AB5" ca="1" si="8">VLOOKUP(Y2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1551,16 +1564,16 @@
         <v>"ev1":86400</v>
       </c>
       <c r="AG2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AI2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AN2" t="str">
         <f ca="1">"{"&amp;
@@ -1574,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F3">
         <f ca="1">IF(NOT(ISBLANK(E3)),E3,
@@ -1649,14 +1662,14 @@
         <v/>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1674,16 +1687,16 @@
         <v>"ev2":0</v>
       </c>
       <c r="AG3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1691,13 +1704,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <f ca="1">IF(NOT(ISBLANK(E4)),E4,
@@ -1774,14 +1787,14 @@
         <v>16</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1799,10 +1812,10 @@
         <v>"ev3":691200</v>
       </c>
       <c r="AG4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AI4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="AJ4">
         <v>2</v>
@@ -1816,10 +1829,10 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <f ca="1">IF(NOT(ISBLANK(E5)),E5,
@@ -1896,14 +1909,14 @@
         <v>28</v>
       </c>
       <c r="Y5" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1921,10 +1934,10 @@
         <v>"ev4":172800</v>
       </c>
       <c r="AG5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AI5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="AJ5">
         <v>3</v>
@@ -1935,13 +1948,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="F6">
         <f ca="1">IF(NOT(ISBLANK(E6)),E6,
@@ -2018,14 +2031,14 @@
         <v>16</v>
       </c>
       <c r="Y6" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" ref="Z6" ca="1" si="12">VLOOKUP(Y6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" ref="AB6" ca="1" si="13">VLOOKUP(AA6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -2043,10 +2056,10 @@
         <v>"ev5":86400</v>
       </c>
       <c r="AG6" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="AI6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -2057,13 +2070,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
@@ -2141,14 +2154,14 @@
         <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" ref="Z7" ca="1" si="14">VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" ref="AB7" ca="1" si="15">VLOOKUP(AA7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -2166,20 +2179,23 @@
         <v>"ev6":2592000</v>
       </c>
       <c r="AG7" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:40">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F8">
         <f ca="1">IF(NOT(ISBLANK(E8)),E8,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A8))</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>600</v>
@@ -2255,7 +2271,7 @@
         <v>"ev7":0</v>
       </c>
       <c r="AG8" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -2341,7 +2357,7 @@
         <v>"ev8":0</v>
       </c>
       <c r="AG9" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -2426,21 +2442,15 @@
         <f t="shared" si="11"/>
         <v>"ev9":0</v>
       </c>
-      <c r="AG10" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>52</v>
-      </c>
       <c r="F11">
         <f ca="1">IF(NOT(ISBLANK(E11)),E11,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A11))</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>600</v>
@@ -2515,19 +2525,10 @@
         <f t="shared" si="11"/>
         <v>"ev10":0</v>
       </c>
-      <c r="AG11" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
       </c>
       <c r="F12">
         <f ca="1">IF(NOT(ISBLANK(E12)),E12,
@@ -2608,9 +2609,6 @@
         <f t="shared" si="11"/>
         <v>"ev11":0</v>
       </c>
-      <c r="AG12" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
@@ -2694,13 +2692,10 @@
         <f t="shared" si="11"/>
         <v>"ev12":0</v>
       </c>
-      <c r="AG13" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F14">
         <f ca="1">IF(NOT(ISBLANK(E14)),E14,
@@ -2779,9 +2774,6 @@
       <c r="AE14" t="str">
         <f t="shared" si="11"/>
         <v>"ev13":0</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2803,100 +2795,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="24.625" customWidth="1" outlineLevel="1"/>
     <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
     <col min="5" max="5" width="3.5" customWidth="1" outlineLevel="1"/>
     <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="23.875" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="13.125" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19" customWidth="1" outlineLevel="1"/>
     <col min="10" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="16.5" customWidth="1"/>
     <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="I1" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="U1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" t="s">
         <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B2" t="str">
-        <f>VLOOKUP(A2,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A2,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>빅부스트 패키지1</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -2904,23 +2898,23 @@
       <c r="D2">
         <f ca="1">IF(C2&lt;&gt;1,OFFSET(D2,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A2,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E24" ca="1" si="0">IF(ISBLANK(F2),"",
+        <f t="shared" ref="E2:E65" ca="1" si="0">IF(ISBLANK(F2),"",
 VLOOKUP(F2,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 IF($C2=1,MATCH(OFFSET($I2,-($C2-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J2,-1,0)+OFFSET(L2,-1,0)
 ))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
@@ -2936,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M23" ca="1" si="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
+        <f t="shared" ref="M2:M3" ca="1" si="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 IF(ISBLANK(N2),"",
 VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
@@ -2955,37 +2949,37 @@
       <c r="P2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+2))</f>
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="str">
-        <f ca="1">IF(LEN(E2)&lt;&gt;0,E2,
+        <f t="shared" ref="Q2" ca="1" si="2">IF(LEN(E2)&lt;&gt;0,E2,
 IF(LEN(M2)&lt;&gt;0,M2,""))</f>
         <v>cu</v>
       </c>
       <c r="R2" t="str">
-        <f ca="1">IF(LEN(G2)&lt;&gt;0,G2,
+        <f t="shared" ref="R2" ca="1" si="3">IF(LEN(G2)&lt;&gt;0,G2,
 IF(LEN(O2)&lt;&gt;0,O2,""))</f>
         <v>EN</v>
       </c>
       <c r="S2">
-        <f ca="1">IF(LEN(H2)&lt;&gt;0,H2,
+        <f t="shared" ref="S2" ca="1" si="4">IF(LEN(H2)&lt;&gt;0,H2,
 IF(LEN(P2)&lt;&gt;0,P2,""))</f>
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="U2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" t="s">
         <v>27</v>
-      </c>
-      <c r="V2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B3" t="str">
-        <f>VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>빅부스트 패키지1</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2993,7 +2987,7 @@
       <c r="D3">
         <f ca="1">IF(C3&lt;&gt;1,OFFSET(D3,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A3,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3004,7 +2998,7 @@
 IF($C3=1,MATCH(OFFSET($I3,-($C3-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J3,-1,0)+OFFSET(L3,-1,0)
 ))</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K3">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
@@ -3017,7 +3011,7 @@
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 IF($K3-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3-1+4))=0,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3036,112 +3030,124 @@
       <c r="P3">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+2))</f>
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q22" ca="1" si="2">IF(LEN(E3)&lt;&gt;0,E3,
+        <f t="shared" ref="Q3:Q4" ca="1" si="5">IF(LEN(E3)&lt;&gt;0,E3,
 IF(LEN(M3)&lt;&gt;0,M3,""))</f>
         <v>cu</v>
       </c>
       <c r="R3" t="str">
-        <f t="shared" ref="R3:R22" ca="1" si="3">IF(LEN(G3)&lt;&gt;0,G3,
+        <f t="shared" ref="R3:R4" ca="1" si="6">IF(LEN(G3)&lt;&gt;0,G3,
 IF(LEN(O3)&lt;&gt;0,O3,""))</f>
         <v>GO</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S22" ca="1" si="4">IF(LEN(H3)&lt;&gt;0,H3,
+        <f t="shared" ref="S3:S4" ca="1" si="7">IF(LEN(H3)&lt;&gt;0,H3,
 IF(LEN(P3)&lt;&gt;0,P3,""))</f>
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="U3" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" t="s">
         <v>31</v>
-      </c>
-      <c r="V3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A4,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>올모스트 데어1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <f ca="1">IF(C4&lt;&gt;1,OFFSET(D4,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A4,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="J4">
+        <v>cu</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
 IF($C4=1,MATCH(OFFSET($I4,-($C4-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J4,-1,0)+OFFSET(L4,-1,0)
 ))</f>
-        <v>10</v>
-      </c>
-      <c r="K4">
+        <v/>
+      </c>
+      <c r="K4" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
 IF($C4=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L4,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K4,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L4">
+        <v/>
+      </c>
+      <c r="L4" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
 IF($K4-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4-1+4))=0,1,0)))</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
+        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+IF(ISBLANK(N4),"",
+VLOOKUP(N4,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v/>
       </c>
       <c r="N4" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4))</f>
-        <v>재화</v>
+        <v/>
       </c>
       <c r="O4" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P4">
+        <v/>
+      </c>
+      <c r="P4" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J4-1,$K4+2))</f>
-        <v>170</v>
+        <v/>
       </c>
       <c r="Q4" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>cu</v>
       </c>
       <c r="R4" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="6"/>
         <v>EN</v>
       </c>
       <c r="S4">
-        <f t="shared" ca="1" si="4"/>
-        <v>170</v>
+        <f t="shared" si="7"/>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="str">
-        <f>VLOOKUP(A5,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A5,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <f ca="1">IF(C5&lt;&gt;1,OFFSET(D5,-1,0),
@@ -3152,12 +3158,15 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
       <c r="J5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 IF($C5=1,MATCH(OFFSET($I5,-($C5-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J5,-1,0)+OFFSET(L5,-1,0)
 ))</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
@@ -3170,10 +3179,13 @@
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 IF($K5-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5-1+4))=0,1,0)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
+IF(ISBLANK(N5),"",
+VLOOKUP(N5,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N5" t="str">
@@ -3189,31 +3201,34 @@
       <c r="P5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+2))</f>
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E5)&lt;&gt;0,E5,
+IF(LEN(M5)&lt;&gt;0,M5,""))</f>
         <v>cu</v>
       </c>
       <c r="R5" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G5)&lt;&gt;0,G5,
+IF(LEN(O5)&lt;&gt;0,O5,""))</f>
         <v>EN</v>
       </c>
       <c r="S5">
-        <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <f ca="1">IF(LEN(H5)&lt;&gt;0,H5,
+IF(LEN(P5)&lt;&gt;0,P5,""))</f>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="str">
-        <f>VLOOKUP(A6,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A6,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <f ca="1">IF(C6&lt;&gt;1,OFFSET(D6,-1,0),
@@ -3229,14 +3244,14 @@
 IF($C6=1,MATCH(OFFSET($I6,-($C6-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J6,-1,0)+OFFSET(L6,-1,0)
 ))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 IF($C6=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L6,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K6,-1,0)+4)))</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
@@ -3245,7 +3260,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
+IF(ISBLANK(N6),"",
+VLOOKUP(N6,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N6" t="str">
@@ -3261,31 +3279,34 @@
       <c r="P6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+2))</f>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E6)&lt;&gt;0,E6,
+IF(LEN(M6)&lt;&gt;0,M6,""))</f>
         <v>cu</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G6)&lt;&gt;0,G6,
+IF(LEN(O6)&lt;&gt;0,O6,""))</f>
         <v>GO</v>
       </c>
       <c r="S6">
-        <f t="shared" ca="1" si="4"/>
-        <v>20000</v>
+        <f ca="1">IF(LEN(H6)&lt;&gt;0,H6,
+IF(LEN(P6)&lt;&gt;0,P6,""))</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B7" t="str">
-        <f>VLOOKUP(A7,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A7,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f ca="1">IF(C7&lt;&gt;1,OFFSET(D7,-1,0),
@@ -3301,23 +3322,26 @@
 IF($C7=1,MATCH(OFFSET($I7,-($C7-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J7,-1,0)+OFFSET(L7,-1,0)
 ))</f>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($C7=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L7,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K7,-1,0)+4)))</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($K7-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7-1+4))=0,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
+IF(ISBLANK(N7),"",
+VLOOKUP(N7,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N7" t="str">
@@ -3333,31 +3357,34 @@
       <c r="P7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+2))</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q7" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E7)&lt;&gt;0,E7,
+IF(LEN(M7)&lt;&gt;0,M7,""))</f>
         <v>cu</v>
       </c>
       <c r="R7" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G7)&lt;&gt;0,G7,
+IF(LEN(O7)&lt;&gt;0,O7,""))</f>
         <v>EN</v>
       </c>
       <c r="S7">
-        <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <f ca="1">IF(LEN(H7)&lt;&gt;0,H7,
+IF(LEN(P7)&lt;&gt;0,P7,""))</f>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" t="str">
-        <f>VLOOKUP(A8,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A8,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <f ca="1">IF(C8&lt;&gt;1,OFFSET(D8,-1,0),
@@ -3373,14 +3400,14 @@
 IF($C8=1,MATCH(OFFSET($I8,-($C8-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J8,-1,0)+OFFSET(L8,-1,0)
 ))</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 IF($C8=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L8,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K8,-1,0)+4)))</f>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
@@ -3389,7 +3416,10 @@
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
+IF(ISBLANK(N8),"",
+VLOOKUP(N8,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N8" t="str">
@@ -3400,36 +3430,39 @@
       <c r="O8" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+1))</f>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="P8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+2))</f>
-        <v>35000</v>
+        <v>60</v>
       </c>
       <c r="Q8" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E8)&lt;&gt;0,E8,
+IF(LEN(M8)&lt;&gt;0,M8,""))</f>
         <v>cu</v>
       </c>
       <c r="R8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>GO</v>
+        <f ca="1">IF(LEN(G8)&lt;&gt;0,G8,
+IF(LEN(O8)&lt;&gt;0,O8,""))</f>
+        <v>EN</v>
       </c>
       <c r="S8">
-        <f t="shared" ca="1" si="4"/>
-        <v>35000</v>
+        <f ca="1">IF(LEN(H8)&lt;&gt;0,H8,
+IF(LEN(P8)&lt;&gt;0,P8,""))</f>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="str">
-        <f>VLOOKUP(A9,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A9,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <f ca="1">IF(C9&lt;&gt;1,OFFSET(D9,-1,0),
@@ -3445,23 +3478,26 @@
 IF($C9=1,MATCH(OFFSET($I9,-($C9-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J9,-1,0)+OFFSET(L9,-1,0)
 ))</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="K9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($C9=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L9,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K9,-1,0)+4)))</f>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($K9-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9-1+4))=0,1,0)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
+IF(ISBLANK(N9),"",
+VLOOKUP(N9,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N9" t="str">
@@ -3472,36 +3508,39 @@
       <c r="O9" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+1))</f>
-        <v>EN</v>
+        <v>GO</v>
       </c>
       <c r="P9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+2))</f>
-        <v>200</v>
+        <v>15000</v>
       </c>
       <c r="Q9" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E9)&lt;&gt;0,E9,
+IF(LEN(M9)&lt;&gt;0,M9,""))</f>
         <v>cu</v>
       </c>
       <c r="R9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>EN</v>
+        <f ca="1">IF(LEN(G9)&lt;&gt;0,G9,
+IF(LEN(O9)&lt;&gt;0,O9,""))</f>
+        <v>GO</v>
       </c>
       <c r="S9">
-        <f t="shared" ca="1" si="4"/>
-        <v>200</v>
+        <f ca="1">IF(LEN(H9)&lt;&gt;0,H9,
+IF(LEN(P9)&lt;&gt;0,P9,""))</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B10" t="str">
-        <f>VLOOKUP(A10,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A10,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <f ca="1">IF(C10&lt;&gt;1,OFFSET(D10,-1,0),
@@ -3509,9 +3548,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ref="E10:E11" ca="1" si="5">IF(ISBLANK(F10),"",
-VLOOKUP(F10,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J10">
@@ -3519,23 +3556,26 @@
 IF($C10=1,MATCH(OFFSET($I10,-($C10-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J10,-1,0)+OFFSET(L10,-1,0)
 ))</f>
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($C10=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L10,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K10,-1,0)+4)))</f>
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="L10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($K10-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10-1+4))=0,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
+IF(ISBLANK(N10),"",
+VLOOKUP(N10,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N10" t="str">
@@ -3551,31 +3591,34 @@
       <c r="P10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+2))</f>
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="Q10" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E10)&lt;&gt;0,E10,
+IF(LEN(M10)&lt;&gt;0,M10,""))</f>
         <v>cu</v>
       </c>
       <c r="R10" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G10)&lt;&gt;0,G10,
+IF(LEN(O10)&lt;&gt;0,O10,""))</f>
         <v>EN</v>
       </c>
       <c r="S10">
-        <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <f ca="1">IF(LEN(H10)&lt;&gt;0,H10,
+IF(LEN(P10)&lt;&gt;0,P10,""))</f>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B11" t="str">
-        <f>VLOOKUP(A11,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>연속구매1</v>
+        <f>IFERROR(VLOOKUP(A11,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>세개 중 하나 사기1</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <f ca="1">IF(C11&lt;&gt;1,OFFSET(D11,-1,0),
@@ -3583,7 +3626,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J11">
@@ -3591,23 +3634,26 @@
 IF($C11=1,MATCH(OFFSET($I11,-($C11-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J11,-1,0)+OFFSET(L11,-1,0)
 ))</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="K11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($C11=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L11,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K11,-1,0)+4)))</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($K11-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11-1+4))=0,1,0)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
+IF(ISBLANK(N11),"",
+VLOOKUP(N11,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N11" t="str">
@@ -3618,36 +3664,39 @@
       <c r="O11" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+1))</f>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="P11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+2))</f>
-        <v>20000</v>
+        <v>90</v>
       </c>
       <c r="Q11" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E11)&lt;&gt;0,E11,
+IF(LEN(M11)&lt;&gt;0,M11,""))</f>
         <v>cu</v>
       </c>
       <c r="R11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>GO</v>
+        <f ca="1">IF(LEN(G11)&lt;&gt;0,G11,
+IF(LEN(O11)&lt;&gt;0,O11,""))</f>
+        <v>EN</v>
       </c>
       <c r="S11">
-        <f t="shared" ca="1" si="4"/>
-        <v>20000</v>
+        <f ca="1">IF(LEN(H11)&lt;&gt;0,H11,
+IF(LEN(P11)&lt;&gt;0,P11,""))</f>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="str">
-        <f>VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D12">
         <f ca="1">IF(C12&lt;&gt;1,OFFSET(D12,-1,0),
@@ -3658,22 +3707,19 @@
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="I12" t="s">
-        <v>101</v>
-      </c>
       <c r="J12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($C12=1,MATCH(OFFSET($I12,-($C12-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J12,-1,0)+OFFSET(L12,-1,0)
 ))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($C12=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L12,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K12,-1,0)+4)))</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="L12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
@@ -3682,7 +3728,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
+IF(ISBLANK(N12),"",
+VLOOKUP(N12,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N12" t="str">
@@ -3693,36 +3742,39 @@
       <c r="O12" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+1))</f>
-        <v>EN</v>
+        <v>GO</v>
       </c>
       <c r="P12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+2))</f>
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="Q12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E12)&lt;&gt;0,E12,
+IF(LEN(M12)&lt;&gt;0,M12,""))</f>
         <v>cu</v>
       </c>
       <c r="R12" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>EN</v>
+        <f ca="1">IF(LEN(G12)&lt;&gt;0,G12,
+IF(LEN(O12)&lt;&gt;0,O12,""))</f>
+        <v>GO</v>
       </c>
       <c r="S12">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <f ca="1">IF(LEN(H12)&lt;&gt;0,H12,
+IF(LEN(P12)&lt;&gt;0,P12,""))</f>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" t="str">
-        <f>VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D13">
         <f ca="1">IF(C13&lt;&gt;1,OFFSET(D13,-1,0),
@@ -3738,14 +3790,14 @@
 IF($C13=1,MATCH(OFFSET($I13,-($C13-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J13,-1,0)+OFFSET(L13,-1,0)
 ))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 IF($C13=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L13,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K13,-1,0)+4)))</f>
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
@@ -3754,7 +3806,10 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
+IF(ISBLANK(N13),"",
+VLOOKUP(N13,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N13" t="str">
@@ -3765,36 +3820,39 @@
       <c r="O13" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+1))</f>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="P13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+2))</f>
-        <v>25000</v>
+        <v>150</v>
       </c>
       <c r="Q13" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E13)&lt;&gt;0,E13,
+IF(LEN(M13)&lt;&gt;0,M13,""))</f>
         <v>cu</v>
       </c>
       <c r="R13" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>GO</v>
+        <f ca="1">IF(LEN(G13)&lt;&gt;0,G13,
+IF(LEN(O13)&lt;&gt;0,O13,""))</f>
+        <v>EN</v>
       </c>
       <c r="S13">
-        <f t="shared" ca="1" si="4"/>
-        <v>25000</v>
+        <f ca="1">IF(LEN(H13)&lt;&gt;0,H13,
+IF(LEN(P13)&lt;&gt;0,P13,""))</f>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B14" t="str">
-        <f>VLOOKUP(A14,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A14,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>세개 중 하나 사기1</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D14">
         <f ca="1">IF(C14&lt;&gt;1,OFFSET(D14,-1,0),
@@ -3810,14 +3868,14 @@
 IF($C14=1,MATCH(OFFSET($I14,-($C14-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J14,-1,0)+OFFSET(L14,-1,0)
 ))</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 IF($C14=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L14,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K14,-1,0)+4)))</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="L14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
@@ -3826,7 +3884,10 @@
         <v>1</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
+IF(ISBLANK(N14),"",
+VLOOKUP(N14,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N14" t="str">
@@ -3842,31 +3903,34 @@
       <c r="P14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+2))</f>
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q14" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E14)&lt;&gt;0,E14,
+IF(LEN(M14)&lt;&gt;0,M14,""))</f>
         <v>cu</v>
       </c>
       <c r="R14" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G14)&lt;&gt;0,G14,
+IF(LEN(O14)&lt;&gt;0,O14,""))</f>
         <v>EN</v>
       </c>
       <c r="S14">
-        <f t="shared" ca="1" si="4"/>
-        <v>100</v>
+        <f ca="1">IF(LEN(H14)&lt;&gt;0,H14,
+IF(LEN(P14)&lt;&gt;0,P14,""))</f>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="str">
-        <f>VLOOKUP(A15,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>IFERROR(VLOOKUP(A15,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f ca="1">IF(C15&lt;&gt;1,OFFSET(D15,-1,0),
@@ -3874,17 +3938,18 @@
         <v>10</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ref="E15:E20" ca="1" si="6">IF(ISBLANK(F15),"",
-VLOOKUP(F15,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I15" t="s">
+        <v>89</v>
       </c>
       <c r="J15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 IF($C15=1,MATCH(OFFSET($I15,-($C15-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J15,-1,0)+OFFSET(L15,-1,0)
 ))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
@@ -3900,7 +3965,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
+IF(ISBLANK(N15),"",
+VLOOKUP(N15,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N15" t="str">
@@ -3916,31 +3984,34 @@
       <c r="P15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+2))</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q15" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E15)&lt;&gt;0,E15,
+IF(LEN(M15)&lt;&gt;0,M15,""))</f>
         <v>cu</v>
       </c>
       <c r="R15" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G15)&lt;&gt;0,G15,
+IF(LEN(O15)&lt;&gt;0,O15,""))</f>
         <v>EN</v>
       </c>
       <c r="S15">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <f ca="1">IF(LEN(H15)&lt;&gt;0,H15,
+IF(LEN(P15)&lt;&gt;0,P15,""))</f>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B16" t="str">
-        <f>VLOOKUP(A16,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>IFERROR(VLOOKUP(A16,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f ca="1">IF(C16&lt;&gt;1,OFFSET(D16,-1,0),
@@ -3948,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J16">
@@ -3956,7 +4027,7 @@
 IF($C16=1,MATCH(OFFSET($I16,-($C16-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J16,-1,0)+OFFSET(L16,-1,0)
 ))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
@@ -3972,7 +4043,10 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
+IF(ISBLANK(N16),"",
+VLOOKUP(N16,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N16" t="str">
@@ -3988,31 +4062,34 @@
       <c r="P16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+2))</f>
-        <v>15000</v>
+        <v>35000</v>
       </c>
       <c r="Q16" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E16)&lt;&gt;0,E16,
+IF(LEN(M16)&lt;&gt;0,M16,""))</f>
         <v>cu</v>
       </c>
       <c r="R16" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G16)&lt;&gt;0,G16,
+IF(LEN(O16)&lt;&gt;0,O16,""))</f>
         <v>GO</v>
       </c>
       <c r="S16">
-        <f t="shared" ca="1" si="4"/>
-        <v>15000</v>
+        <f ca="1">IF(LEN(H16)&lt;&gt;0,H16,
+IF(LEN(P16)&lt;&gt;0,P16,""))</f>
+        <v>35000</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B17" t="str">
-        <f>VLOOKUP(A17,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>IFERROR(VLOOKUP(A17,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f ca="1">IF(C17&lt;&gt;1,OFFSET(D17,-1,0),
@@ -4020,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J17">
@@ -4028,7 +4105,7 @@
 IF($C17=1,MATCH(OFFSET($I17,-($C17-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J17,-1,0)+OFFSET(L17,-1,0)
 ))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
@@ -4044,7 +4121,10 @@
         <v>1</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
+IF(ISBLANK(N17),"",
+VLOOKUP(N17,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N17" t="str">
@@ -4060,31 +4140,34 @@
       <c r="P17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+2))</f>
-        <v>120</v>
+        <v>170</v>
       </c>
       <c r="Q17" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E17)&lt;&gt;0,E17,
+IF(LEN(M17)&lt;&gt;0,M17,""))</f>
         <v>cu</v>
       </c>
       <c r="R17" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G17)&lt;&gt;0,G17,
+IF(LEN(O17)&lt;&gt;0,O17,""))</f>
         <v>EN</v>
       </c>
       <c r="S17">
-        <f t="shared" ca="1" si="4"/>
-        <v>120</v>
+        <f ca="1">IF(LEN(H17)&lt;&gt;0,H17,
+IF(LEN(P17)&lt;&gt;0,P17,""))</f>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" t="str">
-        <f>VLOOKUP(A18,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>IFERROR(VLOOKUP(A18,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <f ca="1">IF(C18&lt;&gt;1,OFFSET(D18,-1,0),
@@ -4092,7 +4175,7 @@
         <v>10</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J18">
@@ -4100,7 +4183,7 @@
 IF($C18=1,MATCH(OFFSET($I18,-($C18-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J18,-1,0)+OFFSET(L18,-1,0)
 ))</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
@@ -4113,10 +4196,13 @@
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 IF($K18-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18-1+4))=0,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
+IF(ISBLANK(N18),"",
+VLOOKUP(N18,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N18" t="str">
@@ -4132,31 +4218,34 @@
       <c r="P18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+2))</f>
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="Q18" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E18)&lt;&gt;0,E18,
+IF(LEN(M18)&lt;&gt;0,M18,""))</f>
         <v>cu</v>
       </c>
       <c r="R18" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G18)&lt;&gt;0,G18,
+IF(LEN(O18)&lt;&gt;0,O18,""))</f>
         <v>EN</v>
       </c>
       <c r="S18">
-        <f t="shared" ca="1" si="4"/>
-        <v>90</v>
+        <f ca="1">IF(LEN(H18)&lt;&gt;0,H18,
+IF(LEN(P18)&lt;&gt;0,P18,""))</f>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B19" t="str">
-        <f>VLOOKUP(A19,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>IFERROR(VLOOKUP(A19,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <f ca="1">IF(C19&lt;&gt;1,OFFSET(D19,-1,0),
@@ -4164,7 +4253,7 @@
         <v>10</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J19">
@@ -4179,7 +4268,7 @@
 IF($C19=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L19,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K19,-1,0)+4)))</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
@@ -4188,7 +4277,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
+IF(ISBLANK(N19),"",
+VLOOKUP(N19,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N19" t="str">
@@ -4204,31 +4296,34 @@
       <c r="P19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+2))</f>
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="Q19" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E19)&lt;&gt;0,E19,
+IF(LEN(M19)&lt;&gt;0,M19,""))</f>
         <v>cu</v>
       </c>
       <c r="R19" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G19)&lt;&gt;0,G19,
+IF(LEN(O19)&lt;&gt;0,O19,""))</f>
         <v>GO</v>
       </c>
       <c r="S19">
-        <f t="shared" ca="1" si="4"/>
-        <v>30000</v>
+        <f ca="1">IF(LEN(H19)&lt;&gt;0,H19,
+IF(LEN(P19)&lt;&gt;0,P19,""))</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B20" t="str">
-        <f>VLOOKUP(A20,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>IFERROR(VLOOKUP(A20,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <f ca="1">IF(C20&lt;&gt;1,OFFSET(D20,-1,0),
@@ -4236,7 +4331,7 @@
         <v>10</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J20">
@@ -4251,7 +4346,7 @@
 IF($C20=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L20,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K20,-1,0)+4)))</f>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
@@ -4260,7 +4355,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
+IF(ISBLANK(N20),"",
+VLOOKUP(N20,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N20" t="str">
@@ -4279,28 +4377,31 @@
         <v>150</v>
       </c>
       <c r="Q20" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E20)&lt;&gt;0,E20,
+IF(LEN(M20)&lt;&gt;0,M20,""))</f>
         <v>cu</v>
       </c>
       <c r="R20" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G20)&lt;&gt;0,G20,
+IF(LEN(O20)&lt;&gt;0,O20,""))</f>
         <v>EN</v>
       </c>
       <c r="S20">
-        <f t="shared" ca="1" si="4"/>
+        <f ca="1">IF(LEN(H20)&lt;&gt;0,H20,
+IF(LEN(P20)&lt;&gt;0,P20,""))</f>
         <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B21" t="str">
-        <f>VLOOKUP(A21,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>세개 중 하나 사기1</v>
+        <f>IFERROR(VLOOKUP(A21,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <f ca="1">IF(C21&lt;&gt;1,OFFSET(D21,-1,0),
@@ -4308,9 +4409,7 @@
         <v>10</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ref="E21" ca="1" si="7">IF(ISBLANK(F21),"",
-VLOOKUP(F21,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J21">
@@ -4325,16 +4424,19 @@
 IF($C21=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L21,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K21,-1,0)+4)))</f>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 IF($K21-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21-1+4))=0,1,0)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
+IF(ISBLANK(N21),"",
+VLOOKUP(N21,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N21" t="str">
@@ -4345,71 +4447,74 @@
       <c r="O21" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+1))</f>
-        <v>EN</v>
+        <v>GO</v>
       </c>
       <c r="P21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+2))</f>
-        <v>300</v>
+        <v>35000</v>
       </c>
       <c r="Q21" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E21)&lt;&gt;0,E21,
+IF(LEN(M21)&lt;&gt;0,M21,""))</f>
         <v>cu</v>
       </c>
       <c r="R21" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>EN</v>
+        <f ca="1">IF(LEN(G21)&lt;&gt;0,G21,
+IF(LEN(O21)&lt;&gt;0,O21,""))</f>
+        <v>GO</v>
       </c>
       <c r="S21">
-        <f t="shared" ca="1" si="4"/>
-        <v>300</v>
+        <f ca="1">IF(LEN(H21)&lt;&gt;0,H21,
+IF(LEN(P21)&lt;&gt;0,P21,""))</f>
+        <v>35000</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B22" t="str">
-        <f>VLOOKUP(A22,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>빅부스트 패키지1</v>
+        <f>IFERROR(VLOOKUP(A22,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <f ca="1">IF(C22&lt;&gt;1,OFFSET(D22,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A22,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
-      </c>
-      <c r="I22" t="s">
-        <v>102</v>
       </c>
       <c r="J22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($C22=1,MATCH(OFFSET($I22,-($C22-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J22,-1,0)+OFFSET(L22,-1,0)
 ))</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($C22=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L22,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K22,-1,0)+4)))</f>
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="L22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($K22-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22-1+4))=0,1,0)))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
+IF(ISBLANK(N22),"",
+VLOOKUP(N22,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N22" t="str">
@@ -4425,41 +4530,42 @@
       <c r="P22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+2))</f>
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="Q22" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">IF(LEN(E22)&lt;&gt;0,E22,
+IF(LEN(M22)&lt;&gt;0,M22,""))</f>
         <v>cu</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">IF(LEN(G22)&lt;&gt;0,G22,
+IF(LEN(O22)&lt;&gt;0,O22,""))</f>
         <v>EN</v>
       </c>
       <c r="S22">
-        <f t="shared" ca="1" si="4"/>
-        <v>600</v>
+        <f ca="1">IF(LEN(H22)&lt;&gt;0,H22,
+IF(LEN(P22)&lt;&gt;0,P22,""))</f>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="B23" t="str">
-        <f>VLOOKUP(A23,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>빅부스트 패키지1</v>
+        <f>IFERROR(VLOOKUP(A23,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D23">
         <f ca="1">IF(C23&lt;&gt;1,OFFSET(D23,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A23,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ref="E23" ca="1" si="8">IF(ISBLANK(F23),"",
-VLOOKUP(F23,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J23">
@@ -4467,23 +4573,26 @@
 IF($C23=1,MATCH(OFFSET($I23,-($C23-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J23,-1,0)+OFFSET(L23,-1,0)
 ))</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($C23=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L23,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K23,-1,0)+4)))</f>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($K23-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23-1+4))=0,1,0)))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
+IF(ISBLANK(N23),"",
+VLOOKUP(N23,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N23" t="str">
@@ -4494,119 +4603,113 @@
       <c r="O23" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+1))</f>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="P23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+2))</f>
-        <v>50000</v>
+        <v>150</v>
       </c>
       <c r="Q23" t="str">
-        <f t="shared" ref="Q23:Q24" ca="1" si="9">IF(LEN(E23)&lt;&gt;0,E23,
+        <f ca="1">IF(LEN(E23)&lt;&gt;0,E23,
 IF(LEN(M23)&lt;&gt;0,M23,""))</f>
         <v>cu</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" ref="R23:R24" ca="1" si="10">IF(LEN(G23)&lt;&gt;0,G23,
+        <f ca="1">IF(LEN(G23)&lt;&gt;0,G23,
 IF(LEN(O23)&lt;&gt;0,O23,""))</f>
-        <v>GO</v>
+        <v>EN</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:S24" ca="1" si="11">IF(LEN(H23)&lt;&gt;0,H23,
+        <f ca="1">IF(LEN(H23)&lt;&gt;0,H23,
 IF(LEN(P23)&lt;&gt;0,P23,""))</f>
-        <v>50000</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="B24" t="str">
-        <f>VLOOKUP(A24,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
-        <v>올모스트 데어1</v>
+        <f>IFERROR(VLOOKUP(A24,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v>연속구매1</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D24">
         <f ca="1">IF(C24&lt;&gt;1,OFFSET(D24,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A24,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cu</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="J24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($C24=1,MATCH(OFFSET($I24,-($C24-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J24,-1,0)+OFFSET(L24,-1,0)
 ))</f>
-        <v/>
-      </c>
-      <c r="K24" t="str">
+        <v>10</v>
+      </c>
+      <c r="K24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($C24=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L24,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K24,-1,0)+4)))</f>
-        <v/>
-      </c>
-      <c r="L24" t="str">
+        <v>17</v>
+      </c>
+      <c r="L24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($K24-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24-1+4))=0,1,0)))</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="M24" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF(ISBLANK(N24),"",
 VLOOKUP(N24,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v/>
+        <v>cu</v>
       </c>
       <c r="N24" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
-        <v/>
+        <v>재화</v>
       </c>
       <c r="O24" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+1))</f>
-        <v/>
-      </c>
-      <c r="P24" t="str">
+        <v>GO</v>
+      </c>
+      <c r="P24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+2))</f>
-        <v/>
+        <v>20000</v>
       </c>
       <c r="Q24" t="str">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">IF(LEN(E24)&lt;&gt;0,E24,
+IF(LEN(M24)&lt;&gt;0,M24,""))</f>
         <v>cu</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="10"/>
-        <v>EN</v>
+        <f ca="1">IF(LEN(G24)&lt;&gt;0,G24,
+IF(LEN(O24)&lt;&gt;0,O24,""))</f>
+        <v>GO</v>
       </c>
       <c r="S24">
-        <f t="shared" si="11"/>
-        <v>100</v>
+        <f ca="1">IF(LEN(H24)&lt;&gt;0,H24,
+IF(LEN(P24)&lt;&gt;0,P24,""))</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B25" t="str">
-        <f>VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C25">
@@ -4617,15 +4720,19 @@
 SUMIF([1]ShopProductTable!$D:$D,$A25,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E25" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="I25" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF($C25=1,MATCH(OFFSET($I25,-($C25-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J25,-1,0)+OFFSET(L25,-1,0)
 ))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
@@ -4641,7 +4748,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ref="M25:M35" ca="1" si="12">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+        <f t="shared" ref="M25:M35" ca="1" si="8">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF(ISBLANK(N25),"",
 VLOOKUP(N25,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
@@ -4663,27 +4770,27 @@
         <v>350</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" ref="Q25" ca="1" si="13">IF(LEN(E25)&lt;&gt;0,E25,
+        <f t="shared" ref="Q25" ca="1" si="9">IF(LEN(E25)&lt;&gt;0,E25,
 IF(LEN(M25)&lt;&gt;0,M25,""))</f>
         <v>cu</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" ref="R25" ca="1" si="14">IF(LEN(G25)&lt;&gt;0,G25,
+        <f t="shared" ref="R25" ca="1" si="10">IF(LEN(G25)&lt;&gt;0,G25,
 IF(LEN(O25)&lt;&gt;0,O25,""))</f>
         <v>EN</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25" ca="1" si="15">IF(LEN(H25)&lt;&gt;0,H25,
+        <f t="shared" ref="S25" ca="1" si="11">IF(LEN(H25)&lt;&gt;0,H25,
 IF(LEN(P25)&lt;&gt;0,P25,""))</f>
         <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B26" t="str">
-        <f>VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C26">
@@ -4694,12 +4801,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A26,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E26" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 IF($C26=1,MATCH(OFFSET($I26,-($C26-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J26,-1,0)+OFFSET(L26,-1,0)
 ))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
@@ -4715,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N26" t="str">
@@ -4734,27 +4845,27 @@
         <v>80000</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" ref="Q26:Q35" ca="1" si="16">IF(LEN(E26)&lt;&gt;0,E26,
+        <f t="shared" ref="Q26:Q35" ca="1" si="12">IF(LEN(E26)&lt;&gt;0,E26,
 IF(LEN(M26)&lt;&gt;0,M26,""))</f>
         <v>cu</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" ref="R26:R35" ca="1" si="17">IF(LEN(G26)&lt;&gt;0,G26,
+        <f t="shared" ref="R26:R35" ca="1" si="13">IF(LEN(G26)&lt;&gt;0,G26,
 IF(LEN(O26)&lt;&gt;0,O26,""))</f>
         <v>GO</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S35" ca="1" si="18">IF(LEN(H26)&lt;&gt;0,H26,
+        <f t="shared" ref="S26:S35" ca="1" si="14">IF(LEN(H26)&lt;&gt;0,H26,
 IF(LEN(P26)&lt;&gt;0,P26,""))</f>
         <v>80000</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B27" t="str">
-        <f>VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C27">
@@ -4765,12 +4876,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A27,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E27" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 IF($C27=1,MATCH(OFFSET($I27,-($C27-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J27,-1,0)+OFFSET(L27,-1,0)
 ))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
@@ -4786,7 +4901,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N27" t="str">
@@ -4805,24 +4920,24 @@
         <v>800</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>EN</v>
       </c>
       <c r="S27">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B28" t="str">
-        <f>VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C28">
@@ -4833,12 +4948,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A28,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E28" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 IF($C28=1,MATCH(OFFSET($I28,-($C28-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J28,-1,0)+OFFSET(L28,-1,0)
 ))</f>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="K28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
@@ -4854,7 +4973,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N28" t="str">
@@ -4873,24 +4992,24 @@
         <v>100000</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>GO</v>
       </c>
       <c r="S28">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B29" t="str">
-        <f>VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C29">
@@ -4901,12 +5020,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A29,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E29" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 IF($C29=1,MATCH(OFFSET($I29,-($C29-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J29,-1,0)+OFFSET(L29,-1,0)
 ))</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
@@ -4922,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N29" t="str">
@@ -4941,24 +5064,24 @@
         <v>50000</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>GO</v>
       </c>
       <c r="S29">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B30" t="str">
-        <f>VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C30">
@@ -4969,12 +5092,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A30,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E30" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 IF($C30=1,MATCH(OFFSET($I30,-($C30-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J30,-1,0)+OFFSET(L30,-1,0)
 ))</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
@@ -4990,7 +5117,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N30" t="str">
@@ -5009,24 +5136,24 @@
         <v>500</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>EN</v>
       </c>
       <c r="S30">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B31" t="str">
-        <f>VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C31">
@@ -5037,12 +5164,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A31,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E31" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 IF($C31=1,MATCH(OFFSET($I31,-($C31-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J31,-1,0)+OFFSET(L31,-1,0)
 ))</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
@@ -5058,7 +5189,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N31" t="str">
@@ -5077,24 +5208,24 @@
         <v>70000</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>GO</v>
       </c>
       <c r="S31">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>70000</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B32" t="str">
-        <f>VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C32">
@@ -5105,12 +5236,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A32,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E32" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 IF($C32=1,MATCH(OFFSET($I32,-($C32-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J32,-1,0)+OFFSET(L32,-1,0)
 ))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
@@ -5126,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N32" t="str">
@@ -5145,24 +5280,24 @@
         <v>450</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>EN</v>
       </c>
       <c r="S32">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B33" t="str">
-        <f>VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C33">
@@ -5173,12 +5308,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A33,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E33" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 IF($C33=1,MATCH(OFFSET($I33,-($C33-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J33,-1,0)+OFFSET(L33,-1,0)
 ))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
@@ -5194,7 +5333,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N33" t="str">
@@ -5213,24 +5352,24 @@
         <v>60000</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>GO</v>
       </c>
       <c r="S33">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>60000</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B34" t="str">
-        <f>VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C34">
@@ -5241,12 +5380,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A34,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E34" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 IF($C34=1,MATCH(OFFSET($I34,-($C34-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J34,-1,0)+OFFSET(L34,-1,0)
 ))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
@@ -5262,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N34" t="str">
@@ -5281,24 +5424,24 @@
         <v>90000</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="13"/>
         <v>GO</v>
       </c>
       <c r="S34">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="14"/>
         <v>90000</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B35" t="str">
-        <f>VLOOKUP(A35,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0)</f>
+        <f>IFERROR(VLOOKUP(A35,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v>원플투1</v>
       </c>
       <c r="C35">
@@ -5309,12 +5452,16 @@
 SUMIF([1]ShopProductTable!$D:$D,$A35,[1]ShopProductTable!$E:$E))</f>
         <v>11</v>
       </c>
+      <c r="E35" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
       <c r="J35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 IF($C35=1,MATCH(OFFSET($I35,-($C35-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J35,-1,0)+OFFSET(L35,-1,0)
 ))</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="K35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
@@ -5330,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N35" t="str">
@@ -5349,22 +5496,2637 @@
         <v>650</v>
       </c>
       <c r="Q35" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v>cu</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" ca="1" si="13"/>
+        <v>EN</v>
+      </c>
+      <c r="S35">
+        <f t="shared" ca="1" si="14"/>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" t="str">
+        <f>IFERROR(VLOOKUP(A36,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f ca="1">IF(C36&lt;&gt;1,OFFSET(D36,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A36,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E36" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I36" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36">
+        <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+IF($C36=1,MATCH(OFFSET($I36,-($C36-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J36,-1,0)+OFFSET(L36,-1,0)
+))</f>
+        <v>14</v>
+      </c>
+      <c r="K36">
+        <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+IF($C36=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L36,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K36,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L36">
+        <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+IF($K36-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" ref="M36:M47" ca="1" si="15">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+IF(ISBLANK(N36),"",
+VLOOKUP(N36,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>cu</v>
+      </c>
+      <c r="N36" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36))</f>
+        <v>재화</v>
+      </c>
+      <c r="O36" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P36">
+        <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" ref="Q36:Q47" ca="1" si="16">IF(LEN(E36)&lt;&gt;0,E36,
+IF(LEN(M36)&lt;&gt;0,M36,""))</f>
+        <v>cu</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" ref="R36:R47" ca="1" si="17">IF(LEN(G36)&lt;&gt;0,G36,
+IF(LEN(O36)&lt;&gt;0,O36,""))</f>
+        <v>EN</v>
+      </c>
+      <c r="S36">
+        <f t="shared" ref="S36:S47" ca="1" si="18">IF(LEN(H36)&lt;&gt;0,H36,
+IF(LEN(P36)&lt;&gt;0,P36,""))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="str">
+        <f>IFERROR(VLOOKUP(A37,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <f ca="1">IF(C37&lt;&gt;1,OFFSET(D37,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A37,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E37" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J37">
+        <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
+IF($C37=1,MATCH(OFFSET($I37,-($C37-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J37,-1,0)+OFFSET(L37,-1,0)
+))</f>
+        <v>14</v>
+      </c>
+      <c r="K37">
+        <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
+IF($C37=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L37,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K37,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L37">
+        <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
+IF($K37-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N37" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37))</f>
+        <v>재화</v>
+      </c>
+      <c r="O37" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P37">
+        <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37+2))</f>
+        <v>50</v>
+      </c>
+      <c r="Q37" t="str">
         <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
-      <c r="R35" t="str">
+      <c r="R37" t="str">
         <f t="shared" ca="1" si="17"/>
         <v>EN</v>
       </c>
-      <c r="S35">
+      <c r="S37">
         <f t="shared" ca="1" si="18"/>
-        <v>650</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="str">
+        <f>IFERROR(VLOOKUP(A38,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <f ca="1">IF(C38&lt;&gt;1,OFFSET(D38,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A38,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J38">
+        <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
+IF($C38=1,MATCH(OFFSET($I38,-($C38-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J38,-1,0)+OFFSET(L38,-1,0)
+))</f>
+        <v>14</v>
+      </c>
+      <c r="K38">
+        <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
+IF($C38=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L38,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K38,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L38">
+        <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
+IF($K38-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N38" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38))</f>
+        <v>재화</v>
+      </c>
+      <c r="O38" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P38">
+        <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38+2))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S38">
+        <f t="shared" ca="1" si="18"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" t="str">
+        <f>IFERROR(VLOOKUP(A39,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f ca="1">IF(C39&lt;&gt;1,OFFSET(D39,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A39,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J39">
+        <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
+IF($C39=1,MATCH(OFFSET($I39,-($C39-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J39,-1,0)+OFFSET(L39,-1,0)
+))</f>
+        <v>15</v>
+      </c>
+      <c r="K39">
+        <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
+IF($C39=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L39,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K39,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L39">
+        <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
+IF($K39-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>it</v>
+      </c>
+      <c r="N39" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O39" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+1))</f>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P39">
+        <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>it</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S39">
+        <f t="shared" ca="1" si="18"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="str">
+        <f>IFERROR(VLOOKUP(A40,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <f ca="1">IF(C40&lt;&gt;1,OFFSET(D40,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A40,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J40">
+        <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
+IF($C40=1,MATCH(OFFSET($I40,-($C40-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J40,-1,0)+OFFSET(L40,-1,0)
+))</f>
+        <v>15</v>
+      </c>
+      <c r="K40">
+        <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
+IF($C40=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L40,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K40,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L40">
+        <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
+IF($K40-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N40" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40))</f>
+        <v>재화</v>
+      </c>
+      <c r="O40" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P40">
+        <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40+2))</f>
+        <v>75</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S40">
+        <f t="shared" ca="1" si="18"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" t="str">
+        <f>IFERROR(VLOOKUP(A41,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <f ca="1">IF(C41&lt;&gt;1,OFFSET(D41,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A41,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J41">
+        <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
+IF($C41=1,MATCH(OFFSET($I41,-($C41-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J41,-1,0)+OFFSET(L41,-1,0)
+))</f>
+        <v>15</v>
+      </c>
+      <c r="K41">
+        <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
+IF($C41=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L41,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K41,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L41">
+        <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
+IF($K41-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N41" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41))</f>
+        <v>재화</v>
+      </c>
+      <c r="O41" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P41">
+        <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+2))</f>
+        <v>20000</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S41">
+        <f t="shared" ca="1" si="18"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" t="s">
+        <v>109</v>
+      </c>
+      <c r="B42" t="str">
+        <f>IFERROR(VLOOKUP(A42,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <f ca="1">IF(C42&lt;&gt;1,OFFSET(D42,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A42,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J42">
+        <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
+IF($C42=1,MATCH(OFFSET($I42,-($C42-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J42,-1,0)+OFFSET(L42,-1,0)
+))</f>
+        <v>16</v>
+      </c>
+      <c r="K42">
+        <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
+IF($C42=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L42,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K42,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L42">
+        <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
+IF($K42-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N42" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42))</f>
+        <v>재화</v>
+      </c>
+      <c r="O42" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P42">
+        <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42+2))</f>
+        <v>300</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S42">
+        <f t="shared" ca="1" si="18"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="str">
+        <f>IFERROR(VLOOKUP(A43,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <f ca="1">IF(C43&lt;&gt;1,OFFSET(D43,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A43,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J43">
+        <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
+IF($C43=1,MATCH(OFFSET($I43,-($C43-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J43,-1,0)+OFFSET(L43,-1,0)
+))</f>
+        <v>16</v>
+      </c>
+      <c r="K43">
+        <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
+IF($C43=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L43,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K43,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L43">
+        <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
+IF($K43-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N43" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43))</f>
+        <v>재화</v>
+      </c>
+      <c r="O43" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P43">
+        <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S43">
+        <f t="shared" ca="1" si="18"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="str">
+        <f>IFERROR(VLOOKUP(A44,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C44">
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <f ca="1">IF(C44&lt;&gt;1,OFFSET(D44,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A44,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J44">
+        <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
+IF($C44=1,MATCH(OFFSET($I44,-($C44-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J44,-1,0)+OFFSET(L44,-1,0)
+))</f>
+        <v>16</v>
+      </c>
+      <c r="K44">
+        <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
+IF($C44=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L44,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K44,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L44">
+        <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
+IF($K44-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N44" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44))</f>
+        <v>재화</v>
+      </c>
+      <c r="O44" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P44">
+        <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+2))</f>
+        <v>40000</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S44">
+        <f t="shared" ca="1" si="18"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="str">
+        <f>IFERROR(VLOOKUP(A45,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <f ca="1">IF(C45&lt;&gt;1,OFFSET(D45,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A45,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J45">
+        <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
+IF($C45=1,MATCH(OFFSET($I45,-($C45-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J45,-1,0)+OFFSET(L45,-1,0)
+))</f>
+        <v>17</v>
+      </c>
+      <c r="K45">
+        <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
+IF($C45=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L45,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K45,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
+IF($K45-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>it</v>
+      </c>
+      <c r="N45" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O45" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+1))</f>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P45">
+        <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+2))</f>
+        <v>1500</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>it</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S45">
+        <f t="shared" ca="1" si="18"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="str">
+        <f>IFERROR(VLOOKUP(A46,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C46">
+        <v>11</v>
+      </c>
+      <c r="D46">
+        <f ca="1">IF(C46&lt;&gt;1,OFFSET(D46,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A46,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J46">
+        <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
+IF($C46=1,MATCH(OFFSET($I46,-($C46-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J46,-1,0)+OFFSET(L46,-1,0)
+))</f>
+        <v>17</v>
+      </c>
+      <c r="K46">
+        <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
+IF($C46=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L46,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K46,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L46">
+        <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
+IF($K46-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N46" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46))</f>
+        <v>재화</v>
+      </c>
+      <c r="O46" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P46">
+        <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>EN</v>
+      </c>
+      <c r="S46">
+        <f t="shared" ca="1" si="18"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="str">
+        <f>IFERROR(VLOOKUP(A47,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C47">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <f ca="1">IF(C47&lt;&gt;1,OFFSET(D47,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A47,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J47">
+        <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
+IF($C47=1,MATCH(OFFSET($I47,-($C47-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J47,-1,0)+OFFSET(L47,-1,0)
+))</f>
+        <v>17</v>
+      </c>
+      <c r="K47">
+        <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
+IF($C47=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L47,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K47,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L47">
+        <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
+IF($K47-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" ca="1" si="15"/>
+        <v>cu</v>
+      </c>
+      <c r="N47" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47))</f>
+        <v>재화</v>
+      </c>
+      <c r="O47" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P47">
+        <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" ca="1" si="16"/>
+        <v>cu</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" ca="1" si="17"/>
+        <v>GO</v>
+      </c>
+      <c r="S47">
+        <f t="shared" ca="1" si="18"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19">
+      <c r="A48" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" t="str">
+        <f>IFERROR(VLOOKUP(A48,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <f ca="1">IF(C48&lt;&gt;1,OFFSET(D48,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A48,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I48" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48">
+        <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+IF($C48=1,MATCH(OFFSET($I48,-($C48-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J48,-1,0)+OFFSET(L48,-1,0)
+))</f>
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+IF($C48=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L48,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K48,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+IF($K48-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" ref="M48:M71" ca="1" si="19">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+IF(ISBLANK(N48),"",
+VLOOKUP(N48,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>cu</v>
+      </c>
+      <c r="N48" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48))</f>
+        <v>재화</v>
+      </c>
+      <c r="O48" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P48">
+        <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" ref="Q48:Q71" ca="1" si="20">IF(LEN(E48)&lt;&gt;0,E48,
+IF(LEN(M48)&lt;&gt;0,M48,""))</f>
+        <v>cu</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" ref="R48:R71" ca="1" si="21">IF(LEN(G48)&lt;&gt;0,G48,
+IF(LEN(O48)&lt;&gt;0,O48,""))</f>
+        <v>EN</v>
+      </c>
+      <c r="S48">
+        <f t="shared" ref="S48:S71" ca="1" si="22">IF(LEN(H48)&lt;&gt;0,H48,
+IF(LEN(P48)&lt;&gt;0,P48,""))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19">
+      <c r="A49" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49" t="str">
+        <f>IFERROR(VLOOKUP(A49,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <f ca="1">IF(C49&lt;&gt;1,OFFSET(D49,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A49,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J49">
+        <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
+IF($C49=1,MATCH(OFFSET($I49,-($C49-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J49,-1,0)+OFFSET(L49,-1,0)
+))</f>
+        <v>18</v>
+      </c>
+      <c r="K49">
+        <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
+IF($C49=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L49,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K49,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L49">
+        <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
+IF($K49-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N49" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49))</f>
+        <v>재화</v>
+      </c>
+      <c r="O49" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P49">
+        <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49+2))</f>
+        <v>50</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S49">
+        <f t="shared" ca="1" si="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" t="str">
+        <f>IFERROR(VLOOKUP(A50,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <f ca="1">IF(C50&lt;&gt;1,OFFSET(D50,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A50,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J50">
+        <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
+IF($C50=1,MATCH(OFFSET($I50,-($C50-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J50,-1,0)+OFFSET(L50,-1,0)
+))</f>
+        <v>18</v>
+      </c>
+      <c r="K50">
+        <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
+IF($C50=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L50,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K50,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L50">
+        <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
+IF($K50-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N50" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50))</f>
+        <v>재화</v>
+      </c>
+      <c r="O50" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P50">
+        <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+2))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S50">
+        <f t="shared" ca="1" si="22"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="str">
+        <f>IFERROR(VLOOKUP(A51,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <f ca="1">IF(C51&lt;&gt;1,OFFSET(D51,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A51,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J51">
+        <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
+IF($C51=1,MATCH(OFFSET($I51,-($C51-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J51,-1,0)+OFFSET(L51,-1,0)
+))</f>
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
+IF($C51=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L51,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K51,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L51">
+        <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
+IF($K51-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>it</v>
+      </c>
+      <c r="N51" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O51" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+1))</f>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P51">
+        <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+2))</f>
+        <v>400</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>it</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S51">
+        <f t="shared" ca="1" si="22"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" t="str">
+        <f>IFERROR(VLOOKUP(A52,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <f ca="1">IF(C52&lt;&gt;1,OFFSET(D52,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A52,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J52">
+        <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
+IF($C52=1,MATCH(OFFSET($I52,-($C52-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J52,-1,0)+OFFSET(L52,-1,0)
+))</f>
+        <v>19</v>
+      </c>
+      <c r="K52">
+        <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
+IF($C52=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L52,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K52,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L52">
+        <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
+IF($K52-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N52" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52))</f>
+        <v>재화</v>
+      </c>
+      <c r="O52" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P52">
+        <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52+2))</f>
+        <v>75</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S52">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" t="str">
+        <f>IFERROR(VLOOKUP(A53,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <f ca="1">IF(C53&lt;&gt;1,OFFSET(D53,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A53,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J53">
+        <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
+IF($C53=1,MATCH(OFFSET($I53,-($C53-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J53,-1,0)+OFFSET(L53,-1,0)
+))</f>
+        <v>19</v>
+      </c>
+      <c r="K53">
+        <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
+IF($C53=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L53,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K53,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L53">
+        <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
+IF($K53-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N53" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53))</f>
+        <v>재화</v>
+      </c>
+      <c r="O53" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P53">
+        <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+2))</f>
+        <v>20000</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ca="1" si="22"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="str">
+        <f>IFERROR(VLOOKUP(A54,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <f ca="1">IF(C54&lt;&gt;1,OFFSET(D54,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A54,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J54">
+        <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
+IF($C54=1,MATCH(OFFSET($I54,-($C54-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J54,-1,0)+OFFSET(L54,-1,0)
+))</f>
+        <v>20</v>
+      </c>
+      <c r="K54">
+        <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
+IF($C54=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L54,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K54,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L54">
+        <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
+IF($K54-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N54" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54))</f>
+        <v>재화</v>
+      </c>
+      <c r="O54" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P54">
+        <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54+2))</f>
+        <v>300</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S54">
+        <f t="shared" ca="1" si="22"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="str">
+        <f>IFERROR(VLOOKUP(A55,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <f ca="1">IF(C55&lt;&gt;1,OFFSET(D55,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A55,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J55">
+        <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
+IF($C55=1,MATCH(OFFSET($I55,-($C55-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J55,-1,0)+OFFSET(L55,-1,0)
+))</f>
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
+IF($C55=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L55,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K55,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L55">
+        <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
+IF($K55-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N55" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55))</f>
+        <v>재화</v>
+      </c>
+      <c r="O55" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P55">
+        <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S55">
+        <f t="shared" ca="1" si="22"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="A56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" t="str">
+        <f>IFERROR(VLOOKUP(A56,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <f ca="1">IF(C56&lt;&gt;1,OFFSET(D56,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A56,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J56">
+        <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
+IF($C56=1,MATCH(OFFSET($I56,-($C56-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J56,-1,0)+OFFSET(L56,-1,0)
+))</f>
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
+IF($C56=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L56,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K56,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L56">
+        <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
+IF($K56-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N56" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56))</f>
+        <v>재화</v>
+      </c>
+      <c r="O56" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P56">
+        <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+2))</f>
+        <v>40000</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S56">
+        <f t="shared" ca="1" si="22"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="A57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B57" t="str">
+        <f>IFERROR(VLOOKUP(A57,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <f ca="1">IF(C57&lt;&gt;1,OFFSET(D57,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A57,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J57">
+        <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
+IF($C57=1,MATCH(OFFSET($I57,-($C57-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J57,-1,0)+OFFSET(L57,-1,0)
+))</f>
+        <v>21</v>
+      </c>
+      <c r="K57">
+        <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
+IF($C57=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L57,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K57,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L57">
+        <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
+IF($K57-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>it</v>
+      </c>
+      <c r="N57" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O57" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+1))</f>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P57">
+        <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+2))</f>
+        <v>1200</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>it</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S57">
+        <f t="shared" ca="1" si="22"/>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="str">
+        <f>IFERROR(VLOOKUP(A58,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <f ca="1">IF(C58&lt;&gt;1,OFFSET(D58,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A58,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J58">
+        <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
+IF($C58=1,MATCH(OFFSET($I58,-($C58-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J58,-1,0)+OFFSET(L58,-1,0)
+))</f>
+        <v>21</v>
+      </c>
+      <c r="K58">
+        <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
+IF($C58=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L58,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K58,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L58">
+        <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
+IF($K58-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N58" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58))</f>
+        <v>재화</v>
+      </c>
+      <c r="O58" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P58">
+        <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S58">
+        <f t="shared" ca="1" si="22"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19">
+      <c r="A59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B59" t="str">
+        <f>IFERROR(VLOOKUP(A59,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C59">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <f ca="1">IF(C59&lt;&gt;1,OFFSET(D59,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A59,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J59">
+        <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
+IF($C59=1,MATCH(OFFSET($I59,-($C59-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J59,-1,0)+OFFSET(L59,-1,0)
+))</f>
+        <v>21</v>
+      </c>
+      <c r="K59">
+        <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
+IF($C59=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L59,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K59,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L59">
+        <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
+IF($K59-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N59" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59))</f>
+        <v>재화</v>
+      </c>
+      <c r="O59" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P59">
+        <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S59">
+        <f t="shared" ca="1" si="22"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" t="str">
+        <f>IFERROR(VLOOKUP(A60,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <f ca="1">IF(C60&lt;&gt;1,OFFSET(D60,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A60,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="I60" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60">
+        <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
+IF($C60=1,MATCH(OFFSET($I60,-($C60-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J60,-1,0)+OFFSET(L60,-1,0)
+))</f>
+        <v>22</v>
+      </c>
+      <c r="K60">
+        <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
+IF($C60=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L60,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K60,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L60">
+        <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
+IF($K60-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N60" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60))</f>
+        <v>재화</v>
+      </c>
+      <c r="O60" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P60">
+        <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S60">
+        <f t="shared" ca="1" si="22"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="str">
+        <f>IFERROR(VLOOKUP(A61,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <f ca="1">IF(C61&lt;&gt;1,OFFSET(D61,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A61,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J61">
+        <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
+IF($C61=1,MATCH(OFFSET($I61,-($C61-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J61,-1,0)+OFFSET(L61,-1,0)
+))</f>
+        <v>22</v>
+      </c>
+      <c r="K61">
+        <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
+IF($C61=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L61,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K61,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L61">
+        <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
+IF($K61-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N61" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61))</f>
+        <v>재화</v>
+      </c>
+      <c r="O61" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P61">
+        <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61+2))</f>
+        <v>50</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S61">
+        <f t="shared" ca="1" si="22"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="str">
+        <f>IFERROR(VLOOKUP(A62,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <f ca="1">IF(C62&lt;&gt;1,OFFSET(D62,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A62,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J62">
+        <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
+IF($C62=1,MATCH(OFFSET($I62,-($C62-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J62,-1,0)+OFFSET(L62,-1,0)
+))</f>
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
+IF($C62=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L62,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K62,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L62">
+        <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
+IF($K62-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N62" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62))</f>
+        <v>재화</v>
+      </c>
+      <c r="O62" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P62">
+        <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+2))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S62">
+        <f t="shared" ca="1" si="22"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="str">
+        <f>IFERROR(VLOOKUP(A63,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63">
+        <f ca="1">IF(C63&lt;&gt;1,OFFSET(D63,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A63,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J63">
+        <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
+IF($C63=1,MATCH(OFFSET($I63,-($C63-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J63,-1,0)+OFFSET(L63,-1,0)
+))</f>
+        <v>23</v>
+      </c>
+      <c r="K63">
+        <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
+IF($C63=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L63,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K63,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L63">
+        <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
+IF($K63-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>it</v>
+      </c>
+      <c r="N63" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O63" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+1))</f>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P63">
+        <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+2))</f>
+        <v>300</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>it</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S63">
+        <f t="shared" ca="1" si="22"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="str">
+        <f>IFERROR(VLOOKUP(A64,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <f ca="1">IF(C64&lt;&gt;1,OFFSET(D64,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A64,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J64">
+        <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
+IF($C64=1,MATCH(OFFSET($I64,-($C64-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J64,-1,0)+OFFSET(L64,-1,0)
+))</f>
+        <v>23</v>
+      </c>
+      <c r="K64">
+        <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
+IF($C64=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L64,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K64,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L64">
+        <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
+IF($K64-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N64" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64))</f>
+        <v>재화</v>
+      </c>
+      <c r="O64" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P64">
+        <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64+2))</f>
+        <v>75</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S64">
+        <f t="shared" ca="1" si="22"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="A65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" t="str">
+        <f>IFERROR(VLOOKUP(A65,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <f ca="1">IF(C65&lt;&gt;1,OFFSET(D65,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A65,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="J65">
+        <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
+IF($C65=1,MATCH(OFFSET($I65,-($C65-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J65,-1,0)+OFFSET(L65,-1,0)
+))</f>
+        <v>23</v>
+      </c>
+      <c r="K65">
+        <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
+IF($C65=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L65,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K65,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L65">
+        <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
+IF($K65-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N65" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65))</f>
+        <v>재화</v>
+      </c>
+      <c r="O65" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P65">
+        <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+2))</f>
+        <v>20000</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S65">
+        <f t="shared" ca="1" si="22"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="A66" t="s">
+        <v>114</v>
+      </c>
+      <c r="B66" t="str">
+        <f>IFERROR(VLOOKUP(A66,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C66">
+        <v>7</v>
+      </c>
+      <c r="D66">
+        <f ca="1">IF(C66&lt;&gt;1,OFFSET(D66,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A66,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" ref="E66:E71" ca="1" si="23">IF(ISBLANK(F66),"",
+VLOOKUP(F66,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="J66">
+        <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
+IF($C66=1,MATCH(OFFSET($I66,-($C66-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J66,-1,0)+OFFSET(L66,-1,0)
+))</f>
+        <v>24</v>
+      </c>
+      <c r="K66">
+        <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
+IF($C66=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L66,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K66,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L66">
+        <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
+IF($K66-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M66" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N66" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66))</f>
+        <v>재화</v>
+      </c>
+      <c r="O66" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P66">
+        <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66+2))</f>
+        <v>300</v>
+      </c>
+      <c r="Q66" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S66">
+        <f t="shared" ca="1" si="22"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
+      <c r="A67" t="s">
+        <v>114</v>
+      </c>
+      <c r="B67" t="str">
+        <f>IFERROR(VLOOKUP(A67,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67">
+        <f ca="1">IF(C67&lt;&gt;1,OFFSET(D67,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A67,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E67" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="J67">
+        <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
+IF($C67=1,MATCH(OFFSET($I67,-($C67-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J67,-1,0)+OFFSET(L67,-1,0)
+))</f>
+        <v>24</v>
+      </c>
+      <c r="K67">
+        <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
+IF($C67=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L67,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K67,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L67">
+        <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
+IF($K67-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M67" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N67" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67))</f>
+        <v>재화</v>
+      </c>
+      <c r="O67" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P67">
+        <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S67">
+        <f t="shared" ca="1" si="22"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19">
+      <c r="A68" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" t="str">
+        <f>IFERROR(VLOOKUP(A68,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C68">
+        <v>9</v>
+      </c>
+      <c r="D68">
+        <f ca="1">IF(C68&lt;&gt;1,OFFSET(D68,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A68,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="J68">
+        <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
+IF($C68=1,MATCH(OFFSET($I68,-($C68-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J68,-1,0)+OFFSET(L68,-1,0)
+))</f>
+        <v>24</v>
+      </c>
+      <c r="K68">
+        <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
+IF($C68=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L68,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K68,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L68">
+        <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
+IF($K68-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M68" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N68" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68))</f>
+        <v>재화</v>
+      </c>
+      <c r="O68" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P68">
+        <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+2))</f>
+        <v>40000</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S68">
+        <f t="shared" ca="1" si="22"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="A69" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" t="str">
+        <f>IFERROR(VLOOKUP(A69,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <f ca="1">IF(C69&lt;&gt;1,OFFSET(D69,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A69,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="J69">
+        <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
+IF($C69=1,MATCH(OFFSET($I69,-($C69-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J69,-1,0)+OFFSET(L69,-1,0)
+))</f>
+        <v>25</v>
+      </c>
+      <c r="K69">
+        <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
+IF($C69=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L69,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K69,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L69">
+        <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
+IF($K69-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M69" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>it</v>
+      </c>
+      <c r="N69" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O69" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+1))</f>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P69">
+        <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+2))</f>
+        <v>1000</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>it</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S69">
+        <f t="shared" ca="1" si="22"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" t="s">
+        <v>114</v>
+      </c>
+      <c r="B70" t="str">
+        <f>IFERROR(VLOOKUP(A70,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C70">
+        <v>11</v>
+      </c>
+      <c r="D70">
+        <f ca="1">IF(C70&lt;&gt;1,OFFSET(D70,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A70,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="J70">
+        <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
+IF($C70=1,MATCH(OFFSET($I70,-($C70-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J70,-1,0)+OFFSET(L70,-1,0)
+))</f>
+        <v>25</v>
+      </c>
+      <c r="K70">
+        <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
+IF($C70=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L70,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K70,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L70">
+        <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
+IF($K70-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M70" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N70" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70))</f>
+        <v>재화</v>
+      </c>
+      <c r="O70" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P70">
+        <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>EN</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ca="1" si="22"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" t="s">
+        <v>114</v>
+      </c>
+      <c r="B71" t="str">
+        <f>IFERROR(VLOOKUP(A71,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C71">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <f ca="1">IF(C71&lt;&gt;1,OFFSET(D71,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A71,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" ca="1" si="23"/>
+        <v/>
+      </c>
+      <c r="J71">
+        <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
+IF($C71=1,MATCH(OFFSET($I71,-($C71-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J71,-1,0)+OFFSET(L71,-1,0)
+))</f>
+        <v>25</v>
+      </c>
+      <c r="K71">
+        <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
+IF($C71=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L71,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K71,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L71">
+        <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
+IF($K71-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M71" t="str">
+        <f t="shared" ca="1" si="19"/>
+        <v>cu</v>
+      </c>
+      <c r="N71" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71))</f>
+        <v>재화</v>
+      </c>
+      <c r="O71" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P71">
+        <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" ca="1" si="20"/>
+        <v>cu</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" ca="1" si="21"/>
+        <v>GO</v>
+      </c>
+      <c r="S71">
+        <f t="shared" ca="1" si="22"/>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F24" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F71" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -5389,19 +8151,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CC2CC56-A338-489F-8942-2EE0FE692FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE81F0-E618-4D4A-BEDF-EF58F9AE16A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -737,6 +737,15 @@
             <v>value</v>
           </cell>
           <cell r="BB1" t="str">
+            <v>서버재화</v>
+          </cell>
+          <cell r="BD1" t="str">
+            <v>서버아이템</v>
+          </cell>
+          <cell r="BF1" t="str">
+            <v>그외</v>
+          </cell>
+          <cell r="BH1" t="str">
             <v>sProd</v>
           </cell>
         </row>
@@ -2798,10 +2807,10 @@
   <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40"/>
+      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2814,8 +2823,10 @@
     <col min="7" max="7" width="23.875" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="19" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="16" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="16.5" customWidth="1"/>
+    <col min="10" max="14" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="18.125" customWidth="1"/>
     <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
@@ -3104,7 +3115,7 @@
         <v/>
       </c>
       <c r="M4" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
+        <f t="shared" ref="M4:M24" ca="1" si="8">IF(ISBLANK(OFFSET($I4,-($C4-1),0)),"",
 IF(ISBLANK(N4),"",
 VLOOKUP(N4,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
@@ -3182,10 +3193,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
-IF(ISBLANK(N5),"",
-VLOOKUP(N5,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N5" t="str">
@@ -3204,17 +3212,17 @@
         <v>30</v>
       </c>
       <c r="Q5" t="str">
-        <f ca="1">IF(LEN(E5)&lt;&gt;0,E5,
+        <f t="shared" ref="Q5:Q24" ca="1" si="9">IF(LEN(E5)&lt;&gt;0,E5,
 IF(LEN(M5)&lt;&gt;0,M5,""))</f>
         <v>cu</v>
       </c>
       <c r="R5" t="str">
-        <f ca="1">IF(LEN(G5)&lt;&gt;0,G5,
+        <f t="shared" ref="R5:R24" ca="1" si="10">IF(LEN(G5)&lt;&gt;0,G5,
 IF(LEN(O5)&lt;&gt;0,O5,""))</f>
         <v>EN</v>
       </c>
       <c r="S5">
-        <f ca="1">IF(LEN(H5)&lt;&gt;0,H5,
+        <f t="shared" ref="S5:S24" ca="1" si="11">IF(LEN(H5)&lt;&gt;0,H5,
 IF(LEN(P5)&lt;&gt;0,P5,""))</f>
         <v>30</v>
       </c>
@@ -3260,10 +3268,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
-IF(ISBLANK(N6),"",
-VLOOKUP(N6,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N6" t="str">
@@ -3282,18 +3287,15 @@
         <v>25000</v>
       </c>
       <c r="Q6" t="str">
-        <f ca="1">IF(LEN(E6)&lt;&gt;0,E6,
-IF(LEN(M6)&lt;&gt;0,M6,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R6" t="str">
-        <f ca="1">IF(LEN(G6)&lt;&gt;0,G6,
-IF(LEN(O6)&lt;&gt;0,O6,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>GO</v>
       </c>
       <c r="S6">
-        <f ca="1">IF(LEN(H6)&lt;&gt;0,H6,
-IF(LEN(P6)&lt;&gt;0,P6,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>25000</v>
       </c>
     </row>
@@ -3338,10 +3340,7 @@
         <v>1</v>
       </c>
       <c r="M7" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
-IF(ISBLANK(N7),"",
-VLOOKUP(N7,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N7" t="str">
@@ -3360,18 +3359,15 @@
         <v>100</v>
       </c>
       <c r="Q7" t="str">
-        <f ca="1">IF(LEN(E7)&lt;&gt;0,E7,
-IF(LEN(M7)&lt;&gt;0,M7,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R7" t="str">
-        <f ca="1">IF(LEN(G7)&lt;&gt;0,G7,
-IF(LEN(O7)&lt;&gt;0,O7,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S7">
-        <f ca="1">IF(LEN(H7)&lt;&gt;0,H7,
-IF(LEN(P7)&lt;&gt;0,P7,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -3416,10 +3412,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
-IF(ISBLANK(N8),"",
-VLOOKUP(N8,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N8" t="str">
@@ -3438,18 +3431,15 @@
         <v>60</v>
       </c>
       <c r="Q8" t="str">
-        <f ca="1">IF(LEN(E8)&lt;&gt;0,E8,
-IF(LEN(M8)&lt;&gt;0,M8,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R8" t="str">
-        <f ca="1">IF(LEN(G8)&lt;&gt;0,G8,
-IF(LEN(O8)&lt;&gt;0,O8,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S8">
-        <f ca="1">IF(LEN(H8)&lt;&gt;0,H8,
-IF(LEN(P8)&lt;&gt;0,P8,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>60</v>
       </c>
     </row>
@@ -3494,10 +3484,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
-IF(ISBLANK(N9),"",
-VLOOKUP(N9,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N9" t="str">
@@ -3516,18 +3503,15 @@
         <v>15000</v>
       </c>
       <c r="Q9" t="str">
-        <f ca="1">IF(LEN(E9)&lt;&gt;0,E9,
-IF(LEN(M9)&lt;&gt;0,M9,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R9" t="str">
-        <f ca="1">IF(LEN(G9)&lt;&gt;0,G9,
-IF(LEN(O9)&lt;&gt;0,O9,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>GO</v>
       </c>
       <c r="S9">
-        <f ca="1">IF(LEN(H9)&lt;&gt;0,H9,
-IF(LEN(P9)&lt;&gt;0,P9,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>15000</v>
       </c>
     </row>
@@ -3572,10 +3556,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
-IF(ISBLANK(N10),"",
-VLOOKUP(N10,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N10" t="str">
@@ -3594,18 +3575,15 @@
         <v>120</v>
       </c>
       <c r="Q10" t="str">
-        <f ca="1">IF(LEN(E10)&lt;&gt;0,E10,
-IF(LEN(M10)&lt;&gt;0,M10,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R10" t="str">
-        <f ca="1">IF(LEN(G10)&lt;&gt;0,G10,
-IF(LEN(O10)&lt;&gt;0,O10,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S10">
-        <f ca="1">IF(LEN(H10)&lt;&gt;0,H10,
-IF(LEN(P10)&lt;&gt;0,P10,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>120</v>
       </c>
     </row>
@@ -3650,10 +3628,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
-IF(ISBLANK(N11),"",
-VLOOKUP(N11,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N11" t="str">
@@ -3672,18 +3647,15 @@
         <v>90</v>
       </c>
       <c r="Q11" t="str">
-        <f ca="1">IF(LEN(E11)&lt;&gt;0,E11,
-IF(LEN(M11)&lt;&gt;0,M11,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R11" t="str">
-        <f ca="1">IF(LEN(G11)&lt;&gt;0,G11,
-IF(LEN(O11)&lt;&gt;0,O11,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S11">
-        <f ca="1">IF(LEN(H11)&lt;&gt;0,H11,
-IF(LEN(P11)&lt;&gt;0,P11,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>90</v>
       </c>
     </row>
@@ -3728,10 +3700,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
-IF(ISBLANK(N12),"",
-VLOOKUP(N12,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N12" t="str">
@@ -3750,18 +3719,15 @@
         <v>30000</v>
       </c>
       <c r="Q12" t="str">
-        <f ca="1">IF(LEN(E12)&lt;&gt;0,E12,
-IF(LEN(M12)&lt;&gt;0,M12,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R12" t="str">
-        <f ca="1">IF(LEN(G12)&lt;&gt;0,G12,
-IF(LEN(O12)&lt;&gt;0,O12,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>GO</v>
       </c>
       <c r="S12">
-        <f ca="1">IF(LEN(H12)&lt;&gt;0,H12,
-IF(LEN(P12)&lt;&gt;0,P12,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>30000</v>
       </c>
     </row>
@@ -3806,10 +3772,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
-IF(ISBLANK(N13),"",
-VLOOKUP(N13,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N13" t="str">
@@ -3828,18 +3791,15 @@
         <v>150</v>
       </c>
       <c r="Q13" t="str">
-        <f ca="1">IF(LEN(E13)&lt;&gt;0,E13,
-IF(LEN(M13)&lt;&gt;0,M13,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R13" t="str">
-        <f ca="1">IF(LEN(G13)&lt;&gt;0,G13,
-IF(LEN(O13)&lt;&gt;0,O13,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S13">
-        <f ca="1">IF(LEN(H13)&lt;&gt;0,H13,
-IF(LEN(P13)&lt;&gt;0,P13,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>150</v>
       </c>
     </row>
@@ -3884,10 +3844,7 @@
         <v>1</v>
       </c>
       <c r="M14" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
-IF(ISBLANK(N14),"",
-VLOOKUP(N14,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N14" t="str">
@@ -3906,18 +3863,15 @@
         <v>300</v>
       </c>
       <c r="Q14" t="str">
-        <f ca="1">IF(LEN(E14)&lt;&gt;0,E14,
-IF(LEN(M14)&lt;&gt;0,M14,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R14" t="str">
-        <f ca="1">IF(LEN(G14)&lt;&gt;0,G14,
-IF(LEN(O14)&lt;&gt;0,O14,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S14">
-        <f ca="1">IF(LEN(H14)&lt;&gt;0,H14,
-IF(LEN(P14)&lt;&gt;0,P14,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>300</v>
       </c>
     </row>
@@ -3965,10 +3919,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
-IF(ISBLANK(N15),"",
-VLOOKUP(N15,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N15" t="str">
@@ -3987,18 +3938,15 @@
         <v>80</v>
       </c>
       <c r="Q15" t="str">
-        <f ca="1">IF(LEN(E15)&lt;&gt;0,E15,
-IF(LEN(M15)&lt;&gt;0,M15,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R15" t="str">
-        <f ca="1">IF(LEN(G15)&lt;&gt;0,G15,
-IF(LEN(O15)&lt;&gt;0,O15,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S15">
-        <f ca="1">IF(LEN(H15)&lt;&gt;0,H15,
-IF(LEN(P15)&lt;&gt;0,P15,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>80</v>
       </c>
     </row>
@@ -4043,10 +3991,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
-IF(ISBLANK(N16),"",
-VLOOKUP(N16,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N16" t="str">
@@ -4065,18 +4010,15 @@
         <v>35000</v>
       </c>
       <c r="Q16" t="str">
-        <f ca="1">IF(LEN(E16)&lt;&gt;0,E16,
-IF(LEN(M16)&lt;&gt;0,M16,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R16" t="str">
-        <f ca="1">IF(LEN(G16)&lt;&gt;0,G16,
-IF(LEN(O16)&lt;&gt;0,O16,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>GO</v>
       </c>
       <c r="S16">
-        <f ca="1">IF(LEN(H16)&lt;&gt;0,H16,
-IF(LEN(P16)&lt;&gt;0,P16,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>35000</v>
       </c>
     </row>
@@ -4121,10 +4063,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
-IF(ISBLANK(N17),"",
-VLOOKUP(N17,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N17" t="str">
@@ -4143,18 +4082,15 @@
         <v>170</v>
       </c>
       <c r="Q17" t="str">
-        <f ca="1">IF(LEN(E17)&lt;&gt;0,E17,
-IF(LEN(M17)&lt;&gt;0,M17,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R17" t="str">
-        <f ca="1">IF(LEN(G17)&lt;&gt;0,G17,
-IF(LEN(O17)&lt;&gt;0,O17,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S17">
-        <f ca="1">IF(LEN(H17)&lt;&gt;0,H17,
-IF(LEN(P17)&lt;&gt;0,P17,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>170</v>
       </c>
     </row>
@@ -4199,10 +4135,7 @@
         <v>1</v>
       </c>
       <c r="M18" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
-IF(ISBLANK(N18),"",
-VLOOKUP(N18,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N18" t="str">
@@ -4221,18 +4154,15 @@
         <v>150</v>
       </c>
       <c r="Q18" t="str">
-        <f ca="1">IF(LEN(E18)&lt;&gt;0,E18,
-IF(LEN(M18)&lt;&gt;0,M18,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R18" t="str">
-        <f ca="1">IF(LEN(G18)&lt;&gt;0,G18,
-IF(LEN(O18)&lt;&gt;0,O18,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S18">
-        <f ca="1">IF(LEN(H18)&lt;&gt;0,H18,
-IF(LEN(P18)&lt;&gt;0,P18,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>150</v>
       </c>
     </row>
@@ -4277,10 +4207,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
-IF(ISBLANK(N19),"",
-VLOOKUP(N19,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N19" t="str">
@@ -4299,18 +4226,15 @@
         <v>20000</v>
       </c>
       <c r="Q19" t="str">
-        <f ca="1">IF(LEN(E19)&lt;&gt;0,E19,
-IF(LEN(M19)&lt;&gt;0,M19,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R19" t="str">
-        <f ca="1">IF(LEN(G19)&lt;&gt;0,G19,
-IF(LEN(O19)&lt;&gt;0,O19,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>GO</v>
       </c>
       <c r="S19">
-        <f ca="1">IF(LEN(H19)&lt;&gt;0,H19,
-IF(LEN(P19)&lt;&gt;0,P19,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>20000</v>
       </c>
     </row>
@@ -4355,10 +4279,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
-IF(ISBLANK(N20),"",
-VLOOKUP(N20,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N20" t="str">
@@ -4377,18 +4298,15 @@
         <v>150</v>
       </c>
       <c r="Q20" t="str">
-        <f ca="1">IF(LEN(E20)&lt;&gt;0,E20,
-IF(LEN(M20)&lt;&gt;0,M20,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R20" t="str">
-        <f ca="1">IF(LEN(G20)&lt;&gt;0,G20,
-IF(LEN(O20)&lt;&gt;0,O20,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S20">
-        <f ca="1">IF(LEN(H20)&lt;&gt;0,H20,
-IF(LEN(P20)&lt;&gt;0,P20,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>150</v>
       </c>
     </row>
@@ -4433,10 +4351,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
-IF(ISBLANK(N21),"",
-VLOOKUP(N21,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N21" t="str">
@@ -4455,18 +4370,15 @@
         <v>35000</v>
       </c>
       <c r="Q21" t="str">
-        <f ca="1">IF(LEN(E21)&lt;&gt;0,E21,
-IF(LEN(M21)&lt;&gt;0,M21,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R21" t="str">
-        <f ca="1">IF(LEN(G21)&lt;&gt;0,G21,
-IF(LEN(O21)&lt;&gt;0,O21,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>GO</v>
       </c>
       <c r="S21">
-        <f ca="1">IF(LEN(H21)&lt;&gt;0,H21,
-IF(LEN(P21)&lt;&gt;0,P21,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>35000</v>
       </c>
     </row>
@@ -4511,10 +4423,7 @@
         <v>1</v>
       </c>
       <c r="M22" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
-IF(ISBLANK(N22),"",
-VLOOKUP(N22,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N22" t="str">
@@ -4533,18 +4442,15 @@
         <v>200</v>
       </c>
       <c r="Q22" t="str">
-        <f ca="1">IF(LEN(E22)&lt;&gt;0,E22,
-IF(LEN(M22)&lt;&gt;0,M22,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R22" t="str">
-        <f ca="1">IF(LEN(G22)&lt;&gt;0,G22,
-IF(LEN(O22)&lt;&gt;0,O22,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S22">
-        <f ca="1">IF(LEN(H22)&lt;&gt;0,H22,
-IF(LEN(P22)&lt;&gt;0,P22,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>200</v>
       </c>
     </row>
@@ -4589,10 +4495,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
-IF(ISBLANK(N23),"",
-VLOOKUP(N23,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N23" t="str">
@@ -4611,18 +4514,15 @@
         <v>150</v>
       </c>
       <c r="Q23" t="str">
-        <f ca="1">IF(LEN(E23)&lt;&gt;0,E23,
-IF(LEN(M23)&lt;&gt;0,M23,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R23" t="str">
-        <f ca="1">IF(LEN(G23)&lt;&gt;0,G23,
-IF(LEN(O23)&lt;&gt;0,O23,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>EN</v>
       </c>
       <c r="S23">
-        <f ca="1">IF(LEN(H23)&lt;&gt;0,H23,
-IF(LEN(P23)&lt;&gt;0,P23,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>150</v>
       </c>
     </row>
@@ -4667,10 +4567,7 @@
         <v>1</v>
       </c>
       <c r="M24" t="str">
-        <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
-IF(ISBLANK(N24),"",
-VLOOKUP(N24,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="8"/>
         <v>cu</v>
       </c>
       <c r="N24" t="str">
@@ -4689,18 +4586,15 @@
         <v>20000</v>
       </c>
       <c r="Q24" t="str">
-        <f ca="1">IF(LEN(E24)&lt;&gt;0,E24,
-IF(LEN(M24)&lt;&gt;0,M24,""))</f>
+        <f t="shared" ca="1" si="9"/>
         <v>cu</v>
       </c>
       <c r="R24" t="str">
-        <f ca="1">IF(LEN(G24)&lt;&gt;0,G24,
-IF(LEN(O24)&lt;&gt;0,O24,""))</f>
+        <f t="shared" ca="1" si="10"/>
         <v>GO</v>
       </c>
       <c r="S24">
-        <f ca="1">IF(LEN(H24)&lt;&gt;0,H24,
-IF(LEN(P24)&lt;&gt;0,P24,""))</f>
+        <f t="shared" ca="1" si="11"/>
         <v>20000</v>
       </c>
     </row>
@@ -4748,7 +4642,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ref="M25:M35" ca="1" si="8">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
+        <f t="shared" ref="M25:M35" ca="1" si="12">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF(ISBLANK(N25),"",
 VLOOKUP(N25,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
@@ -4770,17 +4664,17 @@
         <v>350</v>
       </c>
       <c r="Q25" t="str">
-        <f t="shared" ref="Q25" ca="1" si="9">IF(LEN(E25)&lt;&gt;0,E25,
+        <f t="shared" ref="Q25" ca="1" si="13">IF(LEN(E25)&lt;&gt;0,E25,
 IF(LEN(M25)&lt;&gt;0,M25,""))</f>
         <v>cu</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" ref="R25" ca="1" si="10">IF(LEN(G25)&lt;&gt;0,G25,
+        <f t="shared" ref="R25" ca="1" si="14">IF(LEN(G25)&lt;&gt;0,G25,
 IF(LEN(O25)&lt;&gt;0,O25,""))</f>
         <v>EN</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25" ca="1" si="11">IF(LEN(H25)&lt;&gt;0,H25,
+        <f t="shared" ref="S25" ca="1" si="15">IF(LEN(H25)&lt;&gt;0,H25,
 IF(LEN(P25)&lt;&gt;0,P25,""))</f>
         <v>350</v>
       </c>
@@ -4826,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N26" t="str">
@@ -4845,17 +4739,17 @@
         <v>80000</v>
       </c>
       <c r="Q26" t="str">
-        <f t="shared" ref="Q26:Q35" ca="1" si="12">IF(LEN(E26)&lt;&gt;0,E26,
+        <f t="shared" ref="Q26:Q35" ca="1" si="16">IF(LEN(E26)&lt;&gt;0,E26,
 IF(LEN(M26)&lt;&gt;0,M26,""))</f>
         <v>cu</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" ref="R26:R35" ca="1" si="13">IF(LEN(G26)&lt;&gt;0,G26,
+        <f t="shared" ref="R26:R35" ca="1" si="17">IF(LEN(G26)&lt;&gt;0,G26,
 IF(LEN(O26)&lt;&gt;0,O26,""))</f>
         <v>GO</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:S35" ca="1" si="14">IF(LEN(H26)&lt;&gt;0,H26,
+        <f t="shared" ref="S26:S35" ca="1" si="18">IF(LEN(H26)&lt;&gt;0,H26,
 IF(LEN(P26)&lt;&gt;0,P26,""))</f>
         <v>80000</v>
       </c>
@@ -4901,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N27" t="str">
@@ -4920,15 +4814,15 @@
         <v>800</v>
       </c>
       <c r="Q27" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>EN</v>
       </c>
       <c r="S27">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>800</v>
       </c>
     </row>
@@ -4973,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N28" t="str">
@@ -4992,15 +4886,15 @@
         <v>100000</v>
       </c>
       <c r="Q28" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>GO</v>
       </c>
       <c r="S28">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>100000</v>
       </c>
     </row>
@@ -5045,7 +4939,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N29" t="str">
@@ -5064,15 +4958,15 @@
         <v>50000</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>GO</v>
       </c>
       <c r="S29">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>50000</v>
       </c>
     </row>
@@ -5117,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N30" t="str">
@@ -5136,15 +5030,15 @@
         <v>500</v>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>EN</v>
       </c>
       <c r="S30">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>500</v>
       </c>
     </row>
@@ -5189,7 +5083,7 @@
         <v>1</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N31" t="str">
@@ -5208,15 +5102,15 @@
         <v>70000</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>GO</v>
       </c>
       <c r="S31">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>70000</v>
       </c>
     </row>
@@ -5261,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N32" t="str">
@@ -5280,15 +5174,15 @@
         <v>450</v>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>EN</v>
       </c>
       <c r="S32">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>450</v>
       </c>
     </row>
@@ -5333,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N33" t="str">
@@ -5352,15 +5246,15 @@
         <v>60000</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>GO</v>
       </c>
       <c r="S33">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>60000</v>
       </c>
     </row>
@@ -5405,7 +5299,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N34" t="str">
@@ -5424,15 +5318,15 @@
         <v>90000</v>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>GO</v>
       </c>
       <c r="S34">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>90000</v>
       </c>
     </row>
@@ -5477,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="12"/>
         <v>cu</v>
       </c>
       <c r="N35" t="str">
@@ -5496,15 +5390,15 @@
         <v>650</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" ca="1" si="12"/>
+        <f t="shared" ca="1" si="16"/>
         <v>cu</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" ca="1" si="13"/>
+        <f t="shared" ca="1" si="17"/>
         <v>EN</v>
       </c>
       <c r="S35">
-        <f t="shared" ca="1" si="14"/>
+        <f t="shared" ca="1" si="18"/>
         <v>650</v>
       </c>
     </row>
@@ -5552,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" ref="M36:M47" ca="1" si="15">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
+        <f t="shared" ref="M36:M47" ca="1" si="19">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 IF(ISBLANK(N36),"",
 VLOOKUP(N36,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
@@ -5574,17 +5468,17 @@
         <v>100</v>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" ref="Q36:Q47" ca="1" si="16">IF(LEN(E36)&lt;&gt;0,E36,
+        <f t="shared" ref="Q36:Q47" ca="1" si="20">IF(LEN(E36)&lt;&gt;0,E36,
 IF(LEN(M36)&lt;&gt;0,M36,""))</f>
         <v>cu</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" ref="R36:R47" ca="1" si="17">IF(LEN(G36)&lt;&gt;0,G36,
+        <f t="shared" ref="R36:R47" ca="1" si="21">IF(LEN(G36)&lt;&gt;0,G36,
 IF(LEN(O36)&lt;&gt;0,O36,""))</f>
         <v>EN</v>
       </c>
       <c r="S36">
-        <f t="shared" ref="S36:S47" ca="1" si="18">IF(LEN(H36)&lt;&gt;0,H36,
+        <f t="shared" ref="S36:S47" ca="1" si="22">IF(LEN(H36)&lt;&gt;0,H36,
 IF(LEN(P36)&lt;&gt;0,P36,""))</f>
         <v>100</v>
       </c>
@@ -5630,7 +5524,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N37" t="str">
@@ -5649,15 +5543,15 @@
         <v>50</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>EN</v>
       </c>
       <c r="S37">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>50</v>
       </c>
     </row>
@@ -5702,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N38" t="str">
@@ -5721,15 +5615,15 @@
         <v>10000</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>GO</v>
       </c>
       <c r="S38">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>10000</v>
       </c>
     </row>
@@ -5774,7 +5668,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>it</v>
       </c>
       <c r="N39" t="str">
@@ -5793,15 +5687,15 @@
         <v>500</v>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>it</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="S39">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>500</v>
       </c>
     </row>
@@ -5846,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N40" t="str">
@@ -5865,15 +5759,15 @@
         <v>75</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>EN</v>
       </c>
       <c r="S40">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>75</v>
       </c>
     </row>
@@ -5918,7 +5812,7 @@
         <v>1</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N41" t="str">
@@ -5937,15 +5831,15 @@
         <v>20000</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>GO</v>
       </c>
       <c r="S41">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>20000</v>
       </c>
     </row>
@@ -5990,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N42" t="str">
@@ -6009,15 +5903,15 @@
         <v>300</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>EN</v>
       </c>
       <c r="S42">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>300</v>
       </c>
     </row>
@@ -6062,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N43" t="str">
@@ -6081,15 +5975,15 @@
         <v>100</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>EN</v>
       </c>
       <c r="S43">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>100</v>
       </c>
     </row>
@@ -6134,7 +6028,7 @@
         <v>1</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N44" t="str">
@@ -6153,15 +6047,15 @@
         <v>40000</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>GO</v>
       </c>
       <c r="S44">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>40000</v>
       </c>
     </row>
@@ -6206,7 +6100,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>it</v>
       </c>
       <c r="N45" t="str">
@@ -6225,15 +6119,15 @@
         <v>1500</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>it</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="S45">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>1500</v>
       </c>
     </row>
@@ -6278,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N46" t="str">
@@ -6297,15 +6191,15 @@
         <v>500</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>EN</v>
       </c>
       <c r="S46">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>500</v>
       </c>
     </row>
@@ -6350,7 +6244,7 @@
         <v>1</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" ca="1" si="15"/>
+        <f t="shared" ca="1" si="19"/>
         <v>cu</v>
       </c>
       <c r="N47" t="str">
@@ -6369,15 +6263,15 @@
         <v>60000</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" ca="1" si="16"/>
+        <f t="shared" ca="1" si="20"/>
         <v>cu</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" ca="1" si="17"/>
+        <f t="shared" ca="1" si="21"/>
         <v>GO</v>
       </c>
       <c r="S47">
-        <f t="shared" ca="1" si="18"/>
+        <f t="shared" ca="1" si="22"/>
         <v>60000</v>
       </c>
     </row>
@@ -6425,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" ref="M48:M71" ca="1" si="19">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
+        <f t="shared" ref="M48:M71" ca="1" si="23">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 IF(ISBLANK(N48),"",
 VLOOKUP(N48,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
@@ -6447,17 +6341,17 @@
         <v>100</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" ref="Q48:Q71" ca="1" si="20">IF(LEN(E48)&lt;&gt;0,E48,
+        <f t="shared" ref="Q48:Q71" ca="1" si="24">IF(LEN(E48)&lt;&gt;0,E48,
 IF(LEN(M48)&lt;&gt;0,M48,""))</f>
         <v>cu</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" ref="R48:R71" ca="1" si="21">IF(LEN(G48)&lt;&gt;0,G48,
+        <f t="shared" ref="R48:R71" ca="1" si="25">IF(LEN(G48)&lt;&gt;0,G48,
 IF(LEN(O48)&lt;&gt;0,O48,""))</f>
         <v>EN</v>
       </c>
       <c r="S48">
-        <f t="shared" ref="S48:S71" ca="1" si="22">IF(LEN(H48)&lt;&gt;0,H48,
+        <f t="shared" ref="S48:S71" ca="1" si="26">IF(LEN(H48)&lt;&gt;0,H48,
 IF(LEN(P48)&lt;&gt;0,P48,""))</f>
         <v>100</v>
       </c>
@@ -6503,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N49" t="str">
@@ -6522,15 +6416,15 @@
         <v>50</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S49">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>50</v>
       </c>
     </row>
@@ -6575,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N50" t="str">
@@ -6594,15 +6488,15 @@
         <v>10000</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S50">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>10000</v>
       </c>
     </row>
@@ -6647,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>it</v>
       </c>
       <c r="N51" t="str">
@@ -6666,15 +6560,15 @@
         <v>400</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>it</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="S51">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>400</v>
       </c>
     </row>
@@ -6719,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N52" t="str">
@@ -6738,15 +6632,15 @@
         <v>75</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S52">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>75</v>
       </c>
     </row>
@@ -6791,7 +6685,7 @@
         <v>1</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N53" t="str">
@@ -6810,15 +6704,15 @@
         <v>20000</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S53">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>20000</v>
       </c>
     </row>
@@ -6863,7 +6757,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N54" t="str">
@@ -6882,15 +6776,15 @@
         <v>300</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S54">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>300</v>
       </c>
     </row>
@@ -6935,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N55" t="str">
@@ -6954,15 +6848,15 @@
         <v>100</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S55">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>100</v>
       </c>
     </row>
@@ -7007,7 +6901,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N56" t="str">
@@ -7026,15 +6920,15 @@
         <v>40000</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S56">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>40000</v>
       </c>
     </row>
@@ -7079,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>it</v>
       </c>
       <c r="N57" t="str">
@@ -7098,15 +6992,15 @@
         <v>1200</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>it</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="S57">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1200</v>
       </c>
     </row>
@@ -7151,7 +7045,7 @@
         <v>0</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N58" t="str">
@@ -7170,15 +7064,15 @@
         <v>500</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S58">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>500</v>
       </c>
     </row>
@@ -7223,7 +7117,7 @@
         <v>1</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N59" t="str">
@@ -7242,15 +7136,15 @@
         <v>60000</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S59">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>60000</v>
       </c>
     </row>
@@ -7298,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N60" t="str">
@@ -7317,15 +7211,15 @@
         <v>100</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S60">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>100</v>
       </c>
     </row>
@@ -7370,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N61" t="str">
@@ -7389,15 +7283,15 @@
         <v>50</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S61">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>50</v>
       </c>
     </row>
@@ -7442,7 +7336,7 @@
         <v>1</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N62" t="str">
@@ -7461,15 +7355,15 @@
         <v>10000</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S62">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>10000</v>
       </c>
     </row>
@@ -7514,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>it</v>
       </c>
       <c r="N63" t="str">
@@ -7533,15 +7427,15 @@
         <v>300</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>it</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="S63">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>300</v>
       </c>
     </row>
@@ -7586,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N64" t="str">
@@ -7605,15 +7499,15 @@
         <v>75</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S64">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>75</v>
       </c>
     </row>
@@ -7658,7 +7552,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N65" t="str">
@@ -7677,15 +7571,15 @@
         <v>20000</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S65">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>20000</v>
       </c>
     </row>
@@ -7706,7 +7600,7 @@
         <v>12</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E71" ca="1" si="23">IF(ISBLANK(F66),"",
+        <f t="shared" ref="E66:E71" ca="1" si="27">IF(ISBLANK(F66),"",
 VLOOKUP(F66,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -7732,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N66" t="str">
@@ -7751,15 +7645,15 @@
         <v>300</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S66">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>300</v>
       </c>
     </row>
@@ -7780,7 +7674,7 @@
         <v>12</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="J67">
@@ -7804,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N67" t="str">
@@ -7823,15 +7717,15 @@
         <v>100</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S67">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>100</v>
       </c>
     </row>
@@ -7852,7 +7746,7 @@
         <v>12</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="J68">
@@ -7876,7 +7770,7 @@
         <v>1</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N68" t="str">
@@ -7895,15 +7789,15 @@
         <v>40000</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S68">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>40000</v>
       </c>
     </row>
@@ -7924,7 +7818,7 @@
         <v>12</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="J69">
@@ -7948,7 +7842,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>it</v>
       </c>
       <c r="N69" t="str">
@@ -7967,15 +7861,15 @@
         <v>1000</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>it</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>Cash_sSevenTotal</v>
       </c>
       <c r="S69">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>1000</v>
       </c>
     </row>
@@ -7996,7 +7890,7 @@
         <v>12</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="J70">
@@ -8020,7 +7914,7 @@
         <v>0</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N70" t="str">
@@ -8039,15 +7933,15 @@
         <v>500</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>EN</v>
       </c>
       <c r="S70">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>500</v>
       </c>
     </row>
@@ -8068,7 +7962,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ca="1" si="23"/>
+        <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
       <c r="J71">
@@ -8092,7 +7986,7 @@
         <v>1</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" ca="1" si="19"/>
+        <f t="shared" ca="1" si="23"/>
         <v>cu</v>
       </c>
       <c r="N71" t="str">
@@ -8111,15 +8005,15 @@
         <v>60000</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" ca="1" si="20"/>
+        <f t="shared" ca="1" si="24"/>
         <v>cu</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" ca="1" si="21"/>
+        <f t="shared" ca="1" si="25"/>
         <v>GO</v>
       </c>
       <c r="S71">
-        <f t="shared" ca="1" si="22"/>
+        <f t="shared" ca="1" si="26"/>
         <v>60000</v>
       </c>
     </row>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AE81F0-E618-4D4A-BEDF-EF58F9AE16A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AE1C10-07F7-4941-BE33-F8945E19DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,6 +472,10 @@
   </si>
   <si>
     <t>seventotalgroup3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업할인1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,11 +1324,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
   <dimension ref="A1:AN14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1497,55 +1501,59 @@
         <f t="shared" si="0"/>
         <v>1d</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K2">
         <f t="shared" ref="K2:K14" si="1">IF(ISBLANK($Q2),"",YEAR($Q2))</f>
-        <v/>
-      </c>
-      <c r="L2" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L2">
         <f t="shared" ref="L2:L14" si="2">IF(ISBLANK($Q2),"",MONTH($Q2))</f>
-        <v/>
-      </c>
-      <c r="M2" t="str">
+        <v>10</v>
+      </c>
+      <c r="M2">
         <f t="shared" ref="M2:M14" si="3">IF(ISBLANK($Q2),"",DAY($Q2))</f>
-        <v/>
-      </c>
-      <c r="N2" t="str">
+        <v>1</v>
+      </c>
+      <c r="N2">
         <f t="shared" ref="N2:N14" si="4">IF(ISBLANK($R2),"",YEAR($R2+1))</f>
-        <v/>
-      </c>
-      <c r="O2" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O2">
         <f t="shared" ref="O2:O14" si="5">IF(ISBLANK($R2),"",MONTH($R2+1))</f>
-        <v/>
-      </c>
-      <c r="P2" t="str">
+        <v>11</v>
+      </c>
+      <c r="P2">
         <f t="shared" ref="P2:P14" si="6">IF(ISBLANK($R2),"",DAY($R2+1))</f>
-        <v/>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>44835</v>
+      </c>
+      <c r="R2" s="3">
+        <v>44865</v>
+      </c>
+      <c r="S2">
         <f>K2</f>
-        <v/>
-      </c>
-      <c r="T2" t="str">
+        <v>2022</v>
+      </c>
+      <c r="T2">
         <f t="shared" ref="T2:X14" si="7">L2</f>
-        <v/>
-      </c>
-      <c r="U2" t="str">
+        <v>10</v>
+      </c>
+      <c r="U2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V2" t="str">
+        <v>1</v>
+      </c>
+      <c r="V2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W2" t="str">
+        <v>2022</v>
+      </c>
+      <c r="W2">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X2" t="str">
+        <v>11</v>
+      </c>
+      <c r="X2">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y2" t="s">
         <v>55</v>
@@ -1588,7 +1596,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
-        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
+        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1620,55 +1628,59 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K3" t="str">
+      <c r="K3">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L3" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L3">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M3" t="str">
+        <v>10</v>
+      </c>
+      <c r="M3">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N3" t="str">
+        <v>1</v>
+      </c>
+      <c r="N3">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O3" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O3">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P3" t="str">
+        <v>11</v>
+      </c>
+      <c r="P3">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>44835</v>
+      </c>
+      <c r="R3" s="3">
+        <v>44865</v>
+      </c>
+      <c r="S3">
         <f t="shared" ref="S3:S14" si="9">K3</f>
-        <v/>
-      </c>
-      <c r="T3" t="str">
+        <v>2022</v>
+      </c>
+      <c r="T3">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U3" t="str">
+        <v>10</v>
+      </c>
+      <c r="U3">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V3" t="str">
+        <v>1</v>
+      </c>
+      <c r="V3">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W3" t="str">
+        <v>2022</v>
+      </c>
+      <c r="W3">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X3" t="str">
+        <v>11</v>
+      </c>
+      <c r="X3">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y3" t="s">
         <v>52</v>
@@ -1747,7 +1759,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
@@ -1759,17 +1771,17 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P4">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="R4" s="3">
-        <v>44819</v>
+        <v>44865</v>
       </c>
       <c r="S4">
         <f t="shared" si="9"/>
@@ -1777,7 +1789,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U4">
         <f t="shared" si="7"/>
@@ -1789,11 +1801,11 @@
       </c>
       <c r="W4">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X4">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="s">
         <v>53</v>
@@ -1869,7 +1881,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
@@ -1881,17 +1893,17 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="Q5" s="3">
-        <v>44816</v>
+        <v>44846</v>
       </c>
       <c r="R5" s="3">
-        <v>44831</v>
+        <v>44861</v>
       </c>
       <c r="S5">
         <f t="shared" si="9"/>
@@ -1899,7 +1911,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U5">
         <f t="shared" si="7"/>
@@ -1911,7 +1923,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X5">
         <f t="shared" si="7"/>
@@ -2003,7 +2015,7 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
@@ -2013,7 +2025,7 @@
         <v>44829</v>
       </c>
       <c r="R6" s="3">
-        <v>44849</v>
+        <v>44880</v>
       </c>
       <c r="S6">
         <f t="shared" si="9"/>
@@ -2033,7 +2045,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6">
         <f t="shared" si="7"/>
@@ -2126,7 +2138,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
@@ -2136,7 +2148,7 @@
         <v>44816</v>
       </c>
       <c r="R7" s="3">
-        <v>44831</v>
+        <v>44861</v>
       </c>
       <c r="S7">
         <f t="shared" si="9"/>
@@ -2156,7 +2168,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X7">
         <f t="shared" si="7"/>
@@ -2214,70 +2226,90 @@
         <v>10m</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>43200</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K8" t="str">
+        <v>12h</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M8" t="str">
+        <v>10</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N8" t="str">
+        <v>1</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O8" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P8" t="str">
+        <v>11</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>44835</v>
+      </c>
+      <c r="R8" s="3">
+        <v>44865</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T8" t="str">
+        <v>2022</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U8" t="str">
+        <v>10</v>
+      </c>
+      <c r="U8">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V8" t="str">
+        <v>1</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W8" t="str">
+        <v>2022</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X8" t="str">
+        <v>11</v>
+      </c>
+      <c r="X8">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB8" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" ref="Z8:Z9" ca="1" si="16">VLOOKUP(Y8,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" ref="AB8:AB9" ca="1" si="17">VLOOKUP(AA8,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>1</v>
+      </c>
       <c r="AD8" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="11"/>
-        <v>"ev7":0</v>
+        <v>"ev7":43200</v>
       </c>
       <c r="AG8" t="s">
         <v>107</v>
@@ -2286,6 +2318,12 @@
     <row r="9" spans="1:40">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
       </c>
       <c r="F9">
         <f ca="1">IF(NOT(ISBLANK(E9)),E9,
@@ -2300,70 +2338,90 @@
         <v>10m</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>43200</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K9" t="str">
+        <v>12h</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M9" t="str">
+        <v>10</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N9" t="str">
+        <v>1</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O9">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P9" t="str">
+        <v>11</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>44835</v>
+      </c>
+      <c r="R9" s="3">
+        <v>44865</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U9" t="str">
+        <v>10</v>
+      </c>
+      <c r="U9">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V9" t="str">
+        <v>1</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W9" t="str">
+        <v>2022</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X9" t="str">
+        <v>11</v>
+      </c>
+      <c r="X9">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB9" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" ca="1" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>1</v>
+      </c>
       <c r="AD9" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="11"/>
-        <v>"ev8":0</v>
+        <v>"ev8":43200</v>
       </c>
       <c r="AG9" t="s">
         <v>94</v>
@@ -2445,7 +2503,7 @@
       <c r="AB10" s="4"/>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="11"/>
@@ -2528,7 +2586,7 @@
       <c r="AB11" s="4"/>
       <c r="AD11" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" si="11"/>
@@ -2612,7 +2670,7 @@
       <c r="AB12" s="4"/>
       <c r="AD12" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="11"/>
@@ -2695,7 +2753,7 @@
       <c r="AB13" s="4"/>
       <c r="AD13" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="11"/>
@@ -2778,7 +2836,7 @@
       <c r="AB14" s="4"/>
       <c r="AD14" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="11"/>
@@ -2793,7 +2851,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14 Y2:Y7 AA2:AA14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14 Y2:Y9 AA2:AA14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2806,7 +2864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
   <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09AE1C10-07F7-4941-BE33-F8945E19DB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C569DE0A-60FD-453A-AC8A-E4C9E1E9DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,410 +72,428 @@
     <t>ev10</t>
   </si>
   <si>
+    <t>ev12</t>
+  </si>
+  <si>
+    <t>참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속구매1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>givenTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+  </si>
+  <si>
+    <t>tp_Verify</t>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardValue|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고타입_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_단일</t>
+  </si>
+  <si>
+    <t>구매_단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_연속</t>
+  </si>
+  <si>
+    <t>구매_연속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_셋중하나</t>
+  </si>
+  <si>
+    <t>구매_셋중하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출석체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지저금통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그외기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_원플러스투</t>
+  </si>
+  <si>
+    <t>구매_원플러스투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세개 중 하나 사기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅부스트 패키지1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>올모스트 데어1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하드코딩. 프로그램이 제어</t>
+  </si>
+  <si>
+    <t>로그인</t>
+  </si>
+  <si>
+    <t>보스에서 패배</t>
+  </si>
+  <si>
+    <t>스핀 다 소모</t>
+  </si>
+  <si>
+    <t>sy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startYear|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startMonth|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startDay|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endYear|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endMonth|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>endDay|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>triggerCondition_Verify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coolTime|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productId연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev1</t>
+  </si>
+  <si>
+    <t>prob|Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subTriggerCondition|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온앱포즈 &amp; 홈 도착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evCool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jason화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>requiredAccumulatedTime값연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneofthree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>conti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oneplustwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventSub|String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev4_conti_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev3_oneofthree_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_bigboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCount|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCount오버라이딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_에너지소비되돌림</t>
+  </si>
+  <si>
+    <t>테이블연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnergyUsePaybackTable 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payback|Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usPbk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>energypayback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분모참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원플투1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev5_oneplustwo_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_이벤트포인트 두번째보상</t>
+  </si>
+  <si>
+    <t>비구매_구매200%더</t>
+  </si>
+  <si>
+    <t>비구매_렙업비용50%감소</t>
+  </si>
+  <si>
+    <t>seventotalgroup1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seventotalgroup3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매뻥튀기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비구매_스펠뽑기카운트50%증가</t>
+  </si>
+  <si>
+    <t>비구매_스펠뽑기카운트50%증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소환추가보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨업할인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스펠뽑기량 증가</t>
+  </si>
+  <si>
+    <t>온앱포즈 &amp; 홈 도착</t>
+  </si>
+  <si>
     <t>ev11</t>
-  </si>
-  <si>
-    <t>ev12</t>
-  </si>
-  <si>
-    <t>참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연속구매1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>givenTime|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화</t>
-  </si>
-  <si>
-    <t>tp_Verify</t>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardType|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardValue|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rewardCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고타입_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매_단일</t>
-  </si>
-  <si>
-    <t>구매_단일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매_연속</t>
-  </si>
-  <si>
-    <t>구매_연속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매_셋중하나</t>
-  </si>
-  <si>
-    <t>구매_셋중하나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>출석체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지저금통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그외기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매_원플러스투</t>
-  </si>
-  <si>
-    <t>구매_원플러스투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세개 중 하나 사기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>빅부스트 패키지1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>올모스트 데어1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하드코딩. 프로그램이 제어</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
-    <t>보스에서 패배</t>
-  </si>
-  <si>
-    <t>스핀 다 소모</t>
-  </si>
-  <si>
-    <t>sy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ey</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>em</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종료일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startYear|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startMonth|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>startDay|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endYear|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endMonth|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>endDay|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerCondition|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>triggerCondition_Verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>coolTime|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productId연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>열</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev1</t>
-  </si>
-  <si>
-    <t>prob|Float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subTriggerCondition|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>온앱포즈 &amp; 홈 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>evCool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jason화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>requiredAccumulatedTime값연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneofthree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>conti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oneplustwo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eventSub|String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev4_conti_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev3_oneofthree_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_bigboost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCount|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCount오버라이딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비구매_에너지소비되돌림</t>
-  </si>
-  <si>
-    <t>테이블연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnergyUsePaybackTable 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>use|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payback|Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usPbk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>energypayback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분모참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>원플투1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ev5_oneplustwo_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비구매_이벤트포인트 두번째보상</t>
-  </si>
-  <si>
-    <t>비구매_구매200%더</t>
-  </si>
-  <si>
-    <t>비구매_렙업비용50%감소</t>
-  </si>
-  <si>
-    <t>소환추가보상1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seventotalgroup1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seventotalgroup1_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seventotalgroup2_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seventotalgroup3_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seventotalgroup2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>seventotalgroup3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레벨업할인1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1015,6 +1033,270 @@
           </cell>
           <cell r="E25">
             <v>3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>cashshopenergy_1</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E26">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>cashshopenergy_2</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E27">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>cashshopenergy_3</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E28">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>cashshopenergy_4</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E29">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>cashshopenergy_5</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E30">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>cashshopenergy_6</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>cashshopenergy_1_more</v>
+          </cell>
+          <cell r="D32" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E32">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>cashshopenergy_2_more</v>
+          </cell>
+          <cell r="D33" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E33">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>cashshopenergy_3_more</v>
+          </cell>
+          <cell r="D34" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>cashshopenergy_4_more</v>
+          </cell>
+          <cell r="D35" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E35">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>cashshopenergy_5_more</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E36">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>cashshopenergy_6_more</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>cashshopenergy</v>
+          </cell>
+          <cell r="E37">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>cashshopgold_1</v>
+          </cell>
+          <cell r="D38" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E38">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>cashshopgold_2</v>
+          </cell>
+          <cell r="D39" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E39">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>cashshopgold_3</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>cashshopgold_4</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E41">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>cashshopgold_5</v>
+          </cell>
+          <cell r="D42" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E42">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>cashshopgold_6</v>
+          </cell>
+          <cell r="D43" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E43">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>cashshopgold_1_more</v>
+          </cell>
+          <cell r="D44" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E44">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>cashshopgold_2_more</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>cashshopgold_3_more</v>
+          </cell>
+          <cell r="D46" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>cashshopgold_4_more</v>
+          </cell>
+          <cell r="D47" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>cashshopgold_5_more</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>cashshopgold_6_more</v>
+          </cell>
+          <cell r="D49" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E49">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -1328,7 +1610,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1361,112 +1643,112 @@
   <sheetData>
     <row r="1" spans="1:40" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>65</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>66</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>67</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI1" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>72</v>
-      </c>
       <c r="AJ1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AN1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:40">
@@ -1474,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2">
         <f ca="1">IF(NOT(ISBLANK(E2)),E2,
@@ -1507,7 +1789,7 @@
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L14" si="2">IF(ISBLANK($Q2),"",MONTH($Q2))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M14" si="3">IF(ISBLANK($Q2),"",DAY($Q2))</f>
@@ -1519,17 +1801,17 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O14" si="5">IF(ISBLANK($R2),"",MONTH($R2+1))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P14" si="6">IF(ISBLANK($R2),"",DAY($R2+1))</f>
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="R2" s="3">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="S2">
         <f>K2</f>
@@ -1537,7 +1819,7 @@
       </c>
       <c r="T2">
         <f t="shared" ref="T2:X14" si="7">L2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2">
         <f t="shared" si="7"/>
@@ -1549,21 +1831,21 @@
       </c>
       <c r="W2">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X2">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" ref="Z2:AB5" ca="1" si="8">VLOOKUP(Y2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1581,16 +1863,16 @@
         <v>"ev1":86400</v>
       </c>
       <c r="AG2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AI2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AN2" t="str">
         <f ca="1">"{"&amp;
@@ -1604,10 +1886,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3">
         <f ca="1">IF(NOT(ISBLANK(E3)),E3,
@@ -1634,7 +1916,7 @@
       </c>
       <c r="L3">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3">
         <f t="shared" si="3"/>
@@ -1646,17 +1928,17 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="R3" s="3">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S14" si="9">K3</f>
@@ -1664,7 +1946,7 @@
       </c>
       <c r="T3">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U3">
         <f t="shared" si="7"/>
@@ -1676,21 +1958,21 @@
       </c>
       <c r="W3">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X3">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1708,16 +1990,16 @@
         <v>"ev2":0</v>
       </c>
       <c r="AG3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
       <c r="AL3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:40">
@@ -1725,13 +2007,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F4">
         <f ca="1">IF(NOT(ISBLANK(E4)),E4,
@@ -1759,7 +2041,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
@@ -1771,17 +2053,17 @@
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P4">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="R4" s="3">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="S4">
         <f t="shared" si="9"/>
@@ -1789,7 +2071,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U4">
         <f t="shared" si="7"/>
@@ -1801,21 +2083,21 @@
       </c>
       <c r="W4">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB4" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1833,10 +2115,10 @@
         <v>"ev3":691200</v>
       </c>
       <c r="AG4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ4">
         <v>2</v>
@@ -1847,13 +2129,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5">
         <f ca="1">IF(NOT(ISBLANK(E5)),E5,
@@ -1881,7 +2163,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
@@ -1893,17 +2175,17 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="Q5" s="3">
-        <v>44846</v>
+        <v>44877</v>
       </c>
       <c r="R5" s="3">
-        <v>44861</v>
+        <v>44892</v>
       </c>
       <c r="S5">
         <f t="shared" si="9"/>
@@ -1911,7 +2193,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U5">
         <f t="shared" si="7"/>
@@ -1923,21 +2205,21 @@
       </c>
       <c r="W5">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X5">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="Y5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1955,10 +2237,10 @@
         <v>"ev4":172800</v>
       </c>
       <c r="AG5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AJ5">
         <v>3</v>
@@ -1969,13 +2251,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6">
         <f ca="1">IF(NOT(ISBLANK(E6)),E6,
@@ -2052,14 +2334,14 @@
         <v>16</v>
       </c>
       <c r="Y6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" ref="Z6" ca="1" si="12">VLOOKUP(Y6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB6" s="4">
         <f t="shared" ref="AB6" ca="1" si="13">VLOOKUP(AA6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -2077,10 +2359,10 @@
         <v>"ev5":86400</v>
       </c>
       <c r="AG6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AI6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -2091,13 +2373,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
@@ -2138,7 +2420,7 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
@@ -2148,7 +2430,7 @@
         <v>44816</v>
       </c>
       <c r="R7" s="3">
-        <v>44861</v>
+        <v>44892</v>
       </c>
       <c r="S7">
         <f t="shared" si="9"/>
@@ -2168,21 +2450,21 @@
       </c>
       <c r="W7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7">
         <f t="shared" si="7"/>
         <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" ref="Z7" ca="1" si="14">VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB7" s="4">
         <f t="shared" ref="AB7" ca="1" si="15">VLOOKUP(AA7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -2200,7 +2482,7 @@
         <v>"ev6":2592000</v>
       </c>
       <c r="AG7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:40">
@@ -2208,10 +2490,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F8">
         <f ca="1">IF(NOT(ISBLANK(E8)),E8,
@@ -2238,7 +2520,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
@@ -2250,17 +2532,17 @@
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="R8" s="3">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="S8">
         <f t="shared" si="9"/>
@@ -2268,7 +2550,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U8">
         <f t="shared" si="7"/>
@@ -2280,21 +2562,21 @@
       </c>
       <c r="W8">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X8">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" ref="Z8:Z9" ca="1" si="16">VLOOKUP(Y8,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB8" s="4">
         <f t="shared" ref="AB8:AB9" ca="1" si="17">VLOOKUP(AA8,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
@@ -2312,7 +2594,7 @@
         <v>"ev7":43200</v>
       </c>
       <c r="AG8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -2320,10 +2602,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <f ca="1">IF(NOT(ISBLANK(E9)),E9,
@@ -2350,7 +2632,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
@@ -2362,17 +2644,17 @@
       </c>
       <c r="O9">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P9">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="R9" s="3">
-        <v>44865</v>
+        <v>44895</v>
       </c>
       <c r="S9">
         <f t="shared" si="9"/>
@@ -2380,7 +2662,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U9">
         <f t="shared" si="7"/>
@@ -2392,21 +2674,21 @@
       </c>
       <c r="W9">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Y9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB9" s="4">
         <f t="shared" ca="1" si="17"/>
@@ -2424,12 +2706,18 @@
         <v>"ev8":43200</v>
       </c>
       <c r="AG9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:40">
       <c r="A10" t="s">
         <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
       </c>
       <c r="F10">
         <f ca="1">IF(NOT(ISBLANK(E10)),E10,
@@ -2450,57 +2738,77 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K10" t="str">
+      <c r="K10">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L10" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L10">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M10" t="str">
+        <v>11</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N10" t="str">
+        <v>1</v>
+      </c>
+      <c r="N10">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O10" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O10">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P10" t="str">
+        <v>12</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>44866</v>
+      </c>
+      <c r="R10" s="3">
+        <v>44895</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T10" t="str">
+        <v>2022</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U10" t="str">
+        <v>11</v>
+      </c>
+      <c r="U10">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V10" t="str">
+        <v>1</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W10" t="str">
+        <v>2022</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X10" t="str">
+        <v>12</v>
+      </c>
+      <c r="X10">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB10" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" ref="Z10" ca="1" si="18">VLOOKUP(Y10,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" ref="AB10" ca="1" si="19">VLOOKUP(AA10,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>1</v>
+      </c>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0</v>
@@ -2509,10 +2817,19 @@
         <f t="shared" si="11"/>
         <v>"ev9":0</v>
       </c>
+      <c r="AG10" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="11" spans="1:40">
       <c r="A11" t="s">
         <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
       </c>
       <c r="F11">
         <f ca="1">IF(NOT(ISBLANK(E11)),E11,
@@ -2523,79 +2840,105 @@
         <v>600</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H11" si="20">IF(G11/60/60/24*1&gt;=1,INT(G11/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(G11/60/60,24))&gt;0,INT(MOD(G11/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(G11/60,60))&gt;0,INT(MOD(G11/60,60))&amp;"m","")
+&amp;IF(INT(MOD(G11,60))&gt;0,INT(MOD(G11,60))&amp;"s","")</f>
         <v>10m</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K11" t="str">
+        <f t="shared" ref="J11" si="21">IF(I11/60/60/24*1&gt;=1,INT(I11/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(I11/60/60,24))&gt;0,INT(MOD(I11/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(I11/60,60))&gt;0,INT(MOD(I11/60,60))&amp;"m","")
+&amp;IF(INT(MOD(I11,60))&gt;0,INT(MOD(I11,60))&amp;"s","")</f>
+        <v/>
+      </c>
+      <c r="K11">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L11" t="str">
+        <v>2022</v>
+      </c>
+      <c r="L11">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M11" t="str">
+        <v>10</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N11" t="str">
+        <v>1</v>
+      </c>
+      <c r="N11">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O11" t="str">
+        <v>2022</v>
+      </c>
+      <c r="O11">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P11" t="str">
+        <v>10</v>
+      </c>
+      <c r="P11">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X11" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB11" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>44835</v>
+      </c>
+      <c r="R11" s="3">
+        <v>44864</v>
+      </c>
+      <c r="S11">
+        <f t="shared" ref="S11" si="22">K11</f>
+        <v>2022</v>
+      </c>
+      <c r="T11">
+        <f t="shared" ref="T11" si="23">L11</f>
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <f t="shared" ref="U11" si="24">M11</f>
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ref="V11" si="25">N11</f>
+        <v>2022</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ref="W11" si="26">O11</f>
+        <v>10</v>
+      </c>
+      <c r="X11">
+        <f t="shared" ref="X11" si="27">P11</f>
+        <v>31</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" ref="Z11" ca="1" si="28">VLOOKUP(Y11,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB11" s="4">
+        <f t="shared" ref="AB11" ca="1" si="29">VLOOKUP(AA11,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <v>1</v>
+      </c>
       <c r="AD11" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AD11:AD14" si="30">AD10&amp;","&amp;AE11</f>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0</v>
       </c>
       <c r="AE11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AE11:AE14" si="31">""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;I11</f>
         <v>"ev10":0</v>
       </c>
     </row>
     <row r="12" spans="1:40">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F12">
         <f ca="1">IF(NOT(ISBLANK(E12)),E12,
@@ -2603,18 +2946,23 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <f>50*60*60</f>
-        <v>180000</v>
+        <v>600</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
-        <v>2d2h</v>
+        <f t="shared" ref="H12" si="32">IF(G12/60/60/24*1&gt;=1,INT(G12/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(G12/60/60,24))&gt;0,INT(MOD(G12/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(G12/60,60))&gt;0,INT(MOD(G12/60,60))&amp;"m","")
+&amp;IF(INT(MOD(G12,60))&gt;0,INT(MOD(G12,60))&amp;"s","")</f>
+        <v>10m</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J12" si="33">IF(I12/60/60/24*1&gt;=1,INT(I12/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(I12/60/60,24))&gt;0,INT(MOD(I12/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(I12/60,60))&gt;0,INT(MOD(I12/60,60))&amp;"m","")
+&amp;IF(INT(MOD(I12,60))&gt;0,INT(MOD(I12,60))&amp;"s","")</f>
         <v/>
       </c>
       <c r="K12" t="str">
@@ -2644,42 +2992,42 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S12" si="34">K12</f>
         <v/>
       </c>
       <c r="T12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="T12" si="35">L12</f>
         <v/>
       </c>
       <c r="U12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="U12" si="36">M12</f>
         <v/>
       </c>
       <c r="V12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="V12" si="37">N12</f>
         <v/>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="W12" si="38">O12</f>
         <v/>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="X12" si="39">P12</f>
         <v/>
       </c>
       <c r="AB12" s="4"/>
       <c r="AD12" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0</v>
       </c>
       <c r="AE12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>"ev11":0</v>
       </c>
     </row>
     <row r="13" spans="1:40">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <f ca="1">IF(NOT(ISBLANK(E13)),E13,
@@ -2752,17 +3100,17 @@
       </c>
       <c r="AB13" s="4"/>
       <c r="AD13" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
       </c>
       <c r="AE13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>"ev12":0</v>
       </c>
     </row>
     <row r="14" spans="1:40">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <f ca="1">IF(NOT(ISBLANK(E14)),E14,
@@ -2835,23 +3183,23 @@
       </c>
       <c r="AB14" s="4"/>
       <c r="AD14" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
       </c>
       <c r="AE14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="31"/>
         <v>"ev13":0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Q1:R1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$R1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C14 Y2:Y9 AA2:AA14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA14 C2:C14 Y2:Y14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -2890,67 +3238,67 @@
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="Q1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="U1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
         <v>24</v>
-      </c>
-      <c r="V1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:22">
@@ -2976,7 +3324,7 @@
         <v/>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
@@ -3036,15 +3384,15 @@
         <v>600</v>
       </c>
       <c r="U2" t="s">
+        <v>25</v>
+      </c>
+      <c r="V2" t="s">
         <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3117,15 +3465,15 @@
         <v>50000</v>
       </c>
       <c r="U3" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" t="s">
         <v>30</v>
-      </c>
-      <c r="V3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="str">
         <f>IFERROR(VLOOKUP(A4,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3144,10 +3492,10 @@
         <v>cu</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -3209,7 +3557,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="str">
         <f>IFERROR(VLOOKUP(A5,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3228,7 +3576,7 @@
         <v/>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
@@ -3287,7 +3635,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="str">
         <f>IFERROR(VLOOKUP(A6,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3359,7 +3707,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="str">
         <f>IFERROR(VLOOKUP(A7,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3431,7 +3779,7 @@
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="str">
         <f>IFERROR(VLOOKUP(A8,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3503,7 +3851,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="str">
         <f>IFERROR(VLOOKUP(A9,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3575,7 +3923,7 @@
     </row>
     <row r="10" spans="1:22">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="str">
         <f>IFERROR(VLOOKUP(A10,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3647,7 +3995,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="str">
         <f>IFERROR(VLOOKUP(A11,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3719,7 +4067,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" t="str">
         <f>IFERROR(VLOOKUP(A12,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3791,7 +4139,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" t="str">
         <f>IFERROR(VLOOKUP(A13,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3935,7 +4283,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="str">
         <f>IFERROR(VLOOKUP(A15,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3954,7 +4302,7 @@
         <v/>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
@@ -4010,7 +4358,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="str">
         <f>IFERROR(VLOOKUP(A16,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4082,7 +4430,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" t="str">
         <f>IFERROR(VLOOKUP(A17,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4154,7 +4502,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="str">
         <f>IFERROR(VLOOKUP(A18,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4226,7 +4574,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" t="str">
         <f>IFERROR(VLOOKUP(A19,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4298,7 +4646,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B20" t="str">
         <f>IFERROR(VLOOKUP(A20,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4370,7 +4718,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B21" t="str">
         <f>IFERROR(VLOOKUP(A21,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4442,7 +4790,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" t="str">
         <f>IFERROR(VLOOKUP(A22,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4658,7 +5006,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4677,7 +5025,7 @@
         <v/>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
@@ -4739,7 +5087,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" t="str">
         <f>IFERROR(VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4814,7 +5162,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4886,7 +5234,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -4958,7 +5306,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5030,7 +5378,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5102,7 +5450,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5174,7 +5522,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5246,7 +5594,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5318,7 +5666,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5390,7 +5738,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(VLOOKUP(A35,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5462,7 +5810,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(VLOOKUP(A36,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5481,7 +5829,7 @@
         <v/>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J36">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
@@ -5543,7 +5891,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(VLOOKUP(A37,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5615,7 +5963,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(VLOOKUP(A38,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5687,7 +6035,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(VLOOKUP(A39,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5759,7 +6107,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(VLOOKUP(A40,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5831,7 +6179,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(VLOOKUP(A41,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5903,7 +6251,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(VLOOKUP(A42,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5975,7 +6323,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" t="str">
         <f>IFERROR(VLOOKUP(A43,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6047,7 +6395,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(VLOOKUP(A44,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6119,7 +6467,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(VLOOKUP(A45,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6191,7 +6539,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(VLOOKUP(A46,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6263,7 +6611,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(VLOOKUP(A47,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6335,7 +6683,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(VLOOKUP(A48,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6354,7 +6702,7 @@
         <v/>
       </c>
       <c r="I48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
@@ -6416,7 +6764,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(VLOOKUP(A49,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6488,7 +6836,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(VLOOKUP(A50,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6560,7 +6908,7 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(VLOOKUP(A51,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6632,7 +6980,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(VLOOKUP(A52,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6704,7 +7052,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(VLOOKUP(A53,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6776,7 +7124,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(VLOOKUP(A54,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6848,7 +7196,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(VLOOKUP(A55,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6920,7 +7268,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(VLOOKUP(A56,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6992,7 +7340,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(VLOOKUP(A57,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7064,7 +7412,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B58" t="str">
         <f>IFERROR(VLOOKUP(A58,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7136,7 +7484,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(VLOOKUP(A59,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7208,7 +7556,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(VLOOKUP(A60,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7227,7 +7575,7 @@
         <v/>
       </c>
       <c r="I60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
@@ -7283,7 +7631,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(VLOOKUP(A61,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7355,7 +7703,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(VLOOKUP(A62,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7427,7 +7775,7 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(VLOOKUP(A63,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7499,7 +7847,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(VLOOKUP(A64,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7571,7 +7919,7 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(VLOOKUP(A65,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7643,7 +7991,7 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(VLOOKUP(A66,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7717,7 +8065,7 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(VLOOKUP(A67,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7789,7 +8137,7 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B68" t="str">
         <f>IFERROR(VLOOKUP(A68,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7861,7 +8209,7 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(VLOOKUP(A69,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7933,7 +8281,7 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(VLOOKUP(A70,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8005,7 +8353,7 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(VLOOKUP(A71,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8103,19 +8451,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>98</v>
-      </c>
-      <c r="C1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C569DE0A-60FD-453A-AC8A-E4C9E1E9DE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B90F2-A0C6-4B56-B016-CA7EA83C8342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -1610,7 +1610,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1761,10 +1761,10 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="e">
         <f ca="1">IF(NOT(ISBLANK(E2)),E2,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A2))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G2">
         <v>300</v>
@@ -1891,10 +1891,10 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="e">
         <f ca="1">IF(NOT(ISBLANK(E3)),E3,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A3))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G3">
         <v>300</v>
@@ -2015,10 +2015,10 @@
       <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="e">
         <f ca="1">IF(NOT(ISBLANK(E4)),E4,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A4))</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G4">
         <f>50*60*60</f>
@@ -2107,11 +2107,11 @@
         <v>1</v>
       </c>
       <c r="AD4" t="str">
-        <f t="shared" ref="AD4:AD14" si="10">AD3&amp;","&amp;AE4</f>
+        <f t="shared" ref="AD4:AD10" si="10">AD3&amp;","&amp;AE4</f>
         <v>"ev1":86400,"ev2":0,"ev3":691200</v>
       </c>
       <c r="AE4" t="str">
-        <f t="shared" ref="AE4:AE14" si="11">""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;I4</f>
+        <f t="shared" ref="AE4:AE10" si="11">""""&amp;$A4&amp;""""&amp;""&amp;":"&amp;I4</f>
         <v>"ev3":691200</v>
       </c>
       <c r="AG4" t="s">
@@ -2137,10 +2137,10 @@
       <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="e">
         <f ca="1">IF(NOT(ISBLANK(E5)),E5,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A5))</f>
-        <v>4</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G5">
         <f>50*60*60</f>
@@ -2259,10 +2259,10 @@
       <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="e">
         <f ca="1">IF(NOT(ISBLANK(E6)),E6,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A6))</f>
-        <v>3</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G6">
         <f>I6*3/4</f>
@@ -2381,10 +2381,10 @@
       <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="e">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A7))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G7">
         <f>60*60*24*7</f>
@@ -2495,10 +2495,10 @@
       <c r="C8" t="s">
         <v>104</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="e">
         <f ca="1">IF(NOT(ISBLANK(E8)),E8,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A8))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G8">
         <v>600</v>
@@ -2607,10 +2607,10 @@
       <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="e">
         <f ca="1">IF(NOT(ISBLANK(E9)),E9,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A9))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G9">
         <v>600</v>
@@ -2719,10 +2719,10 @@
       <c r="C10" t="s">
         <v>105</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="e">
         <f ca="1">IF(NOT(ISBLANK(E10)),E10,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A10))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G10">
         <v>600</v>
@@ -2831,10 +2831,10 @@
       <c r="C11" t="s">
         <v>114</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="e">
         <f ca="1">IF(NOT(ISBLANK(E11)),E11,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A11))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G11">
         <v>600</v>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
@@ -2874,17 +2874,17 @@
       </c>
       <c r="O11">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="R11" s="3">
-        <v>44864</v>
+        <v>44895</v>
       </c>
       <c r="S11">
         <f t="shared" ref="S11" si="22">K11</f>
@@ -2892,7 +2892,7 @@
       </c>
       <c r="T11">
         <f t="shared" ref="T11" si="23">L11</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U11">
         <f t="shared" ref="U11" si="24">M11</f>
@@ -2904,11 +2904,11 @@
       </c>
       <c r="W11">
         <f t="shared" ref="W11" si="26">O11</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X11">
         <f t="shared" ref="X11" si="27">P11</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="s">
         <v>52</v>
@@ -2940,10 +2940,10 @@
       <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="e">
         <f ca="1">IF(NOT(ISBLANK(E12)),E12,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A12))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G12">
         <v>600</v>
@@ -3029,10 +3029,10 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="e">
         <f ca="1">IF(NOT(ISBLANK(E13)),E13,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A13))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G13">
         <v>600</v>
@@ -3112,10 +3112,10 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="e">
         <f ca="1">IF(NOT(ISBLANK(E14)),E14,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A14))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G14">
         <v>420</v>
@@ -3312,10 +3312,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="e">
         <f ca="1">IF(C2&lt;&gt;1,OFFSET(D2,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A2,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E65" ca="1" si="0">IF(ISBLANK(F2),"",
@@ -3340,48 +3340,48 @@
 OFFSET(K2,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 IF($K2-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M2" t="e">
         <f t="shared" ref="M2:M3" ca="1" si="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 IF(ISBLANK(N2),"",
 VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>cu</v>
-      </c>
-      <c r="N2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N2" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2))</f>
-        <v>재화</v>
-      </c>
-      <c r="O2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O2" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P2" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+2))</f>
-        <v>600</v>
-      </c>
-      <c r="Q2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q2" t="e">
         <f t="shared" ref="Q2" ca="1" si="2">IF(LEN(E2)&lt;&gt;0,E2,
 IF(LEN(M2)&lt;&gt;0,M2,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="R2" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R2" t="e">
         <f t="shared" ref="R2" ca="1" si="3">IF(LEN(G2)&lt;&gt;0,G2,
 IF(LEN(O2)&lt;&gt;0,O2,""))</f>
-        <v>EN</v>
-      </c>
-      <c r="S2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S2" t="e">
         <f t="shared" ref="S2" ca="1" si="4">IF(LEN(H2)&lt;&gt;0,H2,
 IF(LEN(P2)&lt;&gt;0,P2,""))</f>
-        <v>600</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U2" t="s">
         <v>25</v>
@@ -3401,68 +3401,68 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="e">
         <f ca="1">IF(C3&lt;&gt;1,OFFSET(D3,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A3,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J3">
+      <c r="J3" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 IF($C3=1,MATCH(OFFSET($I3,-($C3-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J3,-1,0)+OFFSET(L3,-1,0)
 ))</f>
-        <v>3</v>
-      </c>
-      <c r="K3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K3" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 IF($C3=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L3,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K3,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L3" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 IF($K3-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" t="e">
         <f t="shared" ca="1" si="1"/>
-        <v>cu</v>
-      </c>
-      <c r="N3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N3" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3))</f>
-        <v>재화</v>
-      </c>
-      <c r="O3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O3" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P3" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+2))</f>
-        <v>50000</v>
-      </c>
-      <c r="Q3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q3" t="e">
         <f t="shared" ref="Q3:Q4" ca="1" si="5">IF(LEN(E3)&lt;&gt;0,E3,
 IF(LEN(M3)&lt;&gt;0,M3,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="R3" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R3" t="e">
         <f t="shared" ref="R3:R4" ca="1" si="6">IF(LEN(G3)&lt;&gt;0,G3,
 IF(LEN(O3)&lt;&gt;0,O3,""))</f>
-        <v>GO</v>
-      </c>
-      <c r="S3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S3" t="e">
         <f t="shared" ref="S3:S4" ca="1" si="7">IF(LEN(H3)&lt;&gt;0,H3,
 IF(LEN(P3)&lt;&gt;0,P3,""))</f>
-        <v>50000</v>
+        <v>#VALUE!</v>
       </c>
       <c r="U3" t="s">
         <v>29</v>
@@ -3482,10 +3482,10 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="e">
         <f ca="1">IF(C4&lt;&gt;1,OFFSET(D4,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A4,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3566,10 +3566,10 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="e">
         <f ca="1">IF(C5&lt;&gt;1,OFFSET(D5,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A5,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3592,45 +3592,45 @@
 OFFSET(K5,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 IF($K5-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5))</f>
-        <v>재화</v>
-      </c>
-      <c r="O5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P5" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+2))</f>
-        <v>30</v>
-      </c>
-      <c r="Q5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q5" t="e">
         <f t="shared" ref="Q5:Q24" ca="1" si="9">IF(LEN(E5)&lt;&gt;0,E5,
 IF(LEN(M5)&lt;&gt;0,M5,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="R5" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" t="e">
         <f t="shared" ref="R5:R24" ca="1" si="10">IF(LEN(G5)&lt;&gt;0,G5,
 IF(LEN(O5)&lt;&gt;0,O5,""))</f>
-        <v>EN</v>
-      </c>
-      <c r="S5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S5" t="e">
         <f t="shared" ref="S5:S24" ca="1" si="11">IF(LEN(H5)&lt;&gt;0,H5,
 IF(LEN(P5)&lt;&gt;0,P5,""))</f>
-        <v>30</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3644,65 +3644,65 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="e">
         <f ca="1">IF(C6&lt;&gt;1,OFFSET(D6,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A6,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J6">
+      <c r="J6" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 IF($C6=1,MATCH(OFFSET($I6,-($C6-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J6,-1,0)+OFFSET(L6,-1,0)
 ))</f>
-        <v>4</v>
-      </c>
-      <c r="K6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K6" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 IF($C6=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L6,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K6,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L6" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 IF($K6-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N6" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6))</f>
-        <v>재화</v>
-      </c>
-      <c r="O6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P6" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+2))</f>
-        <v>25000</v>
-      </c>
-      <c r="Q6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q6" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R6" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R6" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="S6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S6" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>25000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3716,65 +3716,65 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="e">
         <f ca="1">IF(C7&lt;&gt;1,OFFSET(D7,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A7,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J7">
+      <c r="J7" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($C7=1,MATCH(OFFSET($I7,-($C7-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J7,-1,0)+OFFSET(L7,-1,0)
 ))</f>
-        <v>4</v>
-      </c>
-      <c r="K7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K7" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($C7=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L7,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K7,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L7" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($K7-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N7" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7))</f>
-        <v>재화</v>
-      </c>
-      <c r="O7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O7" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P7" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+2))</f>
-        <v>100</v>
-      </c>
-      <c r="Q7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q7" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R7" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R7" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S7" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -3788,65 +3788,65 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="e">
         <f ca="1">IF(C8&lt;&gt;1,OFFSET(D8,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A8,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J8">
+      <c r="J8" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 IF($C8=1,MATCH(OFFSET($I8,-($C8-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J8,-1,0)+OFFSET(L8,-1,0)
 ))</f>
-        <v>5</v>
-      </c>
-      <c r="K8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K8" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 IF($C8=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L8,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K8,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L8" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 IF($K8-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N8" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8))</f>
-        <v>재화</v>
-      </c>
-      <c r="O8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O8" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P8" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+2))</f>
-        <v>60</v>
-      </c>
-      <c r="Q8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q8" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R8" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R8" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S8" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>60</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3860,65 +3860,65 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="e">
         <f ca="1">IF(C9&lt;&gt;1,OFFSET(D9,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A9,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J9">
+      <c r="J9" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($C9=1,MATCH(OFFSET($I9,-($C9-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J9,-1,0)+OFFSET(L9,-1,0)
 ))</f>
-        <v>5</v>
-      </c>
-      <c r="K9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K9" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($C9=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L9,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K9,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L9" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($K9-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N9" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9))</f>
-        <v>재화</v>
-      </c>
-      <c r="O9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P9" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+2))</f>
-        <v>15000</v>
-      </c>
-      <c r="Q9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q9" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R9" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R9" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="S9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S9" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>15000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3932,65 +3932,65 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="e">
         <f ca="1">IF(C10&lt;&gt;1,OFFSET(D10,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A10,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J10">
+      <c r="J10" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($C10=1,MATCH(OFFSET($I10,-($C10-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J10,-1,0)+OFFSET(L10,-1,0)
 ))</f>
-        <v>5</v>
-      </c>
-      <c r="K10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K10" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($C10=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L10,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K10,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L10" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($K10-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N10" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10))</f>
-        <v>재화</v>
-      </c>
-      <c r="O10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O10" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P10" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+2))</f>
-        <v>120</v>
-      </c>
-      <c r="Q10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q10" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R10" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S10">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S10" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>120</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -4004,65 +4004,65 @@
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="e">
         <f ca="1">IF(C11&lt;&gt;1,OFFSET(D11,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A11,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J11">
+      <c r="J11" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($C11=1,MATCH(OFFSET($I11,-($C11-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J11,-1,0)+OFFSET(L11,-1,0)
 ))</f>
-        <v>6</v>
-      </c>
-      <c r="K11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K11" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($C11=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L11,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K11,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L11" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($K11-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N11" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11))</f>
-        <v>재화</v>
-      </c>
-      <c r="O11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O11" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P11" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+2))</f>
-        <v>90</v>
-      </c>
-      <c r="Q11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q11" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R11" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R11" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S11">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S11" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>90</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4076,65 +4076,65 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="e">
         <f ca="1">IF(C12&lt;&gt;1,OFFSET(D12,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A12,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J12">
+      <c r="J12" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($C12=1,MATCH(OFFSET($I12,-($C12-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J12,-1,0)+OFFSET(L12,-1,0)
 ))</f>
-        <v>6</v>
-      </c>
-      <c r="K12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K12" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($C12=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L12,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K12,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L12" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($K12-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N12" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12))</f>
-        <v>재화</v>
-      </c>
-      <c r="O12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O12" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P12" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+2))</f>
-        <v>30000</v>
-      </c>
-      <c r="Q12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q12" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R12" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R12" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="S12">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S12" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>30000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -4148,65 +4148,65 @@
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="e">
         <f ca="1">IF(C13&lt;&gt;1,OFFSET(D13,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A13,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J13">
+      <c r="J13" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 IF($C13=1,MATCH(OFFSET($I13,-($C13-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J13,-1,0)+OFFSET(L13,-1,0)
 ))</f>
-        <v>6</v>
-      </c>
-      <c r="K13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K13" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 IF($C13=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L13,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K13,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L13" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 IF($K13-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N13" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13))</f>
-        <v>재화</v>
-      </c>
-      <c r="O13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O13" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P13" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+2))</f>
-        <v>150</v>
-      </c>
-      <c r="Q13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q13" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R13" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R13" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S13">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S13" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>150</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -4220,65 +4220,65 @@
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="e">
         <f ca="1">IF(C14&lt;&gt;1,OFFSET(D14,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A14,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J14">
+      <c r="J14" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 IF($C14=1,MATCH(OFFSET($I14,-($C14-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J14,-1,0)+OFFSET(L14,-1,0)
 ))</f>
-        <v>6</v>
-      </c>
-      <c r="K14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 IF($C14=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L14,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K14,-1,0)+4)))</f>
-        <v>25</v>
-      </c>
-      <c r="L14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 IF($K14-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N14" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14))</f>
-        <v>재화</v>
-      </c>
-      <c r="O14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O14" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P14" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+2))</f>
-        <v>300</v>
-      </c>
-      <c r="Q14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q14" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R14" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R14" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S14">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S14" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>300</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -4292,10 +4292,10 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="e">
         <f ca="1">IF(C15&lt;&gt;1,OFFSET(D15,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A15,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4318,42 +4318,42 @@
 OFFSET(K15,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 IF($K15-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N15" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15))</f>
-        <v>재화</v>
-      </c>
-      <c r="O15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O15" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P15" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+2))</f>
-        <v>80</v>
-      </c>
-      <c r="Q15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q15" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R15" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R15" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S15">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S15" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -4367,65 +4367,65 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="e">
         <f ca="1">IF(C16&lt;&gt;1,OFFSET(D16,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A16,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J16">
+      <c r="J16" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 IF($C16=1,MATCH(OFFSET($I16,-($C16-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J16,-1,0)+OFFSET(L16,-1,0)
 ))</f>
-        <v>7</v>
-      </c>
-      <c r="K16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K16" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 IF($C16=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L16,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K16,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L16" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 IF($K16-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M16" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N16" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16))</f>
-        <v>재화</v>
-      </c>
-      <c r="O16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O16" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P16" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+2))</f>
-        <v>35000</v>
-      </c>
-      <c r="Q16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q16" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R16" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R16" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="S16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S16" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>35000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4439,65 +4439,65 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="e">
         <f ca="1">IF(C17&lt;&gt;1,OFFSET(D17,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A17,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J17">
+      <c r="J17" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 IF($C17=1,MATCH(OFFSET($I17,-($C17-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J17,-1,0)+OFFSET(L17,-1,0)
 ))</f>
-        <v>7</v>
-      </c>
-      <c r="K17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K17" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 IF($C17=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L17,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K17,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L17" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 IF($K17-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M17" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N17" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17))</f>
-        <v>재화</v>
-      </c>
-      <c r="O17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O17" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P17" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+2))</f>
-        <v>170</v>
-      </c>
-      <c r="Q17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q17" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R17" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S17" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>170</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4511,65 +4511,65 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="e">
         <f ca="1">IF(C18&lt;&gt;1,OFFSET(D18,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A18,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J18">
+      <c r="J18" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 IF($C18=1,MATCH(OFFSET($I18,-($C18-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J18,-1,0)+OFFSET(L18,-1,0)
 ))</f>
-        <v>8</v>
-      </c>
-      <c r="K18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K18" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 IF($C18=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L18,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K18,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L18" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 IF($K18-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M18" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N18" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18))</f>
-        <v>재화</v>
-      </c>
-      <c r="O18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O18" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P18" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+2))</f>
-        <v>150</v>
-      </c>
-      <c r="Q18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q18" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R18" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R18" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S18" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>150</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4583,65 +4583,65 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="e">
         <f ca="1">IF(C19&lt;&gt;1,OFFSET(D19,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A19,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J19">
+      <c r="J19" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 IF($C19=1,MATCH(OFFSET($I19,-($C19-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J19,-1,0)+OFFSET(L19,-1,0)
 ))</f>
-        <v>9</v>
-      </c>
-      <c r="K19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K19" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 IF($C19=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L19,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K19,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L19" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 IF($K19-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M19" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N19" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19))</f>
-        <v>재화</v>
-      </c>
-      <c r="O19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O19" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P19" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+2))</f>
-        <v>20000</v>
-      </c>
-      <c r="Q19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q19" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R19" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="S19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S19" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>20000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4655,65 +4655,65 @@
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="e">
         <f ca="1">IF(C20&lt;&gt;1,OFFSET(D20,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A20,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J20">
+      <c r="J20" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 IF($C20=1,MATCH(OFFSET($I20,-($C20-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J20,-1,0)+OFFSET(L20,-1,0)
 ))</f>
-        <v>9</v>
-      </c>
-      <c r="K20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K20" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 IF($C20=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L20,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K20,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L20" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 IF($K20-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M20" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N20" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20))</f>
-        <v>재화</v>
-      </c>
-      <c r="O20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O20" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P20" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+2))</f>
-        <v>150</v>
-      </c>
-      <c r="Q20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q20" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R20" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R20" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S20" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>150</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4727,65 +4727,65 @@
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="e">
         <f ca="1">IF(C21&lt;&gt;1,OFFSET(D21,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A21,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J21">
+      <c r="J21" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 IF($C21=1,MATCH(OFFSET($I21,-($C21-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J21,-1,0)+OFFSET(L21,-1,0)
 ))</f>
-        <v>9</v>
-      </c>
-      <c r="K21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K21" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 IF($C21=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L21,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K21,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L21" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 IF($K21-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M21" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N21" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21))</f>
-        <v>재화</v>
-      </c>
-      <c r="O21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O21" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P21" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+2))</f>
-        <v>35000</v>
-      </c>
-      <c r="Q21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q21" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R21" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R21" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="S21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S21" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>35000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4799,65 +4799,65 @@
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="e">
         <f ca="1">IF(C22&lt;&gt;1,OFFSET(D22,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A22,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J22">
+      <c r="J22" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($C22=1,MATCH(OFFSET($I22,-($C22-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J22,-1,0)+OFFSET(L22,-1,0)
 ))</f>
-        <v>9</v>
-      </c>
-      <c r="K22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K22" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($C22=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L22,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K22,-1,0)+4)))</f>
-        <v>25</v>
-      </c>
-      <c r="L22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L22" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($K22-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M22" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N22" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22))</f>
-        <v>재화</v>
-      </c>
-      <c r="O22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O22" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P22" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+2))</f>
-        <v>200</v>
-      </c>
-      <c r="Q22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q22" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R22" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R22" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S22" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>200</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4871,65 +4871,65 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="e">
         <f ca="1">IF(C23&lt;&gt;1,OFFSET(D23,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A23,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J23">
+      <c r="J23" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($C23=1,MATCH(OFFSET($I23,-($C23-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J23,-1,0)+OFFSET(L23,-1,0)
 ))</f>
-        <v>10</v>
-      </c>
-      <c r="K23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($C23=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L23,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K23,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($K23-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23))</f>
-        <v>재화</v>
-      </c>
-      <c r="O23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P23" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+2))</f>
-        <v>150</v>
-      </c>
-      <c r="Q23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q23" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R23" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R23" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>EN</v>
-      </c>
-      <c r="S23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S23" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>150</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4943,65 +4943,65 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="e">
         <f ca="1">IF(C24&lt;&gt;1,OFFSET(D24,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A24,[1]ShopProductTable!$E:$E))</f>
-        <v>10</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J24">
+      <c r="J24" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($C24=1,MATCH(OFFSET($I24,-($C24-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J24,-1,0)+OFFSET(L24,-1,0)
 ))</f>
-        <v>10</v>
-      </c>
-      <c r="K24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K24" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($C24=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L24,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K24,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L24" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($K24-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M24" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>cu</v>
-      </c>
-      <c r="N24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N24" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
-        <v>재화</v>
-      </c>
-      <c r="O24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O24" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P24" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+2))</f>
-        <v>20000</v>
-      </c>
-      <c r="Q24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q24" t="e">
         <f t="shared" ca="1" si="9"/>
-        <v>cu</v>
-      </c>
-      <c r="R24" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R24" t="e">
         <f t="shared" ca="1" si="10"/>
-        <v>GO</v>
-      </c>
-      <c r="S24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S24" t="e">
         <f t="shared" ca="1" si="11"/>
-        <v>20000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5015,10 +5015,10 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="e">
         <f ca="1">IF(C25&lt;&gt;1,OFFSET(D25,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A25,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5041,48 +5041,48 @@
 OFFSET(K25,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF($K25-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M25" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M25" t="e">
         <f t="shared" ref="M25:M35" ca="1" si="12">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF(ISBLANK(N25),"",
 VLOOKUP(N25,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>cu</v>
-      </c>
-      <c r="N25" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N25" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25))</f>
-        <v>재화</v>
-      </c>
-      <c r="O25" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O25" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P25" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25+2))</f>
-        <v>350</v>
-      </c>
-      <c r="Q25" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q25" t="e">
         <f t="shared" ref="Q25" ca="1" si="13">IF(LEN(E25)&lt;&gt;0,E25,
 IF(LEN(M25)&lt;&gt;0,M25,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="R25" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R25" t="e">
         <f t="shared" ref="R25" ca="1" si="14">IF(LEN(G25)&lt;&gt;0,G25,
 IF(LEN(O25)&lt;&gt;0,O25,""))</f>
-        <v>EN</v>
-      </c>
-      <c r="S25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S25" t="e">
         <f t="shared" ref="S25" ca="1" si="15">IF(LEN(H25)&lt;&gt;0,H25,
 IF(LEN(P25)&lt;&gt;0,P25,""))</f>
-        <v>350</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5096,68 +5096,68 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="e">
         <f ca="1">IF(C26&lt;&gt;1,OFFSET(D26,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A26,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J26">
+      <c r="J26" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 IF($C26=1,MATCH(OFFSET($I26,-($C26-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J26,-1,0)+OFFSET(L26,-1,0)
 ))</f>
-        <v>11</v>
-      </c>
-      <c r="K26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K26" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 IF($C26=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L26,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K26,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L26" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 IF($K26-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M26" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M26" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N26" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N26" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26))</f>
-        <v>재화</v>
-      </c>
-      <c r="O26" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O26" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P26" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26+2))</f>
-        <v>80000</v>
-      </c>
-      <c r="Q26" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q26" t="e">
         <f t="shared" ref="Q26:Q35" ca="1" si="16">IF(LEN(E26)&lt;&gt;0,E26,
 IF(LEN(M26)&lt;&gt;0,M26,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="R26" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R26" t="e">
         <f t="shared" ref="R26:R35" ca="1" si="17">IF(LEN(G26)&lt;&gt;0,G26,
 IF(LEN(O26)&lt;&gt;0,O26,""))</f>
-        <v>GO</v>
-      </c>
-      <c r="S26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S26" t="e">
         <f t="shared" ref="S26:S35" ca="1" si="18">IF(LEN(H26)&lt;&gt;0,H26,
 IF(LEN(P26)&lt;&gt;0,P26,""))</f>
-        <v>80000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5171,65 +5171,65 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="e">
         <f ca="1">IF(C27&lt;&gt;1,OFFSET(D27,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A27,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J27">
+      <c r="J27" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 IF($C27=1,MATCH(OFFSET($I27,-($C27-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J27,-1,0)+OFFSET(L27,-1,0)
 ))</f>
-        <v>11</v>
-      </c>
-      <c r="K27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K27" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 IF($C27=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L27,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K27,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L27" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 IF($K27-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M27" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M27" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N27" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N27" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27))</f>
-        <v>재화</v>
-      </c>
-      <c r="O27" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O27" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P27" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27+2))</f>
-        <v>800</v>
-      </c>
-      <c r="Q27" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q27" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R27" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R27" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>EN</v>
-      </c>
-      <c r="S27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S27" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>800</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5243,65 +5243,65 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="e">
         <f ca="1">IF(C28&lt;&gt;1,OFFSET(D28,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A28,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J28">
+      <c r="J28" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 IF($C28=1,MATCH(OFFSET($I28,-($C28-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J28,-1,0)+OFFSET(L28,-1,0)
 ))</f>
-        <v>11</v>
-      </c>
-      <c r="K28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K28" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 IF($C28=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L28,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K28,-1,0)+4)))</f>
-        <v>25</v>
-      </c>
-      <c r="L28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L28" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 IF($K28-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M28" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M28" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N28" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N28" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28))</f>
-        <v>재화</v>
-      </c>
-      <c r="O28" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O28" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P28" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28+2))</f>
-        <v>100000</v>
-      </c>
-      <c r="Q28" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q28" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R28" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R28" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>GO</v>
-      </c>
-      <c r="S28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S28" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>100000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5315,65 +5315,65 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="e">
         <f ca="1">IF(C29&lt;&gt;1,OFFSET(D29,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A29,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J29">
+      <c r="J29" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 IF($C29=1,MATCH(OFFSET($I29,-($C29-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J29,-1,0)+OFFSET(L29,-1,0)
 ))</f>
-        <v>12</v>
-      </c>
-      <c r="K29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K29" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 IF($C29=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L29,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K29,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L29" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 IF($K29-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M29" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M29" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N29" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N29" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29))</f>
-        <v>재화</v>
-      </c>
-      <c r="O29" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O29" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P29" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29+2))</f>
-        <v>50000</v>
-      </c>
-      <c r="Q29" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q29" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R29" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R29" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>GO</v>
-      </c>
-      <c r="S29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S29" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>50000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5387,65 +5387,65 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="e">
         <f ca="1">IF(C30&lt;&gt;1,OFFSET(D30,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A30,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J30">
+      <c r="J30" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 IF($C30=1,MATCH(OFFSET($I30,-($C30-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J30,-1,0)+OFFSET(L30,-1,0)
 ))</f>
-        <v>12</v>
-      </c>
-      <c r="K30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K30" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 IF($C30=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L30,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K30,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L30" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 IF($K30-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M30" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N30" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30))</f>
-        <v>재화</v>
-      </c>
-      <c r="O30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O30" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P30" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30+2))</f>
-        <v>500</v>
-      </c>
-      <c r="Q30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q30" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R30" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>EN</v>
-      </c>
-      <c r="S30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S30" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>500</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5459,65 +5459,65 @@
       <c r="C31">
         <v>7</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="e">
         <f ca="1">IF(C31&lt;&gt;1,OFFSET(D31,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A31,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J31">
+      <c r="J31" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 IF($C31=1,MATCH(OFFSET($I31,-($C31-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J31,-1,0)+OFFSET(L31,-1,0)
 ))</f>
-        <v>12</v>
-      </c>
-      <c r="K31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K31" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 IF($C31=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L31,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K31,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L31" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 IF($K31-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M31" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N31" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31))</f>
-        <v>재화</v>
-      </c>
-      <c r="O31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O31" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P31" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31+2))</f>
-        <v>70000</v>
-      </c>
-      <c r="Q31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q31" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R31" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R31" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>GO</v>
-      </c>
-      <c r="S31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S31" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>70000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5531,65 +5531,65 @@
       <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="e">
         <f ca="1">IF(C32&lt;&gt;1,OFFSET(D32,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A32,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J32">
+      <c r="J32" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 IF($C32=1,MATCH(OFFSET($I32,-($C32-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J32,-1,0)+OFFSET(L32,-1,0)
 ))</f>
-        <v>13</v>
-      </c>
-      <c r="K32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K32" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 IF($C32=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L32,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K32,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L32" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 IF($K32-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M32" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M32" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N32" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N32" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32))</f>
-        <v>재화</v>
-      </c>
-      <c r="O32" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O32" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P32" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32+2))</f>
-        <v>450</v>
-      </c>
-      <c r="Q32" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q32" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R32" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R32" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>EN</v>
-      </c>
-      <c r="S32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S32" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>450</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5603,65 +5603,65 @@
       <c r="C33">
         <v>9</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="e">
         <f ca="1">IF(C33&lt;&gt;1,OFFSET(D33,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A33,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J33">
+      <c r="J33" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 IF($C33=1,MATCH(OFFSET($I33,-($C33-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J33,-1,0)+OFFSET(L33,-1,0)
 ))</f>
-        <v>13</v>
-      </c>
-      <c r="K33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K33" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 IF($C33=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L33,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K33,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L33" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 IF($K33-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M33" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N33" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33))</f>
-        <v>재화</v>
-      </c>
-      <c r="O33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O33" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P33" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33+2))</f>
-        <v>60000</v>
-      </c>
-      <c r="Q33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q33" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R33" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R33" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>GO</v>
-      </c>
-      <c r="S33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S33" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>60000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5675,65 +5675,65 @@
       <c r="C34">
         <v>10</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="e">
         <f ca="1">IF(C34&lt;&gt;1,OFFSET(D34,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A34,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J34">
+      <c r="J34" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 IF($C34=1,MATCH(OFFSET($I34,-($C34-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J34,-1,0)+OFFSET(L34,-1,0)
 ))</f>
-        <v>13</v>
-      </c>
-      <c r="K34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K34" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 IF($C34=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L34,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K34,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L34" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 IF($K34-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M34" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M34" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N34" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N34" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34))</f>
-        <v>재화</v>
-      </c>
-      <c r="O34" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O34" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P34" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34+2))</f>
-        <v>90000</v>
-      </c>
-      <c r="Q34" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q34" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R34" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R34" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>GO</v>
-      </c>
-      <c r="S34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S34" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>90000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5747,65 +5747,65 @@
       <c r="C35">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="e">
         <f ca="1">IF(C35&lt;&gt;1,OFFSET(D35,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A35,[1]ShopProductTable!$E:$E))</f>
-        <v>11</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J35">
+      <c r="J35" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 IF($C35=1,MATCH(OFFSET($I35,-($C35-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J35,-1,0)+OFFSET(L35,-1,0)
 ))</f>
-        <v>13</v>
-      </c>
-      <c r="K35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K35" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 IF($C35=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L35,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K35,-1,0)+4)))</f>
-        <v>25</v>
-      </c>
-      <c r="L35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L35" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 IF($K35-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M35" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M35" t="e">
         <f t="shared" ca="1" si="12"/>
-        <v>cu</v>
-      </c>
-      <c r="N35" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N35" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35))</f>
-        <v>재화</v>
-      </c>
-      <c r="O35" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O35" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P35" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35+2))</f>
-        <v>650</v>
-      </c>
-      <c r="Q35" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q35" t="e">
         <f t="shared" ca="1" si="16"/>
-        <v>cu</v>
-      </c>
-      <c r="R35" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R35" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>EN</v>
-      </c>
-      <c r="S35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S35" t="e">
         <f t="shared" ca="1" si="18"/>
-        <v>650</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5819,10 +5819,10 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="e">
         <f ca="1">IF(C36&lt;&gt;1,OFFSET(D36,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A36,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5845,48 +5845,48 @@
 OFFSET(K36,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 IF($K36-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M36" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M36" t="e">
         <f t="shared" ref="M36:M47" ca="1" si="19">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 IF(ISBLANK(N36),"",
 VLOOKUP(N36,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>cu</v>
-      </c>
-      <c r="N36" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N36" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36))</f>
-        <v>재화</v>
-      </c>
-      <c r="O36" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O36" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P36" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36+2))</f>
-        <v>100</v>
-      </c>
-      <c r="Q36" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q36" t="e">
         <f t="shared" ref="Q36:Q47" ca="1" si="20">IF(LEN(E36)&lt;&gt;0,E36,
 IF(LEN(M36)&lt;&gt;0,M36,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="R36" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R36" t="e">
         <f t="shared" ref="R36:R47" ca="1" si="21">IF(LEN(G36)&lt;&gt;0,G36,
 IF(LEN(O36)&lt;&gt;0,O36,""))</f>
-        <v>EN</v>
-      </c>
-      <c r="S36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S36" t="e">
         <f t="shared" ref="S36:S47" ca="1" si="22">IF(LEN(H36)&lt;&gt;0,H36,
 IF(LEN(P36)&lt;&gt;0,P36,""))</f>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5900,65 +5900,65 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="e">
         <f ca="1">IF(C37&lt;&gt;1,OFFSET(D37,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A37,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J37">
+      <c r="J37" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 IF($C37=1,MATCH(OFFSET($I37,-($C37-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J37,-1,0)+OFFSET(L37,-1,0)
 ))</f>
-        <v>14</v>
-      </c>
-      <c r="K37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K37" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 IF($C37=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L37,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K37,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L37" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 IF($K37-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M37" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M37" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N37" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N37" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37))</f>
-        <v>재화</v>
-      </c>
-      <c r="O37" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O37" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P37" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37+2))</f>
-        <v>50</v>
-      </c>
-      <c r="Q37" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q37" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R37" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R37" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>EN</v>
-      </c>
-      <c r="S37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S37" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>50</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5972,65 +5972,65 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="e">
         <f ca="1">IF(C38&lt;&gt;1,OFFSET(D38,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A38,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J38">
+      <c r="J38" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 IF($C38=1,MATCH(OFFSET($I38,-($C38-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J38,-1,0)+OFFSET(L38,-1,0)
 ))</f>
-        <v>14</v>
-      </c>
-      <c r="K38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K38" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 IF($C38=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L38,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K38,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L38" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 IF($K38-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M38" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M38" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N38" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N38" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38))</f>
-        <v>재화</v>
-      </c>
-      <c r="O38" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O38" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P38" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38+2))</f>
-        <v>10000</v>
-      </c>
-      <c r="Q38" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q38" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R38" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R38" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>GO</v>
-      </c>
-      <c r="S38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S38" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>10000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6044,65 +6044,65 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="e">
         <f ca="1">IF(C39&lt;&gt;1,OFFSET(D39,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A39,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J39">
+      <c r="J39" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 IF($C39=1,MATCH(OFFSET($I39,-($C39-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J39,-1,0)+OFFSET(L39,-1,0)
 ))</f>
-        <v>15</v>
-      </c>
-      <c r="K39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K39" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 IF($C39=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L39,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K39,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L39" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 IF($K39-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M39" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M39" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>it</v>
-      </c>
-      <c r="N39" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N39" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39))</f>
-        <v>아이템</v>
-      </c>
-      <c r="O39" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O39" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+1))</f>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="P39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P39" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+2))</f>
-        <v>500</v>
-      </c>
-      <c r="Q39" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q39" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>it</v>
-      </c>
-      <c r="R39" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R39" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="S39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S39" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>500</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6116,65 +6116,65 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="e">
         <f ca="1">IF(C40&lt;&gt;1,OFFSET(D40,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A40,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J40">
+      <c r="J40" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 IF($C40=1,MATCH(OFFSET($I40,-($C40-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J40,-1,0)+OFFSET(L40,-1,0)
 ))</f>
-        <v>15</v>
-      </c>
-      <c r="K40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K40" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 IF($C40=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L40,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K40,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L40" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 IF($K40-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M40" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M40" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N40" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N40" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40))</f>
-        <v>재화</v>
-      </c>
-      <c r="O40" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O40" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P40" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40+2))</f>
-        <v>75</v>
-      </c>
-      <c r="Q40" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q40" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R40" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R40" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>EN</v>
-      </c>
-      <c r="S40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S40" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6188,65 +6188,65 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="e">
         <f ca="1">IF(C41&lt;&gt;1,OFFSET(D41,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A41,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J41">
+      <c r="J41" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 IF($C41=1,MATCH(OFFSET($I41,-($C41-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J41,-1,0)+OFFSET(L41,-1,0)
 ))</f>
-        <v>15</v>
-      </c>
-      <c r="K41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K41" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 IF($C41=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L41,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K41,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L41" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 IF($K41-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M41" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M41" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N41" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N41" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41))</f>
-        <v>재화</v>
-      </c>
-      <c r="O41" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O41" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P41" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+2))</f>
-        <v>20000</v>
-      </c>
-      <c r="Q41" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q41" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R41" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R41" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>GO</v>
-      </c>
-      <c r="S41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S41" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>20000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6260,65 +6260,65 @@
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="e">
         <f ca="1">IF(C42&lt;&gt;1,OFFSET(D42,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A42,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J42">
+      <c r="J42" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 IF($C42=1,MATCH(OFFSET($I42,-($C42-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J42,-1,0)+OFFSET(L42,-1,0)
 ))</f>
-        <v>16</v>
-      </c>
-      <c r="K42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K42" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 IF($C42=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L42,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K42,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L42" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 IF($K42-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M42" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M42" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N42" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N42" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42))</f>
-        <v>재화</v>
-      </c>
-      <c r="O42" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O42" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P42" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42+2))</f>
-        <v>300</v>
-      </c>
-      <c r="Q42" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q42" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R42" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R42" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>EN</v>
-      </c>
-      <c r="S42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S42" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>300</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6332,65 +6332,65 @@
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="e">
         <f ca="1">IF(C43&lt;&gt;1,OFFSET(D43,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A43,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J43">
+      <c r="J43" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 IF($C43=1,MATCH(OFFSET($I43,-($C43-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J43,-1,0)+OFFSET(L43,-1,0)
 ))</f>
-        <v>16</v>
-      </c>
-      <c r="K43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K43" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 IF($C43=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L43,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K43,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L43" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 IF($K43-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M43" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M43" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N43" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N43" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43))</f>
-        <v>재화</v>
-      </c>
-      <c r="O43" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O43" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P43" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43+2))</f>
-        <v>100</v>
-      </c>
-      <c r="Q43" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q43" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R43" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R43" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>EN</v>
-      </c>
-      <c r="S43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S43" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6404,65 +6404,65 @@
       <c r="C44">
         <v>9</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="e">
         <f ca="1">IF(C44&lt;&gt;1,OFFSET(D44,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A44,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J44">
+      <c r="J44" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 IF($C44=1,MATCH(OFFSET($I44,-($C44-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J44,-1,0)+OFFSET(L44,-1,0)
 ))</f>
-        <v>16</v>
-      </c>
-      <c r="K44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K44" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 IF($C44=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L44,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K44,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L44" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 IF($K44-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M44" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N44" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N44" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44))</f>
-        <v>재화</v>
-      </c>
-      <c r="O44" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O44" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P44" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+2))</f>
-        <v>40000</v>
-      </c>
-      <c r="Q44" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q44" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R44" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R44" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>GO</v>
-      </c>
-      <c r="S44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S44" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>40000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6476,65 +6476,65 @@
       <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="e">
         <f ca="1">IF(C45&lt;&gt;1,OFFSET(D45,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A45,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J45">
+      <c r="J45" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 IF($C45=1,MATCH(OFFSET($I45,-($C45-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J45,-1,0)+OFFSET(L45,-1,0)
 ))</f>
-        <v>17</v>
-      </c>
-      <c r="K45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K45" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 IF($C45=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L45,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K45,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L45" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 IF($K45-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>it</v>
-      </c>
-      <c r="N45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N45" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45))</f>
-        <v>아이템</v>
-      </c>
-      <c r="O45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O45" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+1))</f>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="P45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P45" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+2))</f>
-        <v>1500</v>
-      </c>
-      <c r="Q45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q45" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>it</v>
-      </c>
-      <c r="R45" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R45" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="S45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S45" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>1500</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6548,65 +6548,65 @@
       <c r="C46">
         <v>11</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="e">
         <f ca="1">IF(C46&lt;&gt;1,OFFSET(D46,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A46,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J46">
+      <c r="J46" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 IF($C46=1,MATCH(OFFSET($I46,-($C46-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J46,-1,0)+OFFSET(L46,-1,0)
 ))</f>
-        <v>17</v>
-      </c>
-      <c r="K46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 IF($C46=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L46,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K46,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L46" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 IF($K46-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N46" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46))</f>
-        <v>재화</v>
-      </c>
-      <c r="O46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O46" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P46" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46+2))</f>
-        <v>500</v>
-      </c>
-      <c r="Q46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q46" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R46" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R46" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>EN</v>
-      </c>
-      <c r="S46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S46" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>500</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6620,65 +6620,65 @@
       <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="e">
         <f ca="1">IF(C47&lt;&gt;1,OFFSET(D47,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A47,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J47">
+      <c r="J47" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 IF($C47=1,MATCH(OFFSET($I47,-($C47-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J47,-1,0)+OFFSET(L47,-1,0)
 ))</f>
-        <v>17</v>
-      </c>
-      <c r="K47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K47" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 IF($C47=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L47,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K47,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L47" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 IF($K47-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M47" t="e">
         <f t="shared" ca="1" si="19"/>
-        <v>cu</v>
-      </c>
-      <c r="N47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N47" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47))</f>
-        <v>재화</v>
-      </c>
-      <c r="O47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O47" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P47" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+2))</f>
-        <v>60000</v>
-      </c>
-      <c r="Q47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q47" t="e">
         <f t="shared" ca="1" si="20"/>
-        <v>cu</v>
-      </c>
-      <c r="R47" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R47" t="e">
         <f t="shared" ca="1" si="21"/>
-        <v>GO</v>
-      </c>
-      <c r="S47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S47" t="e">
         <f t="shared" ca="1" si="22"/>
-        <v>60000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6692,10 +6692,10 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="e">
         <f ca="1">IF(C48&lt;&gt;1,OFFSET(D48,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A48,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6718,48 +6718,48 @@
 OFFSET(K48,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 IF($K48-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M48" t="e">
         <f t="shared" ref="M48:M71" ca="1" si="23">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 IF(ISBLANK(N48),"",
 VLOOKUP(N48,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>cu</v>
-      </c>
-      <c r="N48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N48" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48))</f>
-        <v>재화</v>
-      </c>
-      <c r="O48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O48" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P48" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48+2))</f>
-        <v>100</v>
-      </c>
-      <c r="Q48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q48" t="e">
         <f t="shared" ref="Q48:Q71" ca="1" si="24">IF(LEN(E48)&lt;&gt;0,E48,
 IF(LEN(M48)&lt;&gt;0,M48,""))</f>
-        <v>cu</v>
-      </c>
-      <c r="R48" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R48" t="e">
         <f t="shared" ref="R48:R71" ca="1" si="25">IF(LEN(G48)&lt;&gt;0,G48,
 IF(LEN(O48)&lt;&gt;0,O48,""))</f>
-        <v>EN</v>
-      </c>
-      <c r="S48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S48" t="e">
         <f t="shared" ref="S48:S71" ca="1" si="26">IF(LEN(H48)&lt;&gt;0,H48,
 IF(LEN(P48)&lt;&gt;0,P48,""))</f>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6773,65 +6773,65 @@
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="e">
         <f ca="1">IF(C49&lt;&gt;1,OFFSET(D49,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A49,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J49">
+      <c r="J49" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 IF($C49=1,MATCH(OFFSET($I49,-($C49-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J49,-1,0)+OFFSET(L49,-1,0)
 ))</f>
-        <v>18</v>
-      </c>
-      <c r="K49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K49" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 IF($C49=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L49,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K49,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L49" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 IF($K49-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M49" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N49" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49))</f>
-        <v>재화</v>
-      </c>
-      <c r="O49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O49" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P49" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49+2))</f>
-        <v>50</v>
-      </c>
-      <c r="Q49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q49" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R49" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R49" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S49" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>50</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6845,65 +6845,65 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="e">
         <f ca="1">IF(C50&lt;&gt;1,OFFSET(D50,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A50,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J50">
+      <c r="J50" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 IF($C50=1,MATCH(OFFSET($I50,-($C50-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J50,-1,0)+OFFSET(L50,-1,0)
 ))</f>
-        <v>18</v>
-      </c>
-      <c r="K50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K50" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 IF($C50=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L50,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K50,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L50" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 IF($K50-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M50" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N50" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50))</f>
-        <v>재화</v>
-      </c>
-      <c r="O50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O50" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P50" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+2))</f>
-        <v>10000</v>
-      </c>
-      <c r="Q50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q50" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R50" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R50" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S50" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>10000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6917,65 +6917,65 @@
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="e">
         <f ca="1">IF(C51&lt;&gt;1,OFFSET(D51,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A51,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J51">
+      <c r="J51" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 IF($C51=1,MATCH(OFFSET($I51,-($C51-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J51,-1,0)+OFFSET(L51,-1,0)
 ))</f>
-        <v>19</v>
-      </c>
-      <c r="K51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K51" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 IF($C51=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L51,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K51,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L51" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 IF($K51-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M51" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>it</v>
-      </c>
-      <c r="N51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N51" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51))</f>
-        <v>아이템</v>
-      </c>
-      <c r="O51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O51" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+1))</f>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="P51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P51" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+2))</f>
-        <v>400</v>
-      </c>
-      <c r="Q51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q51" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>it</v>
-      </c>
-      <c r="R51" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R51" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="S51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S51" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>400</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6989,65 +6989,65 @@
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="e">
         <f ca="1">IF(C52&lt;&gt;1,OFFSET(D52,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A52,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J52">
+      <c r="J52" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 IF($C52=1,MATCH(OFFSET($I52,-($C52-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J52,-1,0)+OFFSET(L52,-1,0)
 ))</f>
-        <v>19</v>
-      </c>
-      <c r="K52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K52" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 IF($C52=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L52,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K52,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L52" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 IF($K52-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M52" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N52" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52))</f>
-        <v>재화</v>
-      </c>
-      <c r="O52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O52" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P52" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52+2))</f>
-        <v>75</v>
-      </c>
-      <c r="Q52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q52" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R52" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R52" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S52" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -7061,65 +7061,65 @@
       <c r="C53">
         <v>6</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="e">
         <f ca="1">IF(C53&lt;&gt;1,OFFSET(D53,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A53,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J53">
+      <c r="J53" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 IF($C53=1,MATCH(OFFSET($I53,-($C53-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J53,-1,0)+OFFSET(L53,-1,0)
 ))</f>
-        <v>19</v>
-      </c>
-      <c r="K53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K53" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 IF($C53=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L53,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K53,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L53" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 IF($K53-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M53" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M53" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N53" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N53" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53))</f>
-        <v>재화</v>
-      </c>
-      <c r="O53" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O53" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P53" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+2))</f>
-        <v>20000</v>
-      </c>
-      <c r="Q53" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q53" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R53" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R53" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S53" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>20000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -7133,65 +7133,65 @@
       <c r="C54">
         <v>7</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="e">
         <f ca="1">IF(C54&lt;&gt;1,OFFSET(D54,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A54,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J54">
+      <c r="J54" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 IF($C54=1,MATCH(OFFSET($I54,-($C54-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J54,-1,0)+OFFSET(L54,-1,0)
 ))</f>
-        <v>20</v>
-      </c>
-      <c r="K54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K54" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 IF($C54=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L54,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K54,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L54" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 IF($K54-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M54" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M54" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N54" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N54" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54))</f>
-        <v>재화</v>
-      </c>
-      <c r="O54" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O54" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P54" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54+2))</f>
-        <v>300</v>
-      </c>
-      <c r="Q54" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q54" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R54" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R54" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S54" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>300</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -7205,65 +7205,65 @@
       <c r="C55">
         <v>8</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="e">
         <f ca="1">IF(C55&lt;&gt;1,OFFSET(D55,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A55,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J55">
+      <c r="J55" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 IF($C55=1,MATCH(OFFSET($I55,-($C55-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J55,-1,0)+OFFSET(L55,-1,0)
 ))</f>
-        <v>20</v>
-      </c>
-      <c r="K55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K55" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 IF($C55=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L55,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K55,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L55" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 IF($K55-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M55" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N55" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55))</f>
-        <v>재화</v>
-      </c>
-      <c r="O55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O55" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P55" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55+2))</f>
-        <v>100</v>
-      </c>
-      <c r="Q55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q55" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R55" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R55" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S55" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7277,65 +7277,65 @@
       <c r="C56">
         <v>9</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="e">
         <f ca="1">IF(C56&lt;&gt;1,OFFSET(D56,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A56,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J56">
+      <c r="J56" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 IF($C56=1,MATCH(OFFSET($I56,-($C56-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J56,-1,0)+OFFSET(L56,-1,0)
 ))</f>
-        <v>20</v>
-      </c>
-      <c r="K56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K56" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 IF($C56=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L56,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K56,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L56" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 IF($K56-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M56" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M56" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N56" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N56" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56))</f>
-        <v>재화</v>
-      </c>
-      <c r="O56" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O56" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P56" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+2))</f>
-        <v>40000</v>
-      </c>
-      <c r="Q56" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q56" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R56" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R56" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S56" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>40000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7349,65 +7349,65 @@
       <c r="C57">
         <v>10</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="e">
         <f ca="1">IF(C57&lt;&gt;1,OFFSET(D57,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A57,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J57">
+      <c r="J57" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 IF($C57=1,MATCH(OFFSET($I57,-($C57-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J57,-1,0)+OFFSET(L57,-1,0)
 ))</f>
-        <v>21</v>
-      </c>
-      <c r="K57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K57" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 IF($C57=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L57,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K57,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L57" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 IF($K57-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M57" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M57" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>it</v>
-      </c>
-      <c r="N57" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N57" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57))</f>
-        <v>아이템</v>
-      </c>
-      <c r="O57" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O57" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+1))</f>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="P57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P57" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+2))</f>
-        <v>1200</v>
-      </c>
-      <c r="Q57" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q57" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>it</v>
-      </c>
-      <c r="R57" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R57" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="S57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S57" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>1200</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7421,65 +7421,65 @@
       <c r="C58">
         <v>11</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="e">
         <f ca="1">IF(C58&lt;&gt;1,OFFSET(D58,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A58,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J58">
+      <c r="J58" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 IF($C58=1,MATCH(OFFSET($I58,-($C58-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J58,-1,0)+OFFSET(L58,-1,0)
 ))</f>
-        <v>21</v>
-      </c>
-      <c r="K58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K58" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 IF($C58=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L58,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K58,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L58" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 IF($K58-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M58" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M58" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N58" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N58" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58))</f>
-        <v>재화</v>
-      </c>
-      <c r="O58" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O58" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P58" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58+2))</f>
-        <v>500</v>
-      </c>
-      <c r="Q58" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q58" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R58" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R58" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S58" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>500</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -7493,65 +7493,65 @@
       <c r="C59">
         <v>12</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="e">
         <f ca="1">IF(C59&lt;&gt;1,OFFSET(D59,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A59,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J59">
+      <c r="J59" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 IF($C59=1,MATCH(OFFSET($I59,-($C59-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J59,-1,0)+OFFSET(L59,-1,0)
 ))</f>
-        <v>21</v>
-      </c>
-      <c r="K59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K59" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 IF($C59=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L59,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K59,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L59" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 IF($K59-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M59" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M59" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N59" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N59" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59))</f>
-        <v>재화</v>
-      </c>
-      <c r="O59" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O59" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P59" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+2))</f>
-        <v>60000</v>
-      </c>
-      <c r="Q59" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q59" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R59" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R59" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S59" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>60000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -7565,10 +7565,10 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="e">
         <f ca="1">IF(C60&lt;&gt;1,OFFSET(D60,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A60,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7591,42 +7591,42 @@
 OFFSET(K60,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 IF($K60-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M60" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M60" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N60" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N60" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60))</f>
-        <v>재화</v>
-      </c>
-      <c r="O60" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O60" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P60" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60+2))</f>
-        <v>100</v>
-      </c>
-      <c r="Q60" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q60" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R60" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R60" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S60" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7640,65 +7640,65 @@
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="e">
         <f ca="1">IF(C61&lt;&gt;1,OFFSET(D61,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A61,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J61">
+      <c r="J61" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 IF($C61=1,MATCH(OFFSET($I61,-($C61-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J61,-1,0)+OFFSET(L61,-1,0)
 ))</f>
-        <v>22</v>
-      </c>
-      <c r="K61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K61" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 IF($C61=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L61,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K61,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L61" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 IF($K61-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M61" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M61" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N61" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N61" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61))</f>
-        <v>재화</v>
-      </c>
-      <c r="O61" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O61" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P61" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61+2))</f>
-        <v>50</v>
-      </c>
-      <c r="Q61" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q61" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R61" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R61" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S61" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>50</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7712,65 +7712,65 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="e">
         <f ca="1">IF(C62&lt;&gt;1,OFFSET(D62,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A62,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J62">
+      <c r="J62" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 IF($C62=1,MATCH(OFFSET($I62,-($C62-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J62,-1,0)+OFFSET(L62,-1,0)
 ))</f>
-        <v>22</v>
-      </c>
-      <c r="K62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K62" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 IF($C62=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L62,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K62,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L62" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 IF($K62-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M62" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M62" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N62" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N62" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62))</f>
-        <v>재화</v>
-      </c>
-      <c r="O62" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O62" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P62" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+2))</f>
-        <v>10000</v>
-      </c>
-      <c r="Q62" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q62" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R62" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R62" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S62" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>10000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7784,65 +7784,65 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="e">
         <f ca="1">IF(C63&lt;&gt;1,OFFSET(D63,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A63,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J63">
+      <c r="J63" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 IF($C63=1,MATCH(OFFSET($I63,-($C63-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J63,-1,0)+OFFSET(L63,-1,0)
 ))</f>
-        <v>23</v>
-      </c>
-      <c r="K63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K63" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 IF($C63=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L63,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K63,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L63" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 IF($K63-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M63" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M63" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>it</v>
-      </c>
-      <c r="N63" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N63" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63))</f>
-        <v>아이템</v>
-      </c>
-      <c r="O63" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O63" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+1))</f>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="P63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P63" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+2))</f>
-        <v>300</v>
-      </c>
-      <c r="Q63" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q63" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>it</v>
-      </c>
-      <c r="R63" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R63" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="S63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S63" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>300</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7856,65 +7856,65 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="e">
         <f ca="1">IF(C64&lt;&gt;1,OFFSET(D64,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A64,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J64">
+      <c r="J64" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 IF($C64=1,MATCH(OFFSET($I64,-($C64-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J64,-1,0)+OFFSET(L64,-1,0)
 ))</f>
-        <v>23</v>
-      </c>
-      <c r="K64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 IF($C64=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L64,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K64,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L64" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 IF($K64-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M64" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N64" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64))</f>
-        <v>재화</v>
-      </c>
-      <c r="O64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O64" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P64" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64+2))</f>
-        <v>75</v>
-      </c>
-      <c r="Q64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q64" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R64" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R64" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S64" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>75</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7928,65 +7928,65 @@
       <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="e">
         <f ca="1">IF(C65&lt;&gt;1,OFFSET(D65,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A65,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J65">
+      <c r="J65" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 IF($C65=1,MATCH(OFFSET($I65,-($C65-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J65,-1,0)+OFFSET(L65,-1,0)
 ))</f>
-        <v>23</v>
-      </c>
-      <c r="K65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K65" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 IF($C65=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L65,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K65,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L65" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 IF($K65-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M65" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M65" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N65" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N65" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65))</f>
-        <v>재화</v>
-      </c>
-      <c r="O65" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O65" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P65" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+2))</f>
-        <v>20000</v>
-      </c>
-      <c r="Q65" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q65" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R65" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R65" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S65" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>20000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -8000,10 +8000,10 @@
       <c r="C66">
         <v>7</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="e">
         <f ca="1">IF(C66&lt;&gt;1,OFFSET(D66,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A66,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66:E71" ca="1" si="27">IF(ISBLANK(F66),"",
@@ -8011,56 +8011,56 @@
 )</f>
         <v/>
       </c>
-      <c r="J66">
+      <c r="J66" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 IF($C66=1,MATCH(OFFSET($I66,-($C66-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J66,-1,0)+OFFSET(L66,-1,0)
 ))</f>
-        <v>24</v>
-      </c>
-      <c r="K66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K66" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 IF($C66=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L66,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K66,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L66" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 IF($K66-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M66" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M66" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N66" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N66" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66))</f>
-        <v>재화</v>
-      </c>
-      <c r="O66" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O66" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P66" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66+2))</f>
-        <v>300</v>
-      </c>
-      <c r="Q66" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q66" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R66" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R66" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S66" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>300</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -8074,65 +8074,65 @@
       <c r="C67">
         <v>8</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="e">
         <f ca="1">IF(C67&lt;&gt;1,OFFSET(D67,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A67,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J67">
+      <c r="J67" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 IF($C67=1,MATCH(OFFSET($I67,-($C67-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J67,-1,0)+OFFSET(L67,-1,0)
 ))</f>
-        <v>24</v>
-      </c>
-      <c r="K67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K67" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 IF($C67=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L67,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K67,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L67" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 IF($K67-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M67" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M67" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N67" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N67" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67))</f>
-        <v>재화</v>
-      </c>
-      <c r="O67" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O67" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P67" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67+2))</f>
-        <v>100</v>
-      </c>
-      <c r="Q67" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q67" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R67" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R67" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S67" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -8146,65 +8146,65 @@
       <c r="C68">
         <v>9</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="e">
         <f ca="1">IF(C68&lt;&gt;1,OFFSET(D68,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A68,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J68">
+      <c r="J68" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 IF($C68=1,MATCH(OFFSET($I68,-($C68-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J68,-1,0)+OFFSET(L68,-1,0)
 ))</f>
-        <v>24</v>
-      </c>
-      <c r="K68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K68" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 IF($C68=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L68,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K68,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L68" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 IF($K68-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M68" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M68" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N68" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N68" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68))</f>
-        <v>재화</v>
-      </c>
-      <c r="O68" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O68" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P68" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+2))</f>
-        <v>40000</v>
-      </c>
-      <c r="Q68" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q68" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R68" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R68" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S68" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>40000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -8218,65 +8218,65 @@
       <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="e">
         <f ca="1">IF(C69&lt;&gt;1,OFFSET(D69,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A69,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J69">
+      <c r="J69" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 IF($C69=1,MATCH(OFFSET($I69,-($C69-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J69,-1,0)+OFFSET(L69,-1,0)
 ))</f>
-        <v>25</v>
-      </c>
-      <c r="K69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K69" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 IF($C69=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L69,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K69,-1,0)+4)))</f>
-        <v>13</v>
-      </c>
-      <c r="L69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L69" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 IF($K69-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M69" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M69" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>it</v>
-      </c>
-      <c r="N69" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N69" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69))</f>
-        <v>아이템</v>
-      </c>
-      <c r="O69" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O69" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+1))</f>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="P69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P69" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+2))</f>
-        <v>1000</v>
-      </c>
-      <c r="Q69" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q69" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>it</v>
-      </c>
-      <c r="R69" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R69" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
-      </c>
-      <c r="S69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S69" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>1000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -8290,65 +8290,65 @@
       <c r="C70">
         <v>11</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="e">
         <f ca="1">IF(C70&lt;&gt;1,OFFSET(D70,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A70,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J70">
+      <c r="J70" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 IF($C70=1,MATCH(OFFSET($I70,-($C70-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J70,-1,0)+OFFSET(L70,-1,0)
 ))</f>
-        <v>25</v>
-      </c>
-      <c r="K70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K70" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 IF($C70=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L70,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K70,-1,0)+4)))</f>
-        <v>17</v>
-      </c>
-      <c r="L70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L70" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 IF($K70-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70-1+4))=0,1,0)))</f>
-        <v>0</v>
-      </c>
-      <c r="M70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M70" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N70" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70))</f>
-        <v>재화</v>
-      </c>
-      <c r="O70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O70" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70+1))</f>
-        <v>EN</v>
-      </c>
-      <c r="P70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P70" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70+2))</f>
-        <v>500</v>
-      </c>
-      <c r="Q70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q70" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R70" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R70" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>EN</v>
-      </c>
-      <c r="S70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S70" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>500</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -8362,65 +8362,65 @@
       <c r="C71">
         <v>12</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="e">
         <f ca="1">IF(C71&lt;&gt;1,OFFSET(D71,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A71,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J71">
+      <c r="J71" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 IF($C71=1,MATCH(OFFSET($I71,-($C71-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J71,-1,0)+OFFSET(L71,-1,0)
 ))</f>
-        <v>25</v>
-      </c>
-      <c r="K71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K71" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 IF($C71=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L71,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K71,-1,0)+4)))</f>
-        <v>21</v>
-      </c>
-      <c r="L71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L71" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 IF($K71-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71-1+4))=0,1,0)))</f>
-        <v>1</v>
-      </c>
-      <c r="M71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M71" t="e">
         <f t="shared" ca="1" si="23"/>
-        <v>cu</v>
-      </c>
-      <c r="N71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N71" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71))</f>
-        <v>재화</v>
-      </c>
-      <c r="O71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O71" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71+1))</f>
-        <v>GO</v>
-      </c>
-      <c r="P71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P71" t="e">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71+2))</f>
-        <v>60000</v>
-      </c>
-      <c r="Q71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q71" t="e">
         <f t="shared" ca="1" si="24"/>
-        <v>cu</v>
-      </c>
-      <c r="R71" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R71" t="e">
         <f t="shared" ca="1" si="25"/>
-        <v>GO</v>
-      </c>
-      <c r="S71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S71" t="e">
         <f t="shared" ca="1" si="26"/>
-        <v>60000</v>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16B90F2-A0C6-4B56-B016-CA7EA83C8342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D63D5-ABE6-404C-A730-2FB7BDF76516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -1610,7 +1610,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U11" sqref="U11"/>
+      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1878,7 +1878,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
-        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
+        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -2508,11 +2508,11 @@
         <v>10m</v>
       </c>
       <c r="I8">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v>12h</v>
+        <v/>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
@@ -2587,11 +2587,11 @@
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="11"/>
-        <v>"ev7":43200</v>
+        <v>"ev7":0</v>
       </c>
       <c r="AG8" t="s">
         <v>106</v>
@@ -2620,11 +2620,11 @@
         <v>10m</v>
       </c>
       <c r="I9">
-        <v>43200</v>
+        <v>0</v>
       </c>
       <c r="J9" t="str">
         <f t="shared" si="0"/>
-        <v>12h</v>
+        <v/>
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
@@ -2699,11 +2699,11 @@
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="11"/>
-        <v>"ev8":43200</v>
+        <v>"ev8":0</v>
       </c>
       <c r="AG9" t="s">
         <v>93</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="11"/>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="AD11" t="str">
         <f t="shared" ref="AD11:AD14" si="30">AD10&amp;","&amp;AE11</f>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" ref="AE11:AE14" si="31">""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;I11</f>
@@ -3018,7 +3018,7 @@
       <c r="AB12" s="4"/>
       <c r="AD12" t="str">
         <f t="shared" si="30"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="31"/>
@@ -3101,7 +3101,7 @@
       <c r="AB13" s="4"/>
       <c r="AD13" t="str">
         <f t="shared" si="30"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="31"/>
@@ -3184,7 +3184,7 @@
       <c r="AB14" s="4"/>
       <c r="AD14" t="str">
         <f t="shared" si="30"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":43200,"ev8":43200,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="31"/>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3D63D5-ABE6-404C-A730-2FB7BDF76516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC39F5D-F95A-4FDA-B8D8-99ACDF8A5EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -1610,7 +1610,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1761,10 +1761,10 @@
       <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" t="e">
+      <c r="F2">
         <f ca="1">IF(NOT(ISBLANK(E2)),E2,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A2))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>300</v>
@@ -1878,7 +1878,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
-        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
+        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
     <row r="3" spans="1:40">
@@ -1891,10 +1891,10 @@
       <c r="C3" t="s">
         <v>36</v>
       </c>
-      <c r="F3" t="e">
+      <c r="F3">
         <f ca="1">IF(NOT(ISBLANK(E3)),E3,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A3))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>300</v>
@@ -2015,10 +2015,10 @@
       <c r="D4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="e">
+      <c r="F4">
         <f ca="1">IF(NOT(ISBLANK(E4)),E4,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A4))</f>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <f>50*60*60</f>
@@ -2137,10 +2137,10 @@
       <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="F5" t="e">
+      <c r="F5">
         <f ca="1">IF(NOT(ISBLANK(E5)),E5,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A5))</f>
-        <v>#VALUE!</v>
+        <v>4</v>
       </c>
       <c r="G5">
         <f>50*60*60</f>
@@ -2259,10 +2259,10 @@
       <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="F6" t="e">
+      <c r="F6">
         <f ca="1">IF(NOT(ISBLANK(E6)),E6,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A6))</f>
-        <v>#VALUE!</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <f>I6*3/4</f>
@@ -2381,10 +2381,10 @@
       <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="F7" t="e">
+      <c r="F7">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A7))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f>60*60*24*7</f>
@@ -2495,10 +2495,10 @@
       <c r="C8" t="s">
         <v>104</v>
       </c>
-      <c r="F8" t="e">
+      <c r="F8">
         <f ca="1">IF(NOT(ISBLANK(E8)),E8,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A8))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>600</v>
@@ -2508,11 +2508,11 @@
         <v>10m</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="J8" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>10m</v>
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
@@ -2587,11 +2587,11 @@
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600</v>
       </c>
       <c r="AE8" t="str">
         <f t="shared" si="11"/>
-        <v>"ev7":0</v>
+        <v>"ev7":600</v>
       </c>
       <c r="AG8" t="s">
         <v>106</v>
@@ -2607,10 +2607,10 @@
       <c r="C9" t="s">
         <v>106</v>
       </c>
-      <c r="F9" t="e">
+      <c r="F9">
         <f ca="1">IF(NOT(ISBLANK(E9)),E9,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A9))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>600</v>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0</v>
       </c>
       <c r="AE9" t="str">
         <f t="shared" si="11"/>
@@ -2719,10 +2719,10 @@
       <c r="C10" t="s">
         <v>105</v>
       </c>
-      <c r="F10" t="e">
+      <c r="F10">
         <f ca="1">IF(NOT(ISBLANK(E10)),E10,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A10))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>600</v>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0</v>
       </c>
       <c r="AE10" t="str">
         <f t="shared" si="11"/>
@@ -2831,10 +2831,10 @@
       <c r="C11" t="s">
         <v>114</v>
       </c>
-      <c r="F11" t="e">
+      <c r="F11">
         <f ca="1">IF(NOT(ISBLANK(E11)),E11,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A11))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>600</v>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="AD11" t="str">
         <f t="shared" ref="AD11:AD14" si="30">AD10&amp;","&amp;AE11</f>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0</v>
       </c>
       <c r="AE11" t="str">
         <f t="shared" ref="AE11:AE14" si="31">""""&amp;$A11&amp;""""&amp;""&amp;":"&amp;I11</f>
@@ -2940,10 +2940,10 @@
       <c r="A12" t="s">
         <v>120</v>
       </c>
-      <c r="F12" t="e">
+      <c r="F12">
         <f ca="1">IF(NOT(ISBLANK(E12)),E12,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A12))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>600</v>
@@ -3018,7 +3018,7 @@
       <c r="AB12" s="4"/>
       <c r="AD12" t="str">
         <f t="shared" si="30"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0</v>
       </c>
       <c r="AE12" t="str">
         <f t="shared" si="31"/>
@@ -3029,10 +3029,10 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="e">
+      <c r="F13">
         <f ca="1">IF(NOT(ISBLANK(E13)),E13,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A13))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>600</v>
@@ -3101,7 +3101,7 @@
       <c r="AB13" s="4"/>
       <c r="AD13" t="str">
         <f t="shared" si="30"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0</v>
       </c>
       <c r="AE13" t="str">
         <f t="shared" si="31"/>
@@ -3112,10 +3112,10 @@
       <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="F14" t="e">
+      <c r="F14">
         <f ca="1">IF(NOT(ISBLANK(E14)),E14,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A14))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>420</v>
@@ -3184,7 +3184,7 @@
       <c r="AB14" s="4"/>
       <c r="AD14" t="str">
         <f t="shared" si="30"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":0,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="31"/>
@@ -3312,10 +3312,10 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="e">
+      <c r="D2">
         <f ca="1">IF(C2&lt;&gt;1,OFFSET(D2,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A2,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E65" ca="1" si="0">IF(ISBLANK(F2),"",
@@ -3340,48 +3340,48 @@
 OFFSET(K2,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L2" t="e">
+      <c r="L2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 IF($K2-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M2" t="e">
+        <v>0</v>
+      </c>
+      <c r="M2" t="str">
         <f t="shared" ref="M2:M3" ca="1" si="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 IF(ISBLANK(N2),"",
 VLOOKUP(N2,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N2" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N2" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O2" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O2" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P2" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J2-1,$K2+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q2" t="e">
+        <v>600</v>
+      </c>
+      <c r="Q2" t="str">
         <f t="shared" ref="Q2" ca="1" si="2">IF(LEN(E2)&lt;&gt;0,E2,
 IF(LEN(M2)&lt;&gt;0,M2,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R2" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R2" t="str">
         <f t="shared" ref="R2" ca="1" si="3">IF(LEN(G2)&lt;&gt;0,G2,
 IF(LEN(O2)&lt;&gt;0,O2,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S2" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S2">
         <f t="shared" ref="S2" ca="1" si="4">IF(LEN(H2)&lt;&gt;0,H2,
 IF(LEN(P2)&lt;&gt;0,P2,""))</f>
-        <v>#VALUE!</v>
+        <v>600</v>
       </c>
       <c r="U2" t="s">
         <v>25</v>
@@ -3401,68 +3401,68 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="e">
+      <c r="D3">
         <f ca="1">IF(C3&lt;&gt;1,OFFSET(D3,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A3,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J3" t="e">
+      <c r="J3">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 IF($C3=1,MATCH(OFFSET($I3,-($C3-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J3,-1,0)+OFFSET(L3,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3" t="e">
+        <v>3</v>
+      </c>
+      <c r="K3">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 IF($C3=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L3,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K3,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L3" t="e">
+        <v>17</v>
+      </c>
+      <c r="L3">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 IF($K3-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M3" t="e">
+        <v>1</v>
+      </c>
+      <c r="M3" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N3" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N3" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O3" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O3" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P3" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P3">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J3-1,$K3+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q3" t="e">
+        <v>50000</v>
+      </c>
+      <c r="Q3" t="str">
         <f t="shared" ref="Q3:Q4" ca="1" si="5">IF(LEN(E3)&lt;&gt;0,E3,
 IF(LEN(M3)&lt;&gt;0,M3,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R3" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R3" t="str">
         <f t="shared" ref="R3:R4" ca="1" si="6">IF(LEN(G3)&lt;&gt;0,G3,
 IF(LEN(O3)&lt;&gt;0,O3,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S3" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S3">
         <f t="shared" ref="S3:S4" ca="1" si="7">IF(LEN(H3)&lt;&gt;0,H3,
 IF(LEN(P3)&lt;&gt;0,P3,""))</f>
-        <v>#VALUE!</v>
+        <v>50000</v>
       </c>
       <c r="U3" t="s">
         <v>29</v>
@@ -3482,10 +3482,10 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="e">
+      <c r="D4">
         <f ca="1">IF(C4&lt;&gt;1,OFFSET(D4,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A4,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3566,10 +3566,10 @@
       <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" t="e">
+      <c r="D5">
         <f ca="1">IF(C5&lt;&gt;1,OFFSET(D5,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A5,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3592,45 +3592,45 @@
 OFFSET(K5,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L5" t="e">
+      <c r="L5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 IF($K5-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M5" t="e">
+        <v>0</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N5" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N5" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O5" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O5" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P5" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J5-1,$K5+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q5" t="e">
+        <v>30</v>
+      </c>
+      <c r="Q5" t="str">
         <f t="shared" ref="Q5:Q24" ca="1" si="9">IF(LEN(E5)&lt;&gt;0,E5,
 IF(LEN(M5)&lt;&gt;0,M5,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R5" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R5" t="str">
         <f t="shared" ref="R5:R24" ca="1" si="10">IF(LEN(G5)&lt;&gt;0,G5,
 IF(LEN(O5)&lt;&gt;0,O5,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S5" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S5">
         <f t="shared" ref="S5:S24" ca="1" si="11">IF(LEN(H5)&lt;&gt;0,H5,
 IF(LEN(P5)&lt;&gt;0,P5,""))</f>
-        <v>#VALUE!</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -3644,65 +3644,65 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="e">
+      <c r="D6">
         <f ca="1">IF(C6&lt;&gt;1,OFFSET(D6,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A6,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J6" t="e">
+      <c r="J6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 IF($C6=1,MATCH(OFFSET($I6,-($C6-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J6,-1,0)+OFFSET(L6,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>4</v>
+      </c>
+      <c r="K6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 IF($C6=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L6,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K6,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>17</v>
+      </c>
+      <c r="L6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 IF($K6-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>0</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N6" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O6" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O6" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P6" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J6-1,$K6+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" t="e">
+        <v>25000</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R6" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R6" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S6" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S6">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -3716,65 +3716,65 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" t="e">
+      <c r="D7">
         <f ca="1">IF(C7&lt;&gt;1,OFFSET(D7,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A7,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J7" t="e">
+      <c r="J7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($C7=1,MATCH(OFFSET($I7,-($C7-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J7,-1,0)+OFFSET(L7,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>4</v>
+      </c>
+      <c r="K7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($C7=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L7,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K7,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>21</v>
+      </c>
+      <c r="L7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 IF($K7-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>1</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N7" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O7" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P7" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J7-1,$K7+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" t="e">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R7" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R7" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S7" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S7">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -3788,65 +3788,65 @@
       <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="e">
+      <c r="D8">
         <f ca="1">IF(C8&lt;&gt;1,OFFSET(D8,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A8,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J8" t="e">
+      <c r="J8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 IF($C8=1,MATCH(OFFSET($I8,-($C8-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J8,-1,0)+OFFSET(L8,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K8" t="e">
+        <v>5</v>
+      </c>
+      <c r="K8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 IF($C8=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L8,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K8,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L8" t="e">
+        <v>13</v>
+      </c>
+      <c r="L8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 IF($K8-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" t="e">
+        <v>0</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N8" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O8" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O8" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P8" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J8-1,$K8+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q8" t="e">
+        <v>60</v>
+      </c>
+      <c r="Q8" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R8" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R8" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S8" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S8">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -3860,65 +3860,65 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9" t="e">
+      <c r="D9">
         <f ca="1">IF(C9&lt;&gt;1,OFFSET(D9,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A9,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J9" t="e">
+      <c r="J9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($C9=1,MATCH(OFFSET($I9,-($C9-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J9,-1,0)+OFFSET(L9,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K9" t="e">
+        <v>5</v>
+      </c>
+      <c r="K9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($C9=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L9,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K9,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L9" t="e">
+        <v>17</v>
+      </c>
+      <c r="L9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 IF($K9-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>0</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N9" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O9" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O9" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P9" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J9-1,$K9+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q9" t="e">
+        <v>15000</v>
+      </c>
+      <c r="Q9" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R9" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R9" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S9" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S9">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -3932,65 +3932,65 @@
       <c r="C10">
         <v>6</v>
       </c>
-      <c r="D10" t="e">
+      <c r="D10">
         <f ca="1">IF(C10&lt;&gt;1,OFFSET(D10,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A10,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J10" t="e">
+      <c r="J10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($C10=1,MATCH(OFFSET($I10,-($C10-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J10,-1,0)+OFFSET(L10,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K10" t="e">
+        <v>5</v>
+      </c>
+      <c r="K10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($C10=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L10,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K10,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L10" t="e">
+        <v>21</v>
+      </c>
+      <c r="L10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 IF($K10-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" t="e">
+        <v>1</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N10" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N10" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O10" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O10" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P10" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J10-1,$K10+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q10" t="e">
+        <v>120</v>
+      </c>
+      <c r="Q10" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R10" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R10" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S10" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S10">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -4004,65 +4004,65 @@
       <c r="C11">
         <v>7</v>
       </c>
-      <c r="D11" t="e">
+      <c r="D11">
         <f ca="1">IF(C11&lt;&gt;1,OFFSET(D11,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A11,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J11" t="e">
+      <c r="J11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($C11=1,MATCH(OFFSET($I11,-($C11-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J11,-1,0)+OFFSET(L11,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K11" t="e">
+        <v>6</v>
+      </c>
+      <c r="K11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($C11=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L11,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K11,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L11" t="e">
+        <v>13</v>
+      </c>
+      <c r="L11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 IF($K11-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" t="e">
+        <v>0</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N11" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N11" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O11" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O11" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P11" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J11-1,$K11+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q11" t="e">
+        <v>90</v>
+      </c>
+      <c r="Q11" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R11" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R11" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S11" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S11">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -4076,65 +4076,65 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="D12" t="e">
+      <c r="D12">
         <f ca="1">IF(C12&lt;&gt;1,OFFSET(D12,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A12,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J12" t="e">
+      <c r="J12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($C12=1,MATCH(OFFSET($I12,-($C12-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J12,-1,0)+OFFSET(L12,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K12" t="e">
+        <v>6</v>
+      </c>
+      <c r="K12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($C12=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L12,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K12,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L12" t="e">
+        <v>17</v>
+      </c>
+      <c r="L12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 IF($K12-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" t="e">
+        <v>0</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N12" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N12" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O12" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O12" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P12" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J12-1,$K12+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q12" t="e">
+        <v>30000</v>
+      </c>
+      <c r="Q12" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R12" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R12" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S12" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S12">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -4148,65 +4148,65 @@
       <c r="C13">
         <v>9</v>
       </c>
-      <c r="D13" t="e">
+      <c r="D13">
         <f ca="1">IF(C13&lt;&gt;1,OFFSET(D13,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A13,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J13" t="e">
+      <c r="J13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 IF($C13=1,MATCH(OFFSET($I13,-($C13-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J13,-1,0)+OFFSET(L13,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K13" t="e">
+        <v>6</v>
+      </c>
+      <c r="K13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 IF($C13=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L13,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K13,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L13" t="e">
+        <v>21</v>
+      </c>
+      <c r="L13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 IF($K13-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" t="e">
+        <v>0</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N13" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N13" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O13" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O13" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P13" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J13-1,$K13+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q13" t="e">
+        <v>150</v>
+      </c>
+      <c r="Q13" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R13" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R13" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S13" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S13">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -4220,65 +4220,65 @@
       <c r="C14">
         <v>10</v>
       </c>
-      <c r="D14" t="e">
+      <c r="D14">
         <f ca="1">IF(C14&lt;&gt;1,OFFSET(D14,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A14,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J14" t="e">
+      <c r="J14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 IF($C14=1,MATCH(OFFSET($I14,-($C14-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J14,-1,0)+OFFSET(L14,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K14" t="e">
+        <v>6</v>
+      </c>
+      <c r="K14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 IF($C14=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L14,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K14,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L14" t="e">
+        <v>25</v>
+      </c>
+      <c r="L14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 IF($K14-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" t="e">
+        <v>1</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N14" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N14" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O14" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O14" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P14" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J14-1,$K14+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q14" t="e">
+        <v>300</v>
+      </c>
+      <c r="Q14" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R14" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R14" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S14" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S14">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -4292,10 +4292,10 @@
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" t="e">
+      <c r="D15">
         <f ca="1">IF(C15&lt;&gt;1,OFFSET(D15,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A15,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -4318,42 +4318,42 @@
 OFFSET(K15,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L15" t="e">
+      <c r="L15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 IF($K15-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" t="e">
+        <v>0</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N15" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N15" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O15" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O15" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P15" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J15-1,$K15+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q15" t="e">
+        <v>80</v>
+      </c>
+      <c r="Q15" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R15" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R15" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S15" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S15">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -4367,65 +4367,65 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="e">
+      <c r="D16">
         <f ca="1">IF(C16&lt;&gt;1,OFFSET(D16,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A16,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J16" t="e">
+      <c r="J16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 IF($C16=1,MATCH(OFFSET($I16,-($C16-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J16,-1,0)+OFFSET(L16,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K16" t="e">
+        <v>7</v>
+      </c>
+      <c r="K16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 IF($C16=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L16,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K16,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L16" t="e">
+        <v>17</v>
+      </c>
+      <c r="L16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 IF($K16-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M16" t="e">
+        <v>0</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N16" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N16" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O16" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O16" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P16" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J16-1,$K16+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q16" t="e">
+        <v>35000</v>
+      </c>
+      <c r="Q16" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R16" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R16" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S16" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S16">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -4439,65 +4439,65 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="D17" t="e">
+      <c r="D17">
         <f ca="1">IF(C17&lt;&gt;1,OFFSET(D17,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A17,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J17" t="e">
+      <c r="J17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 IF($C17=1,MATCH(OFFSET($I17,-($C17-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J17,-1,0)+OFFSET(L17,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K17" t="e">
+        <v>7</v>
+      </c>
+      <c r="K17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 IF($C17=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L17,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K17,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L17" t="e">
+        <v>21</v>
+      </c>
+      <c r="L17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 IF($K17-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M17" t="e">
+        <v>1</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N17" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N17" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O17" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O17" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P17" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J17-1,$K17+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q17" t="e">
+        <v>170</v>
+      </c>
+      <c r="Q17" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R17" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R17" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S17" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S17">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -4511,65 +4511,65 @@
       <c r="C18">
         <v>4</v>
       </c>
-      <c r="D18" t="e">
+      <c r="D18">
         <f ca="1">IF(C18&lt;&gt;1,OFFSET(D18,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A18,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J18" t="e">
+      <c r="J18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 IF($C18=1,MATCH(OFFSET($I18,-($C18-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J18,-1,0)+OFFSET(L18,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K18" t="e">
+        <v>8</v>
+      </c>
+      <c r="K18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 IF($C18=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L18,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K18,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L18" t="e">
+        <v>13</v>
+      </c>
+      <c r="L18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 IF($K18-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M18" t="e">
+        <v>1</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N18" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N18" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O18" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O18" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P18" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J18-1,$K18+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q18" t="e">
+        <v>150</v>
+      </c>
+      <c r="Q18" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R18" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R18" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S18" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S18">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -4583,65 +4583,65 @@
       <c r="C19">
         <v>5</v>
       </c>
-      <c r="D19" t="e">
+      <c r="D19">
         <f ca="1">IF(C19&lt;&gt;1,OFFSET(D19,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A19,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J19" t="e">
+      <c r="J19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 IF($C19=1,MATCH(OFFSET($I19,-($C19-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J19,-1,0)+OFFSET(L19,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K19" t="e">
+        <v>9</v>
+      </c>
+      <c r="K19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 IF($C19=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L19,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K19,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L19" t="e">
+        <v>13</v>
+      </c>
+      <c r="L19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 IF($K19-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M19" t="e">
+        <v>0</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N19" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N19" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O19" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O19" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P19" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J19-1,$K19+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q19" t="e">
+        <v>20000</v>
+      </c>
+      <c r="Q19" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R19" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R19" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S19" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S19">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -4655,65 +4655,65 @@
       <c r="C20">
         <v>6</v>
       </c>
-      <c r="D20" t="e">
+      <c r="D20">
         <f ca="1">IF(C20&lt;&gt;1,OFFSET(D20,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A20,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J20" t="e">
+      <c r="J20">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 IF($C20=1,MATCH(OFFSET($I20,-($C20-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J20,-1,0)+OFFSET(L20,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K20" t="e">
+        <v>9</v>
+      </c>
+      <c r="K20">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 IF($C20=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L20,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K20,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L20" t="e">
+        <v>17</v>
+      </c>
+      <c r="L20">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 IF($K20-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M20" t="e">
+        <v>0</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N20" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N20" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O20" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O20" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P20" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P20">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J20-1,$K20+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q20" t="e">
+        <v>150</v>
+      </c>
+      <c r="Q20" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R20" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R20" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S20" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S20">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -4727,65 +4727,65 @@
       <c r="C21">
         <v>7</v>
       </c>
-      <c r="D21" t="e">
+      <c r="D21">
         <f ca="1">IF(C21&lt;&gt;1,OFFSET(D21,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A21,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J21" t="e">
+      <c r="J21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 IF($C21=1,MATCH(OFFSET($I21,-($C21-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J21,-1,0)+OFFSET(L21,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K21" t="e">
+        <v>9</v>
+      </c>
+      <c r="K21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 IF($C21=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L21,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K21,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L21" t="e">
+        <v>21</v>
+      </c>
+      <c r="L21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 IF($K21-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M21" t="e">
+        <v>0</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N21" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N21" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O21" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O21" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P21" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J21-1,$K21+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q21" t="e">
+        <v>35000</v>
+      </c>
+      <c r="Q21" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R21" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R21" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S21" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S21">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -4799,65 +4799,65 @@
       <c r="C22">
         <v>8</v>
       </c>
-      <c r="D22" t="e">
+      <c r="D22">
         <f ca="1">IF(C22&lt;&gt;1,OFFSET(D22,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A22,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J22" t="e">
+      <c r="J22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($C22=1,MATCH(OFFSET($I22,-($C22-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J22,-1,0)+OFFSET(L22,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K22" t="e">
+        <v>9</v>
+      </c>
+      <c r="K22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($C22=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L22,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K22,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L22" t="e">
+        <v>25</v>
+      </c>
+      <c r="L22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 IF($K22-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M22" t="e">
+        <v>1</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N22" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N22" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O22" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O22" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P22" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J22-1,$K22+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q22" t="e">
+        <v>200</v>
+      </c>
+      <c r="Q22" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R22" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R22" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S22" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S22">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -4871,65 +4871,65 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23" t="e">
+      <c r="D23">
         <f ca="1">IF(C23&lt;&gt;1,OFFSET(D23,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A23,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J23" t="e">
+      <c r="J23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($C23=1,MATCH(OFFSET($I23,-($C23-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J23,-1,0)+OFFSET(L23,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K23" t="e">
+        <v>10</v>
+      </c>
+      <c r="K23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($C23=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L23,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K23,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L23" t="e">
+        <v>13</v>
+      </c>
+      <c r="L23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 IF($K23-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M23" t="e">
+        <v>0</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N23" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N23" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O23" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O23" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P23" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J23-1,$K23+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q23" t="e">
+        <v>150</v>
+      </c>
+      <c r="Q23" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R23" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R23" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S23" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S23">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -4943,65 +4943,65 @@
       <c r="C24">
         <v>10</v>
       </c>
-      <c r="D24" t="e">
+      <c r="D24">
         <f ca="1">IF(C24&lt;&gt;1,OFFSET(D24,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A24,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>10</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J24" t="e">
+      <c r="J24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($C24=1,MATCH(OFFSET($I24,-($C24-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J24,-1,0)+OFFSET(L24,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K24" t="e">
+        <v>10</v>
+      </c>
+      <c r="K24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($C24=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L24,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K24,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" t="e">
+        <v>17</v>
+      </c>
+      <c r="L24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 IF($K24-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M24" t="e">
+        <v>1</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N24" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N24" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O24" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O24" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P24" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J24-1,$K24+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q24" t="e">
+        <v>20000</v>
+      </c>
+      <c r="Q24" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R24" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R24" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S24" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S24">
         <f t="shared" ca="1" si="11"/>
-        <v>#VALUE!</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -5015,10 +5015,10 @@
       <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" t="e">
+      <c r="D25">
         <f ca="1">IF(C25&lt;&gt;1,OFFSET(D25,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A25,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5041,48 +5041,48 @@
 OFFSET(K25,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L25" t="e">
+      <c r="L25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF($K25-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M25" t="e">
+        <v>0</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" ref="M25:M35" ca="1" si="12">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF(ISBLANK(N25),"",
 VLOOKUP(N25,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N25" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N25" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O25" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O25" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P25" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J25-1,$K25+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q25" t="e">
+        <v>350</v>
+      </c>
+      <c r="Q25" t="str">
         <f t="shared" ref="Q25" ca="1" si="13">IF(LEN(E25)&lt;&gt;0,E25,
 IF(LEN(M25)&lt;&gt;0,M25,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R25" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R25" t="str">
         <f t="shared" ref="R25" ca="1" si="14">IF(LEN(G25)&lt;&gt;0,G25,
 IF(LEN(O25)&lt;&gt;0,O25,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S25" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S25">
         <f t="shared" ref="S25" ca="1" si="15">IF(LEN(H25)&lt;&gt;0,H25,
 IF(LEN(P25)&lt;&gt;0,P25,""))</f>
-        <v>#VALUE!</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26" spans="1:19">
@@ -5096,68 +5096,68 @@
       <c r="C26">
         <v>2</v>
       </c>
-      <c r="D26" t="e">
+      <c r="D26">
         <f ca="1">IF(C26&lt;&gt;1,OFFSET(D26,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A26,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J26" t="e">
+      <c r="J26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 IF($C26=1,MATCH(OFFSET($I26,-($C26-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J26,-1,0)+OFFSET(L26,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K26" t="e">
+        <v>11</v>
+      </c>
+      <c r="K26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 IF($C26=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L26,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K26,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L26" t="e">
+        <v>17</v>
+      </c>
+      <c r="L26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 IF($K26-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M26" t="e">
+        <v>0</v>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N26" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N26" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O26" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O26" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P26" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J26-1,$K26+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q26" t="e">
+        <v>80000</v>
+      </c>
+      <c r="Q26" t="str">
         <f t="shared" ref="Q26:Q35" ca="1" si="16">IF(LEN(E26)&lt;&gt;0,E26,
 IF(LEN(M26)&lt;&gt;0,M26,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R26" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R26" t="str">
         <f t="shared" ref="R26:R35" ca="1" si="17">IF(LEN(G26)&lt;&gt;0,G26,
 IF(LEN(O26)&lt;&gt;0,O26,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S26" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S26">
         <f t="shared" ref="S26:S35" ca="1" si="18">IF(LEN(H26)&lt;&gt;0,H26,
 IF(LEN(P26)&lt;&gt;0,P26,""))</f>
-        <v>#VALUE!</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="27" spans="1:19">
@@ -5171,65 +5171,65 @@
       <c r="C27">
         <v>3</v>
       </c>
-      <c r="D27" t="e">
+      <c r="D27">
         <f ca="1">IF(C27&lt;&gt;1,OFFSET(D27,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A27,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J27" t="e">
+      <c r="J27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 IF($C27=1,MATCH(OFFSET($I27,-($C27-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J27,-1,0)+OFFSET(L27,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K27" t="e">
+        <v>11</v>
+      </c>
+      <c r="K27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 IF($C27=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L27,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K27,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L27" t="e">
+        <v>21</v>
+      </c>
+      <c r="L27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 IF($K27-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M27" t="e">
+        <v>0</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N27" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N27" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O27" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O27" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P27" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J27-1,$K27+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q27" t="e">
+        <v>800</v>
+      </c>
+      <c r="Q27" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R27" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R27" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S27" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S27">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28" spans="1:19">
@@ -5243,65 +5243,65 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" t="e">
+      <c r="D28">
         <f ca="1">IF(C28&lt;&gt;1,OFFSET(D28,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A28,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J28" t="e">
+      <c r="J28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 IF($C28=1,MATCH(OFFSET($I28,-($C28-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J28,-1,0)+OFFSET(L28,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K28" t="e">
+        <v>11</v>
+      </c>
+      <c r="K28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 IF($C28=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L28,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K28,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L28" t="e">
+        <v>25</v>
+      </c>
+      <c r="L28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 IF($K28-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M28" t="e">
+        <v>1</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N28" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N28" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O28" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O28" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P28" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J28-1,$K28+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q28" t="e">
+        <v>100000</v>
+      </c>
+      <c r="Q28" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R28" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R28" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S28" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S28">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="29" spans="1:19">
@@ -5315,65 +5315,65 @@
       <c r="C29">
         <v>5</v>
       </c>
-      <c r="D29" t="e">
+      <c r="D29">
         <f ca="1">IF(C29&lt;&gt;1,OFFSET(D29,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A29,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J29" t="e">
+      <c r="J29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 IF($C29=1,MATCH(OFFSET($I29,-($C29-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J29,-1,0)+OFFSET(L29,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K29" t="e">
+        <v>12</v>
+      </c>
+      <c r="K29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 IF($C29=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L29,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K29,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L29" t="e">
+        <v>13</v>
+      </c>
+      <c r="L29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 IF($K29-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M29" t="e">
+        <v>0</v>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N29" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N29" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O29" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O29" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P29" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J29-1,$K29+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q29" t="e">
+        <v>50000</v>
+      </c>
+      <c r="Q29" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R29" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R29" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S29" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S29">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:19">
@@ -5387,65 +5387,65 @@
       <c r="C30">
         <v>6</v>
       </c>
-      <c r="D30" t="e">
+      <c r="D30">
         <f ca="1">IF(C30&lt;&gt;1,OFFSET(D30,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A30,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J30" t="e">
+      <c r="J30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 IF($C30=1,MATCH(OFFSET($I30,-($C30-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J30,-1,0)+OFFSET(L30,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K30" t="e">
+        <v>12</v>
+      </c>
+      <c r="K30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 IF($C30=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L30,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K30,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L30" t="e">
+        <v>17</v>
+      </c>
+      <c r="L30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 IF($K30-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M30" t="e">
+        <v>0</v>
+      </c>
+      <c r="M30" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N30" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N30" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O30" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O30" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P30" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J30-1,$K30+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q30" t="e">
+        <v>500</v>
+      </c>
+      <c r="Q30" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R30" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R30" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S30" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S30">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:19">
@@ -5459,65 +5459,65 @@
       <c r="C31">
         <v>7</v>
       </c>
-      <c r="D31" t="e">
+      <c r="D31">
         <f ca="1">IF(C31&lt;&gt;1,OFFSET(D31,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A31,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J31" t="e">
+      <c r="J31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 IF($C31=1,MATCH(OFFSET($I31,-($C31-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J31,-1,0)+OFFSET(L31,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K31" t="e">
+        <v>12</v>
+      </c>
+      <c r="K31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 IF($C31=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L31,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K31,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L31" t="e">
+        <v>21</v>
+      </c>
+      <c r="L31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 IF($K31-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M31" t="e">
+        <v>1</v>
+      </c>
+      <c r="M31" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N31" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N31" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O31" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O31" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P31" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J31-1,$K31+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q31" t="e">
+        <v>70000</v>
+      </c>
+      <c r="Q31" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R31" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R31" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S31" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S31">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="32" spans="1:19">
@@ -5531,65 +5531,65 @@
       <c r="C32">
         <v>8</v>
       </c>
-      <c r="D32" t="e">
+      <c r="D32">
         <f ca="1">IF(C32&lt;&gt;1,OFFSET(D32,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A32,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J32" t="e">
+      <c r="J32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 IF($C32=1,MATCH(OFFSET($I32,-($C32-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J32,-1,0)+OFFSET(L32,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K32" t="e">
+        <v>13</v>
+      </c>
+      <c r="K32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 IF($C32=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L32,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K32,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L32" t="e">
+        <v>13</v>
+      </c>
+      <c r="L32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 IF($K32-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M32" t="e">
+        <v>0</v>
+      </c>
+      <c r="M32" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N32" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N32" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O32" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O32" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P32" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J32-1,$K32+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q32" t="e">
+        <v>450</v>
+      </c>
+      <c r="Q32" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R32" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R32" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S32" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S32">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>450</v>
       </c>
     </row>
     <row r="33" spans="1:19">
@@ -5603,65 +5603,65 @@
       <c r="C33">
         <v>9</v>
       </c>
-      <c r="D33" t="e">
+      <c r="D33">
         <f ca="1">IF(C33&lt;&gt;1,OFFSET(D33,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A33,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J33" t="e">
+      <c r="J33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 IF($C33=1,MATCH(OFFSET($I33,-($C33-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J33,-1,0)+OFFSET(L33,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K33" t="e">
+        <v>13</v>
+      </c>
+      <c r="K33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 IF($C33=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L33,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K33,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L33" t="e">
+        <v>17</v>
+      </c>
+      <c r="L33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 IF($K33-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M33" t="e">
+        <v>0</v>
+      </c>
+      <c r="M33" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N33" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N33" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O33" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O33" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P33" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J33-1,$K33+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q33" t="e">
+        <v>60000</v>
+      </c>
+      <c r="Q33" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R33" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R33" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S33" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S33">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="34" spans="1:19">
@@ -5675,65 +5675,65 @@
       <c r="C34">
         <v>10</v>
       </c>
-      <c r="D34" t="e">
+      <c r="D34">
         <f ca="1">IF(C34&lt;&gt;1,OFFSET(D34,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A34,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J34" t="e">
+      <c r="J34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 IF($C34=1,MATCH(OFFSET($I34,-($C34-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J34,-1,0)+OFFSET(L34,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K34" t="e">
+        <v>13</v>
+      </c>
+      <c r="K34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 IF($C34=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L34,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K34,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L34" t="e">
+        <v>21</v>
+      </c>
+      <c r="L34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 IF($K34-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M34" t="e">
+        <v>0</v>
+      </c>
+      <c r="M34" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N34" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N34" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O34" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O34" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P34" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J34-1,$K34+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q34" t="e">
+        <v>90000</v>
+      </c>
+      <c r="Q34" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R34" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R34" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S34" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S34">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="35" spans="1:19">
@@ -5747,65 +5747,65 @@
       <c r="C35">
         <v>11</v>
       </c>
-      <c r="D35" t="e">
+      <c r="D35">
         <f ca="1">IF(C35&lt;&gt;1,OFFSET(D35,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A35,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>11</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J35" t="e">
+      <c r="J35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 IF($C35=1,MATCH(OFFSET($I35,-($C35-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J35,-1,0)+OFFSET(L35,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K35" t="e">
+        <v>13</v>
+      </c>
+      <c r="K35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 IF($C35=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L35,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K35,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L35" t="e">
+        <v>25</v>
+      </c>
+      <c r="L35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 IF($K35-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M35" t="e">
+        <v>1</v>
+      </c>
+      <c r="M35" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N35" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N35" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O35" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O35" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P35" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J35-1,$K35+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q35" t="e">
+        <v>650</v>
+      </c>
+      <c r="Q35" t="str">
         <f t="shared" ca="1" si="16"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R35" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R35" t="str">
         <f t="shared" ca="1" si="17"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S35" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S35">
         <f t="shared" ca="1" si="18"/>
-        <v>#VALUE!</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:19">
@@ -5819,10 +5819,10 @@
       <c r="C36">
         <v>1</v>
       </c>
-      <c r="D36" t="e">
+      <c r="D36">
         <f ca="1">IF(C36&lt;&gt;1,OFFSET(D36,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A36,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -5845,48 +5845,48 @@
 OFFSET(K36,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L36" t="e">
+      <c r="L36">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 IF($K36-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M36" t="e">
+        <v>0</v>
+      </c>
+      <c r="M36" t="str">
         <f t="shared" ref="M36:M47" ca="1" si="19">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 IF(ISBLANK(N36),"",
 VLOOKUP(N36,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N36" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N36" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O36" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O36" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P36" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P36">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J36-1,$K36+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q36" t="e">
+        <v>100</v>
+      </c>
+      <c r="Q36" t="str">
         <f t="shared" ref="Q36:Q47" ca="1" si="20">IF(LEN(E36)&lt;&gt;0,E36,
 IF(LEN(M36)&lt;&gt;0,M36,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R36" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R36" t="str">
         <f t="shared" ref="R36:R47" ca="1" si="21">IF(LEN(G36)&lt;&gt;0,G36,
 IF(LEN(O36)&lt;&gt;0,O36,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S36" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S36">
         <f t="shared" ref="S36:S47" ca="1" si="22">IF(LEN(H36)&lt;&gt;0,H36,
 IF(LEN(P36)&lt;&gt;0,P36,""))</f>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:19">
@@ -5900,65 +5900,65 @@
       <c r="C37">
         <v>2</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D37">
         <f ca="1">IF(C37&lt;&gt;1,OFFSET(D37,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A37,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J37" t="e">
+      <c r="J37">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 IF($C37=1,MATCH(OFFSET($I37,-($C37-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J37,-1,0)+OFFSET(L37,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K37" t="e">
+        <v>14</v>
+      </c>
+      <c r="K37">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 IF($C37=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L37,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K37,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L37" t="e">
+        <v>17</v>
+      </c>
+      <c r="L37">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 IF($K37-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M37" t="e">
+        <v>0</v>
+      </c>
+      <c r="M37" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N37" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N37" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O37" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O37" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P37" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P37">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J37-1,$K37+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q37" t="e">
+        <v>50</v>
+      </c>
+      <c r="Q37" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R37" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R37" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S37" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S37">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:19">
@@ -5972,65 +5972,65 @@
       <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" t="e">
+      <c r="D38">
         <f ca="1">IF(C38&lt;&gt;1,OFFSET(D38,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A38,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J38" t="e">
+      <c r="J38">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 IF($C38=1,MATCH(OFFSET($I38,-($C38-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J38,-1,0)+OFFSET(L38,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K38" t="e">
+        <v>14</v>
+      </c>
+      <c r="K38">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 IF($C38=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L38,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K38,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L38" t="e">
+        <v>21</v>
+      </c>
+      <c r="L38">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 IF($K38-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M38" t="e">
+        <v>1</v>
+      </c>
+      <c r="M38" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N38" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N38" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O38" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O38" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P38" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P38">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J38-1,$K38+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q38" t="e">
+        <v>10000</v>
+      </c>
+      <c r="Q38" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R38" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R38" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S38" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S38">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="39" spans="1:19">
@@ -6044,65 +6044,65 @@
       <c r="C39">
         <v>4</v>
       </c>
-      <c r="D39" t="e">
+      <c r="D39">
         <f ca="1">IF(C39&lt;&gt;1,OFFSET(D39,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A39,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J39" t="e">
+      <c r="J39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 IF($C39=1,MATCH(OFFSET($I39,-($C39-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J39,-1,0)+OFFSET(L39,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K39" t="e">
+        <v>15</v>
+      </c>
+      <c r="K39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 IF($C39=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L39,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K39,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L39" t="e">
+        <v>13</v>
+      </c>
+      <c r="L39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 IF($K39-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M39" t="e">
+        <v>0</v>
+      </c>
+      <c r="M39" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N39" t="e">
+        <v>it</v>
+      </c>
+      <c r="N39" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O39" t="e">
+        <v>아이템</v>
+      </c>
+      <c r="O39" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P39" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q39" t="e">
+        <v>500</v>
+      </c>
+      <c r="Q39" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R39" t="e">
+        <v>it</v>
+      </c>
+      <c r="R39" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S39" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S39">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6116,65 +6116,65 @@
       <c r="C40">
         <v>5</v>
       </c>
-      <c r="D40" t="e">
+      <c r="D40">
         <f ca="1">IF(C40&lt;&gt;1,OFFSET(D40,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A40,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J40" t="e">
+      <c r="J40">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 IF($C40=1,MATCH(OFFSET($I40,-($C40-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J40,-1,0)+OFFSET(L40,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K40" t="e">
+        <v>15</v>
+      </c>
+      <c r="K40">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 IF($C40=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L40,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K40,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L40" t="e">
+        <v>17</v>
+      </c>
+      <c r="L40">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 IF($K40-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M40" t="e">
+        <v>0</v>
+      </c>
+      <c r="M40" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N40" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N40" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O40" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O40" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P40" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P40">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J40-1,$K40+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q40" t="e">
+        <v>75</v>
+      </c>
+      <c r="Q40" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R40" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R40" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S40" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S40">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:19">
@@ -6188,65 +6188,65 @@
       <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" t="e">
+      <c r="D41">
         <f ca="1">IF(C41&lt;&gt;1,OFFSET(D41,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A41,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J41" t="e">
+      <c r="J41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 IF($C41=1,MATCH(OFFSET($I41,-($C41-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J41,-1,0)+OFFSET(L41,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K41" t="e">
+        <v>15</v>
+      </c>
+      <c r="K41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 IF($C41=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L41,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K41,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L41" t="e">
+        <v>21</v>
+      </c>
+      <c r="L41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 IF($K41-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M41" t="e">
+        <v>1</v>
+      </c>
+      <c r="M41" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N41" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N41" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O41" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O41" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P41" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q41" t="e">
+        <v>20000</v>
+      </c>
+      <c r="Q41" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R41" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R41" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S41" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S41">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="42" spans="1:19">
@@ -6260,65 +6260,65 @@
       <c r="C42">
         <v>7</v>
       </c>
-      <c r="D42" t="e">
+      <c r="D42">
         <f ca="1">IF(C42&lt;&gt;1,OFFSET(D42,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A42,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J42" t="e">
+      <c r="J42">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 IF($C42=1,MATCH(OFFSET($I42,-($C42-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J42,-1,0)+OFFSET(L42,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K42" t="e">
+        <v>16</v>
+      </c>
+      <c r="K42">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 IF($C42=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L42,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K42,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L42" t="e">
+        <v>13</v>
+      </c>
+      <c r="L42">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 IF($K42-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M42" t="e">
+        <v>0</v>
+      </c>
+      <c r="M42" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N42" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N42" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O42" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O42" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P42" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P42">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q42" t="e">
+        <v>300</v>
+      </c>
+      <c r="Q42" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R42" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R42" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S42" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S42">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="1:19">
@@ -6332,65 +6332,65 @@
       <c r="C43">
         <v>8</v>
       </c>
-      <c r="D43" t="e">
+      <c r="D43">
         <f ca="1">IF(C43&lt;&gt;1,OFFSET(D43,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A43,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J43" t="e">
+      <c r="J43">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 IF($C43=1,MATCH(OFFSET($I43,-($C43-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J43,-1,0)+OFFSET(L43,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K43" t="e">
+        <v>16</v>
+      </c>
+      <c r="K43">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 IF($C43=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L43,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K43,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L43" t="e">
+        <v>17</v>
+      </c>
+      <c r="L43">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 IF($K43-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M43" t="e">
+        <v>0</v>
+      </c>
+      <c r="M43" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N43" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N43" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O43" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O43" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P43" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P43">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q43" t="e">
+        <v>100</v>
+      </c>
+      <c r="Q43" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R43" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R43" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S43" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S43">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6404,65 +6404,65 @@
       <c r="C44">
         <v>9</v>
       </c>
-      <c r="D44" t="e">
+      <c r="D44">
         <f ca="1">IF(C44&lt;&gt;1,OFFSET(D44,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A44,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J44" t="e">
+      <c r="J44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 IF($C44=1,MATCH(OFFSET($I44,-($C44-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J44,-1,0)+OFFSET(L44,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K44" t="e">
+        <v>16</v>
+      </c>
+      <c r="K44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 IF($C44=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L44,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K44,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L44" t="e">
+        <v>21</v>
+      </c>
+      <c r="L44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 IF($K44-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M44" t="e">
+        <v>1</v>
+      </c>
+      <c r="M44" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N44" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N44" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O44" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O44" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P44" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q44" t="e">
+        <v>40000</v>
+      </c>
+      <c r="Q44" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R44" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R44" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S44" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S44">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -6476,65 +6476,65 @@
       <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45" t="e">
+      <c r="D45">
         <f ca="1">IF(C45&lt;&gt;1,OFFSET(D45,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A45,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J45" t="e">
+      <c r="J45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 IF($C45=1,MATCH(OFFSET($I45,-($C45-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J45,-1,0)+OFFSET(L45,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K45" t="e">
+        <v>17</v>
+      </c>
+      <c r="K45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 IF($C45=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L45,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K45,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L45" t="e">
+        <v>13</v>
+      </c>
+      <c r="L45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 IF($K45-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M45" t="e">
+        <v>0</v>
+      </c>
+      <c r="M45" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N45" t="e">
+        <v>it</v>
+      </c>
+      <c r="N45" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O45" t="e">
+        <v>아이템</v>
+      </c>
+      <c r="O45" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P45" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q45" t="e">
+        <v>1500</v>
+      </c>
+      <c r="Q45" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R45" t="e">
+        <v>it</v>
+      </c>
+      <c r="R45" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S45" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S45">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -6548,65 +6548,65 @@
       <c r="C46">
         <v>11</v>
       </c>
-      <c r="D46" t="e">
+      <c r="D46">
         <f ca="1">IF(C46&lt;&gt;1,OFFSET(D46,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A46,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J46" t="e">
+      <c r="J46">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 IF($C46=1,MATCH(OFFSET($I46,-($C46-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J46,-1,0)+OFFSET(L46,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K46" t="e">
+        <v>17</v>
+      </c>
+      <c r="K46">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 IF($C46=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L46,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K46,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L46" t="e">
+        <v>17</v>
+      </c>
+      <c r="L46">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 IF($K46-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M46" t="e">
+        <v>0</v>
+      </c>
+      <c r="M46" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N46" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N46" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O46" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O46" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P46" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P46">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q46" t="e">
+        <v>500</v>
+      </c>
+      <c r="Q46" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R46" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R46" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S46" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S46">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -6620,65 +6620,65 @@
       <c r="C47">
         <v>12</v>
       </c>
-      <c r="D47" t="e">
+      <c r="D47">
         <f ca="1">IF(C47&lt;&gt;1,OFFSET(D47,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A47,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J47" t="e">
+      <c r="J47">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 IF($C47=1,MATCH(OFFSET($I47,-($C47-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J47,-1,0)+OFFSET(L47,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K47" t="e">
+        <v>17</v>
+      </c>
+      <c r="K47">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 IF($C47=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L47,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K47,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L47" t="e">
+        <v>21</v>
+      </c>
+      <c r="L47">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 IF($K47-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M47" t="e">
+        <v>1</v>
+      </c>
+      <c r="M47" t="str">
         <f t="shared" ca="1" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N47" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N47" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O47" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O47" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P47" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P47">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q47" t="e">
+        <v>60000</v>
+      </c>
+      <c r="Q47" t="str">
         <f t="shared" ca="1" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R47" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R47" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S47" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S47">
         <f t="shared" ca="1" si="22"/>
-        <v>#VALUE!</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -6692,10 +6692,10 @@
       <c r="C48">
         <v>1</v>
       </c>
-      <c r="D48" t="e">
+      <c r="D48">
         <f ca="1">IF(C48&lt;&gt;1,OFFSET(D48,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A48,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -6718,48 +6718,48 @@
 OFFSET(K48,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L48" t="e">
+      <c r="L48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 IF($K48-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M48" t="e">
+        <v>0</v>
+      </c>
+      <c r="M48" t="str">
         <f t="shared" ref="M48:M71" ca="1" si="23">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 IF(ISBLANK(N48),"",
 VLOOKUP(N48,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N48" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N48" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O48" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O48" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P48" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q48" t="e">
+        <v>100</v>
+      </c>
+      <c r="Q48" t="str">
         <f t="shared" ref="Q48:Q71" ca="1" si="24">IF(LEN(E48)&lt;&gt;0,E48,
 IF(LEN(M48)&lt;&gt;0,M48,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R48" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R48" t="str">
         <f t="shared" ref="R48:R71" ca="1" si="25">IF(LEN(G48)&lt;&gt;0,G48,
 IF(LEN(O48)&lt;&gt;0,O48,""))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S48" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S48">
         <f t="shared" ref="S48:S71" ca="1" si="26">IF(LEN(H48)&lt;&gt;0,H48,
 IF(LEN(P48)&lt;&gt;0,P48,""))</f>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -6773,65 +6773,65 @@
       <c r="C49">
         <v>2</v>
       </c>
-      <c r="D49" t="e">
+      <c r="D49">
         <f ca="1">IF(C49&lt;&gt;1,OFFSET(D49,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A49,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J49" t="e">
+      <c r="J49">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 IF($C49=1,MATCH(OFFSET($I49,-($C49-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J49,-1,0)+OFFSET(L49,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K49" t="e">
+        <v>18</v>
+      </c>
+      <c r="K49">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 IF($C49=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L49,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K49,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L49" t="e">
+        <v>17</v>
+      </c>
+      <c r="L49">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 IF($K49-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M49" t="e">
+        <v>0</v>
+      </c>
+      <c r="M49" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N49" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N49" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O49" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O49" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P49" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P49">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q49" t="e">
+        <v>50</v>
+      </c>
+      <c r="Q49" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R49" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R49" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S49" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S49">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -6845,65 +6845,65 @@
       <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" t="e">
+      <c r="D50">
         <f ca="1">IF(C50&lt;&gt;1,OFFSET(D50,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A50,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J50" t="e">
+      <c r="J50">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 IF($C50=1,MATCH(OFFSET($I50,-($C50-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J50,-1,0)+OFFSET(L50,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K50" t="e">
+        <v>18</v>
+      </c>
+      <c r="K50">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 IF($C50=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L50,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K50,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L50" t="e">
+        <v>21</v>
+      </c>
+      <c r="L50">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 IF($K50-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M50" t="e">
+        <v>1</v>
+      </c>
+      <c r="M50" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N50" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N50" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O50" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O50" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P50" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P50">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q50" t="e">
+        <v>10000</v>
+      </c>
+      <c r="Q50" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R50" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R50" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S50" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S50">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -6917,65 +6917,65 @@
       <c r="C51">
         <v>4</v>
       </c>
-      <c r="D51" t="e">
+      <c r="D51">
         <f ca="1">IF(C51&lt;&gt;1,OFFSET(D51,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A51,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J51" t="e">
+      <c r="J51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 IF($C51=1,MATCH(OFFSET($I51,-($C51-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J51,-1,0)+OFFSET(L51,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K51" t="e">
+        <v>19</v>
+      </c>
+      <c r="K51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 IF($C51=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L51,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K51,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L51" t="e">
+        <v>13</v>
+      </c>
+      <c r="L51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 IF($K51-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M51" t="e">
+        <v>0</v>
+      </c>
+      <c r="M51" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N51" t="e">
+        <v>it</v>
+      </c>
+      <c r="N51" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O51" t="e">
+        <v>아이템</v>
+      </c>
+      <c r="O51" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P51" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q51" t="e">
+        <v>400</v>
+      </c>
+      <c r="Q51" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R51" t="e">
+        <v>it</v>
+      </c>
+      <c r="R51" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S51" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S51">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -6989,65 +6989,65 @@
       <c r="C52">
         <v>5</v>
       </c>
-      <c r="D52" t="e">
+      <c r="D52">
         <f ca="1">IF(C52&lt;&gt;1,OFFSET(D52,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A52,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J52" t="e">
+      <c r="J52">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 IF($C52=1,MATCH(OFFSET($I52,-($C52-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J52,-1,0)+OFFSET(L52,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" t="e">
+        <v>19</v>
+      </c>
+      <c r="K52">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 IF($C52=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L52,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K52,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L52" t="e">
+        <v>17</v>
+      </c>
+      <c r="L52">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 IF($K52-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M52" t="e">
+        <v>0</v>
+      </c>
+      <c r="M52" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N52" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N52" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O52" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O52" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P52" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P52">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q52" t="e">
+        <v>75</v>
+      </c>
+      <c r="Q52" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R52" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R52" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S52" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S52">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:19">
@@ -7061,65 +7061,65 @@
       <c r="C53">
         <v>6</v>
       </c>
-      <c r="D53" t="e">
+      <c r="D53">
         <f ca="1">IF(C53&lt;&gt;1,OFFSET(D53,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A53,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J53" t="e">
+      <c r="J53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 IF($C53=1,MATCH(OFFSET($I53,-($C53-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J53,-1,0)+OFFSET(L53,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K53" t="e">
+        <v>19</v>
+      </c>
+      <c r="K53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 IF($C53=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L53,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K53,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L53" t="e">
+        <v>21</v>
+      </c>
+      <c r="L53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 IF($K53-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M53" t="e">
+        <v>1</v>
+      </c>
+      <c r="M53" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N53" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N53" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O53" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O53" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P53" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q53" t="e">
+        <v>20000</v>
+      </c>
+      <c r="Q53" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R53" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R53" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S53" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S53">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="54" spans="1:19">
@@ -7133,65 +7133,65 @@
       <c r="C54">
         <v>7</v>
       </c>
-      <c r="D54" t="e">
+      <c r="D54">
         <f ca="1">IF(C54&lt;&gt;1,OFFSET(D54,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A54,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J54" t="e">
+      <c r="J54">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 IF($C54=1,MATCH(OFFSET($I54,-($C54-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J54,-1,0)+OFFSET(L54,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K54" t="e">
+        <v>20</v>
+      </c>
+      <c r="K54">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 IF($C54=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L54,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K54,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L54" t="e">
+        <v>13</v>
+      </c>
+      <c r="L54">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 IF($K54-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M54" t="e">
+        <v>0</v>
+      </c>
+      <c r="M54" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N54" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N54" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O54" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O54" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P54" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P54">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q54" t="e">
+        <v>300</v>
+      </c>
+      <c r="Q54" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R54" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R54" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S54" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S54">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="1:19">
@@ -7205,65 +7205,65 @@
       <c r="C55">
         <v>8</v>
       </c>
-      <c r="D55" t="e">
+      <c r="D55">
         <f ca="1">IF(C55&lt;&gt;1,OFFSET(D55,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A55,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J55" t="e">
+      <c r="J55">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 IF($C55=1,MATCH(OFFSET($I55,-($C55-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J55,-1,0)+OFFSET(L55,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K55" t="e">
+        <v>20</v>
+      </c>
+      <c r="K55">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 IF($C55=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L55,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K55,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L55" t="e">
+        <v>17</v>
+      </c>
+      <c r="L55">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 IF($K55-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M55" t="e">
+        <v>0</v>
+      </c>
+      <c r="M55" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N55" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N55" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O55" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O55" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P55" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P55">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q55" t="e">
+        <v>100</v>
+      </c>
+      <c r="Q55" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R55" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R55" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S55" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S55">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7277,65 +7277,65 @@
       <c r="C56">
         <v>9</v>
       </c>
-      <c r="D56" t="e">
+      <c r="D56">
         <f ca="1">IF(C56&lt;&gt;1,OFFSET(D56,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A56,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J56" t="e">
+      <c r="J56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 IF($C56=1,MATCH(OFFSET($I56,-($C56-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J56,-1,0)+OFFSET(L56,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K56" t="e">
+        <v>20</v>
+      </c>
+      <c r="K56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 IF($C56=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L56,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K56,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L56" t="e">
+        <v>21</v>
+      </c>
+      <c r="L56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 IF($K56-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M56" t="e">
+        <v>1</v>
+      </c>
+      <c r="M56" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N56" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N56" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O56" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O56" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P56" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q56" t="e">
+        <v>40000</v>
+      </c>
+      <c r="Q56" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R56" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R56" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S56" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S56">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7349,65 +7349,65 @@
       <c r="C57">
         <v>10</v>
       </c>
-      <c r="D57" t="e">
+      <c r="D57">
         <f ca="1">IF(C57&lt;&gt;1,OFFSET(D57,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A57,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E57" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J57" t="e">
+      <c r="J57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 IF($C57=1,MATCH(OFFSET($I57,-($C57-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J57,-1,0)+OFFSET(L57,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K57" t="e">
+        <v>21</v>
+      </c>
+      <c r="K57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 IF($C57=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L57,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K57,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L57" t="e">
+        <v>13</v>
+      </c>
+      <c r="L57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 IF($K57-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M57" t="e">
+        <v>0</v>
+      </c>
+      <c r="M57" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N57" t="e">
+        <v>it</v>
+      </c>
+      <c r="N57" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O57" t="e">
+        <v>아이템</v>
+      </c>
+      <c r="O57" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P57" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q57" t="e">
+        <v>1200</v>
+      </c>
+      <c r="Q57" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R57" t="e">
+        <v>it</v>
+      </c>
+      <c r="R57" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S57" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S57">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7421,65 +7421,65 @@
       <c r="C58">
         <v>11</v>
       </c>
-      <c r="D58" t="e">
+      <c r="D58">
         <f ca="1">IF(C58&lt;&gt;1,OFFSET(D58,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A58,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J58" t="e">
+      <c r="J58">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 IF($C58=1,MATCH(OFFSET($I58,-($C58-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J58,-1,0)+OFFSET(L58,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K58" t="e">
+        <v>21</v>
+      </c>
+      <c r="K58">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 IF($C58=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L58,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K58,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L58" t="e">
+        <v>17</v>
+      </c>
+      <c r="L58">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 IF($K58-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M58" t="e">
+        <v>0</v>
+      </c>
+      <c r="M58" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N58" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N58" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O58" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O58" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P58" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P58">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q58" t="e">
+        <v>500</v>
+      </c>
+      <c r="Q58" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R58" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R58" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S58" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S58">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -7493,65 +7493,65 @@
       <c r="C59">
         <v>12</v>
       </c>
-      <c r="D59" t="e">
+      <c r="D59">
         <f ca="1">IF(C59&lt;&gt;1,OFFSET(D59,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A59,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J59" t="e">
+      <c r="J59">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 IF($C59=1,MATCH(OFFSET($I59,-($C59-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J59,-1,0)+OFFSET(L59,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K59" t="e">
+        <v>21</v>
+      </c>
+      <c r="K59">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 IF($C59=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L59,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K59,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L59" t="e">
+        <v>21</v>
+      </c>
+      <c r="L59">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 IF($K59-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M59" t="e">
+        <v>1</v>
+      </c>
+      <c r="M59" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N59" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N59" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O59" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O59" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P59" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P59">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q59" t="e">
+        <v>60000</v>
+      </c>
+      <c r="Q59" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R59" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R59" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S59" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S59">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -7565,10 +7565,10 @@
       <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" t="e">
+      <c r="D60">
         <f ca="1">IF(C60&lt;&gt;1,OFFSET(D60,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A60,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -7591,42 +7591,42 @@
 OFFSET(K60,-1,0)+4)))</f>
         <v>13</v>
       </c>
-      <c r="L60" t="e">
+      <c r="L60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 IF($K60-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M60" t="e">
+        <v>0</v>
+      </c>
+      <c r="M60" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N60" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N60" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O60" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O60" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P60" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q60" t="e">
+        <v>100</v>
+      </c>
+      <c r="Q60" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R60" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R60" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S60" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S60">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -7640,65 +7640,65 @@
       <c r="C61">
         <v>2</v>
       </c>
-      <c r="D61" t="e">
+      <c r="D61">
         <f ca="1">IF(C61&lt;&gt;1,OFFSET(D61,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A61,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J61" t="e">
+      <c r="J61">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 IF($C61=1,MATCH(OFFSET($I61,-($C61-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J61,-1,0)+OFFSET(L61,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K61" t="e">
+        <v>22</v>
+      </c>
+      <c r="K61">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 IF($C61=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L61,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K61,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L61" t="e">
+        <v>17</v>
+      </c>
+      <c r="L61">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 IF($K61-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M61" t="e">
+        <v>0</v>
+      </c>
+      <c r="M61" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N61" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N61" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O61" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O61" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P61" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P61">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q61" t="e">
+        <v>50</v>
+      </c>
+      <c r="Q61" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R61" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R61" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S61" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S61">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -7712,65 +7712,65 @@
       <c r="C62">
         <v>3</v>
       </c>
-      <c r="D62" t="e">
+      <c r="D62">
         <f ca="1">IF(C62&lt;&gt;1,OFFSET(D62,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A62,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J62" t="e">
+      <c r="J62">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 IF($C62=1,MATCH(OFFSET($I62,-($C62-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J62,-1,0)+OFFSET(L62,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K62" t="e">
+        <v>22</v>
+      </c>
+      <c r="K62">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 IF($C62=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L62,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K62,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L62" t="e">
+        <v>21</v>
+      </c>
+      <c r="L62">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 IF($K62-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M62" t="e">
+        <v>1</v>
+      </c>
+      <c r="M62" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N62" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N62" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O62" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O62" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P62" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P62">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q62" t="e">
+        <v>10000</v>
+      </c>
+      <c r="Q62" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R62" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R62" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S62" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S62">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -7784,65 +7784,65 @@
       <c r="C63">
         <v>4</v>
       </c>
-      <c r="D63" t="e">
+      <c r="D63">
         <f ca="1">IF(C63&lt;&gt;1,OFFSET(D63,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A63,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J63" t="e">
+      <c r="J63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 IF($C63=1,MATCH(OFFSET($I63,-($C63-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J63,-1,0)+OFFSET(L63,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K63" t="e">
+        <v>23</v>
+      </c>
+      <c r="K63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 IF($C63=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L63,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K63,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L63" t="e">
+        <v>13</v>
+      </c>
+      <c r="L63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 IF($K63-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M63" t="e">
+        <v>0</v>
+      </c>
+      <c r="M63" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N63" t="e">
+        <v>it</v>
+      </c>
+      <c r="N63" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O63" t="e">
+        <v>아이템</v>
+      </c>
+      <c r="O63" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P63" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q63" t="e">
+        <v>300</v>
+      </c>
+      <c r="Q63" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R63" t="e">
+        <v>it</v>
+      </c>
+      <c r="R63" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S63" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S63">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -7856,65 +7856,65 @@
       <c r="C64">
         <v>5</v>
       </c>
-      <c r="D64" t="e">
+      <c r="D64">
         <f ca="1">IF(C64&lt;&gt;1,OFFSET(D64,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A64,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J64" t="e">
+      <c r="J64">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 IF($C64=1,MATCH(OFFSET($I64,-($C64-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J64,-1,0)+OFFSET(L64,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K64" t="e">
+        <v>23</v>
+      </c>
+      <c r="K64">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 IF($C64=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L64,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K64,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L64" t="e">
+        <v>17</v>
+      </c>
+      <c r="L64">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 IF($K64-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M64" t="e">
+        <v>0</v>
+      </c>
+      <c r="M64" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N64" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N64" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O64" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O64" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P64" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P64">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q64" t="e">
+        <v>75</v>
+      </c>
+      <c r="Q64" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R64" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R64" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S64" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S64">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:19">
@@ -7928,65 +7928,65 @@
       <c r="C65">
         <v>6</v>
       </c>
-      <c r="D65" t="e">
+      <c r="D65">
         <f ca="1">IF(C65&lt;&gt;1,OFFSET(D65,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A65,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
-      <c r="J65" t="e">
+      <c r="J65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 IF($C65=1,MATCH(OFFSET($I65,-($C65-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J65,-1,0)+OFFSET(L65,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K65" t="e">
+        <v>23</v>
+      </c>
+      <c r="K65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 IF($C65=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L65,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K65,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L65" t="e">
+        <v>21</v>
+      </c>
+      <c r="L65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 IF($K65-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M65" t="e">
+        <v>1</v>
+      </c>
+      <c r="M65" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N65" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N65" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O65" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O65" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P65" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q65" t="e">
+        <v>20000</v>
+      </c>
+      <c r="Q65" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R65" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R65" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S65" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S65">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="66" spans="1:19">
@@ -8000,10 +8000,10 @@
       <c r="C66">
         <v>7</v>
       </c>
-      <c r="D66" t="e">
+      <c r="D66">
         <f ca="1">IF(C66&lt;&gt;1,OFFSET(D66,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A66,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" ref="E66:E71" ca="1" si="27">IF(ISBLANK(F66),"",
@@ -8011,56 +8011,56 @@
 )</f>
         <v/>
       </c>
-      <c r="J66" t="e">
+      <c r="J66">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 IF($C66=1,MATCH(OFFSET($I66,-($C66-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J66,-1,0)+OFFSET(L66,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K66" t="e">
+        <v>24</v>
+      </c>
+      <c r="K66">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 IF($C66=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L66,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K66,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L66" t="e">
+        <v>13</v>
+      </c>
+      <c r="L66">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 IF($K66-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M66" t="e">
+        <v>0</v>
+      </c>
+      <c r="M66" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N66" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N66" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O66" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O66" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P66" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P66">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q66" t="e">
+        <v>300</v>
+      </c>
+      <c r="Q66" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R66" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R66" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S66" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S66">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>300</v>
       </c>
     </row>
     <row r="67" spans="1:19">
@@ -8074,65 +8074,65 @@
       <c r="C67">
         <v>8</v>
       </c>
-      <c r="D67" t="e">
+      <c r="D67">
         <f ca="1">IF(C67&lt;&gt;1,OFFSET(D67,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A67,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J67" t="e">
+      <c r="J67">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 IF($C67=1,MATCH(OFFSET($I67,-($C67-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J67,-1,0)+OFFSET(L67,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K67" t="e">
+        <v>24</v>
+      </c>
+      <c r="K67">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 IF($C67=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L67,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K67,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L67" t="e">
+        <v>17</v>
+      </c>
+      <c r="L67">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 IF($K67-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M67" t="e">
+        <v>0</v>
+      </c>
+      <c r="M67" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N67" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N67" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O67" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O67" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P67" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P67">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q67" t="e">
+        <v>100</v>
+      </c>
+      <c r="Q67" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R67" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R67" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S67" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S67">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -8146,65 +8146,65 @@
       <c r="C68">
         <v>9</v>
       </c>
-      <c r="D68" t="e">
+      <c r="D68">
         <f ca="1">IF(C68&lt;&gt;1,OFFSET(D68,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A68,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E68" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J68" t="e">
+      <c r="J68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 IF($C68=1,MATCH(OFFSET($I68,-($C68-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J68,-1,0)+OFFSET(L68,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K68" t="e">
+        <v>24</v>
+      </c>
+      <c r="K68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 IF($C68=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L68,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K68,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L68" t="e">
+        <v>21</v>
+      </c>
+      <c r="L68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 IF($K68-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M68" t="e">
+        <v>1</v>
+      </c>
+      <c r="M68" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N68" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N68" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O68" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O68" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P68" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q68" t="e">
+        <v>40000</v>
+      </c>
+      <c r="Q68" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R68" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R68" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S68" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S68">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -8218,65 +8218,65 @@
       <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69" t="e">
+      <c r="D69">
         <f ca="1">IF(C69&lt;&gt;1,OFFSET(D69,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A69,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E69" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J69" t="e">
+      <c r="J69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 IF($C69=1,MATCH(OFFSET($I69,-($C69-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J69,-1,0)+OFFSET(L69,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K69" t="e">
+        <v>25</v>
+      </c>
+      <c r="K69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 IF($C69=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L69,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K69,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L69" t="e">
+        <v>13</v>
+      </c>
+      <c r="L69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 IF($K69-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M69" t="e">
+        <v>0</v>
+      </c>
+      <c r="M69" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N69" t="e">
+        <v>it</v>
+      </c>
+      <c r="N69" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O69" t="e">
+        <v>아이템</v>
+      </c>
+      <c r="O69" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P69" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="P69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q69" t="e">
+        <v>1000</v>
+      </c>
+      <c r="Q69" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R69" t="e">
+        <v>it</v>
+      </c>
+      <c r="R69" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S69" t="e">
+        <v>Cash_sSevenTotal</v>
+      </c>
+      <c r="S69">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -8290,65 +8290,65 @@
       <c r="C70">
         <v>11</v>
       </c>
-      <c r="D70" t="e">
+      <c r="D70">
         <f ca="1">IF(C70&lt;&gt;1,OFFSET(D70,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A70,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E70" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J70" t="e">
+      <c r="J70">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 IF($C70=1,MATCH(OFFSET($I70,-($C70-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J70,-1,0)+OFFSET(L70,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K70" t="e">
+        <v>25</v>
+      </c>
+      <c r="K70">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 IF($C70=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L70,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K70,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L70" t="e">
+        <v>17</v>
+      </c>
+      <c r="L70">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 IF($K70-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M70" t="e">
+        <v>0</v>
+      </c>
+      <c r="M70" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N70" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N70" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O70" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O70" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P70" t="e">
+        <v>EN</v>
+      </c>
+      <c r="P70">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q70" t="e">
+        <v>500</v>
+      </c>
+      <c r="Q70" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R70" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R70" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S70" t="e">
+        <v>EN</v>
+      </c>
+      <c r="S70">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -8362,65 +8362,65 @@
       <c r="C71">
         <v>12</v>
       </c>
-      <c r="D71" t="e">
+      <c r="D71">
         <f ca="1">IF(C71&lt;&gt;1,OFFSET(D71,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A71,[1]ShopProductTable!$E:$E))</f>
-        <v>#VALUE!</v>
+        <v>12</v>
       </c>
       <c r="E71" t="str">
         <f t="shared" ca="1" si="27"/>
         <v/>
       </c>
-      <c r="J71" t="e">
+      <c r="J71">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 IF($C71=1,MATCH(OFFSET($I71,-($C71-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J71,-1,0)+OFFSET(L71,-1,0)
 ))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K71" t="e">
+        <v>25</v>
+      </c>
+      <c r="K71">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 IF($C71=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L71,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K71,-1,0)+4)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L71" t="e">
+        <v>21</v>
+      </c>
+      <c r="L71">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 IF($K71-1+4=28,1,
 IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71-1+4))=0,1,0)))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="M71" t="e">
+        <v>1</v>
+      </c>
+      <c r="M71" t="str">
         <f t="shared" ca="1" si="23"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N71" t="e">
+        <v>cu</v>
+      </c>
+      <c r="N71" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O71" t="e">
+        <v>재화</v>
+      </c>
+      <c r="O71" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71+1))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P71" t="e">
+        <v>GO</v>
+      </c>
+      <c r="P71">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71+2))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q71" t="e">
+        <v>60000</v>
+      </c>
+      <c r="Q71" t="str">
         <f t="shared" ca="1" si="24"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R71" t="e">
+        <v>cu</v>
+      </c>
+      <c r="R71" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="S71" t="e">
+        <v>GO</v>
+      </c>
+      <c r="S71">
         <f t="shared" ca="1" si="26"/>
-        <v>#VALUE!</v>
+        <v>60000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC39F5D-F95A-4FDA-B8D8-99ACDF8A5EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292F2CD-9E04-47EF-9361-AF34FFA17D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -1297,6 +1297,83 @@
           </cell>
           <cell r="E49">
             <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50" t="str">
+            <v>petsale_1</v>
+          </cell>
+          <cell r="D50" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51" t="str">
+            <v>petsale_2</v>
+          </cell>
+          <cell r="D51" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52" t="str">
+            <v>petsale_3</v>
+          </cell>
+          <cell r="D52" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53" t="str">
+            <v>petsale_4</v>
+          </cell>
+          <cell r="D53" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54" t="str">
+            <v>petsale_5</v>
+          </cell>
+          <cell r="D54" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55" t="str">
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="D55" t="str">
+            <v>petcapture</v>
+          </cell>
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56" t="str">
+            <v>petcapture_best</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>petcapture</v>
+          </cell>
+          <cell r="E56">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -1610,7 +1687,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1789,7 +1866,7 @@
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L14" si="2">IF(ISBLANK($Q2),"",MONTH($Q2))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M14" si="3">IF(ISBLANK($Q2),"",DAY($Q2))</f>
@@ -1797,21 +1874,21 @@
       </c>
       <c r="N2">
         <f t="shared" ref="N2:N14" si="4">IF(ISBLANK($R2),"",YEAR($R2+1))</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O14" si="5">IF(ISBLANK($R2),"",MONTH($R2+1))</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P14" si="6">IF(ISBLANK($R2),"",DAY($R2+1))</f>
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="R2" s="3">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="S2">
         <f>K2</f>
@@ -1819,7 +1896,7 @@
       </c>
       <c r="T2">
         <f t="shared" ref="T2:X14" si="7">L2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U2">
         <f t="shared" si="7"/>
@@ -1827,11 +1904,11 @@
       </c>
       <c r="V2">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W2">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <f t="shared" si="7"/>
@@ -1916,7 +1993,7 @@
       </c>
       <c r="L3">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M3">
         <f t="shared" si="3"/>
@@ -1924,21 +2001,21 @@
       </c>
       <c r="N3">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="R3" s="3">
-        <v>44895</v>
+        <v>44926</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S14" si="9">K3</f>
@@ -1946,7 +2023,7 @@
       </c>
       <c r="T3">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U3">
         <f t="shared" si="7"/>
@@ -1954,11 +2031,11 @@
       </c>
       <c r="V3">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W3">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <f t="shared" si="7"/>
@@ -2041,7 +2118,7 @@
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
@@ -2057,13 +2134,13 @@
       </c>
       <c r="P4">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q4" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="R4" s="3">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="S4">
         <f t="shared" si="9"/>
@@ -2071,7 +2148,7 @@
       </c>
       <c r="T4">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U4">
         <f t="shared" si="7"/>
@@ -2087,7 +2164,7 @@
       </c>
       <c r="X4">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Y4" t="s">
         <v>52</v>
@@ -2163,7 +2240,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
@@ -2175,17 +2252,17 @@
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="Q5" s="3">
-        <v>44877</v>
+        <v>44907</v>
       </c>
       <c r="R5" s="3">
-        <v>44892</v>
+        <v>44922</v>
       </c>
       <c r="S5">
         <f t="shared" si="9"/>
@@ -2193,7 +2270,7 @@
       </c>
       <c r="T5">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U5">
         <f t="shared" si="7"/>
@@ -2205,7 +2282,7 @@
       </c>
       <c r="W5">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X5">
         <f t="shared" si="7"/>
@@ -2285,7 +2362,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
@@ -2297,17 +2374,17 @@
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="Q6" s="3">
-        <v>44829</v>
+        <v>44859</v>
       </c>
       <c r="R6" s="3">
-        <v>44880</v>
+        <v>44910</v>
       </c>
       <c r="S6">
         <f t="shared" si="9"/>
@@ -2315,7 +2392,7 @@
       </c>
       <c r="T6">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U6">
         <f t="shared" si="7"/>
@@ -2327,7 +2404,7 @@
       </c>
       <c r="W6">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X6">
         <f t="shared" si="7"/>
@@ -2408,7 +2485,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
@@ -2420,17 +2497,17 @@
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="Q7" s="3">
-        <v>44816</v>
+        <v>44846</v>
       </c>
       <c r="R7" s="3">
-        <v>44892</v>
+        <v>44922</v>
       </c>
       <c r="S7">
         <f t="shared" si="9"/>
@@ -2438,7 +2515,7 @@
       </c>
       <c r="T7">
         <f t="shared" si="7"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U7">
         <f t="shared" si="7"/>
@@ -2450,7 +2527,7 @@
       </c>
       <c r="W7">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X7">
         <f t="shared" si="7"/>
@@ -2520,7 +2597,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
@@ -2536,13 +2613,13 @@
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="R8" s="3">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="S8">
         <f t="shared" si="9"/>
@@ -2550,7 +2627,7 @@
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U8">
         <f t="shared" si="7"/>
@@ -2566,7 +2643,7 @@
       </c>
       <c r="X8">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Y8" t="s">
         <v>52</v>
@@ -2632,7 +2709,7 @@
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
@@ -2648,13 +2725,13 @@
       </c>
       <c r="P9">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q9" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="R9" s="3">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="S9">
         <f t="shared" si="9"/>
@@ -2662,7 +2739,7 @@
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U9">
         <f t="shared" si="7"/>
@@ -2678,7 +2755,7 @@
       </c>
       <c r="X9">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Y9" t="s">
         <v>52</v>
@@ -2744,7 +2821,7 @@
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
@@ -2760,13 +2837,13 @@
       </c>
       <c r="P10">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="R10" s="3">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="S10">
         <f t="shared" si="9"/>
@@ -2774,7 +2851,7 @@
       </c>
       <c r="T10">
         <f t="shared" si="7"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U10">
         <f t="shared" si="7"/>
@@ -2790,7 +2867,7 @@
       </c>
       <c r="X10">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Y10" t="s">
         <v>52</v>
@@ -2862,7 +2939,7 @@
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
@@ -2878,13 +2955,13 @@
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Q11" s="3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="R11" s="3">
-        <v>44895</v>
+        <v>44925</v>
       </c>
       <c r="S11">
         <f t="shared" ref="S11" si="22">K11</f>
@@ -2892,7 +2969,7 @@
       </c>
       <c r="T11">
         <f t="shared" ref="T11" si="23">L11</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U11">
         <f t="shared" ref="U11" si="24">M11</f>
@@ -2908,7 +2985,7 @@
       </c>
       <c r="X11">
         <f t="shared" ref="X11" si="27">P11</f>
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="Y11" t="s">
         <v>52</v>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0292F2CD-9E04-47EF-9361-AF34FFA17D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED88F66-7B8B-4C4F-9D07-37313EC086F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,18 +194,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>출석체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지저금통</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그외기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매_원플러스투</t>
   </si>
   <si>
@@ -494,6 +482,10 @@
   </si>
   <si>
     <t>ev11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온클로즈메인메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1681,13 +1673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AN14"/>
+  <dimension ref="A1:AL14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1715,10 +1707,9 @@
     <col min="35" max="35" width="26.5" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="9" customWidth="1" outlineLevel="1"/>
     <col min="38" max="38" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="40" max="40" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="27" customHeight="1">
+    <row r="1" spans="1:38" ht="27" customHeight="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1729,13 +1720,13 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
         <v>18</v>
@@ -1744,96 +1735,93 @@
         <v>19</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>58</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" t="s">
         <v>60</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>63</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>64</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>65</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>66</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>67</v>
       </c>
-      <c r="X1" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>70</v>
-      </c>
       <c r="AA1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AB1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE1" t="s">
         <v>79</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>82</v>
       </c>
       <c r="AG1" t="s">
         <v>35</v>
       </c>
       <c r="AI1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s">
         <v>24</v>
       </c>
       <c r="AL1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
@@ -1915,14 +1903,14 @@
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="Z2" s="4">
         <f t="shared" ref="Z2:AB5" ca="1" si="8">VLOOKUP(Y2,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>3</v>
       </c>
       <c r="AA2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB2" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -1943,27 +1931,24 @@
         <v>37</v>
       </c>
       <c r="AI2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AJ2">
         <v>0</v>
       </c>
-      <c r="AL2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN2" t="str">
+      <c r="AL2" t="str">
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
         <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:38">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>36</v>
@@ -2042,14 +2027,14 @@
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z3" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="AA3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AB3" s="4">
         <f t="shared" ca="1" si="8"/>
@@ -2070,27 +2055,24 @@
         <v>39</v>
       </c>
       <c r="AI3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="AJ3">
         <v>1</v>
       </c>
-      <c r="AL3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+    </row>
+    <row r="4" spans="1:38">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F4">
         <f ca="1">IF(NOT(ISBLANK(E4)),E4,
@@ -2167,18 +2149,18 @@
         <v>31</v>
       </c>
       <c r="Y4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z4" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB4" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB4" s="4" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC4" s="4">
         <v>1</v>
@@ -2195,13 +2177,13 @@
         <v>41</v>
       </c>
       <c r="AI4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AJ4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:38">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2212,7 +2194,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F5">
         <f ca="1">IF(NOT(ISBLANK(E5)),E5,
@@ -2289,18 +2271,18 @@
         <v>28</v>
       </c>
       <c r="Y5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" ca="1" si="8"/>
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB5" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB5" s="4" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC5" s="4">
         <v>1</v>
@@ -2314,27 +2296,27 @@
         <v>"ev4":172800</v>
       </c>
       <c r="AG5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AJ5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
+    <row r="6" spans="1:38">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F6">
         <f ca="1">IF(NOT(ISBLANK(E6)),E6,
@@ -2411,18 +2393,18 @@
         <v>16</v>
       </c>
       <c r="Y6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z6" s="4">
         <f t="shared" ref="Z6" ca="1" si="12">VLOOKUP(Y6,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB6" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB6" s="4" t="e">
         <f t="shared" ref="AB6" ca="1" si="13">VLOOKUP(AA6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC6" s="4">
         <v>1</v>
@@ -2436,27 +2418,27 @@
         <v>"ev5":86400</v>
       </c>
       <c r="AG6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AI6" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AJ6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:38">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F7">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
@@ -2534,18 +2516,18 @@
         <v>28</v>
       </c>
       <c r="Y7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z7" s="4">
         <f t="shared" ref="Z7" ca="1" si="14">VLOOKUP(Y7,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB7" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB7" s="4" t="e">
         <f t="shared" ref="AB7" ca="1" si="15">VLOOKUP(AA7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC7" s="4">
         <v>1</v>
@@ -2559,18 +2541,18 @@
         <v>"ev6":2592000</v>
       </c>
       <c r="AG7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F8">
         <f ca="1">IF(NOT(ISBLANK(E8)),E8,
@@ -2646,18 +2628,18 @@
         <v>31</v>
       </c>
       <c r="Y8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z8" s="4">
         <f t="shared" ref="Z8:Z9" ca="1" si="16">VLOOKUP(Y8,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB8" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB8" s="4" t="e">
         <f t="shared" ref="AB8:AB9" ca="1" si="17">VLOOKUP(AA8,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC8" s="4">
         <v>1</v>
@@ -2671,18 +2653,18 @@
         <v>"ev7":600</v>
       </c>
       <c r="AG8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F9">
         <f ca="1">IF(NOT(ISBLANK(E9)),E9,
@@ -2758,18 +2740,18 @@
         <v>31</v>
       </c>
       <c r="Y9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z9" s="4">
         <f t="shared" ca="1" si="16"/>
         <v>1</v>
       </c>
       <c r="AA9" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB9" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB9" s="4" t="e">
         <f t="shared" ca="1" si="17"/>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC9" s="4">
         <v>1</v>
@@ -2783,18 +2765,18 @@
         <v>"ev8":0</v>
       </c>
       <c r="AG9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F10">
         <f ca="1">IF(NOT(ISBLANK(E10)),E10,
@@ -2870,18 +2852,18 @@
         <v>31</v>
       </c>
       <c r="Y10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z10" s="4">
         <f t="shared" ref="Z10" ca="1" si="18">VLOOKUP(Y10,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AB10" s="4">
+        <v>77</v>
+      </c>
+      <c r="AB10" s="4" t="e">
         <f t="shared" ref="AB10" ca="1" si="19">VLOOKUP(AA10,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC10" s="4">
         <v>1</v>
@@ -2895,18 +2877,18 @@
         <v>"ev9":0</v>
       </c>
       <c r="AG10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <f ca="1">IF(NOT(ISBLANK(E11)),E11,
@@ -2988,18 +2970,18 @@
         <v>31</v>
       </c>
       <c r="Y11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z11">
         <f t="shared" ref="Z11" ca="1" si="28">VLOOKUP(Y11,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB11" s="4">
+        <v>116</v>
+      </c>
+      <c r="AB11" s="4" t="e">
         <f t="shared" ref="AB11" ca="1" si="29">VLOOKUP(AA11,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>4</v>
+        <v>#N/A</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -3013,9 +2995,9 @@
         <v>"ev10":0</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F12">
         <f ca="1">IF(NOT(ISBLANK(E12)),E12,
@@ -3102,7 +3084,7 @@
         <v>"ev11":0</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:38">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3185,9 +3167,9 @@
         <v>"ev12":0</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:38">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <f ca="1">IF(NOT(ISBLANK(E14)),E14,
@@ -3275,7 +3257,7 @@
       <formula>$R1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA14 C2:C14 Y2:Y14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
@@ -3324,7 +3306,7 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -3339,16 +3321,16 @@
         <v>28</v>
       </c>
       <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>21</v>
@@ -3401,7 +3383,7 @@
         <v/>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
@@ -3469,7 +3451,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B3" t="str">
         <f>IFERROR(VLOOKUP(A3,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -3653,7 +3635,7 @@
         <v/>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
@@ -4379,7 +4361,7 @@
         <v/>
       </c>
       <c r="I15" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
@@ -5083,7 +5065,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5102,7 +5084,7 @@
         <v/>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
@@ -5164,7 +5146,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B26" t="str">
         <f>IFERROR(VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5239,7 +5221,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5311,7 +5293,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5383,7 +5365,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5455,7 +5437,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5527,7 +5509,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5599,7 +5581,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5671,7 +5653,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5743,7 +5725,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5815,7 +5797,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(VLOOKUP(A35,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5887,7 +5869,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(VLOOKUP(A36,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5906,7 +5888,7 @@
         <v/>
       </c>
       <c r="I36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J36">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
@@ -5968,7 +5950,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(VLOOKUP(A37,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6040,7 +6022,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(VLOOKUP(A38,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6112,7 +6094,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(VLOOKUP(A39,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6184,7 +6166,7 @@
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(VLOOKUP(A40,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6256,7 +6238,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(VLOOKUP(A41,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6328,7 +6310,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(VLOOKUP(A42,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6400,7 +6382,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B43" t="str">
         <f>IFERROR(VLOOKUP(A43,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6472,7 +6454,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(VLOOKUP(A44,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6544,7 +6526,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(VLOOKUP(A45,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6616,7 +6598,7 @@
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(VLOOKUP(A46,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6688,7 +6670,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(VLOOKUP(A47,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6760,7 +6742,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(VLOOKUP(A48,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6779,7 +6761,7 @@
         <v/>
       </c>
       <c r="I48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
@@ -6841,7 +6823,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(VLOOKUP(A49,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6913,7 +6895,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(VLOOKUP(A50,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6985,7 +6967,7 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(VLOOKUP(A51,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7057,7 +7039,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(VLOOKUP(A52,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7129,7 +7111,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(VLOOKUP(A53,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7201,7 +7183,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(VLOOKUP(A54,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7273,7 +7255,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(VLOOKUP(A55,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7345,7 +7327,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(VLOOKUP(A56,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7417,7 +7399,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(VLOOKUP(A57,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7489,7 +7471,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B58" t="str">
         <f>IFERROR(VLOOKUP(A58,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7561,7 +7543,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(VLOOKUP(A59,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7633,7 +7615,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(VLOOKUP(A60,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7652,7 +7634,7 @@
         <v/>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
@@ -7708,7 +7690,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(VLOOKUP(A61,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7780,7 +7762,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(VLOOKUP(A62,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7852,7 +7834,7 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(VLOOKUP(A63,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7924,7 +7906,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(VLOOKUP(A64,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7996,7 +7978,7 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(VLOOKUP(A65,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8068,7 +8050,7 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(VLOOKUP(A66,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8142,7 +8124,7 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(VLOOKUP(A67,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8214,7 +8196,7 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B68" t="str">
         <f>IFERROR(VLOOKUP(A68,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8286,7 +8268,7 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(VLOOKUP(A69,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8358,7 +8340,7 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(VLOOKUP(A70,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8430,7 +8412,7 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(VLOOKUP(A71,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8528,19 +8510,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED88F66-7B8B-4C4F-9D07-37313EC086F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD245B7F-A607-4FF5-BB9A-7510123AE3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="124">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>온앱포즈 &amp; 홈 도착</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>evCool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -368,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test_bigboost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>productCount|Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -478,15 +470,43 @@
     <t>스펠뽑기량 증가</t>
   </si>
   <si>
-    <t>온앱포즈 &amp; 홈 도착</t>
-  </si>
-  <si>
     <t>ev11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>온클로즈메인메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>festivalgroup1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev1_bigboost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>festivalgroup1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>festivalgroup2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>festivalgroup2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>festivalgroup3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>festivalgroup3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온클로즈메인메뉴</t>
   </si>
 </sst>
 </file>
@@ -765,10 +785,10 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>test_levelpass</v>
+            <v>levelpass</v>
           </cell>
           <cell r="D2" t="str">
-            <v>test</v>
+            <v>levelpass</v>
           </cell>
           <cell r="E2">
             <v>1</v>
@@ -776,10 +796,10 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>test_bigboost</v>
+            <v>ev1_bigboost</v>
           </cell>
           <cell r="D3" t="str">
-            <v>test</v>
+            <v>ev1</v>
           </cell>
           <cell r="E3">
             <v>2</v>
@@ -787,18 +807,18 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>ev3_oneofthree_1</v>
+            <v>brokenenergy</v>
           </cell>
           <cell r="D4" t="str">
-            <v>ev3</v>
+            <v>brokenenergy</v>
           </cell>
           <cell r="E4">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>ev3_oneofthree_2</v>
+            <v>ev3_oneofthree_1</v>
           </cell>
           <cell r="D5" t="str">
             <v>ev3</v>
@@ -809,117 +829,117 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>ev3_oneofthree_3</v>
+            <v>ev3_oneofthree_2</v>
           </cell>
           <cell r="D6" t="str">
             <v>ev3</v>
           </cell>
           <cell r="E6">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>ev4_conti_1</v>
+            <v>ev3_oneofthree_3</v>
           </cell>
           <cell r="D7" t="str">
-            <v>ev4</v>
+            <v>ev3</v>
           </cell>
           <cell r="E7">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>ev4_conti_2</v>
+            <v>ev4_conti_1</v>
           </cell>
           <cell r="D8" t="str">
             <v>ev4</v>
           </cell>
           <cell r="E8">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>ev4_conti_3</v>
+            <v>ev4_conti_2</v>
           </cell>
           <cell r="D9" t="str">
             <v>ev4</v>
           </cell>
           <cell r="E9">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>ev4_conti_4</v>
+            <v>ev4_conti_3</v>
           </cell>
           <cell r="D10" t="str">
             <v>ev4</v>
           </cell>
           <cell r="E10">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>ev5_oneplustwo_1</v>
+            <v>ev4_conti_4</v>
           </cell>
           <cell r="D11" t="str">
-            <v>ev5</v>
+            <v>ev4</v>
           </cell>
           <cell r="E11">
-            <v>4</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>ev5_oneplustwo_2</v>
+            <v>ev5_oneplustwo_1</v>
           </cell>
           <cell r="D12" t="str">
             <v>ev5</v>
           </cell>
           <cell r="E12">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>ev5_oneplustwo_3</v>
+            <v>ev5_oneplustwo_2</v>
           </cell>
           <cell r="D13" t="str">
             <v>ev5</v>
           </cell>
           <cell r="E13">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>seventotalgroup1_1</v>
+            <v>ev5_oneplustwo_3</v>
           </cell>
           <cell r="D14" t="str">
-            <v>seventotalgroup1</v>
+            <v>ev5</v>
           </cell>
           <cell r="E14">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>seventotalgroup1_2</v>
+            <v>fortunewheel</v>
           </cell>
           <cell r="D15" t="str">
-            <v>seventotalgroup1</v>
+            <v>fortunewheel</v>
           </cell>
           <cell r="E15">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>seventotalgroup1_3</v>
+            <v>seventotalgroup1_1</v>
           </cell>
           <cell r="D16" t="str">
             <v>seventotalgroup1</v>
@@ -930,7 +950,7 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>seventotalgroup1_4</v>
+            <v>seventotalgroup1_2</v>
           </cell>
           <cell r="D17" t="str">
             <v>seventotalgroup1</v>
@@ -941,10 +961,10 @@
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>seventotalgroup2_1</v>
+            <v>seventotalgroup1_3</v>
           </cell>
           <cell r="D18" t="str">
-            <v>seventotalgroup2</v>
+            <v>seventotalgroup1</v>
           </cell>
           <cell r="E18">
             <v>3</v>
@@ -952,10 +972,10 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>seventotalgroup2_2</v>
+            <v>seventotalgroup1_4</v>
           </cell>
           <cell r="D19" t="str">
-            <v>seventotalgroup2</v>
+            <v>seventotalgroup1</v>
           </cell>
           <cell r="E19">
             <v>3</v>
@@ -963,7 +983,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>seventotalgroup2_3</v>
+            <v>seventotalgroup2_1</v>
           </cell>
           <cell r="D20" t="str">
             <v>seventotalgroup2</v>
@@ -974,7 +994,7 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>seventotalgroup2_4</v>
+            <v>seventotalgroup2_2</v>
           </cell>
           <cell r="D21" t="str">
             <v>seventotalgroup2</v>
@@ -985,10 +1005,10 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>seventotalgroup3_1</v>
+            <v>seventotalgroup2_3</v>
           </cell>
           <cell r="D22" t="str">
-            <v>seventotalgroup3</v>
+            <v>seventotalgroup2</v>
           </cell>
           <cell r="E22">
             <v>3</v>
@@ -996,10 +1016,10 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>seventotalgroup3_2</v>
+            <v>seventotalgroup2_4</v>
           </cell>
           <cell r="D23" t="str">
-            <v>seventotalgroup3</v>
+            <v>seventotalgroup2</v>
           </cell>
           <cell r="E23">
             <v>3</v>
@@ -1007,7 +1027,7 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>seventotalgroup3_3</v>
+            <v>seventotalgroup3_1</v>
           </cell>
           <cell r="D24" t="str">
             <v>seventotalgroup3</v>
@@ -1018,7 +1038,7 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>seventotalgroup3_4</v>
+            <v>seventotalgroup3_2</v>
           </cell>
           <cell r="D25" t="str">
             <v>seventotalgroup3</v>
@@ -1029,164 +1049,164 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>cashshopenergy_1</v>
+            <v>seventotalgroup3_3</v>
           </cell>
           <cell r="D26" t="str">
-            <v>cashshopenergy</v>
+            <v>seventotalgroup3</v>
           </cell>
           <cell r="E26">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>cashshopenergy_2</v>
+            <v>seventotalgroup3_4</v>
           </cell>
           <cell r="D27" t="str">
-            <v>cashshopenergy</v>
+            <v>seventotalgroup3</v>
           </cell>
           <cell r="E27">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>cashshopenergy_3</v>
+            <v>festivalgroup1_1</v>
           </cell>
           <cell r="D28" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup1</v>
           </cell>
           <cell r="E28">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>cashshopenergy_4</v>
+            <v>festivalgroup1_2</v>
           </cell>
           <cell r="D29" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup1</v>
           </cell>
           <cell r="E29">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>cashshopenergy_5</v>
+            <v>festivalgroup1_3</v>
           </cell>
           <cell r="D30" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup1</v>
           </cell>
           <cell r="E30">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>cashshopenergy_6</v>
+            <v>festivalgroup1_4</v>
           </cell>
           <cell r="D31" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup1</v>
           </cell>
           <cell r="E31">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>cashshopenergy_1_more</v>
+            <v>festivalgroup2_1</v>
           </cell>
           <cell r="D32" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup2</v>
           </cell>
           <cell r="E32">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>cashshopenergy_2_more</v>
+            <v>festivalgroup2_2</v>
           </cell>
           <cell r="D33" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup2</v>
           </cell>
           <cell r="E33">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>cashshopenergy_3_more</v>
+            <v>festivalgroup2_3</v>
           </cell>
           <cell r="D34" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup2</v>
           </cell>
           <cell r="E34">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>cashshopenergy_4_more</v>
+            <v>festivalgroup2_4</v>
           </cell>
           <cell r="D35" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup2</v>
           </cell>
           <cell r="E35">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>cashshopenergy_5_more</v>
+            <v>festivalgroup3_1</v>
           </cell>
           <cell r="D36" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup3</v>
           </cell>
           <cell r="E36">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>cashshopenergy_6_more</v>
+            <v>festivalgroup3_2</v>
           </cell>
           <cell r="D37" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup3</v>
           </cell>
           <cell r="E37">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>cashshopgold_1</v>
+            <v>festivalgroup3_3</v>
           </cell>
           <cell r="D38" t="str">
-            <v>cashshopgold</v>
+            <v>festivalgroup3</v>
           </cell>
           <cell r="E38">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>cashshopgold_2</v>
+            <v>festivalgroup3_4</v>
           </cell>
           <cell r="D39" t="str">
-            <v>cashshopgold</v>
+            <v>festivalgroup3</v>
           </cell>
           <cell r="E39">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>cashshopgold_3</v>
+            <v>cashshopenergy_1</v>
           </cell>
           <cell r="D40" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E40">
             <v>1</v>
@@ -1194,10 +1214,10 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>cashshopgold_4</v>
+            <v>cashshopenergy_2</v>
           </cell>
           <cell r="D41" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E41">
             <v>1</v>
@@ -1205,10 +1225,10 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>cashshopgold_5</v>
+            <v>cashshopenergy_3</v>
           </cell>
           <cell r="D42" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E42">
             <v>1</v>
@@ -1216,10 +1236,10 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>cashshopgold_6</v>
+            <v>cashshopenergy_4</v>
           </cell>
           <cell r="D43" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E43">
             <v>1</v>
@@ -1227,10 +1247,10 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>cashshopgold_1_more</v>
+            <v>cashshopenergy_5</v>
           </cell>
           <cell r="D44" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E44">
             <v>1</v>
@@ -1238,10 +1258,10 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>cashshopgold_2_more</v>
+            <v>cashshopenergy_6</v>
           </cell>
           <cell r="D45" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E45">
             <v>1</v>
@@ -1249,10 +1269,10 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>cashshopgold_3_more</v>
+            <v>cashshopenergy_1_more</v>
           </cell>
           <cell r="D46" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E46">
             <v>1</v>
@@ -1260,10 +1280,10 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>cashshopgold_4_more</v>
+            <v>cashshopenergy_2_more</v>
           </cell>
           <cell r="D47" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E47">
             <v>1</v>
@@ -1271,10 +1291,10 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>cashshopgold_5_more</v>
+            <v>cashshopenergy_3_more</v>
           </cell>
           <cell r="D48" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E48">
             <v>1</v>
@@ -1282,10 +1302,10 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>cashshopgold_6_more</v>
+            <v>cashshopenergy_4_more</v>
           </cell>
           <cell r="D49" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E49">
             <v>1</v>
@@ -1293,79 +1313,431 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>petsale_1</v>
+            <v>cashshopenergy_5_more</v>
           </cell>
           <cell r="D50" t="str">
-            <v>petsale</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E50">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>petsale_2</v>
+            <v>cashshopenergy_6_more</v>
           </cell>
           <cell r="D51" t="str">
-            <v>petsale</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E51">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>petsale_3</v>
+            <v>cashshopgold_1</v>
           </cell>
           <cell r="D52" t="str">
-            <v>petsale</v>
+            <v>cashshopgold</v>
           </cell>
           <cell r="E52">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>petsale_4</v>
+            <v>cashshopgold_2</v>
           </cell>
           <cell r="D53" t="str">
-            <v>petsale</v>
+            <v>cashshopgold</v>
           </cell>
           <cell r="E53">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>petsale_5</v>
+            <v>cashshopgold_3</v>
           </cell>
           <cell r="D54" t="str">
-            <v>petsale</v>
+            <v>cashshopgold</v>
           </cell>
           <cell r="E54">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>petcapture_better</v>
+            <v>cashshopgold_4</v>
           </cell>
           <cell r="D55" t="str">
-            <v>petcapture</v>
+            <v>cashshopgold</v>
           </cell>
           <cell r="E55">
-            <v>0</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
+            <v>cashshopgold_5</v>
+          </cell>
+          <cell r="D56" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E56">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57" t="str">
+            <v>cashshopgold_6</v>
+          </cell>
+          <cell r="D57" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E57">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58" t="str">
+            <v>cashshopgold_1_more</v>
+          </cell>
+          <cell r="D58" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59" t="str">
+            <v>cashshopgold_2_more</v>
+          </cell>
+          <cell r="D59" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E59">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60" t="str">
+            <v>cashshopgold_3_more</v>
+          </cell>
+          <cell r="D60" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61" t="str">
+            <v>cashshopgold_4_more</v>
+          </cell>
+          <cell r="D61" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62" t="str">
+            <v>cashshopgold_5_more</v>
+          </cell>
+          <cell r="D62" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63" t="str">
+            <v>cashshopgold_6_more</v>
+          </cell>
+          <cell r="D63" t="str">
+            <v>cashshopgold</v>
+          </cell>
+          <cell r="E63">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64" t="str">
+            <v>petsale_1</v>
+          </cell>
+          <cell r="D64" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E64">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65" t="str">
+            <v>petsale_2</v>
+          </cell>
+          <cell r="D65" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E65">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66" t="str">
+            <v>petsale_3</v>
+          </cell>
+          <cell r="D66" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E66">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67" t="str">
+            <v>petsale_4</v>
+          </cell>
+          <cell r="D67" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E67">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68" t="str">
+            <v>petsale_5</v>
+          </cell>
+          <cell r="D68" t="str">
+            <v>petsale</v>
+          </cell>
+          <cell r="E68">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69" t="str">
+            <v>petcapture_better</v>
+          </cell>
+          <cell r="D69" t="str">
+            <v>petcapture</v>
+          </cell>
+          <cell r="E69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70" t="str">
             <v>petcapture_best</v>
           </cell>
-          <cell r="D56" t="str">
+          <cell r="D70" t="str">
             <v>petcapture</v>
           </cell>
-          <cell r="E56">
-            <v>0</v>
+          <cell r="E70">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71" t="str">
+            <v>stageclear_1</v>
+          </cell>
+          <cell r="D71" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E71">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72" t="str">
+            <v>stageclear_2</v>
+          </cell>
+          <cell r="D72" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E72">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73" t="str">
+            <v>stageclear_3</v>
+          </cell>
+          <cell r="D73" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E73">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74" t="str">
+            <v>stageclear_5</v>
+          </cell>
+          <cell r="D74" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E74">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75" t="str">
+            <v>stageclear_10</v>
+          </cell>
+          <cell r="D75" t="str">
+            <v>stageclear</v>
+          </cell>
+          <cell r="E75">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="D76" t="str">
+            <v>dailygem</v>
+          </cell>
+          <cell r="E76">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77" t="str">
+            <v>researchboost</v>
+          </cell>
+          <cell r="D77" t="str">
+            <v>researchboost</v>
+          </cell>
+          <cell r="E77">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78" t="str">
+            <v>relay_1</v>
+          </cell>
+          <cell r="D78" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E78">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79" t="str">
+            <v>relay_2</v>
+          </cell>
+          <cell r="D79" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E79">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80" t="str">
+            <v>relay_3</v>
+          </cell>
+          <cell r="D80" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E80">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81" t="str">
+            <v>relay_4</v>
+          </cell>
+          <cell r="D81" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E81">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82" t="str">
+            <v>relay_5</v>
+          </cell>
+          <cell r="D82" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E82">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83" t="str">
+            <v>relay_6</v>
+          </cell>
+          <cell r="D83" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E83">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84" t="str">
+            <v>relay_7</v>
+          </cell>
+          <cell r="D84" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E84">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85" t="str">
+            <v>relay_8</v>
+          </cell>
+          <cell r="D85" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E85">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86" t="str">
+            <v>relay_9</v>
+          </cell>
+          <cell r="D86" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E86">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="D87" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E87">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88" t="str">
+            <v>autonew_1</v>
+          </cell>
+          <cell r="D88" t="str">
+            <v>autonew</v>
+          </cell>
+          <cell r="E88">
+            <v>4</v>
           </cell>
         </row>
       </sheetData>
@@ -1675,11 +2047,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
   <dimension ref="A1:AL14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AL2" sqref="AL2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -1720,13 +2092,13 @@
         <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
         <v>18</v>
@@ -1798,10 +2170,10 @@
         <v>75</v>
       </c>
       <c r="AD1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AE1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG1" t="s">
         <v>35</v>
@@ -1813,7 +2185,7 @@
         <v>24</v>
       </c>
       <c r="AL1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -1829,7 +2201,7 @@
       <c r="F2">
         <f ca="1">IF(NOT(ISBLANK(E2)),E2,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A2))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>300</v>
@@ -2072,7 +2444,7 @@
         <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4">
         <f ca="1">IF(NOT(ISBLANK(E4)),E4,
@@ -2156,11 +2528,11 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB4" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC4" s="4">
         <v>1</v>
@@ -2194,7 +2566,7 @@
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <f ca="1">IF(NOT(ISBLANK(E5)),E5,
@@ -2278,11 +2650,11 @@
         <v>1</v>
       </c>
       <c r="AA5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB5" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB5" s="4">
         <f t="shared" ca="1" si="8"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC5" s="4">
         <v>1</v>
@@ -2310,13 +2682,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6">
         <f ca="1">IF(NOT(ISBLANK(E6)),E6,
@@ -2400,11 +2772,11 @@
         <v>1</v>
       </c>
       <c r="AA6" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB6" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB6" s="4">
         <f t="shared" ref="AB6" ca="1" si="13">VLOOKUP(AA6,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC6" s="4">
         <v>1</v>
@@ -2418,10 +2790,10 @@
         <v>"ev5":86400</v>
       </c>
       <c r="AG6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AI6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AJ6">
         <v>4</v>
@@ -2432,13 +2804,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F7">
         <f ca="1">IF(NOT(ISBLANK(E7)),E7,
@@ -2523,11 +2895,11 @@
         <v>1</v>
       </c>
       <c r="AA7" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB7" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB7" s="4">
         <f t="shared" ref="AB7" ca="1" si="15">VLOOKUP(AA7,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC7" s="4">
         <v>1</v>
@@ -2541,7 +2913,7 @@
         <v>"ev6":2592000</v>
       </c>
       <c r="AG7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:38">
@@ -2549,10 +2921,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F8">
         <f ca="1">IF(NOT(ISBLANK(E8)),E8,
@@ -2635,11 +3007,11 @@
         <v>1</v>
       </c>
       <c r="AA8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB8" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB8" s="4">
         <f t="shared" ref="AB8:AB9" ca="1" si="17">VLOOKUP(AA8,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC8" s="4">
         <v>1</v>
@@ -2653,7 +3025,7 @@
         <v>"ev7":600</v>
       </c>
       <c r="AG8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:38">
@@ -2661,10 +3033,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F9">
         <f ca="1">IF(NOT(ISBLANK(E9)),E9,
@@ -2747,11 +3119,11 @@
         <v>1</v>
       </c>
       <c r="AA9" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB9" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB9" s="4">
         <f t="shared" ca="1" si="17"/>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC9" s="4">
         <v>1</v>
@@ -2765,7 +3137,7 @@
         <v>"ev8":0</v>
       </c>
       <c r="AG9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:38">
@@ -2773,10 +3145,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <f ca="1">IF(NOT(ISBLANK(E10)),E10,
@@ -2859,11 +3231,11 @@
         <v>1</v>
       </c>
       <c r="AA10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB10" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB10" s="4">
         <f t="shared" ref="AB10" ca="1" si="19">VLOOKUP(AA10,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC10" s="4">
         <v>1</v>
@@ -2877,7 +3249,7 @@
         <v>"ev9":0</v>
       </c>
       <c r="AG10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:38">
@@ -2885,10 +3257,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11">
         <f ca="1">IF(NOT(ISBLANK(E11)),E11,
@@ -2977,11 +3349,11 @@
         <v>1</v>
       </c>
       <c r="AA11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB11" s="4" t="e">
+        <v>123</v>
+      </c>
+      <c r="AB11" s="4">
         <f t="shared" ref="AB11" ca="1" si="29">VLOOKUP(AA11,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
-        <v>#N/A</v>
+        <v>4</v>
       </c>
       <c r="AC11">
         <v>1</v>
@@ -2997,7 +3369,7 @@
     </row>
     <row r="12" spans="1:38">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F12">
         <f ca="1">IF(NOT(ISBLANK(E12)),E12,
@@ -3257,7 +3629,7 @@
       <formula>$R1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA14 C2:C14 Y2:Y14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
@@ -3269,13 +3641,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O4" sqref="O4"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -3306,7 +3678,7 @@
         <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>21</v>
@@ -3374,7 +3746,7 @@
       <c r="D2">
         <f ca="1">IF(C2&lt;&gt;1,OFFSET(D2,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A2,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E65" ca="1" si="0">IF(ISBLANK(F2),"",
@@ -3383,7 +3755,7 @@
         <v/>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="J2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
@@ -3463,7 +3835,7 @@
       <c r="D3">
         <f ca="1">IF(C3&lt;&gt;1,OFFSET(D3,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A3,[1]ShopProductTable!$E:$E))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ca="1" si="0"/>
@@ -3635,14 +4007,14 @@
         <v/>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
 IF($C5=1,MATCH(OFFSET($I5,-($C5-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J5,-1,0)+OFFSET(L5,-1,0)
 ))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
@@ -3717,7 +4089,7 @@
 IF($C6=1,MATCH(OFFSET($I6,-($C6-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J6,-1,0)+OFFSET(L6,-1,0)
 ))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
@@ -3789,7 +4161,7 @@
 IF($C7=1,MATCH(OFFSET($I7,-($C7-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J7,-1,0)+OFFSET(L7,-1,0)
 ))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
@@ -3861,7 +4233,7 @@
 IF($C8=1,MATCH(OFFSET($I8,-($C8-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J8,-1,0)+OFFSET(L8,-1,0)
 ))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
@@ -3933,7 +4305,7 @@
 IF($C9=1,MATCH(OFFSET($I9,-($C9-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J9,-1,0)+OFFSET(L9,-1,0)
 ))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
@@ -4005,7 +4377,7 @@
 IF($C10=1,MATCH(OFFSET($I10,-($C10-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J10,-1,0)+OFFSET(L10,-1,0)
 ))</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
@@ -4077,7 +4449,7 @@
 IF($C11=1,MATCH(OFFSET($I11,-($C11-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J11,-1,0)+OFFSET(L11,-1,0)
 ))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
@@ -4149,7 +4521,7 @@
 IF($C12=1,MATCH(OFFSET($I12,-($C12-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J12,-1,0)+OFFSET(L12,-1,0)
 ))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
@@ -4221,7 +4593,7 @@
 IF($C13=1,MATCH(OFFSET($I13,-($C13-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J13,-1,0)+OFFSET(L13,-1,0)
 ))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
@@ -4293,7 +4665,7 @@
 IF($C14=1,MATCH(OFFSET($I14,-($C14-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J14,-1,0)+OFFSET(L14,-1,0)
 ))</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
@@ -4361,14 +4733,14 @@
         <v/>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
 IF($C15=1,MATCH(OFFSET($I15,-($C15-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J15,-1,0)+OFFSET(L15,-1,0)
 ))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
@@ -4440,7 +4812,7 @@
 IF($C16=1,MATCH(OFFSET($I16,-($C16-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J16,-1,0)+OFFSET(L16,-1,0)
 ))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
@@ -4512,7 +4884,7 @@
 IF($C17=1,MATCH(OFFSET($I17,-($C17-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J17,-1,0)+OFFSET(L17,-1,0)
 ))</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
@@ -4584,7 +4956,7 @@
 IF($C18=1,MATCH(OFFSET($I18,-($C18-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J18,-1,0)+OFFSET(L18,-1,0)
 ))</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
@@ -4656,7 +5028,7 @@
 IF($C19=1,MATCH(OFFSET($I19,-($C19-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J19,-1,0)+OFFSET(L19,-1,0)
 ))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
@@ -4728,7 +5100,7 @@
 IF($C20=1,MATCH(OFFSET($I20,-($C20-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J20,-1,0)+OFFSET(L20,-1,0)
 ))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K20">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
@@ -4800,7 +5172,7 @@
 IF($C21=1,MATCH(OFFSET($I21,-($C21-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J21,-1,0)+OFFSET(L21,-1,0)
 ))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
@@ -4872,7 +5244,7 @@
 IF($C22=1,MATCH(OFFSET($I22,-($C22-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J22,-1,0)+OFFSET(L22,-1,0)
 ))</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
@@ -4944,7 +5316,7 @@
 IF($C23=1,MATCH(OFFSET($I23,-($C23-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J23,-1,0)+OFFSET(L23,-1,0)
 ))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
@@ -5016,7 +5388,7 @@
 IF($C24=1,MATCH(OFFSET($I24,-($C24-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J24,-1,0)+OFFSET(L24,-1,0)
 ))</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
@@ -5065,7 +5437,7 @@
     </row>
     <row r="25" spans="1:19">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B25" t="str">
         <f>IFERROR(VLOOKUP(A25,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5084,14 +5456,14 @@
         <v/>
       </c>
       <c r="I25" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
 IF($C25=1,MATCH(OFFSET($I25,-($C25-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J25,-1,0)+OFFSET(L25,-1,0)
 ))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
@@ -5146,7 +5518,7 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B26" t="str">
         <f>IFERROR(VLOOKUP(A26,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5169,7 +5541,7 @@
 IF($C26=1,MATCH(OFFSET($I26,-($C26-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J26,-1,0)+OFFSET(L26,-1,0)
 ))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
@@ -5221,7 +5593,7 @@
     </row>
     <row r="27" spans="1:19">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" t="str">
         <f>IFERROR(VLOOKUP(A27,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5244,7 +5616,7 @@
 IF($C27=1,MATCH(OFFSET($I27,-($C27-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J27,-1,0)+OFFSET(L27,-1,0)
 ))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
@@ -5293,7 +5665,7 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B28" t="str">
         <f>IFERROR(VLOOKUP(A28,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5316,7 +5688,7 @@
 IF($C28=1,MATCH(OFFSET($I28,-($C28-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J28,-1,0)+OFFSET(L28,-1,0)
 ))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
@@ -5365,7 +5737,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B29" t="str">
         <f>IFERROR(VLOOKUP(A29,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5388,7 +5760,7 @@
 IF($C29=1,MATCH(OFFSET($I29,-($C29-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J29,-1,0)+OFFSET(L29,-1,0)
 ))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
@@ -5437,7 +5809,7 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" t="str">
         <f>IFERROR(VLOOKUP(A30,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5460,7 +5832,7 @@
 IF($C30=1,MATCH(OFFSET($I30,-($C30-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J30,-1,0)+OFFSET(L30,-1,0)
 ))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
@@ -5509,7 +5881,7 @@
     </row>
     <row r="31" spans="1:19">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B31" t="str">
         <f>IFERROR(VLOOKUP(A31,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5532,7 +5904,7 @@
 IF($C31=1,MATCH(OFFSET($I31,-($C31-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J31,-1,0)+OFFSET(L31,-1,0)
 ))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
@@ -5581,7 +5953,7 @@
     </row>
     <row r="32" spans="1:19">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" t="str">
         <f>IFERROR(VLOOKUP(A32,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5604,7 +5976,7 @@
 IF($C32=1,MATCH(OFFSET($I32,-($C32-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J32,-1,0)+OFFSET(L32,-1,0)
 ))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
@@ -5653,7 +6025,7 @@
     </row>
     <row r="33" spans="1:19">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" t="str">
         <f>IFERROR(VLOOKUP(A33,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5676,7 +6048,7 @@
 IF($C33=1,MATCH(OFFSET($I33,-($C33-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J33,-1,0)+OFFSET(L33,-1,0)
 ))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
@@ -5725,7 +6097,7 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B34" t="str">
         <f>IFERROR(VLOOKUP(A34,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5748,7 +6120,7 @@
 IF($C34=1,MATCH(OFFSET($I34,-($C34-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J34,-1,0)+OFFSET(L34,-1,0)
 ))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
@@ -5797,7 +6169,7 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" t="str">
         <f>IFERROR(VLOOKUP(A35,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5820,7 +6192,7 @@
 IF($C35=1,MATCH(OFFSET($I35,-($C35-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J35,-1,0)+OFFSET(L35,-1,0)
 ))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
@@ -5869,7 +6241,7 @@
     </row>
     <row r="36" spans="1:19">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B36" t="str">
         <f>IFERROR(VLOOKUP(A36,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5888,14 +6260,14 @@
         <v/>
       </c>
       <c r="I36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J36">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
 IF($C36=1,MATCH(OFFSET($I36,-($C36-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J36,-1,0)+OFFSET(L36,-1,0)
 ))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K36">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
@@ -5950,7 +6322,7 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B37" t="str">
         <f>IFERROR(VLOOKUP(A37,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -5973,7 +6345,7 @@
 IF($C37=1,MATCH(OFFSET($I37,-($C37-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J37,-1,0)+OFFSET(L37,-1,0)
 ))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K37">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
@@ -6022,7 +6394,7 @@
     </row>
     <row r="38" spans="1:19">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" t="str">
         <f>IFERROR(VLOOKUP(A38,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6045,7 +6417,7 @@
 IF($C38=1,MATCH(OFFSET($I38,-($C38-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J38,-1,0)+OFFSET(L38,-1,0)
 ))</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K38">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
@@ -6094,7 +6466,7 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B39" t="str">
         <f>IFERROR(VLOOKUP(A39,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6117,7 +6489,7 @@
 IF($C39=1,MATCH(OFFSET($I39,-($C39-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J39,-1,0)+OFFSET(L39,-1,0)
 ))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
@@ -6144,12 +6516,12 @@
       <c r="O39" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>Cash_sSevenSlot1</v>
       </c>
       <c r="P39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+2))</f>
-        <v>500</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -6157,16 +6529,16 @@
       </c>
       <c r="R39" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Cash_sSevenTotal</v>
+        <v>Cash_sSevenSlot1</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="22"/>
-        <v>500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B40" t="str">
         <f>IFERROR(VLOOKUP(A40,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6189,7 +6561,7 @@
 IF($C40=1,MATCH(OFFSET($I40,-($C40-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J40,-1,0)+OFFSET(L40,-1,0)
 ))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K40">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
@@ -6238,7 +6610,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(VLOOKUP(A41,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6261,7 +6633,7 @@
 IF($C41=1,MATCH(OFFSET($I41,-($C41-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J41,-1,0)+OFFSET(L41,-1,0)
 ))</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
@@ -6310,7 +6682,7 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(VLOOKUP(A42,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6333,7 +6705,7 @@
 IF($C42=1,MATCH(OFFSET($I42,-($C42-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J42,-1,0)+OFFSET(L42,-1,0)
 ))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K42">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
@@ -6382,7 +6754,7 @@
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" t="str">
         <f>IFERROR(VLOOKUP(A43,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6405,7 +6777,7 @@
 IF($C43=1,MATCH(OFFSET($I43,-($C43-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J43,-1,0)+OFFSET(L43,-1,0)
 ))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K43">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
@@ -6454,7 +6826,7 @@
     </row>
     <row r="44" spans="1:19">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B44" t="str">
         <f>IFERROR(VLOOKUP(A44,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6477,7 +6849,7 @@
 IF($C44=1,MATCH(OFFSET($I44,-($C44-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J44,-1,0)+OFFSET(L44,-1,0)
 ))</f>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
@@ -6526,7 +6898,7 @@
     </row>
     <row r="45" spans="1:19">
       <c r="A45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B45" t="str">
         <f>IFERROR(VLOOKUP(A45,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6549,7 +6921,7 @@
 IF($C45=1,MATCH(OFFSET($I45,-($C45-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J45,-1,0)+OFFSET(L45,-1,0)
 ))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
@@ -6576,12 +6948,12 @@
       <c r="O45" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>Cash_sSevenSlot3</v>
       </c>
       <c r="P45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+2))</f>
-        <v>1500</v>
+        <v>1</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -6589,16 +6961,16 @@
       </c>
       <c r="R45" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Cash_sSevenTotal</v>
+        <v>Cash_sSevenSlot3</v>
       </c>
       <c r="S45">
         <f t="shared" ca="1" si="22"/>
-        <v>1500</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B46" t="str">
         <f>IFERROR(VLOOKUP(A46,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6621,7 +6993,7 @@
 IF($C46=1,MATCH(OFFSET($I46,-($C46-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J46,-1,0)+OFFSET(L46,-1,0)
 ))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K46">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
@@ -6670,7 +7042,7 @@
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" t="str">
         <f>IFERROR(VLOOKUP(A47,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6693,7 +7065,7 @@
 IF($C47=1,MATCH(OFFSET($I47,-($C47-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J47,-1,0)+OFFSET(L47,-1,0)
 ))</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K47">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
@@ -6742,7 +7114,7 @@
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B48" t="str">
         <f>IFERROR(VLOOKUP(A48,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6761,14 +7133,14 @@
         <v/>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 IF($C48=1,MATCH(OFFSET($I48,-($C48-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J48,-1,0)+OFFSET(L48,-1,0)
 ))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
@@ -6823,7 +7195,7 @@
     </row>
     <row r="49" spans="1:19">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B49" t="str">
         <f>IFERROR(VLOOKUP(A49,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6846,7 +7218,7 @@
 IF($C49=1,MATCH(OFFSET($I49,-($C49-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J49,-1,0)+OFFSET(L49,-1,0)
 ))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K49">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
@@ -6895,7 +7267,7 @@
     </row>
     <row r="50" spans="1:19">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B50" t="str">
         <f>IFERROR(VLOOKUP(A50,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6918,7 +7290,7 @@
 IF($C50=1,MATCH(OFFSET($I50,-($C50-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J50,-1,0)+OFFSET(L50,-1,0)
 ))</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K50">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
@@ -6967,7 +7339,7 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(VLOOKUP(A51,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6990,7 +7362,7 @@
 IF($C51=1,MATCH(OFFSET($I51,-($C51-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J51,-1,0)+OFFSET(L51,-1,0)
 ))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
@@ -7017,7 +7389,7 @@
       <c r="O51" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="P51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
@@ -7030,7 +7402,7 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="S51">
         <f t="shared" ca="1" si="26"/>
@@ -7039,7 +7411,7 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(VLOOKUP(A52,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7062,7 +7434,7 @@
 IF($C52=1,MATCH(OFFSET($I52,-($C52-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J52,-1,0)+OFFSET(L52,-1,0)
 ))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K52">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
@@ -7111,7 +7483,7 @@
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(VLOOKUP(A53,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7134,7 +7506,7 @@
 IF($C53=1,MATCH(OFFSET($I53,-($C53-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J53,-1,0)+OFFSET(L53,-1,0)
 ))</f>
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
@@ -7183,7 +7555,7 @@
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(VLOOKUP(A54,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7206,7 +7578,7 @@
 IF($C54=1,MATCH(OFFSET($I54,-($C54-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J54,-1,0)+OFFSET(L54,-1,0)
 ))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K54">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
@@ -7255,7 +7627,7 @@
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(VLOOKUP(A55,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7278,7 +7650,7 @@
 IF($C55=1,MATCH(OFFSET($I55,-($C55-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J55,-1,0)+OFFSET(L55,-1,0)
 ))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K55">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
@@ -7327,7 +7699,7 @@
     </row>
     <row r="56" spans="1:19">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B56" t="str">
         <f>IFERROR(VLOOKUP(A56,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7350,7 +7722,7 @@
 IF($C56=1,MATCH(OFFSET($I56,-($C56-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J56,-1,0)+OFFSET(L56,-1,0)
 ))</f>
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
@@ -7399,7 +7771,7 @@
     </row>
     <row r="57" spans="1:19">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57" t="str">
         <f>IFERROR(VLOOKUP(A57,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7422,7 +7794,7 @@
 IF($C57=1,MATCH(OFFSET($I57,-($C57-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J57,-1,0)+OFFSET(L57,-1,0)
 ))</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
@@ -7449,7 +7821,7 @@
       <c r="O57" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="P57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
@@ -7462,7 +7834,7 @@
       </c>
       <c r="R57" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="S57">
         <f t="shared" ca="1" si="26"/>
@@ -7471,7 +7843,7 @@
     </row>
     <row r="58" spans="1:19">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" t="str">
         <f>IFERROR(VLOOKUP(A58,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7494,7 +7866,7 @@
 IF($C58=1,MATCH(OFFSET($I58,-($C58-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J58,-1,0)+OFFSET(L58,-1,0)
 ))</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K58">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
@@ -7543,7 +7915,7 @@
     </row>
     <row r="59" spans="1:19">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B59" t="str">
         <f>IFERROR(VLOOKUP(A59,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7566,7 +7938,7 @@
 IF($C59=1,MATCH(OFFSET($I59,-($C59-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J59,-1,0)+OFFSET(L59,-1,0)
 ))</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K59">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
@@ -7615,7 +7987,7 @@
     </row>
     <row r="60" spans="1:19">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B60" t="str">
         <f>IFERROR(VLOOKUP(A60,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7634,14 +8006,14 @@
         <v/>
       </c>
       <c r="I60" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 IF($C60=1,MATCH(OFFSET($I60,-($C60-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J60,-1,0)+OFFSET(L60,-1,0)
 ))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
@@ -7690,7 +8062,7 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B61" t="str">
         <f>IFERROR(VLOOKUP(A61,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7713,7 +8085,7 @@
 IF($C61=1,MATCH(OFFSET($I61,-($C61-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J61,-1,0)+OFFSET(L61,-1,0)
 ))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K61">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
@@ -7762,7 +8134,7 @@
     </row>
     <row r="62" spans="1:19">
       <c r="A62" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(VLOOKUP(A62,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7785,7 +8157,7 @@
 IF($C62=1,MATCH(OFFSET($I62,-($C62-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J62,-1,0)+OFFSET(L62,-1,0)
 ))</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K62">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
@@ -7834,7 +8206,7 @@
     </row>
     <row r="63" spans="1:19">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(VLOOKUP(A63,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7857,7 +8229,7 @@
 IF($C63=1,MATCH(OFFSET($I63,-($C63-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J63,-1,0)+OFFSET(L63,-1,0)
 ))</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
@@ -7884,7 +8256,7 @@
       <c r="O63" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="P63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
@@ -7897,7 +8269,7 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="S63">
         <f t="shared" ca="1" si="26"/>
@@ -7906,7 +8278,7 @@
     </row>
     <row r="64" spans="1:19">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(VLOOKUP(A64,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -7929,7 +8301,7 @@
 IF($C64=1,MATCH(OFFSET($I64,-($C64-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J64,-1,0)+OFFSET(L64,-1,0)
 ))</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K64">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
@@ -7978,7 +8350,7 @@
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(VLOOKUP(A65,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8001,7 +8373,7 @@
 IF($C65=1,MATCH(OFFSET($I65,-($C65-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J65,-1,0)+OFFSET(L65,-1,0)
 ))</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
@@ -8050,7 +8422,7 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(VLOOKUP(A66,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8075,7 +8447,7 @@
 IF($C66=1,MATCH(OFFSET($I66,-($C66-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J66,-1,0)+OFFSET(L66,-1,0)
 ))</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K66">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
@@ -8124,7 +8496,7 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(VLOOKUP(A67,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8147,7 +8519,7 @@
 IF($C67=1,MATCH(OFFSET($I67,-($C67-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J67,-1,0)+OFFSET(L67,-1,0)
 ))</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K67">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
@@ -8196,7 +8568,7 @@
     </row>
     <row r="68" spans="1:19">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B68" t="str">
         <f>IFERROR(VLOOKUP(A68,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8219,7 +8591,7 @@
 IF($C68=1,MATCH(OFFSET($I68,-($C68-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J68,-1,0)+OFFSET(L68,-1,0)
 ))</f>
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
@@ -8268,7 +8640,7 @@
     </row>
     <row r="69" spans="1:19">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B69" t="str">
         <f>IFERROR(VLOOKUP(A69,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8291,7 +8663,7 @@
 IF($C69=1,MATCH(OFFSET($I69,-($C69-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J69,-1,0)+OFFSET(L69,-1,0)
 ))</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
@@ -8318,7 +8690,7 @@
       <c r="O69" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="P69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
@@ -8331,7 +8703,7 @@
       </c>
       <c r="R69" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Cash_sSevenTotal</v>
+        <v>Item_cSevenTotal</v>
       </c>
       <c r="S69">
         <f t="shared" ca="1" si="26"/>
@@ -8340,7 +8712,7 @@
     </row>
     <row r="70" spans="1:19">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B70" t="str">
         <f>IFERROR(VLOOKUP(A70,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8363,7 +8735,7 @@
 IF($C70=1,MATCH(OFFSET($I70,-($C70-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J70,-1,0)+OFFSET(L70,-1,0)
 ))</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K70">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
@@ -8412,7 +8784,7 @@
     </row>
     <row r="71" spans="1:19">
       <c r="A71" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B71" t="str">
         <f>IFERROR(VLOOKUP(A71,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -8435,7 +8807,7 @@
 IF($C71=1,MATCH(OFFSET($I71,-($C71-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J71,-1,0)+OFFSET(L71,-1,0)
 ))</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K71">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
@@ -8482,10 +8854,2635 @@
         <v>60000</v>
       </c>
     </row>
+    <row r="72" spans="1:19">
+      <c r="A72" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" t="str">
+        <f>IFERROR(VLOOKUP(A72,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <f ca="1">IF(C72&lt;&gt;1,OFFSET(D72,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A72,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" ref="E72:E83" ca="1" si="28">IF(ISBLANK(F72),"",
+VLOOKUP(F72,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I72" t="s">
+        <v>118</v>
+      </c>
+      <c r="J72">
+        <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
+IF($C72=1,MATCH(OFFSET($I72,-($C72-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J72,-1,0)+OFFSET(L72,-1,0)
+))</f>
+        <v>28</v>
+      </c>
+      <c r="K72">
+        <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
+IF($C72=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L72,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K72,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L72">
+        <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
+IF($K72-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J72-1,$K72-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" ref="M72:M83" ca="1" si="29">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
+IF(ISBLANK(N72),"",
+VLOOKUP(N72,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>it</v>
+      </c>
+      <c r="N72" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J72-1,$K72))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O72" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J72-1,$K72+1))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="P72">
+        <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J72-1,$K72+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" ref="Q72:Q83" ca="1" si="30">IF(LEN(E72)&lt;&gt;0,E72,
+IF(LEN(M72)&lt;&gt;0,M72,""))</f>
+        <v>it</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" ref="R72:R83" ca="1" si="31">IF(LEN(G72)&lt;&gt;0,G72,
+IF(LEN(O72)&lt;&gt;0,O72,""))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="S72">
+        <f t="shared" ref="S72:S83" ca="1" si="32">IF(LEN(H72)&lt;&gt;0,H72,
+IF(LEN(P72)&lt;&gt;0,P72,""))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" t="s">
+        <v>116</v>
+      </c>
+      <c r="B73" t="str">
+        <f>IFERROR(VLOOKUP(A73,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <f ca="1">IF(C73&lt;&gt;1,OFFSET(D73,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A73,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J73">
+        <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
+IF($C73=1,MATCH(OFFSET($I73,-($C73-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J73,-1,0)+OFFSET(L73,-1,0)
+))</f>
+        <v>28</v>
+      </c>
+      <c r="K73">
+        <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
+IF($C73=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L73,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K73,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L73">
+        <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
+IF($K73-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J73-1,$K73-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M73" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N73" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J73-1,$K73))</f>
+        <v>재화</v>
+      </c>
+      <c r="O73" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J73-1,$K73+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P73">
+        <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J73-1,$K73+2))</f>
+        <v>75</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>EN</v>
+      </c>
+      <c r="S73">
+        <f t="shared" ca="1" si="32"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="str">
+        <f>IFERROR(VLOOKUP(A74,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74">
+        <f ca="1">IF(C74&lt;&gt;1,OFFSET(D74,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A74,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J74">
+        <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
+IF($C74=1,MATCH(OFFSET($I74,-($C74-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J74,-1,0)+OFFSET(L74,-1,0)
+))</f>
+        <v>28</v>
+      </c>
+      <c r="K74">
+        <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
+IF($C74=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L74,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K74,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L74">
+        <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
+IF($K74-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J74-1,$K74-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M74" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N74" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J74-1,$K74))</f>
+        <v>재화</v>
+      </c>
+      <c r="O74" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J74-1,$K74+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P74">
+        <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J74-1,$K74+2))</f>
+        <v>20000</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>GO</v>
+      </c>
+      <c r="S74">
+        <f t="shared" ca="1" si="32"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" t="str">
+        <f>IFERROR(VLOOKUP(A75,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C75">
+        <v>4</v>
+      </c>
+      <c r="D75">
+        <f ca="1">IF(C75&lt;&gt;1,OFFSET(D75,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A75,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J75">
+        <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
+IF($C75=1,MATCH(OFFSET($I75,-($C75-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J75,-1,0)+OFFSET(L75,-1,0)
+))</f>
+        <v>29</v>
+      </c>
+      <c r="K75">
+        <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
+IF($C75=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L75,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K75,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L75">
+        <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
+IF($K75-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J75-1,$K75-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M75" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N75" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J75-1,$K75))</f>
+        <v>재화</v>
+      </c>
+      <c r="O75" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J75-1,$K75+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P75">
+        <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J75-1,$K75+2))</f>
+        <v>300</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R75" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>EN</v>
+      </c>
+      <c r="S75">
+        <f t="shared" ca="1" si="32"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
+      <c r="A76" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" t="str">
+        <f>IFERROR(VLOOKUP(A76,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76">
+        <f ca="1">IF(C76&lt;&gt;1,OFFSET(D76,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A76,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J76">
+        <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
+IF($C76=1,MATCH(OFFSET($I76,-($C76-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J76,-1,0)+OFFSET(L76,-1,0)
+))</f>
+        <v>29</v>
+      </c>
+      <c r="K76">
+        <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
+IF($C76=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L76,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K76,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L76">
+        <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
+IF($K76-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J76-1,$K76-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M76" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N76" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J76-1,$K76))</f>
+        <v>재화</v>
+      </c>
+      <c r="O76" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J76-1,$K76+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P76">
+        <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J76-1,$K76+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R76" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>EN</v>
+      </c>
+      <c r="S76">
+        <f t="shared" ca="1" si="32"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+      <c r="B77" t="str">
+        <f>IFERROR(VLOOKUP(A77,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+      <c r="D77">
+        <f ca="1">IF(C77&lt;&gt;1,OFFSET(D77,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A77,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J77">
+        <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
+IF($C77=1,MATCH(OFFSET($I77,-($C77-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J77,-1,0)+OFFSET(L77,-1,0)
+))</f>
+        <v>29</v>
+      </c>
+      <c r="K77">
+        <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
+IF($C77=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L77,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K77,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L77">
+        <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
+IF($K77-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J77-1,$K77-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M77" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N77" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J77-1,$K77))</f>
+        <v>재화</v>
+      </c>
+      <c r="O77" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J77-1,$K77+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P77">
+        <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J77-1,$K77+2))</f>
+        <v>40000</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R77" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>GO</v>
+      </c>
+      <c r="S77">
+        <f t="shared" ca="1" si="32"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
+      <c r="A78" t="s">
+        <v>116</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IFERROR(VLOOKUP(A78,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <f ca="1">IF(C78&lt;&gt;1,OFFSET(D78,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A78,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J78">
+        <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
+IF($C78=1,MATCH(OFFSET($I78,-($C78-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J78,-1,0)+OFFSET(L78,-1,0)
+))</f>
+        <v>30</v>
+      </c>
+      <c r="K78">
+        <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
+IF($C78=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L78,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K78,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L78">
+        <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
+IF($K78-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J78-1,$K78-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M78" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>it</v>
+      </c>
+      <c r="N78" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J78-1,$K78))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O78" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J78-1,$K78+1))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="P78">
+        <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J78-1,$K78+2))</f>
+        <v>1500</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>it</v>
+      </c>
+      <c r="R78" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="S78">
+        <f t="shared" ca="1" si="32"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
+      <c r="A79" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" t="str">
+        <f>IFERROR(VLOOKUP(A79,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C79">
+        <v>8</v>
+      </c>
+      <c r="D79">
+        <f ca="1">IF(C79&lt;&gt;1,OFFSET(D79,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A79,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J79">
+        <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
+IF($C79=1,MATCH(OFFSET($I79,-($C79-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J79,-1,0)+OFFSET(L79,-1,0)
+))</f>
+        <v>30</v>
+      </c>
+      <c r="K79">
+        <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
+IF($C79=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L79,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K79,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L79">
+        <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
+IF($K79-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J79-1,$K79-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M79" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N79" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J79-1,$K79))</f>
+        <v>재화</v>
+      </c>
+      <c r="O79" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J79-1,$K79+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P79">
+        <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J79-1,$K79+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R79" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>EN</v>
+      </c>
+      <c r="S79">
+        <f t="shared" ca="1" si="32"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19">
+      <c r="A80" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" t="str">
+        <f>IFERROR(VLOOKUP(A80,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+      <c r="D80">
+        <f ca="1">IF(C80&lt;&gt;1,OFFSET(D80,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A80,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J80">
+        <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
+IF($C80=1,MATCH(OFFSET($I80,-($C80-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J80,-1,0)+OFFSET(L80,-1,0)
+))</f>
+        <v>30</v>
+      </c>
+      <c r="K80">
+        <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
+IF($C80=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L80,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K80,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L80">
+        <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
+IF($K80-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J80-1,$K80-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M80" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N80" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J80-1,$K80))</f>
+        <v>재화</v>
+      </c>
+      <c r="O80" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J80-1,$K80+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P80">
+        <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J80-1,$K80+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R80" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>GO</v>
+      </c>
+      <c r="S80">
+        <f t="shared" ca="1" si="32"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="str">
+        <f>IFERROR(VLOOKUP(A81,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C81">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <f ca="1">IF(C81&lt;&gt;1,OFFSET(D81,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A81,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J81">
+        <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
+IF($C81=1,MATCH(OFFSET($I81,-($C81-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J81,-1,0)+OFFSET(L81,-1,0)
+))</f>
+        <v>31</v>
+      </c>
+      <c r="K81">
+        <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
+IF($C81=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L81,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K81,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L81">
+        <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
+IF($K81-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J81-1,$K81-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M81" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N81" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J81-1,$K81))</f>
+        <v>재화</v>
+      </c>
+      <c r="O81" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J81-1,$K81+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P81">
+        <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J81-1,$K81+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R81" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>EN</v>
+      </c>
+      <c r="S81">
+        <f t="shared" ca="1" si="32"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" t="str">
+        <f>IFERROR(VLOOKUP(A82,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C82">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <f ca="1">IF(C82&lt;&gt;1,OFFSET(D82,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A82,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J82">
+        <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
+IF($C82=1,MATCH(OFFSET($I82,-($C82-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J82,-1,0)+OFFSET(L82,-1,0)
+))</f>
+        <v>31</v>
+      </c>
+      <c r="K82">
+        <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
+IF($C82=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L82,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K82,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L82">
+        <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
+IF($K82-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J82-1,$K82-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M82" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N82" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J82-1,$K82))</f>
+        <v>재화</v>
+      </c>
+      <c r="O82" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J82-1,$K82+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P82">
+        <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J82-1,$K82+2))</f>
+        <v>50</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R82" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>EN</v>
+      </c>
+      <c r="S82">
+        <f t="shared" ca="1" si="32"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="A83" t="s">
+        <v>116</v>
+      </c>
+      <c r="B83" t="str">
+        <f>IFERROR(VLOOKUP(A83,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C83">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <f ca="1">IF(C83&lt;&gt;1,OFFSET(D83,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A83,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" ca="1" si="28"/>
+        <v/>
+      </c>
+      <c r="J83">
+        <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
+IF($C83=1,MATCH(OFFSET($I83,-($C83-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J83,-1,0)+OFFSET(L83,-1,0)
+))</f>
+        <v>31</v>
+      </c>
+      <c r="K83">
+        <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
+IF($C83=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L83,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K83,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L83">
+        <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
+IF($K83-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J83-1,$K83-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" ca="1" si="29"/>
+        <v>cu</v>
+      </c>
+      <c r="N83" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J83-1,$K83))</f>
+        <v>재화</v>
+      </c>
+      <c r="O83" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J83-1,$K83+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P83">
+        <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J83-1,$K83+2))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" ca="1" si="30"/>
+        <v>cu</v>
+      </c>
+      <c r="R83" t="str">
+        <f t="shared" ca="1" si="31"/>
+        <v>GO</v>
+      </c>
+      <c r="S83">
+        <f t="shared" ca="1" si="32"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84" t="str">
+        <f>IFERROR(VLOOKUP(A84,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <f ca="1">IF(C84&lt;&gt;1,OFFSET(D84,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A84,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" ref="E84:E95" ca="1" si="33">IF(ISBLANK(F84),"",
+VLOOKUP(F84,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+      <c r="J84">
+        <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
+IF($C84=1,MATCH(OFFSET($I84,-($C84-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J84,-1,0)+OFFSET(L84,-1,0)
+))</f>
+        <v>32</v>
+      </c>
+      <c r="K84">
+        <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
+IF($C84=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L84,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K84,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L84">
+        <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
+IF($K84-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J84-1,$K84-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" ref="M84:M95" ca="1" si="34">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
+IF(ISBLANK(N84),"",
+VLOOKUP(N84,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>it</v>
+      </c>
+      <c r="N84" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J84-1,$K84))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O84" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J84-1,$K84+1))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="P84">
+        <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J84-1,$K84+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" ref="Q84:Q95" ca="1" si="35">IF(LEN(E84)&lt;&gt;0,E84,
+IF(LEN(M84)&lt;&gt;0,M84,""))</f>
+        <v>it</v>
+      </c>
+      <c r="R84" t="str">
+        <f t="shared" ref="R84:R95" ca="1" si="36">IF(LEN(G84)&lt;&gt;0,G84,
+IF(LEN(O84)&lt;&gt;0,O84,""))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="S84">
+        <f t="shared" ref="S84:S95" ca="1" si="37">IF(LEN(H84)&lt;&gt;0,H84,
+IF(LEN(P84)&lt;&gt;0,P84,""))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="str">
+        <f>IFERROR(VLOOKUP(A85,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85">
+        <f ca="1">IF(C85&lt;&gt;1,OFFSET(D85,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A85,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J85">
+        <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
+IF($C85=1,MATCH(OFFSET($I85,-($C85-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J85,-1,0)+OFFSET(L85,-1,0)
+))</f>
+        <v>32</v>
+      </c>
+      <c r="K85">
+        <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
+IF($C85=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L85,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K85,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L85">
+        <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
+IF($K85-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J85-1,$K85-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N85" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J85-1,$K85))</f>
+        <v>재화</v>
+      </c>
+      <c r="O85" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J85-1,$K85+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P85">
+        <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J85-1,$K85+2))</f>
+        <v>75</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>EN</v>
+      </c>
+      <c r="S85">
+        <f t="shared" ca="1" si="37"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19">
+      <c r="A86" t="s">
+        <v>119</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IFERROR(VLOOKUP(A86,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86">
+        <f ca="1">IF(C86&lt;&gt;1,OFFSET(D86,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A86,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J86">
+        <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
+IF($C86=1,MATCH(OFFSET($I86,-($C86-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J86,-1,0)+OFFSET(L86,-1,0)
+))</f>
+        <v>32</v>
+      </c>
+      <c r="K86">
+        <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
+IF($C86=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L86,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K86,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L86">
+        <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
+IF($K86-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J86-1,$K86-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N86" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J86-1,$K86))</f>
+        <v>재화</v>
+      </c>
+      <c r="O86" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J86-1,$K86+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P86">
+        <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J86-1,$K86+2))</f>
+        <v>20000</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>GO</v>
+      </c>
+      <c r="S86">
+        <f t="shared" ca="1" si="37"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="str">
+        <f>IFERROR(VLOOKUP(A87,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+      <c r="D87">
+        <f ca="1">IF(C87&lt;&gt;1,OFFSET(D87,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A87,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E87" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J87">
+        <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
+IF($C87=1,MATCH(OFFSET($I87,-($C87-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J87,-1,0)+OFFSET(L87,-1,0)
+))</f>
+        <v>33</v>
+      </c>
+      <c r="K87">
+        <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
+IF($C87=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L87,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K87,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L87">
+        <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
+IF($K87-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J87-1,$K87-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N87" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J87-1,$K87))</f>
+        <v>재화</v>
+      </c>
+      <c r="O87" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J87-1,$K87+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P87">
+        <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J87-1,$K87+2))</f>
+        <v>300</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>EN</v>
+      </c>
+      <c r="S87">
+        <f t="shared" ca="1" si="37"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19">
+      <c r="A88" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" t="str">
+        <f>IFERROR(VLOOKUP(A88,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C88">
+        <v>5</v>
+      </c>
+      <c r="D88">
+        <f ca="1">IF(C88&lt;&gt;1,OFFSET(D88,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A88,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E88" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J88">
+        <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
+IF($C88=1,MATCH(OFFSET($I88,-($C88-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J88,-1,0)+OFFSET(L88,-1,0)
+))</f>
+        <v>33</v>
+      </c>
+      <c r="K88">
+        <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
+IF($C88=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L88,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K88,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L88">
+        <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
+IF($K88-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J88-1,$K88-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N88" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J88-1,$K88))</f>
+        <v>재화</v>
+      </c>
+      <c r="O88" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J88-1,$K88+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P88">
+        <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J88-1,$K88+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>EN</v>
+      </c>
+      <c r="S88">
+        <f t="shared" ca="1" si="37"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19">
+      <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" t="str">
+        <f>IFERROR(VLOOKUP(A89,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+      <c r="D89">
+        <f ca="1">IF(C89&lt;&gt;1,OFFSET(D89,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A89,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E89" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J89">
+        <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
+IF($C89=1,MATCH(OFFSET($I89,-($C89-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J89,-1,0)+OFFSET(L89,-1,0)
+))</f>
+        <v>33</v>
+      </c>
+      <c r="K89">
+        <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
+IF($C89=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L89,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K89,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L89">
+        <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
+IF($K89-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J89-1,$K89-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N89" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J89-1,$K89))</f>
+        <v>재화</v>
+      </c>
+      <c r="O89" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J89-1,$K89+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P89">
+        <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J89-1,$K89+2))</f>
+        <v>40000</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>GO</v>
+      </c>
+      <c r="S89">
+        <f t="shared" ca="1" si="37"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19">
+      <c r="A90" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" t="str">
+        <f>IFERROR(VLOOKUP(A90,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C90">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <f ca="1">IF(C90&lt;&gt;1,OFFSET(D90,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A90,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E90" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J90">
+        <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
+IF($C90=1,MATCH(OFFSET($I90,-($C90-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J90,-1,0)+OFFSET(L90,-1,0)
+))</f>
+        <v>34</v>
+      </c>
+      <c r="K90">
+        <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
+IF($C90=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L90,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K90,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L90">
+        <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
+IF($K90-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J90-1,$K90-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>it</v>
+      </c>
+      <c r="N90" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J90-1,$K90))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O90" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J90-1,$K90+1))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="P90">
+        <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J90-1,$K90+2))</f>
+        <v>1500</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>it</v>
+      </c>
+      <c r="R90" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="S90">
+        <f t="shared" ca="1" si="37"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19">
+      <c r="A91" t="s">
+        <v>119</v>
+      </c>
+      <c r="B91" t="str">
+        <f>IFERROR(VLOOKUP(A91,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <f ca="1">IF(C91&lt;&gt;1,OFFSET(D91,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A91,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J91">
+        <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
+IF($C91=1,MATCH(OFFSET($I91,-($C91-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J91,-1,0)+OFFSET(L91,-1,0)
+))</f>
+        <v>34</v>
+      </c>
+      <c r="K91">
+        <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
+IF($C91=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L91,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K91,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L91">
+        <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
+IF($K91-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J91-1,$K91-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N91" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J91-1,$K91))</f>
+        <v>재화</v>
+      </c>
+      <c r="O91" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J91-1,$K91+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P91">
+        <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J91-1,$K91+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R91" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>EN</v>
+      </c>
+      <c r="S91">
+        <f t="shared" ca="1" si="37"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19">
+      <c r="A92" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" t="str">
+        <f>IFERROR(VLOOKUP(A92,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+      <c r="D92">
+        <f ca="1">IF(C92&lt;&gt;1,OFFSET(D92,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A92,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E92" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J92">
+        <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
+IF($C92=1,MATCH(OFFSET($I92,-($C92-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J92,-1,0)+OFFSET(L92,-1,0)
+))</f>
+        <v>34</v>
+      </c>
+      <c r="K92">
+        <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
+IF($C92=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L92,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K92,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L92">
+        <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
+IF($K92-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J92-1,$K92-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N92" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J92-1,$K92))</f>
+        <v>재화</v>
+      </c>
+      <c r="O92" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J92-1,$K92+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P92">
+        <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J92-1,$K92+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R92" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>GO</v>
+      </c>
+      <c r="S92">
+        <f t="shared" ca="1" si="37"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B93" t="str">
+        <f>IFERROR(VLOOKUP(A93,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C93">
+        <v>10</v>
+      </c>
+      <c r="D93">
+        <f ca="1">IF(C93&lt;&gt;1,OFFSET(D93,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A93,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J93">
+        <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
+IF($C93=1,MATCH(OFFSET($I93,-($C93-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J93,-1,0)+OFFSET(L93,-1,0)
+))</f>
+        <v>35</v>
+      </c>
+      <c r="K93">
+        <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
+IF($C93=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L93,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K93,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L93">
+        <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
+IF($K93-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J93-1,$K93-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N93" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J93-1,$K93))</f>
+        <v>재화</v>
+      </c>
+      <c r="O93" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J93-1,$K93+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P93">
+        <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J93-1,$K93+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R93" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>EN</v>
+      </c>
+      <c r="S93">
+        <f t="shared" ca="1" si="37"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19">
+      <c r="A94" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IFERROR(VLOOKUP(A94,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C94">
+        <v>11</v>
+      </c>
+      <c r="D94">
+        <f ca="1">IF(C94&lt;&gt;1,OFFSET(D94,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A94,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J94">
+        <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
+IF($C94=1,MATCH(OFFSET($I94,-($C94-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J94,-1,0)+OFFSET(L94,-1,0)
+))</f>
+        <v>35</v>
+      </c>
+      <c r="K94">
+        <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
+IF($C94=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L94,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K94,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L94">
+        <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
+IF($K94-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J94-1,$K94-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N94" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J94-1,$K94))</f>
+        <v>재화</v>
+      </c>
+      <c r="O94" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J94-1,$K94+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P94">
+        <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J94-1,$K94+2))</f>
+        <v>50</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R94" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>EN</v>
+      </c>
+      <c r="S94">
+        <f t="shared" ca="1" si="37"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IFERROR(VLOOKUP(A95,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C95">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <f ca="1">IF(C95&lt;&gt;1,OFFSET(D95,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A95,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" ca="1" si="33"/>
+        <v/>
+      </c>
+      <c r="J95">
+        <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
+IF($C95=1,MATCH(OFFSET($I95,-($C95-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J95,-1,0)+OFFSET(L95,-1,0)
+))</f>
+        <v>35</v>
+      </c>
+      <c r="K95">
+        <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
+IF($C95=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L95,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K95,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L95">
+        <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
+IF($K95-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J95-1,$K95-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" ca="1" si="34"/>
+        <v>cu</v>
+      </c>
+      <c r="N95" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J95-1,$K95))</f>
+        <v>재화</v>
+      </c>
+      <c r="O95" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J95-1,$K95+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P95">
+        <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J95-1,$K95+2))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q95" t="str">
+        <f t="shared" ca="1" si="35"/>
+        <v>cu</v>
+      </c>
+      <c r="R95" t="str">
+        <f t="shared" ca="1" si="36"/>
+        <v>GO</v>
+      </c>
+      <c r="S95">
+        <f t="shared" ca="1" si="37"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19">
+      <c r="A96" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" t="str">
+        <f>IFERROR(VLOOKUP(A96,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <f ca="1">IF(C96&lt;&gt;1,OFFSET(D96,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A96,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" ref="E96:E107" ca="1" si="38">IF(ISBLANK(F96),"",
+VLOOKUP(F96,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I96" t="s">
+        <v>122</v>
+      </c>
+      <c r="J96">
+        <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
+IF($C96=1,MATCH(OFFSET($I96,-($C96-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J96,-1,0)+OFFSET(L96,-1,0)
+))</f>
+        <v>36</v>
+      </c>
+      <c r="K96">
+        <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
+IF($C96=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L96,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K96,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L96">
+        <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
+IF($K96-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J96-1,$K96-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" ref="M96:M107" ca="1" si="39">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
+IF(ISBLANK(N96),"",
+VLOOKUP(N96,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>it</v>
+      </c>
+      <c r="N96" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J96-1,$K96))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O96" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J96-1,$K96+1))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="P96">
+        <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J96-1,$K96+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q96" t="str">
+        <f t="shared" ref="Q96:Q107" ca="1" si="40">IF(LEN(E96)&lt;&gt;0,E96,
+IF(LEN(M96)&lt;&gt;0,M96,""))</f>
+        <v>it</v>
+      </c>
+      <c r="R96" t="str">
+        <f t="shared" ref="R96:R107" ca="1" si="41">IF(LEN(G96)&lt;&gt;0,G96,
+IF(LEN(O96)&lt;&gt;0,O96,""))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="S96">
+        <f t="shared" ref="S96:S107" ca="1" si="42">IF(LEN(H96)&lt;&gt;0,H96,
+IF(LEN(P96)&lt;&gt;0,P96,""))</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19">
+      <c r="A97" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IFERROR(VLOOKUP(A97,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C97">
+        <v>2</v>
+      </c>
+      <c r="D97">
+        <f ca="1">IF(C97&lt;&gt;1,OFFSET(D97,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A97,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J97">
+        <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
+IF($C97=1,MATCH(OFFSET($I97,-($C97-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J97,-1,0)+OFFSET(L97,-1,0)
+))</f>
+        <v>36</v>
+      </c>
+      <c r="K97">
+        <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
+IF($C97=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L97,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K97,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L97">
+        <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
+IF($K97-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J97-1,$K97-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N97" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J97-1,$K97))</f>
+        <v>재화</v>
+      </c>
+      <c r="O97" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J97-1,$K97+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P97">
+        <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J97-1,$K97+2))</f>
+        <v>75</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R97" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>EN</v>
+      </c>
+      <c r="S97">
+        <f t="shared" ca="1" si="42"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98" t="str">
+        <f>IFERROR(VLOOKUP(A98,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C98">
+        <v>3</v>
+      </c>
+      <c r="D98">
+        <f ca="1">IF(C98&lt;&gt;1,OFFSET(D98,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A98,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J98">
+        <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
+IF($C98=1,MATCH(OFFSET($I98,-($C98-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J98,-1,0)+OFFSET(L98,-1,0)
+))</f>
+        <v>36</v>
+      </c>
+      <c r="K98">
+        <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
+IF($C98=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L98,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K98,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L98">
+        <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
+IF($K98-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J98-1,$K98-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N98" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J98-1,$K98))</f>
+        <v>재화</v>
+      </c>
+      <c r="O98" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J98-1,$K98+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P98">
+        <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J98-1,$K98+2))</f>
+        <v>20000</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R98" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>GO</v>
+      </c>
+      <c r="S98">
+        <f t="shared" ca="1" si="42"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" t="str">
+        <f>IFERROR(VLOOKUP(A99,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C99">
+        <v>4</v>
+      </c>
+      <c r="D99">
+        <f ca="1">IF(C99&lt;&gt;1,OFFSET(D99,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A99,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J99">
+        <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
+IF($C99=1,MATCH(OFFSET($I99,-($C99-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J99,-1,0)+OFFSET(L99,-1,0)
+))</f>
+        <v>37</v>
+      </c>
+      <c r="K99">
+        <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
+IF($C99=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L99,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K99,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L99">
+        <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
+IF($K99-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J99-1,$K99-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N99" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J99-1,$K99))</f>
+        <v>재화</v>
+      </c>
+      <c r="O99" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J99-1,$K99+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P99">
+        <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J99-1,$K99+2))</f>
+        <v>300</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R99" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>EN</v>
+      </c>
+      <c r="S99">
+        <f t="shared" ca="1" si="42"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="str">
+        <f>IFERROR(VLOOKUP(A100,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C100">
+        <v>5</v>
+      </c>
+      <c r="D100">
+        <f ca="1">IF(C100&lt;&gt;1,OFFSET(D100,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A100,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J100">
+        <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
+IF($C100=1,MATCH(OFFSET($I100,-($C100-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J100,-1,0)+OFFSET(L100,-1,0)
+))</f>
+        <v>37</v>
+      </c>
+      <c r="K100">
+        <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
+IF($C100=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L100,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K100,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L100">
+        <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
+IF($K100-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J100-1,$K100-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N100" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J100-1,$K100))</f>
+        <v>재화</v>
+      </c>
+      <c r="O100" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J100-1,$K100+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P100">
+        <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J100-1,$K100+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R100" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>EN</v>
+      </c>
+      <c r="S100">
+        <f t="shared" ca="1" si="42"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" t="s">
+        <v>121</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IFERROR(VLOOKUP(A101,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+      <c r="D101">
+        <f ca="1">IF(C101&lt;&gt;1,OFFSET(D101,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A101,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J101">
+        <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
+IF($C101=1,MATCH(OFFSET($I101,-($C101-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J101,-1,0)+OFFSET(L101,-1,0)
+))</f>
+        <v>37</v>
+      </c>
+      <c r="K101">
+        <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
+IF($C101=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L101,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K101,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L101">
+        <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
+IF($K101-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J101-1,$K101-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N101" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J101-1,$K101))</f>
+        <v>재화</v>
+      </c>
+      <c r="O101" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J101-1,$K101+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P101">
+        <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J101-1,$K101+2))</f>
+        <v>40000</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R101" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>GO</v>
+      </c>
+      <c r="S101">
+        <f t="shared" ca="1" si="42"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" t="str">
+        <f>IFERROR(VLOOKUP(A102,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C102">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <f ca="1">IF(C102&lt;&gt;1,OFFSET(D102,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A102,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J102">
+        <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
+IF($C102=1,MATCH(OFFSET($I102,-($C102-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J102,-1,0)+OFFSET(L102,-1,0)
+))</f>
+        <v>38</v>
+      </c>
+      <c r="K102">
+        <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
+IF($C102=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L102,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K102,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L102">
+        <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
+IF($K102-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J102-1,$K102-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>it</v>
+      </c>
+      <c r="N102" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J102-1,$K102))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O102" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J102-1,$K102+1))</f>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="P102">
+        <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J102-1,$K102+2))</f>
+        <v>1500</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>it</v>
+      </c>
+      <c r="R102" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>Item_cFestival</v>
+      </c>
+      <c r="S102">
+        <f t="shared" ca="1" si="42"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" t="s">
+        <v>121</v>
+      </c>
+      <c r="B103" t="str">
+        <f>IFERROR(VLOOKUP(A103,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <f ca="1">IF(C103&lt;&gt;1,OFFSET(D103,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A103,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J103">
+        <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
+IF($C103=1,MATCH(OFFSET($I103,-($C103-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J103,-1,0)+OFFSET(L103,-1,0)
+))</f>
+        <v>38</v>
+      </c>
+      <c r="K103">
+        <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
+IF($C103=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L103,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K103,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L103">
+        <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
+IF($K103-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J103-1,$K103-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N103" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J103-1,$K103))</f>
+        <v>재화</v>
+      </c>
+      <c r="O103" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J103-1,$K103+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P103">
+        <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J103-1,$K103+2))</f>
+        <v>500</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R103" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>EN</v>
+      </c>
+      <c r="S103">
+        <f t="shared" ca="1" si="42"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19">
+      <c r="A104" t="s">
+        <v>121</v>
+      </c>
+      <c r="B104" t="str">
+        <f>IFERROR(VLOOKUP(A104,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <f ca="1">IF(C104&lt;&gt;1,OFFSET(D104,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A104,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J104">
+        <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
+IF($C104=1,MATCH(OFFSET($I104,-($C104-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J104,-1,0)+OFFSET(L104,-1,0)
+))</f>
+        <v>38</v>
+      </c>
+      <c r="K104">
+        <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
+IF($C104=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L104,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K104,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L104">
+        <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
+IF($K104-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J104-1,$K104-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N104" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J104-1,$K104))</f>
+        <v>재화</v>
+      </c>
+      <c r="O104" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J104-1,$K104+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P104">
+        <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J104-1,$K104+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R104" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>GO</v>
+      </c>
+      <c r="S104">
+        <f t="shared" ca="1" si="42"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" t="str">
+        <f>IFERROR(VLOOKUP(A105,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <f ca="1">IF(C105&lt;&gt;1,OFFSET(D105,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A105,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J105">
+        <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
+IF($C105=1,MATCH(OFFSET($I105,-($C105-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J105,-1,0)+OFFSET(L105,-1,0)
+))</f>
+        <v>39</v>
+      </c>
+      <c r="K105">
+        <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
+IF($C105=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L105,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K105,-1,0)+4)))</f>
+        <v>13</v>
+      </c>
+      <c r="L105">
+        <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
+IF($K105-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J105-1,$K105-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N105" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J105-1,$K105))</f>
+        <v>재화</v>
+      </c>
+      <c r="O105" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J105-1,$K105+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P105">
+        <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J105-1,$K105+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R105" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>EN</v>
+      </c>
+      <c r="S105">
+        <f t="shared" ca="1" si="42"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19">
+      <c r="A106" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" t="str">
+        <f>IFERROR(VLOOKUP(A106,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C106">
+        <v>11</v>
+      </c>
+      <c r="D106">
+        <f ca="1">IF(C106&lt;&gt;1,OFFSET(D106,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A106,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J106">
+        <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
+IF($C106=1,MATCH(OFFSET($I106,-($C106-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J106,-1,0)+OFFSET(L106,-1,0)
+))</f>
+        <v>39</v>
+      </c>
+      <c r="K106">
+        <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
+IF($C106=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L106,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K106,-1,0)+4)))</f>
+        <v>17</v>
+      </c>
+      <c r="L106">
+        <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
+IF($K106-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J106-1,$K106-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N106" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J106-1,$K106))</f>
+        <v>재화</v>
+      </c>
+      <c r="O106" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J106-1,$K106+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P106">
+        <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J106-1,$K106+2))</f>
+        <v>50</v>
+      </c>
+      <c r="Q106" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R106" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>EN</v>
+      </c>
+      <c r="S106">
+        <f t="shared" ca="1" si="42"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19">
+      <c r="A107" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" t="str">
+        <f>IFERROR(VLOOKUP(A107,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C107">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <f ca="1">IF(C107&lt;&gt;1,OFFSET(D107,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A107,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" ca="1" si="38"/>
+        <v/>
+      </c>
+      <c r="J107">
+        <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
+IF($C107=1,MATCH(OFFSET($I107,-($C107-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J107,-1,0)+OFFSET(L107,-1,0)
+))</f>
+        <v>39</v>
+      </c>
+      <c r="K107">
+        <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
+IF($C107=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L107,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K107,-1,0)+4)))</f>
+        <v>21</v>
+      </c>
+      <c r="L107">
+        <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
+IF($K107-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J107-1,$K107-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" ca="1" si="39"/>
+        <v>cu</v>
+      </c>
+      <c r="N107" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J107-1,$K107))</f>
+        <v>재화</v>
+      </c>
+      <c r="O107" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J107-1,$K107+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P107">
+        <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J107-1,$K107+2))</f>
+        <v>10000</v>
+      </c>
+      <c r="Q107" t="str">
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
+      </c>
+      <c r="R107" t="str">
+        <f t="shared" ca="1" si="41"/>
+        <v>GO</v>
+      </c>
+      <c r="S107">
+        <f t="shared" ca="1" si="42"/>
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F71" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F83" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>
@@ -8510,19 +11507,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="27" customHeight="1">
       <c r="A1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
         <v>93</v>
-      </c>
-      <c r="B1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD245B7F-A607-4FF5-BB9A-7510123AE3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E02803-3F8D-4E68-B13B-8DD058108BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -3644,10 +3644,10 @@
   <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -6516,12 +6516,12 @@
       <c r="O39" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+1))</f>
-        <v>Cash_sSevenSlot1</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J39-1,$K39+2))</f>
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="Q39" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -6529,11 +6529,11 @@
       </c>
       <c r="R39" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Cash_sSevenSlot1</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -6948,12 +6948,12 @@
       <c r="O45" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+1))</f>
-        <v>Cash_sSevenSlot3</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+2))</f>
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="Q45" t="str">
         <f t="shared" ca="1" si="20"/>
@@ -6961,11 +6961,11 @@
       </c>
       <c r="R45" t="str">
         <f t="shared" ca="1" si="21"/>
-        <v>Cash_sSevenSlot3</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S45">
         <f t="shared" ca="1" si="22"/>
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -7389,7 +7389,7 @@
       <c r="O51" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+1))</f>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
@@ -7402,7 +7402,7 @@
       </c>
       <c r="R51" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S51">
         <f t="shared" ca="1" si="26"/>
@@ -7821,7 +7821,7 @@
       <c r="O57" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+1))</f>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
@@ -7834,7 +7834,7 @@
       </c>
       <c r="R57" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S57">
         <f t="shared" ca="1" si="26"/>
@@ -8256,7 +8256,7 @@
       <c r="O63" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+1))</f>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
@@ -8269,7 +8269,7 @@
       </c>
       <c r="R63" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S63">
         <f t="shared" ca="1" si="26"/>
@@ -8690,7 +8690,7 @@
       <c r="O69" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+1))</f>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
@@ -8703,7 +8703,7 @@
       </c>
       <c r="R69" t="str">
         <f t="shared" ca="1" si="25"/>
-        <v>Item_cSevenTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S69">
         <f t="shared" ca="1" si="26"/>
@@ -8914,7 +8914,7 @@
       <c r="O72" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J72-1,$K72+1))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P72">
         <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
@@ -8929,7 +8929,7 @@
       <c r="R72" t="str">
         <f t="shared" ref="R72:R83" ca="1" si="31">IF(LEN(G72)&lt;&gt;0,G72,
 IF(LEN(O72)&lt;&gt;0,O72,""))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S72">
         <f t="shared" ref="S72:S83" ca="1" si="32">IF(LEN(H72)&lt;&gt;0,H72,
@@ -9349,7 +9349,7 @@
       <c r="O78" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J78-1,$K78+1))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P78">
         <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
@@ -9362,7 +9362,7 @@
       </c>
       <c r="R78" t="str">
         <f t="shared" ca="1" si="31"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S78">
         <f t="shared" ca="1" si="32"/>
@@ -9789,7 +9789,7 @@
       <c r="O84" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J84-1,$K84+1))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P84">
         <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
@@ -9804,7 +9804,7 @@
       <c r="R84" t="str">
         <f t="shared" ref="R84:R95" ca="1" si="36">IF(LEN(G84)&lt;&gt;0,G84,
 IF(LEN(O84)&lt;&gt;0,O84,""))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S84">
         <f t="shared" ref="S84:S95" ca="1" si="37">IF(LEN(H84)&lt;&gt;0,H84,
@@ -10224,7 +10224,7 @@
       <c r="O90" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J90-1,$K90+1))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P90">
         <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
@@ -10237,7 +10237,7 @@
       </c>
       <c r="R90" t="str">
         <f t="shared" ca="1" si="36"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S90">
         <f t="shared" ca="1" si="37"/>
@@ -10664,7 +10664,7 @@
       <c r="O96" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J96-1,$K96+1))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P96">
         <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
@@ -10679,7 +10679,7 @@
       <c r="R96" t="str">
         <f t="shared" ref="R96:R107" ca="1" si="41">IF(LEN(G96)&lt;&gt;0,G96,
 IF(LEN(O96)&lt;&gt;0,O96,""))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S96">
         <f t="shared" ref="S96:S107" ca="1" si="42">IF(LEN(H96)&lt;&gt;0,H96,
@@ -11099,7 +11099,7 @@
       <c r="O102" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J102-1,$K102+1))</f>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P102">
         <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
@@ -11112,7 +11112,7 @@
       </c>
       <c r="R102" t="str">
         <f t="shared" ca="1" si="41"/>
-        <v>Item_cFestival</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S102">
         <f t="shared" ca="1" si="42"/>
@@ -11481,7 +11481,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F83" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E02803-3F8D-4E68-B13B-8DD058108BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A3B8E9-5C26-4B7B-B3D1-E8C339DA1C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -613,6 +613,7 @@
       <sheetName val="ShopProductTable"/>
       <sheetName val="LevelPassTable"/>
       <sheetName val="ConsumeItemTable"/>
+      <sheetName val="StageClearTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -639,147 +640,156 @@
             <v>free|Bool</v>
           </cell>
           <cell r="H1" t="str">
+            <v>times|Int</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>preEng|Float</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>preKor|Int</v>
+          </cell>
+          <cell r="K1" t="str">
             <v>eng|Float</v>
           </cell>
-          <cell r="I1" t="str">
+          <cell r="L1" t="str">
             <v>kor|Int</v>
           </cell>
-          <cell r="J1" t="str">
+          <cell r="M1" t="str">
             <v>serverItemId|String</v>
           </cell>
-          <cell r="K1" t="str">
+          <cell r="N1" t="str">
             <v>key</v>
           </cell>
-          <cell r="L1" t="str">
+          <cell r="O1" t="str">
             <v>key|Int</v>
           </cell>
-          <cell r="M1" t="str">
+          <cell r="P1" t="str">
             <v>tp1</v>
           </cell>
-          <cell r="N1" t="str">
+          <cell r="Q1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="O1" t="str">
+          <cell r="R1" t="str">
             <v>vl1</v>
           </cell>
-          <cell r="P1" t="str">
+          <cell r="S1" t="str">
             <v>cn1</v>
           </cell>
-          <cell r="Q1" t="str">
+          <cell r="T1" t="str">
             <v>tp2</v>
           </cell>
-          <cell r="R1" t="str">
+          <cell r="U1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="S1" t="str">
+          <cell r="V1" t="str">
             <v>vl2</v>
           </cell>
-          <cell r="T1" t="str">
+          <cell r="W1" t="str">
             <v>cn2</v>
           </cell>
-          <cell r="U1" t="str">
+          <cell r="X1" t="str">
             <v>tp3</v>
           </cell>
-          <cell r="V1" t="str">
+          <cell r="Y1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="W1" t="str">
+          <cell r="Z1" t="str">
             <v>vl3</v>
           </cell>
-          <cell r="X1" t="str">
+          <cell r="AA1" t="str">
             <v>cn3</v>
           </cell>
-          <cell r="Y1" t="str">
+          <cell r="AB1" t="str">
             <v>tp4</v>
           </cell>
-          <cell r="Z1" t="str">
+          <cell r="AC1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="AA1" t="str">
+          <cell r="AD1" t="str">
             <v>vl4</v>
           </cell>
-          <cell r="AB1" t="str">
+          <cell r="AE1" t="str">
             <v>cn4</v>
           </cell>
-          <cell r="AC1" t="str">
+          <cell r="AF1" t="str">
             <v>tp5</v>
           </cell>
-          <cell r="AD1" t="str">
+          <cell r="AG1" t="str">
             <v>tp</v>
           </cell>
-          <cell r="AE1" t="str">
+          <cell r="AH1" t="str">
             <v>vl5</v>
           </cell>
-          <cell r="AF1" t="str">
+          <cell r="AI1" t="str">
             <v>cn5</v>
           </cell>
-          <cell r="AG1" t="str">
+          <cell r="AJ1" t="str">
             <v>rewardType1|String</v>
           </cell>
-          <cell r="AH1" t="str">
+          <cell r="AK1" t="str">
             <v>rewardValue1|String</v>
           </cell>
-          <cell r="AI1" t="str">
+          <cell r="AL1" t="str">
             <v>rewardCount1|Int</v>
           </cell>
-          <cell r="AJ1" t="str">
+          <cell r="AM1" t="str">
             <v>rewardType2|String</v>
           </cell>
-          <cell r="AK1" t="str">
+          <cell r="AN1" t="str">
             <v>rewardValue2|String</v>
           </cell>
-          <cell r="AL1" t="str">
+          <cell r="AO1" t="str">
             <v>rewardCount2|Int</v>
           </cell>
-          <cell r="AM1" t="str">
+          <cell r="AP1" t="str">
             <v>rewardType3|String</v>
           </cell>
-          <cell r="AN1" t="str">
+          <cell r="AQ1" t="str">
             <v>rewardValue3|String</v>
           </cell>
-          <cell r="AO1" t="str">
+          <cell r="AR1" t="str">
             <v>rewardCount3|Int</v>
           </cell>
-          <cell r="AP1" t="str">
+          <cell r="AS1" t="str">
             <v>rewardType4|String</v>
           </cell>
-          <cell r="AQ1" t="str">
+          <cell r="AT1" t="str">
             <v>rewardValue4|String</v>
           </cell>
-          <cell r="AR1" t="str">
+          <cell r="AU1" t="str">
             <v>rewardCount4|Int</v>
           </cell>
-          <cell r="AS1" t="str">
+          <cell r="AV1" t="str">
             <v>rewardType5|String</v>
           </cell>
-          <cell r="AT1" t="str">
+          <cell r="AW1" t="str">
             <v>rewardValue5|String</v>
           </cell>
-          <cell r="AU1" t="str">
+          <cell r="AX1" t="str">
             <v>rewardCount5|Int</v>
           </cell>
-          <cell r="AV1" t="str">
+          <cell r="AY1" t="str">
             <v>테이블연결</v>
           </cell>
-          <cell r="AW1" t="str">
+          <cell r="AZ1" t="str">
             <v>Jason화</v>
           </cell>
-          <cell r="AY1" t="str">
+          <cell r="BB1" t="str">
             <v>tp_Verify</v>
           </cell>
-          <cell r="AZ1" t="str">
+          <cell r="BC1" t="str">
             <v>value</v>
           </cell>
-          <cell r="BB1" t="str">
+          <cell r="BE1" t="str">
             <v>서버재화</v>
           </cell>
-          <cell r="BD1" t="str">
+          <cell r="BG1" t="str">
             <v>서버아이템</v>
           </cell>
-          <cell r="BF1" t="str">
+          <cell r="BI1" t="str">
             <v>그외</v>
           </cell>
-          <cell r="BH1" t="str">
+          <cell r="BK1" t="str">
             <v>sProd</v>
           </cell>
         </row>
@@ -1743,6 +1753,7 @@
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2045,40 +2056,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AM14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" collapsed="1"/>
+    <col min="5" max="5" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" collapsed="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="3.875" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="14" max="14" width="5.5" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="4.125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="3.625" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="11.75" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="11.125" customWidth="1" outlineLevel="1"/>
-    <col min="25" max="25" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="9" customWidth="1"/>
-    <col min="27" max="27" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="28" max="29" width="9" customWidth="1"/>
-    <col min="30" max="31" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="35" max="35" width="26.5" customWidth="1" outlineLevel="1"/>
-    <col min="36" max="36" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="38" max="38" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="9" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="3.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="13" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="14" max="14" width="5.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="4.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="3.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="11.75" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="11.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="9" collapsed="1"/>
+    <col min="25" max="25" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="9" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="28" max="28" width="9" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="9" customWidth="1"/>
+    <col min="30" max="31" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="32" max="32" width="9" collapsed="1"/>
+    <col min="33" max="33" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9" collapsed="1"/>
+    <col min="35" max="35" width="26.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="36" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="9" collapsed="1"/>
+    <col min="38" max="38" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="39" max="39" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="27" customHeight="1">
@@ -2222,11 +2241,11 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:K14" si="1">IF(ISBLANK($Q2),"",YEAR($Q2))</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L2">
         <f t="shared" ref="L2:L14" si="2">IF(ISBLANK($Q2),"",MONTH($Q2))</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M14" si="3">IF(ISBLANK($Q2),"",DAY($Q2))</f>
@@ -2238,25 +2257,25 @@
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O14" si="5">IF(ISBLANK($R2),"",MONTH($R2+1))</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P2">
         <f t="shared" ref="P2:P14" si="6">IF(ISBLANK($R2),"",DAY($R2+1))</f>
         <v>1</v>
       </c>
       <c r="Q2" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="R2" s="3">
-        <v>44926</v>
+        <v>44985</v>
       </c>
       <c r="S2">
         <f>K2</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T2">
         <f t="shared" ref="T2:X14" si="7">L2</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <f t="shared" si="7"/>
@@ -2268,7 +2287,7 @@
       </c>
       <c r="W2">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2">
         <f t="shared" si="7"/>
@@ -2346,11 +2365,11 @@
       </c>
       <c r="K3">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L3">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M3">
         <f t="shared" si="3"/>
@@ -2362,25 +2381,25 @@
       </c>
       <c r="O3">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="Q3" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="R3" s="3">
-        <v>44926</v>
+        <v>44985</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S14" si="9">K3</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T3">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f t="shared" si="7"/>
@@ -2392,7 +2411,7 @@
       </c>
       <c r="W3">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3">
         <f t="shared" si="7"/>
@@ -2468,11 +2487,11 @@
       </c>
       <c r="K4">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <f t="shared" si="3"/>
@@ -2480,29 +2499,29 @@
       </c>
       <c r="N4">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O4">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P4">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="R4" s="3">
-        <v>44925</v>
+        <v>44985</v>
       </c>
       <c r="S4">
         <f t="shared" si="9"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T4">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f t="shared" si="7"/>
@@ -2510,15 +2529,15 @@
       </c>
       <c r="V4">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W4">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X4">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="s">
         <v>49</v>
@@ -2590,57 +2609,57 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L5">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O5">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="3">
-        <v>44907</v>
+        <v>44927</v>
       </c>
       <c r="R5" s="3">
-        <v>44922</v>
+        <v>44985</v>
       </c>
       <c r="S5">
         <f t="shared" si="9"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W5">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Y5" t="s">
         <v>49</v>
@@ -2712,57 +2731,57 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M6">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O6">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P6">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="3">
-        <v>44859</v>
+        <v>44927</v>
       </c>
       <c r="R6" s="3">
-        <v>44910</v>
+        <v>44985</v>
       </c>
       <c r="S6">
         <f t="shared" si="9"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T6">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <f t="shared" si="7"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="V6">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W6">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X6">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="s">
         <v>49</v>
@@ -2835,57 +2854,57 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O7">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P7">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="3">
-        <v>44846</v>
+        <v>44927</v>
       </c>
       <c r="R7" s="3">
-        <v>44922</v>
+        <v>44985</v>
       </c>
       <c r="S7">
         <f t="shared" si="9"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T7">
         <f t="shared" si="7"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="V7">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W7">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X7">
         <f t="shared" si="7"/>
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="s">
         <v>49</v>
@@ -2947,11 +2966,11 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L8">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <f t="shared" si="3"/>
@@ -2959,29 +2978,29 @@
       </c>
       <c r="N8">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O8">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P8">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="R8" s="3">
-        <v>44925</v>
+        <v>44985</v>
       </c>
       <c r="S8">
         <f t="shared" si="9"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T8">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U8">
         <f t="shared" si="7"/>
@@ -2989,15 +3008,15 @@
       </c>
       <c r="V8">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W8">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X8">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="s">
         <v>49</v>
@@ -3059,11 +3078,11 @@
       </c>
       <c r="K9">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L9">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M9">
         <f t="shared" si="3"/>
@@ -3071,29 +3090,29 @@
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O9">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="R9" s="3">
-        <v>44925</v>
+        <v>44985</v>
       </c>
       <c r="S9">
         <f t="shared" si="9"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T9">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U9">
         <f t="shared" si="7"/>
@@ -3101,15 +3120,15 @@
       </c>
       <c r="V9">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W9">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="s">
         <v>49</v>
@@ -3171,11 +3190,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L10">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M10">
         <f t="shared" si="3"/>
@@ -3183,29 +3202,29 @@
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O10">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="R10" s="3">
-        <v>44925</v>
+        <v>44985</v>
       </c>
       <c r="S10">
         <f t="shared" si="9"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T10">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U10">
         <f t="shared" si="7"/>
@@ -3213,15 +3232,15 @@
       </c>
       <c r="V10">
         <f t="shared" si="7"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W10">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <f t="shared" si="7"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Y10" t="s">
         <v>49</v>
@@ -3289,11 +3308,11 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="L11">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="M11">
         <f t="shared" si="3"/>
@@ -3301,29 +3320,29 @@
       </c>
       <c r="N11">
         <f t="shared" si="4"/>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="O11">
         <f t="shared" si="5"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="P11">
         <f t="shared" si="6"/>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q11" s="3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="R11" s="3">
-        <v>44925</v>
+        <v>44985</v>
       </c>
       <c r="S11">
         <f t="shared" ref="S11" si="22">K11</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="T11">
         <f t="shared" ref="T11" si="23">L11</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <f t="shared" ref="U11" si="24">M11</f>
@@ -3331,15 +3350,15 @@
       </c>
       <c r="V11">
         <f t="shared" ref="V11" si="25">N11</f>
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W11">
         <f t="shared" ref="W11" si="26">O11</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="X11">
         <f t="shared" ref="X11" si="27">P11</f>
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="s">
         <v>49</v>
@@ -3629,7 +3648,7 @@
       <formula>$R1&lt;TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA14 C2:C14 Y2:Y14" xr:uid="{7A490BB3-BA14-4ADC-B898-33EBA45A44D6}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(C$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
@@ -3643,8 +3662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
   <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K35" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A39" sqref="A39"/>
@@ -3769,7 +3788,7 @@
 IF($C2=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L2,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K2,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L2">
         <f ca="1">IF(ISBLANK(OFFSET($I2,-($C2-1),0)),"",
@@ -3853,7 +3872,7 @@
 IF($C3=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L3,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K3,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L3">
         <f ca="1">IF(ISBLANK(OFFSET($I3,-($C3-1),0)),"",
@@ -4021,7 +4040,7 @@
 IF($C5=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L5,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K5,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L5">
         <f ca="1">IF(ISBLANK(OFFSET($I5,-($C5-1),0)),"",
@@ -4096,7 +4115,7 @@
 IF($C6=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L6,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K6,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L6">
         <f ca="1">IF(ISBLANK(OFFSET($I6,-($C6-1),0)),"",
@@ -4168,7 +4187,7 @@
 IF($C7=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L7,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K7,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L7">
         <f ca="1">IF(ISBLANK(OFFSET($I7,-($C7-1),0)),"",
@@ -4240,7 +4259,7 @@
 IF($C8=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L8,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K8,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L8">
         <f ca="1">IF(ISBLANK(OFFSET($I8,-($C8-1),0)),"",
@@ -4312,7 +4331,7 @@
 IF($C9=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L9,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K9,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L9">
         <f ca="1">IF(ISBLANK(OFFSET($I9,-($C9-1),0)),"",
@@ -4384,7 +4403,7 @@
 IF($C10=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L10,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K10,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L10">
         <f ca="1">IF(ISBLANK(OFFSET($I10,-($C10-1),0)),"",
@@ -4456,7 +4475,7 @@
 IF($C11=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L11,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K11,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L11">
         <f ca="1">IF(ISBLANK(OFFSET($I11,-($C11-1),0)),"",
@@ -4528,7 +4547,7 @@
 IF($C12=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L12,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K12,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L12">
         <f ca="1">IF(ISBLANK(OFFSET($I12,-($C12-1),0)),"",
@@ -4600,7 +4619,7 @@
 IF($C13=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L13,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K13,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <f ca="1">IF(ISBLANK(OFFSET($I13,-($C13-1),0)),"",
@@ -4672,7 +4691,7 @@
 IF($C14=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L14,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K14,-1,0)+4)))</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L14">
         <f ca="1">IF(ISBLANK(OFFSET($I14,-($C14-1),0)),"",
@@ -4747,7 +4766,7 @@
 IF($C15=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L15,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K15,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L15">
         <f ca="1">IF(ISBLANK(OFFSET($I15,-($C15-1),0)),"",
@@ -4819,7 +4838,7 @@
 IF($C16=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L16,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K16,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L16">
         <f ca="1">IF(ISBLANK(OFFSET($I16,-($C16-1),0)),"",
@@ -4891,7 +4910,7 @@
 IF($C17=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L17,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K17,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L17">
         <f ca="1">IF(ISBLANK(OFFSET($I17,-($C17-1),0)),"",
@@ -4963,7 +4982,7 @@
 IF($C18=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L18,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K18,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L18">
         <f ca="1">IF(ISBLANK(OFFSET($I18,-($C18-1),0)),"",
@@ -5035,7 +5054,7 @@
 IF($C19=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L19,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K19,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L19">
         <f ca="1">IF(ISBLANK(OFFSET($I19,-($C19-1),0)),"",
@@ -5107,7 +5126,7 @@
 IF($C20=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L20,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K20,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L20">
         <f ca="1">IF(ISBLANK(OFFSET($I20,-($C20-1),0)),"",
@@ -5179,7 +5198,7 @@
 IF($C21=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L21,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K21,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L21">
         <f ca="1">IF(ISBLANK(OFFSET($I21,-($C21-1),0)),"",
@@ -5251,7 +5270,7 @@
 IF($C22=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L22,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K22,-1,0)+4)))</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L22">
         <f ca="1">IF(ISBLANK(OFFSET($I22,-($C22-1),0)),"",
@@ -5323,7 +5342,7 @@
 IF($C23=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L23,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K23,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L23">
         <f ca="1">IF(ISBLANK(OFFSET($I23,-($C23-1),0)),"",
@@ -5395,7 +5414,7 @@
 IF($C24=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L24,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K24,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <f ca="1">IF(ISBLANK(OFFSET($I24,-($C24-1),0)),"",
@@ -5470,7 +5489,7 @@
 IF($C25=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L25,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K25,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L25">
         <f ca="1">IF(ISBLANK(OFFSET($I25,-($C25-1),0)),"",
@@ -5548,7 +5567,7 @@
 IF($C26=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L26,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K26,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L26">
         <f ca="1">IF(ISBLANK(OFFSET($I26,-($C26-1),0)),"",
@@ -5623,7 +5642,7 @@
 IF($C27=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L27,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K27,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L27">
         <f ca="1">IF(ISBLANK(OFFSET($I27,-($C27-1),0)),"",
@@ -5695,7 +5714,7 @@
 IF($C28=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L28,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K28,-1,0)+4)))</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L28">
         <f ca="1">IF(ISBLANK(OFFSET($I28,-($C28-1),0)),"",
@@ -5767,7 +5786,7 @@
 IF($C29=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L29,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K29,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L29">
         <f ca="1">IF(ISBLANK(OFFSET($I29,-($C29-1),0)),"",
@@ -5839,7 +5858,7 @@
 IF($C30=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L30,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K30,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L30">
         <f ca="1">IF(ISBLANK(OFFSET($I30,-($C30-1),0)),"",
@@ -5911,7 +5930,7 @@
 IF($C31=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L31,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K31,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L31">
         <f ca="1">IF(ISBLANK(OFFSET($I31,-($C31-1),0)),"",
@@ -5983,7 +6002,7 @@
 IF($C32=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L32,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K32,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L32">
         <f ca="1">IF(ISBLANK(OFFSET($I32,-($C32-1),0)),"",
@@ -6055,7 +6074,7 @@
 IF($C33=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L33,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K33,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L33">
         <f ca="1">IF(ISBLANK(OFFSET($I33,-($C33-1),0)),"",
@@ -6127,7 +6146,7 @@
 IF($C34=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L34,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K34,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L34">
         <f ca="1">IF(ISBLANK(OFFSET($I34,-($C34-1),0)),"",
@@ -6199,7 +6218,7 @@
 IF($C35=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L35,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K35,-1,0)+4)))</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L35">
         <f ca="1">IF(ISBLANK(OFFSET($I35,-($C35-1),0)),"",
@@ -6274,7 +6293,7 @@
 IF($C36=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L36,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K36,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L36">
         <f ca="1">IF(ISBLANK(OFFSET($I36,-($C36-1),0)),"",
@@ -6352,7 +6371,7 @@
 IF($C37=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L37,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K37,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L37">
         <f ca="1">IF(ISBLANK(OFFSET($I37,-($C37-1),0)),"",
@@ -6424,7 +6443,7 @@
 IF($C38=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L38,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K38,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L38">
         <f ca="1">IF(ISBLANK(OFFSET($I38,-($C38-1),0)),"",
@@ -6496,7 +6515,7 @@
 IF($C39=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L39,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K39,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L39">
         <f ca="1">IF(ISBLANK(OFFSET($I39,-($C39-1),0)),"",
@@ -6568,7 +6587,7 @@
 IF($C40=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L40,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K40,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L40">
         <f ca="1">IF(ISBLANK(OFFSET($I40,-($C40-1),0)),"",
@@ -6640,7 +6659,7 @@
 IF($C41=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L41,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K41,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
@@ -6712,7 +6731,7 @@
 IF($C42=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L42,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K42,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L42">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
@@ -6784,7 +6803,7 @@
 IF($C43=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L43,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K43,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L43">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
@@ -6856,7 +6875,7 @@
 IF($C44=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L44,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K44,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
@@ -6928,7 +6947,7 @@
 IF($C45=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L45,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K45,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
@@ -7000,7 +7019,7 @@
 IF($C46=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L46,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K46,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L46">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
@@ -7072,7 +7091,7 @@
 IF($C47=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L47,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K47,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L47">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
@@ -7147,7 +7166,7 @@
 IF($C48=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L48,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K48,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
@@ -7225,7 +7244,7 @@
 IF($C49=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L49,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K49,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L49">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
@@ -7297,7 +7316,7 @@
 IF($C50=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L50,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K50,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L50">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
@@ -7369,7 +7388,7 @@
 IF($C51=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L51,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K51,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
@@ -7441,7 +7460,7 @@
 IF($C52=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L52,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K52,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L52">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
@@ -7513,7 +7532,7 @@
 IF($C53=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L53,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K53,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
@@ -7585,7 +7604,7 @@
 IF($C54=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L54,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K54,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L54">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
@@ -7657,7 +7676,7 @@
 IF($C55=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L55,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K55,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L55">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
@@ -7729,7 +7748,7 @@
 IF($C56=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L56,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K56,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
@@ -7801,7 +7820,7 @@
 IF($C57=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L57,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K57,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
@@ -7873,7 +7892,7 @@
 IF($C58=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L58,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K58,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L58">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
@@ -7945,7 +7964,7 @@
 IF($C59=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L59,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K59,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L59">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
@@ -8020,7 +8039,7 @@
 IF($C60=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L60,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K60,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
@@ -8092,7 +8111,7 @@
 IF($C61=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L61,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K61,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L61">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
@@ -8164,7 +8183,7 @@
 IF($C62=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L62,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K62,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L62">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
@@ -8236,7 +8255,7 @@
 IF($C63=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L63,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K63,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
@@ -8308,7 +8327,7 @@
 IF($C64=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L64,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K64,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L64">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
@@ -8380,7 +8399,7 @@
 IF($C65=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L65,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K65,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
@@ -8454,7 +8473,7 @@
 IF($C66=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L66,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K66,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L66">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
@@ -8526,7 +8545,7 @@
 IF($C67=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L67,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K67,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L67">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
@@ -8598,7 +8617,7 @@
 IF($C68=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L68,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K68,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
@@ -8670,7 +8689,7 @@
 IF($C69=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L69,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K69,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
@@ -8742,7 +8761,7 @@
 IF($C70=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L70,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K70,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L70">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
@@ -8814,7 +8833,7 @@
 IF($C71=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L71,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K71,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L71">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
@@ -8891,7 +8910,7 @@
 IF($C72=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L72,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K72,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L72">
         <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
@@ -8969,7 +8988,7 @@
 IF($C73=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L73,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K73,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L73">
         <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
@@ -9041,7 +9060,7 @@
 IF($C74=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L74,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K74,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L74">
         <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
@@ -9113,7 +9132,7 @@
 IF($C75=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L75,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K75,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L75">
         <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
@@ -9185,7 +9204,7 @@
 IF($C76=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L76,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K76,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L76">
         <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
@@ -9257,7 +9276,7 @@
 IF($C77=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L77,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K77,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L77">
         <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
@@ -9329,7 +9348,7 @@
 IF($C78=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L78,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K78,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L78">
         <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
@@ -9401,7 +9420,7 @@
 IF($C79=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L79,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K79,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L79">
         <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
@@ -9473,7 +9492,7 @@
 IF($C80=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L80,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K80,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L80">
         <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
@@ -9545,7 +9564,7 @@
 IF($C81=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L81,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K81,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L81">
         <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
@@ -9617,7 +9636,7 @@
 IF($C82=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L82,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K82,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L82">
         <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
@@ -9689,7 +9708,7 @@
 IF($C83=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L83,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K83,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L83">
         <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
@@ -9766,7 +9785,7 @@
 IF($C84=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L84,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K84,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L84">
         <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
@@ -9844,7 +9863,7 @@
 IF($C85=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L85,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K85,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L85">
         <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
@@ -9916,7 +9935,7 @@
 IF($C86=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L86,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K86,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L86">
         <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
@@ -9988,7 +10007,7 @@
 IF($C87=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L87,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K87,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L87">
         <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
@@ -10060,7 +10079,7 @@
 IF($C88=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L88,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K88,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L88">
         <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
@@ -10132,7 +10151,7 @@
 IF($C89=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L89,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K89,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L89">
         <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
@@ -10204,7 +10223,7 @@
 IF($C90=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L90,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K90,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L90">
         <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
@@ -10276,7 +10295,7 @@
 IF($C91=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L91,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K91,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L91">
         <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
@@ -10348,7 +10367,7 @@
 IF($C92=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L92,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K92,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L92">
         <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
@@ -10420,7 +10439,7 @@
 IF($C93=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L93,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K93,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L93">
         <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
@@ -10492,7 +10511,7 @@
 IF($C94=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L94,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K94,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L94">
         <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
@@ -10564,7 +10583,7 @@
 IF($C95=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L95,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K95,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L95">
         <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
@@ -10641,7 +10660,7 @@
 IF($C96=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L96,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K96,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L96">
         <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
@@ -10719,7 +10738,7 @@
 IF($C97=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L97,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K97,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L97">
         <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
@@ -10791,7 +10810,7 @@
 IF($C98=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L98,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K98,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L98">
         <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
@@ -10863,7 +10882,7 @@
 IF($C99=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L99,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K99,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L99">
         <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
@@ -10935,7 +10954,7 @@
 IF($C100=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L100,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K100,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L100">
         <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
@@ -11007,7 +11026,7 @@
 IF($C101=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L101,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K101,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L101">
         <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
@@ -11079,7 +11098,7 @@
 IF($C102=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L102,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K102,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L102">
         <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
@@ -11151,7 +11170,7 @@
 IF($C103=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L103,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K103,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L103">
         <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
@@ -11223,7 +11242,7 @@
 IF($C104=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L104,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K104,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L104">
         <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
@@ -11295,7 +11314,7 @@
 IF($C105=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L105,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K105,-1,0)+4)))</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L105">
         <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
@@ -11367,7 +11386,7 @@
 IF($C106=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L106,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K106,-1,0)+4)))</f>
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="L106">
         <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
@@ -11439,7 +11458,7 @@
 IF($C107=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 IF(OFFSET(L107,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
 OFFSET(K107,-1,0)+4)))</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L107">
         <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472DB2A-18C1-44A0-82A8-D5D54E7227D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C06B33B-3D4E-41E1-A85B-B7243056A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,13 @@
   </si>
   <si>
     <t>ev12_nuclearsale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstpurchase</t>
+  </si>
+  <si>
+    <t>firstpurchase</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -998,10 +1005,10 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>seventotalgroup1_1</v>
+            <v>firstpurchase</v>
           </cell>
           <cell r="D19" t="str">
-            <v>seventotalgroup1</v>
+            <v>firstpurchase</v>
           </cell>
           <cell r="E19">
             <v>3</v>
@@ -1009,7 +1016,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>seventotalgroup1_2</v>
+            <v>seventotalgroup1_1</v>
           </cell>
           <cell r="D20" t="str">
             <v>seventotalgroup1</v>
@@ -1020,7 +1027,7 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>seventotalgroup1_3</v>
+            <v>seventotalgroup1_2</v>
           </cell>
           <cell r="D21" t="str">
             <v>seventotalgroup1</v>
@@ -1031,7 +1038,7 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>seventotalgroup1_4</v>
+            <v>seventotalgroup1_3</v>
           </cell>
           <cell r="D22" t="str">
             <v>seventotalgroup1</v>
@@ -1042,10 +1049,10 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>seventotalgroup2_1</v>
+            <v>seventotalgroup1_4</v>
           </cell>
           <cell r="D23" t="str">
-            <v>seventotalgroup2</v>
+            <v>seventotalgroup1</v>
           </cell>
           <cell r="E23">
             <v>3</v>
@@ -1053,7 +1060,7 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>seventotalgroup2_2</v>
+            <v>seventotalgroup2_1</v>
           </cell>
           <cell r="D24" t="str">
             <v>seventotalgroup2</v>
@@ -1064,7 +1071,7 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>seventotalgroup2_3</v>
+            <v>seventotalgroup2_2</v>
           </cell>
           <cell r="D25" t="str">
             <v>seventotalgroup2</v>
@@ -1075,7 +1082,7 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>seventotalgroup2_4</v>
+            <v>seventotalgroup2_3</v>
           </cell>
           <cell r="D26" t="str">
             <v>seventotalgroup2</v>
@@ -1086,10 +1093,10 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>seventotalgroup3_1</v>
+            <v>seventotalgroup2_4</v>
           </cell>
           <cell r="D27" t="str">
-            <v>seventotalgroup3</v>
+            <v>seventotalgroup2</v>
           </cell>
           <cell r="E27">
             <v>3</v>
@@ -1097,7 +1104,7 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>seventotalgroup3_2</v>
+            <v>seventotalgroup3_1</v>
           </cell>
           <cell r="D28" t="str">
             <v>seventotalgroup3</v>
@@ -1108,7 +1115,7 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>seventotalgroup3_3</v>
+            <v>seventotalgroup3_2</v>
           </cell>
           <cell r="D29" t="str">
             <v>seventotalgroup3</v>
@@ -1119,7 +1126,7 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>seventotalgroup3_4</v>
+            <v>seventotalgroup3_3</v>
           </cell>
           <cell r="D30" t="str">
             <v>seventotalgroup3</v>
@@ -1130,10 +1137,10 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>festivalgroup1_1</v>
+            <v>seventotalgroup3_4</v>
           </cell>
           <cell r="D31" t="str">
-            <v>festivalgroup1</v>
+            <v>seventotalgroup3</v>
           </cell>
           <cell r="E31">
             <v>3</v>
@@ -1141,7 +1148,7 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>festivalgroup1_2</v>
+            <v>festivalgroup1_1</v>
           </cell>
           <cell r="D32" t="str">
             <v>festivalgroup1</v>
@@ -1152,7 +1159,7 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>festivalgroup1_3</v>
+            <v>festivalgroup1_2</v>
           </cell>
           <cell r="D33" t="str">
             <v>festivalgroup1</v>
@@ -1163,7 +1170,7 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>festivalgroup1_4</v>
+            <v>festivalgroup1_3</v>
           </cell>
           <cell r="D34" t="str">
             <v>festivalgroup1</v>
@@ -1174,10 +1181,10 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>festivalgroup2_1</v>
+            <v>festivalgroup1_4</v>
           </cell>
           <cell r="D35" t="str">
-            <v>festivalgroup2</v>
+            <v>festivalgroup1</v>
           </cell>
           <cell r="E35">
             <v>3</v>
@@ -1185,7 +1192,7 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>festivalgroup2_2</v>
+            <v>festivalgroup2_1</v>
           </cell>
           <cell r="D36" t="str">
             <v>festivalgroup2</v>
@@ -1196,7 +1203,7 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>festivalgroup2_3</v>
+            <v>festivalgroup2_2</v>
           </cell>
           <cell r="D37" t="str">
             <v>festivalgroup2</v>
@@ -1207,7 +1214,7 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>festivalgroup2_4</v>
+            <v>festivalgroup2_3</v>
           </cell>
           <cell r="D38" t="str">
             <v>festivalgroup2</v>
@@ -1218,10 +1225,10 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>festivalgroup3_1</v>
+            <v>festivalgroup2_4</v>
           </cell>
           <cell r="D39" t="str">
-            <v>festivalgroup3</v>
+            <v>festivalgroup2</v>
           </cell>
           <cell r="E39">
             <v>3</v>
@@ -1229,7 +1236,7 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>festivalgroup3_2</v>
+            <v>festivalgroup3_1</v>
           </cell>
           <cell r="D40" t="str">
             <v>festivalgroup3</v>
@@ -1240,7 +1247,7 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>festivalgroup3_3</v>
+            <v>festivalgroup3_2</v>
           </cell>
           <cell r="D41" t="str">
             <v>festivalgroup3</v>
@@ -1251,7 +1258,7 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>festivalgroup3_4</v>
+            <v>festivalgroup3_3</v>
           </cell>
           <cell r="D42" t="str">
             <v>festivalgroup3</v>
@@ -1262,18 +1269,18 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>cashshopenergy_1</v>
+            <v>festivalgroup3_4</v>
           </cell>
           <cell r="D43" t="str">
-            <v>cashshopenergy</v>
+            <v>festivalgroup3</v>
           </cell>
           <cell r="E43">
-            <v>1</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>cashshopenergy_2</v>
+            <v>cashshopenergy_1</v>
           </cell>
           <cell r="D44" t="str">
             <v>cashshopenergy</v>
@@ -1284,7 +1291,7 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>cashshopenergy_3</v>
+            <v>cashshopenergy_2</v>
           </cell>
           <cell r="D45" t="str">
             <v>cashshopenergy</v>
@@ -1295,7 +1302,7 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>cashshopenergy_4</v>
+            <v>cashshopenergy_3</v>
           </cell>
           <cell r="D46" t="str">
             <v>cashshopenergy</v>
@@ -1306,7 +1313,7 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>cashshopenergy_5</v>
+            <v>cashshopenergy_4</v>
           </cell>
           <cell r="D47" t="str">
             <v>cashshopenergy</v>
@@ -1317,7 +1324,7 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>cashshopenergy_6</v>
+            <v>cashshopenergy_5</v>
           </cell>
           <cell r="D48" t="str">
             <v>cashshopenergy</v>
@@ -1328,7 +1335,7 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>cashshopenergy_1_more</v>
+            <v>cashshopenergy_6</v>
           </cell>
           <cell r="D49" t="str">
             <v>cashshopenergy</v>
@@ -1339,7 +1346,7 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>cashshopenergy_2_more</v>
+            <v>cashshopenergy_1_more</v>
           </cell>
           <cell r="D50" t="str">
             <v>cashshopenergy</v>
@@ -1350,7 +1357,7 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>cashshopenergy_3_more</v>
+            <v>cashshopenergy_2_more</v>
           </cell>
           <cell r="D51" t="str">
             <v>cashshopenergy</v>
@@ -1361,7 +1368,7 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>cashshopenergy_4_more</v>
+            <v>cashshopenergy_3_more</v>
           </cell>
           <cell r="D52" t="str">
             <v>cashshopenergy</v>
@@ -1372,7 +1379,7 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>cashshopenergy_5_more</v>
+            <v>cashshopenergy_4_more</v>
           </cell>
           <cell r="D53" t="str">
             <v>cashshopenergy</v>
@@ -1383,7 +1390,7 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>cashshopenergy_6_more</v>
+            <v>cashshopenergy_5_more</v>
           </cell>
           <cell r="D54" t="str">
             <v>cashshopenergy</v>
@@ -1394,10 +1401,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>cashshopgold_1</v>
+            <v>cashshopenergy_6_more</v>
           </cell>
           <cell r="D55" t="str">
-            <v>cashshopgold</v>
+            <v>cashshopenergy</v>
           </cell>
           <cell r="E55">
             <v>1</v>
@@ -1405,7 +1412,7 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>cashshopgold_2</v>
+            <v>cashshopgold_1</v>
           </cell>
           <cell r="D56" t="str">
             <v>cashshopgold</v>
@@ -1416,7 +1423,7 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>cashshopgold_3</v>
+            <v>cashshopgold_2</v>
           </cell>
           <cell r="D57" t="str">
             <v>cashshopgold</v>
@@ -1427,7 +1434,7 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>cashshopgold_4</v>
+            <v>cashshopgold_3</v>
           </cell>
           <cell r="D58" t="str">
             <v>cashshopgold</v>
@@ -1438,7 +1445,7 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>cashshopgold_5</v>
+            <v>cashshopgold_4</v>
           </cell>
           <cell r="D59" t="str">
             <v>cashshopgold</v>
@@ -1449,7 +1456,7 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>cashshopgold_6</v>
+            <v>cashshopgold_5</v>
           </cell>
           <cell r="D60" t="str">
             <v>cashshopgold</v>
@@ -1460,7 +1467,7 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>cashshopgold_1_more</v>
+            <v>cashshopgold_6</v>
           </cell>
           <cell r="D61" t="str">
             <v>cashshopgold</v>
@@ -1471,7 +1478,7 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>cashshopgold_2_more</v>
+            <v>cashshopgold_1_more</v>
           </cell>
           <cell r="D62" t="str">
             <v>cashshopgold</v>
@@ -1482,7 +1489,7 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>cashshopgold_3_more</v>
+            <v>cashshopgold_2_more</v>
           </cell>
           <cell r="D63" t="str">
             <v>cashshopgold</v>
@@ -1493,7 +1500,7 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>cashshopgold_4_more</v>
+            <v>cashshopgold_3_more</v>
           </cell>
           <cell r="D64" t="str">
             <v>cashshopgold</v>
@@ -1504,7 +1511,7 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>cashshopgold_5_more</v>
+            <v>cashshopgold_4_more</v>
           </cell>
           <cell r="D65" t="str">
             <v>cashshopgold</v>
@@ -1515,7 +1522,7 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>cashshopgold_6_more</v>
+            <v>cashshopgold_5_more</v>
           </cell>
           <cell r="D66" t="str">
             <v>cashshopgold</v>
@@ -1526,10 +1533,10 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>petsale_1</v>
+            <v>cashshopgold_6_more</v>
           </cell>
           <cell r="D67" t="str">
-            <v>petsale</v>
+            <v>cashshopgold</v>
           </cell>
           <cell r="E67">
             <v>1</v>
@@ -1537,7 +1544,7 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>petsale_2</v>
+            <v>petsale_1</v>
           </cell>
           <cell r="D68" t="str">
             <v>petsale</v>
@@ -1548,7 +1555,7 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>petsale_3</v>
+            <v>petsale_2</v>
           </cell>
           <cell r="D69" t="str">
             <v>petsale</v>
@@ -1559,7 +1566,7 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>petsale_4</v>
+            <v>petsale_3</v>
           </cell>
           <cell r="D70" t="str">
             <v>petsale</v>
@@ -1570,7 +1577,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>petsale_5</v>
+            <v>petsale_4</v>
           </cell>
           <cell r="D71" t="str">
             <v>petsale</v>
@@ -1581,10 +1588,10 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>petcapture_better</v>
+            <v>petsale_5</v>
           </cell>
           <cell r="D72" t="str">
-            <v>petcapture</v>
+            <v>petsale</v>
           </cell>
           <cell r="E72">
             <v>1</v>
@@ -1592,7 +1599,7 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>petcapture_best</v>
+            <v>petcapture_better</v>
           </cell>
           <cell r="D73" t="str">
             <v>petcapture</v>
@@ -1603,18 +1610,18 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>stageclear_1</v>
+            <v>petcapture_best</v>
           </cell>
           <cell r="D74" t="str">
-            <v>stageclear</v>
+            <v>petcapture</v>
           </cell>
           <cell r="E74">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>stageclear_2</v>
+            <v>stageclear_1</v>
           </cell>
           <cell r="D75" t="str">
             <v>stageclear</v>
@@ -1625,7 +1632,7 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>stageclear_3</v>
+            <v>stageclear_2</v>
           </cell>
           <cell r="D76" t="str">
             <v>stageclear</v>
@@ -1636,7 +1643,7 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>stageclear_5</v>
+            <v>stageclear_3</v>
           </cell>
           <cell r="D77" t="str">
             <v>stageclear</v>
@@ -1647,7 +1654,7 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>stageclear_10</v>
+            <v>stageclear_5</v>
           </cell>
           <cell r="D78" t="str">
             <v>stageclear</v>
@@ -1658,21 +1665,21 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>dailygem</v>
+            <v>stageclear_10</v>
           </cell>
           <cell r="D79" t="str">
-            <v>dailygem</v>
+            <v>stageclear</v>
           </cell>
           <cell r="E79">
-            <v>2</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>researchboost</v>
+            <v>dailygem</v>
           </cell>
           <cell r="D80" t="str">
-            <v>researchboost</v>
+            <v>dailygem</v>
           </cell>
           <cell r="E80">
             <v>2</v>
@@ -1680,18 +1687,18 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>relay_1</v>
+            <v>researchboost</v>
           </cell>
           <cell r="D81" t="str">
-            <v>relay</v>
+            <v>researchboost</v>
           </cell>
           <cell r="E81">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>relay_2</v>
+            <v>relay_1</v>
           </cell>
           <cell r="D82" t="str">
             <v>relay</v>
@@ -1702,29 +1709,29 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>relay_3</v>
+            <v>relay_2</v>
           </cell>
           <cell r="D83" t="str">
             <v>relay</v>
           </cell>
           <cell r="E83">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>relay_4</v>
+            <v>relay_3</v>
           </cell>
           <cell r="D84" t="str">
             <v>relay</v>
           </cell>
           <cell r="E84">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>relay_5</v>
+            <v>relay_4</v>
           </cell>
           <cell r="D85" t="str">
             <v>relay</v>
@@ -1735,29 +1742,29 @@
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>relay_6</v>
+            <v>relay_5</v>
           </cell>
           <cell r="D86" t="str">
             <v>relay</v>
           </cell>
           <cell r="E86">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>relay_7</v>
+            <v>relay_6</v>
           </cell>
           <cell r="D87" t="str">
             <v>relay</v>
           </cell>
           <cell r="E87">
-            <v>3</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>relay_8</v>
+            <v>relay_7</v>
           </cell>
           <cell r="D88" t="str">
             <v>relay</v>
@@ -1768,7 +1775,7 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>relay_9</v>
+            <v>relay_8</v>
           </cell>
           <cell r="D89" t="str">
             <v>relay</v>
@@ -1779,23 +1786,34 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>relay_10</v>
+            <v>relay_9</v>
           </cell>
           <cell r="D90" t="str">
             <v>relay</v>
           </cell>
           <cell r="E90">
-            <v>4</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
+            <v>relay_10</v>
+          </cell>
+          <cell r="D91" t="str">
+            <v>relay</v>
+          </cell>
+          <cell r="E91">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92" t="str">
             <v>autonew_1</v>
           </cell>
-          <cell r="D91" t="str">
+          <cell r="D92" t="str">
             <v>autonew</v>
           </cell>
-          <cell r="E91">
+          <cell r="E92">
             <v>4</v>
           </cell>
         </row>
@@ -3758,30 +3776,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:W115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.625" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="3.5" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="23.875" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="14" width="9" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.125" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="24.625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="9" collapsed="1"/>
+    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="23.875" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18.125" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="17" max="17" width="9" collapsed="1"/>
     <col min="18" max="18" width="18.125" customWidth="1"/>
-    <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="23" max="23" width="9" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1">
@@ -3866,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E70" ca="1" si="0">IF(ISBLANK(F2),"",
+        <f t="shared" ref="E2:E73" ca="1" si="0">IF(ISBLANK(F2),"",
 VLOOKUP(F2,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 )</f>
         <v/>
@@ -6731,7 +6752,7 @@
     </row>
     <row r="41" spans="1:19">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="B41" t="str">
         <f>IFERROR(VLOOKUP(A41,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6743,14 +6764,16 @@
       <c r="D41">
         <f ca="1">IF(C41&lt;&gt;1,OFFSET(D41,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A41,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="E41" ca="1" si="26">IF(ISBLANK(F41),"",
+VLOOKUP(F41,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="J41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
@@ -6773,46 +6796,46 @@
         <v>0</v>
       </c>
       <c r="M41" t="str">
-        <f t="shared" ref="M41:M52" ca="1" si="26">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
+        <f t="shared" ref="M41" ca="1" si="27">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 IF(ISBLANK(N41),"",
 VLOOKUP(N41,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
 ))</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="N41" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O41" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+1))</f>
-        <v>EN</v>
+        <v>Spell_0003</v>
       </c>
       <c r="P41">
         <f ca="1">IF(ISBLANK(OFFSET($I41,-($C41-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J41-1,$K41+2))</f>
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" ref="Q41:Q52" ca="1" si="27">IF(LEN(E41)&lt;&gt;0,E41,
+        <f t="shared" ref="Q41" ca="1" si="28">IF(LEN(E41)&lt;&gt;0,E41,
 IF(LEN(M41)&lt;&gt;0,M41,""))</f>
-        <v>cu</v>
+        <v>it</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" ref="R41:R52" ca="1" si="28">IF(LEN(G41)&lt;&gt;0,G41,
+        <f t="shared" ref="R41" ca="1" si="29">IF(LEN(G41)&lt;&gt;0,G41,
 IF(LEN(O41)&lt;&gt;0,O41,""))</f>
-        <v>EN</v>
+        <v>Spell_0003</v>
       </c>
       <c r="S41">
-        <f t="shared" ref="S41:S52" ca="1" si="29">IF(LEN(H41)&lt;&gt;0,H41,
+        <f t="shared" ref="S41" ca="1" si="30">IF(LEN(H41)&lt;&gt;0,H41,
 IF(LEN(P41)&lt;&gt;0,P41,""))</f>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:19">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B42" t="str">
         <f>IFERROR(VLOOKUP(A42,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6824,10 +6847,12 @@
       <c r="D42">
         <f ca="1">IF(C42&lt;&gt;1,OFFSET(D42,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A42,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="E42:E43" ca="1" si="31">IF(ISBLANK(F42),"",
+VLOOKUP(F42,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="J42">
@@ -6851,7 +6876,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ref="M42:M43" ca="1" si="32">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
+IF(ISBLANK(N42),"",
+VLOOKUP(N42,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
         <v>cu</v>
       </c>
       <c r="N42" t="str">
@@ -6867,24 +6895,27 @@
       <c r="P42">
         <f ca="1">IF(ISBLANK(OFFSET($I42,-($C42-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J42-1,$K42+2))</f>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ref="Q42:Q43" ca="1" si="33">IF(LEN(E42)&lt;&gt;0,E42,
+IF(LEN(M42)&lt;&gt;0,M42,""))</f>
         <v>cu</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ref="R42:R43" ca="1" si="34">IF(LEN(G42)&lt;&gt;0,G42,
+IF(LEN(O42)&lt;&gt;0,O42,""))</f>
         <v>EN</v>
       </c>
       <c r="S42">
-        <f t="shared" ca="1" si="29"/>
-        <v>50</v>
+        <f t="shared" ref="S42:S43" ca="1" si="35">IF(LEN(H42)&lt;&gt;0,H42,
+IF(LEN(P42)&lt;&gt;0,P42,""))</f>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="B43" t="str">
         <f>IFERROR(VLOOKUP(A43,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
@@ -6896,10 +6927,10 @@
       <c r="D43">
         <f ca="1">IF(C43&lt;&gt;1,OFFSET(D43,-1,0),
 SUMIF([1]ShopProductTable!$D:$D,$A43,[1]ShopProductTable!$E:$E))</f>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="31"/>
         <v/>
       </c>
       <c r="J43">
@@ -6923,7 +6954,7 @@
         <v>1</v>
       </c>
       <c r="M43" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="32"/>
         <v>cu</v>
       </c>
       <c r="N43" t="str">
@@ -6939,19 +6970,19 @@
       <c r="P43">
         <f ca="1">IF(ISBLANK(OFFSET($I43,-($C43-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J43-1,$K43+2))</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="Q43" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="33"/>
         <v>cu</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="34"/>
         <v>GO</v>
       </c>
       <c r="S43">
-        <f t="shared" ca="1" si="29"/>
-        <v>10000</v>
+        <f t="shared" ca="1" si="35"/>
+        <v>100000</v>
       </c>
     </row>
     <row r="44" spans="1:19">
@@ -6963,7 +6994,7 @@
         <v/>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D44">
         <f ca="1">IF(C44&lt;&gt;1,OFFSET(D44,-1,0),
@@ -6973,6 +7004,9 @@
       <c r="E44" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
+      </c>
+      <c r="I44" t="s">
+        <v>101</v>
       </c>
       <c r="J44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
@@ -6995,35 +7029,41 @@
         <v>0</v>
       </c>
       <c r="M44" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>it</v>
+        <f t="shared" ref="M44:M55" ca="1" si="36">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
+IF(ISBLANK(N44),"",
+VLOOKUP(N44,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>cu</v>
       </c>
       <c r="N44" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O44" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>EN</v>
       </c>
       <c r="P44">
         <f ca="1">IF(ISBLANK(OFFSET($I44,-($C44-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J44-1,$K44+2))</f>
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Q44" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>it</v>
+        <f t="shared" ref="Q44:Q55" ca="1" si="37">IF(LEN(E44)&lt;&gt;0,E44,
+IF(LEN(M44)&lt;&gt;0,M44,""))</f>
+        <v>cu</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>Cash_sSevenTotal</v>
+        <f t="shared" ref="R44:R55" ca="1" si="38">IF(LEN(G44)&lt;&gt;0,G44,
+IF(LEN(O44)&lt;&gt;0,O44,""))</f>
+        <v>EN</v>
       </c>
       <c r="S44">
-        <f t="shared" ca="1" si="29"/>
-        <v>75</v>
+        <f t="shared" ref="S44:S55" ca="1" si="39">IF(LEN(H44)&lt;&gt;0,H44,
+IF(LEN(P44)&lt;&gt;0,P44,""))</f>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:19">
@@ -7035,7 +7075,7 @@
         <v/>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <f ca="1">IF(C45&lt;&gt;1,OFFSET(D45,-1,0),
@@ -7067,7 +7107,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N45" t="str">
@@ -7083,19 +7123,19 @@
       <c r="P45">
         <f ca="1">IF(ISBLANK(OFFSET($I45,-($C45-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J45-1,$K45+2))</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q45" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R45" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v>EN</v>
       </c>
       <c r="S45">
-        <f t="shared" ca="1" si="29"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:19">
@@ -7107,7 +7147,7 @@
         <v/>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D46">
         <f ca="1">IF(C46&lt;&gt;1,OFFSET(D46,-1,0),
@@ -7139,7 +7179,7 @@
         <v>1</v>
       </c>
       <c r="M46" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N46" t="str">
@@ -7155,19 +7195,19 @@
       <c r="P46">
         <f ca="1">IF(ISBLANK(OFFSET($I46,-($C46-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J46-1,$K46+2))</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q46" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R46" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v>GO</v>
       </c>
       <c r="S46">
-        <f t="shared" ca="1" si="29"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="47" spans="1:19">
@@ -7179,7 +7219,7 @@
         <v/>
       </c>
       <c r="C47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <f ca="1">IF(C47&lt;&gt;1,OFFSET(D47,-1,0),
@@ -7211,35 +7251,35 @@
         <v>0</v>
       </c>
       <c r="M47" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>it</v>
       </c>
       <c r="N47" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O47" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+1))</f>
-        <v>EN</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P47">
         <f ca="1">IF(ISBLANK(OFFSET($I47,-($C47-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J47-1,$K47+2))</f>
-        <v>300</v>
+        <v>75</v>
       </c>
       <c r="Q47" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>it</v>
       </c>
       <c r="R47" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>EN</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S47">
-        <f t="shared" ca="1" si="29"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:19">
@@ -7251,7 +7291,7 @@
         <v/>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <f ca="1">IF(C48&lt;&gt;1,OFFSET(D48,-1,0),
@@ -7283,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="M48" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N48" t="str">
@@ -7299,19 +7339,19 @@
       <c r="P48">
         <f ca="1">IF(ISBLANK(OFFSET($I48,-($C48-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J48-1,$K48+2))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q48" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R48" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v>EN</v>
       </c>
       <c r="S48">
-        <f t="shared" ca="1" si="29"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:19">
@@ -7323,7 +7363,7 @@
         <v/>
       </c>
       <c r="C49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D49">
         <f ca="1">IF(C49&lt;&gt;1,OFFSET(D49,-1,0),
@@ -7355,7 +7395,7 @@
         <v>1</v>
       </c>
       <c r="M49" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N49" t="str">
@@ -7371,19 +7411,19 @@
       <c r="P49">
         <f ca="1">IF(ISBLANK(OFFSET($I49,-($C49-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J49-1,$K49+2))</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q49" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R49" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v>GO</v>
       </c>
       <c r="S49">
-        <f t="shared" ca="1" si="29"/>
-        <v>40000</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="50" spans="1:19">
@@ -7395,7 +7435,7 @@
         <v/>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D50">
         <f ca="1">IF(C50&lt;&gt;1,OFFSET(D50,-1,0),
@@ -7427,35 +7467,35 @@
         <v>0</v>
       </c>
       <c r="M50" t="str">
-        <f t="shared" ca="1" si="26"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>cu</v>
       </c>
       <c r="N50" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O50" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>EN</v>
       </c>
       <c r="P50">
         <f ca="1">IF(ISBLANK(OFFSET($I50,-($C50-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J50-1,$K50+2))</f>
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" ca="1" si="27"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>cu</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" ca="1" si="28"/>
-        <v>Cash_sSevenTotal</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>EN</v>
       </c>
       <c r="S50">
-        <f t="shared" ca="1" si="29"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>300</v>
       </c>
     </row>
     <row r="51" spans="1:19">
@@ -7467,7 +7507,7 @@
         <v/>
       </c>
       <c r="C51">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D51">
         <f ca="1">IF(C51&lt;&gt;1,OFFSET(D51,-1,0),
@@ -7499,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="M51" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N51" t="str">
@@ -7515,19 +7555,19 @@
       <c r="P51">
         <f ca="1">IF(ISBLANK(OFFSET($I51,-($C51-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J51-1,$K51+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v>EN</v>
       </c>
       <c r="S51">
-        <f t="shared" ca="1" si="29"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:19">
@@ -7539,7 +7579,7 @@
         <v/>
       </c>
       <c r="C52">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52">
         <f ca="1">IF(C52&lt;&gt;1,OFFSET(D52,-1,0),
@@ -7571,7 +7611,7 @@
         <v>1</v>
       </c>
       <c r="M52" t="str">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N52" t="str">
@@ -7587,31 +7627,31 @@
       <c r="P52">
         <f ca="1">IF(ISBLANK(OFFSET($I52,-($C52-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J52-1,$K52+2))</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" ca="1" si="27"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="38"/>
         <v>GO</v>
       </c>
       <c r="S52">
-        <f t="shared" ca="1" si="29"/>
-        <v>60000</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B53" t="str">
         <f>IFERROR(VLOOKUP(A53,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D53">
         <f ca="1">IF(C53&lt;&gt;1,OFFSET(D53,-1,0),
@@ -7621,9 +7661,6 @@
       <c r="E53" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
-      </c>
-      <c r="I53" t="s">
-        <v>102</v>
       </c>
       <c r="J53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
@@ -7646,53 +7683,47 @@
         <v>0</v>
       </c>
       <c r="M53" t="str">
-        <f t="shared" ref="M53:M76" ca="1" si="30">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
-IF(ISBLANK(N53),"",
-VLOOKUP(N53,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
-        <v>cu</v>
+        <f t="shared" ca="1" si="36"/>
+        <v>it</v>
       </c>
       <c r="N53" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O53" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+1))</f>
-        <v>EN</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P53">
         <f ca="1">IF(ISBLANK(OFFSET($I53,-($C53-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J53-1,$K53+2))</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" ref="Q53:Q76" ca="1" si="31">IF(LEN(E53)&lt;&gt;0,E53,
-IF(LEN(M53)&lt;&gt;0,M53,""))</f>
-        <v>cu</v>
+        <f t="shared" ca="1" si="37"/>
+        <v>it</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" ref="R53:R76" ca="1" si="32">IF(LEN(G53)&lt;&gt;0,G53,
-IF(LEN(O53)&lt;&gt;0,O53,""))</f>
-        <v>EN</v>
+        <f t="shared" ca="1" si="38"/>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S53">
-        <f t="shared" ref="S53:S76" ca="1" si="33">IF(LEN(H53)&lt;&gt;0,H53,
-IF(LEN(P53)&lt;&gt;0,P53,""))</f>
-        <v>100</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>200</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B54" t="str">
         <f>IFERROR(VLOOKUP(A54,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D54">
         <f ca="1">IF(C54&lt;&gt;1,OFFSET(D54,-1,0),
@@ -7724,7 +7755,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N54" t="str">
@@ -7740,31 +7771,31 @@
       <c r="P54">
         <f ca="1">IF(ISBLANK(OFFSET($I54,-($C54-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J54-1,$K54+2))</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>EN</v>
       </c>
       <c r="S54">
-        <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B55" t="str">
         <f>IFERROR(VLOOKUP(A55,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C55">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D55">
         <f ca="1">IF(C55&lt;&gt;1,OFFSET(D55,-1,0),
@@ -7796,7 +7827,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="36"/>
         <v>cu</v>
       </c>
       <c r="N55" t="str">
@@ -7812,19 +7843,19 @@
       <c r="P55">
         <f ca="1">IF(ISBLANK(OFFSET($I55,-($C55-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J55-1,$K55+2))</f>
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="37"/>
         <v>cu</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="38"/>
         <v>GO</v>
       </c>
       <c r="S55">
-        <f t="shared" ca="1" si="33"/>
-        <v>10000</v>
+        <f t="shared" ca="1" si="39"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="56" spans="1:19">
@@ -7836,7 +7867,7 @@
         <v/>
       </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56">
         <f ca="1">IF(C56&lt;&gt;1,OFFSET(D56,-1,0),
@@ -7846,6 +7877,9 @@
       <c r="E56" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
+      </c>
+      <c r="I56" t="s">
+        <v>102</v>
       </c>
       <c r="J56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
@@ -7868,35 +7902,41 @@
         <v>0</v>
       </c>
       <c r="M56" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>it</v>
+        <f t="shared" ref="M56:M79" ca="1" si="40">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
+IF(ISBLANK(N56),"",
+VLOOKUP(N56,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>cu</v>
       </c>
       <c r="N56" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O56" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>EN</v>
       </c>
       <c r="P56">
         <f ca="1">IF(ISBLANK(OFFSET($I56,-($C56-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J56-1,$K56+2))</f>
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>it</v>
+        <f t="shared" ref="Q56:Q79" ca="1" si="41">IF(LEN(E56)&lt;&gt;0,E56,
+IF(LEN(M56)&lt;&gt;0,M56,""))</f>
+        <v>cu</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>Cash_sSevenTotal</v>
+        <f t="shared" ref="R56:R79" ca="1" si="42">IF(LEN(G56)&lt;&gt;0,G56,
+IF(LEN(O56)&lt;&gt;0,O56,""))</f>
+        <v>EN</v>
       </c>
       <c r="S56">
-        <f t="shared" ca="1" si="33"/>
-        <v>400</v>
+        <f t="shared" ref="S56:S79" ca="1" si="43">IF(LEN(H56)&lt;&gt;0,H56,
+IF(LEN(P56)&lt;&gt;0,P56,""))</f>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:19">
@@ -7908,7 +7948,7 @@
         <v/>
       </c>
       <c r="C57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <f ca="1">IF(C57&lt;&gt;1,OFFSET(D57,-1,0),
@@ -7940,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="M57" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N57" t="str">
@@ -7956,19 +7996,19 @@
       <c r="P57">
         <f ca="1">IF(ISBLANK(OFFSET($I57,-($C57-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J57-1,$K57+2))</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S57">
-        <f t="shared" ca="1" si="33"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:19">
@@ -7980,7 +8020,7 @@
         <v/>
       </c>
       <c r="C58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D58">
         <f ca="1">IF(C58&lt;&gt;1,OFFSET(D58,-1,0),
@@ -8012,7 +8052,7 @@
         <v>1</v>
       </c>
       <c r="M58" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N58" t="str">
@@ -8028,19 +8068,19 @@
       <c r="P58">
         <f ca="1">IF(ISBLANK(OFFSET($I58,-($C58-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J58-1,$K58+2))</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S58">
-        <f t="shared" ca="1" si="33"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="59" spans="1:19">
@@ -8052,7 +8092,7 @@
         <v/>
       </c>
       <c r="C59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <f ca="1">IF(C59&lt;&gt;1,OFFSET(D59,-1,0),
@@ -8084,35 +8124,35 @@
         <v>0</v>
       </c>
       <c r="M59" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>it</v>
       </c>
       <c r="N59" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O59" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+1))</f>
-        <v>EN</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P59">
         <f ca="1">IF(ISBLANK(OFFSET($I59,-($C59-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J59-1,$K59+2))</f>
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>it</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>EN</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S59">
-        <f t="shared" ca="1" si="33"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="1:19">
@@ -8124,7 +8164,7 @@
         <v/>
       </c>
       <c r="C60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <f ca="1">IF(C60&lt;&gt;1,OFFSET(D60,-1,0),
@@ -8156,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="M60" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N60" t="str">
@@ -8172,19 +8212,19 @@
       <c r="P60">
         <f ca="1">IF(ISBLANK(OFFSET($I60,-($C60-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J60-1,$K60+2))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S60">
-        <f t="shared" ca="1" si="33"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:19">
@@ -8196,7 +8236,7 @@
         <v/>
       </c>
       <c r="C61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D61">
         <f ca="1">IF(C61&lt;&gt;1,OFFSET(D61,-1,0),
@@ -8228,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="M61" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N61" t="str">
@@ -8244,19 +8284,19 @@
       <c r="P61">
         <f ca="1">IF(ISBLANK(OFFSET($I61,-($C61-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J61-1,$K61+2))</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S61">
-        <f t="shared" ca="1" si="33"/>
-        <v>40000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="62" spans="1:19">
@@ -8268,7 +8308,7 @@
         <v/>
       </c>
       <c r="C62">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D62">
         <f ca="1">IF(C62&lt;&gt;1,OFFSET(D62,-1,0),
@@ -8300,35 +8340,35 @@
         <v>0</v>
       </c>
       <c r="M62" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
       </c>
       <c r="N62" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O62" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>EN</v>
       </c>
       <c r="P62">
         <f ca="1">IF(ISBLANK(OFFSET($I62,-($C62-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J62-1,$K62+2))</f>
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>cu</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>Cash_sSevenTotal</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>EN</v>
       </c>
       <c r="S62">
-        <f t="shared" ca="1" si="33"/>
-        <v>1200</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="1:19">
@@ -8340,7 +8380,7 @@
         <v/>
       </c>
       <c r="C63">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D63">
         <f ca="1">IF(C63&lt;&gt;1,OFFSET(D63,-1,0),
@@ -8372,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="M63" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N63" t="str">
@@ -8388,19 +8428,19 @@
       <c r="P63">
         <f ca="1">IF(ISBLANK(OFFSET($I63,-($C63-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J63-1,$K63+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S63">
-        <f t="shared" ca="1" si="33"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:19">
@@ -8412,7 +8452,7 @@
         <v/>
       </c>
       <c r="C64">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64">
         <f ca="1">IF(C64&lt;&gt;1,OFFSET(D64,-1,0),
@@ -8444,7 +8484,7 @@
         <v>1</v>
       </c>
       <c r="M64" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N64" t="str">
@@ -8460,31 +8500,31 @@
       <c r="P64">
         <f ca="1">IF(ISBLANK(OFFSET($I64,-($C64-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J64-1,$K64+2))</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S64">
-        <f t="shared" ca="1" si="33"/>
-        <v>60000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B65" t="str">
         <f>IFERROR(VLOOKUP(A65,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D65">
         <f ca="1">IF(C65&lt;&gt;1,OFFSET(D65,-1,0),
@@ -8494,9 +8534,6 @@
       <c r="E65" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
-      </c>
-      <c r="I65" t="s">
-        <v>103</v>
       </c>
       <c r="J65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
@@ -8519,47 +8556,47 @@
         <v>0</v>
       </c>
       <c r="M65" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>it</v>
       </c>
       <c r="N65" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O65" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+1))</f>
-        <v>EN</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P65">
         <f ca="1">IF(ISBLANK(OFFSET($I65,-($C65-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J65-1,$K65+2))</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>it</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>EN</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S65">
-        <f t="shared" ca="1" si="33"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>1200</v>
       </c>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" t="str">
         <f>IFERROR(VLOOKUP(A66,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D66">
         <f ca="1">IF(C66&lt;&gt;1,OFFSET(D66,-1,0),
@@ -8591,7 +8628,7 @@
         <v>0</v>
       </c>
       <c r="M66" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N66" t="str">
@@ -8607,31 +8644,31 @@
       <c r="P66">
         <f ca="1">IF(ISBLANK(OFFSET($I66,-($C66-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J66-1,$K66+2))</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S66">
-        <f t="shared" ca="1" si="33"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:19">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" t="str">
         <f>IFERROR(VLOOKUP(A67,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C67">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <f ca="1">IF(C67&lt;&gt;1,OFFSET(D67,-1,0),
@@ -8663,7 +8700,7 @@
         <v>1</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N67" t="str">
@@ -8679,19 +8716,19 @@
       <c r="P67">
         <f ca="1">IF(ISBLANK(OFFSET($I67,-($C67-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J67-1,$K67+2))</f>
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S67">
-        <f t="shared" ca="1" si="33"/>
-        <v>10000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -8703,7 +8740,7 @@
         <v/>
       </c>
       <c r="C68">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D68">
         <f ca="1">IF(C68&lt;&gt;1,OFFSET(D68,-1,0),
@@ -8713,6 +8750,9 @@
       <c r="E68" t="str">
         <f t="shared" ca="1" si="0"/>
         <v/>
+      </c>
+      <c r="I68" t="s">
+        <v>103</v>
       </c>
       <c r="J68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
@@ -8735,35 +8775,35 @@
         <v>0</v>
       </c>
       <c r="M68" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
       </c>
       <c r="N68" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O68" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>EN</v>
       </c>
       <c r="P68">
         <f ca="1">IF(ISBLANK(OFFSET($I68,-($C68-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J68-1,$K68+2))</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>cu</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>Cash_sSevenTotal</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>EN</v>
       </c>
       <c r="S68">
-        <f t="shared" ca="1" si="33"/>
-        <v>300</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:19">
@@ -8775,7 +8815,7 @@
         <v/>
       </c>
       <c r="C69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69">
         <f ca="1">IF(C69&lt;&gt;1,OFFSET(D69,-1,0),
@@ -8807,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="M69" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N69" t="str">
@@ -8823,19 +8863,19 @@
       <c r="P69">
         <f ca="1">IF(ISBLANK(OFFSET($I69,-($C69-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J69-1,$K69+2))</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S69">
-        <f t="shared" ca="1" si="33"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:19">
@@ -8847,7 +8887,7 @@
         <v/>
       </c>
       <c r="C70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D70">
         <f ca="1">IF(C70&lt;&gt;1,OFFSET(D70,-1,0),
@@ -8879,7 +8919,7 @@
         <v>1</v>
       </c>
       <c r="M70" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N70" t="str">
@@ -8895,19 +8935,19 @@
       <c r="P70">
         <f ca="1">IF(ISBLANK(OFFSET($I70,-($C70-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J70-1,$K70+2))</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S70">
-        <f t="shared" ca="1" si="33"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="71" spans="1:19">
@@ -8919,7 +8959,7 @@
         <v/>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <f ca="1">IF(C71&lt;&gt;1,OFFSET(D71,-1,0),
@@ -8927,9 +8967,7 @@
         <v>12</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" ref="E71:E76" ca="1" si="34">IF(ISBLANK(F71),"",
-VLOOKUP(F71,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J71">
@@ -8953,18 +8991,18 @@
         <v>0</v>
       </c>
       <c r="M71" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>it</v>
       </c>
       <c r="N71" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O71" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J71-1,$K71+1))</f>
-        <v>EN</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P71">
         <f ca="1">IF(ISBLANK(OFFSET($I71,-($C71-1),0)),"",
@@ -8972,15 +9010,15 @@
         <v>300</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>it</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>EN</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S71">
-        <f t="shared" ca="1" si="33"/>
+        <f t="shared" ca="1" si="43"/>
         <v>300</v>
       </c>
     </row>
@@ -8993,7 +9031,7 @@
         <v/>
       </c>
       <c r="C72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D72">
         <f ca="1">IF(C72&lt;&gt;1,OFFSET(D72,-1,0),
@@ -9001,7 +9039,7 @@
         <v>12</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J72">
@@ -9025,7 +9063,7 @@
         <v>0</v>
       </c>
       <c r="M72" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N72" t="str">
@@ -9041,19 +9079,19 @@
       <c r="P72">
         <f ca="1">IF(ISBLANK(OFFSET($I72,-($C72-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J72-1,$K72+2))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S72">
-        <f t="shared" ca="1" si="33"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="1:19">
@@ -9065,7 +9103,7 @@
         <v/>
       </c>
       <c r="C73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <f ca="1">IF(C73&lt;&gt;1,OFFSET(D73,-1,0),
@@ -9073,7 +9111,7 @@
         <v>12</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="0"/>
         <v/>
       </c>
       <c r="J73">
@@ -9097,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="M73" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N73" t="str">
@@ -9113,19 +9151,19 @@
       <c r="P73">
         <f ca="1">IF(ISBLANK(OFFSET($I73,-($C73-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J73-1,$K73+2))</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S73">
-        <f t="shared" ca="1" si="33"/>
-        <v>40000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="74" spans="1:19">
@@ -9137,7 +9175,7 @@
         <v/>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D74">
         <f ca="1">IF(C74&lt;&gt;1,OFFSET(D74,-1,0),
@@ -9145,7 +9183,9 @@
         <v>12</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ref="E74:E79" ca="1" si="44">IF(ISBLANK(F74),"",
+VLOOKUP(F74,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
         <v/>
       </c>
       <c r="J74">
@@ -9169,35 +9209,35 @@
         <v>0</v>
       </c>
       <c r="M74" t="str">
-        <f t="shared" ca="1" si="30"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="40"/>
+        <v>cu</v>
       </c>
       <c r="N74" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J74-1,$K74))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O74" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J74-1,$K74+1))</f>
-        <v>Cash_sSevenTotal</v>
+        <v>EN</v>
       </c>
       <c r="P74">
         <f ca="1">IF(ISBLANK(OFFSET($I74,-($C74-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J74-1,$K74+2))</f>
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" ca="1" si="31"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="41"/>
+        <v>cu</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" ca="1" si="32"/>
-        <v>Cash_sSevenTotal</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>EN</v>
       </c>
       <c r="S74">
-        <f t="shared" ca="1" si="33"/>
-        <v>1000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:19">
@@ -9209,7 +9249,7 @@
         <v/>
       </c>
       <c r="C75">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D75">
         <f ca="1">IF(C75&lt;&gt;1,OFFSET(D75,-1,0),
@@ -9217,7 +9257,7 @@
         <v>12</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="J75">
@@ -9241,7 +9281,7 @@
         <v>0</v>
       </c>
       <c r="M75" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N75" t="str">
@@ -9257,19 +9297,19 @@
       <c r="P75">
         <f ca="1">IF(ISBLANK(OFFSET($I75,-($C75-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J75-1,$K75+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S75">
-        <f t="shared" ca="1" si="33"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:19">
@@ -9281,7 +9321,7 @@
         <v/>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D76">
         <f ca="1">IF(C76&lt;&gt;1,OFFSET(D76,-1,0),
@@ -9289,7 +9329,7 @@
         <v>12</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" ca="1" si="34"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="J76">
@@ -9313,7 +9353,7 @@
         <v>1</v>
       </c>
       <c r="M76" t="str">
-        <f t="shared" ca="1" si="30"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N76" t="str">
@@ -9329,31 +9369,31 @@
       <c r="P76">
         <f ca="1">IF(ISBLANK(OFFSET($I76,-($C76-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J76-1,$K76+2))</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" ca="1" si="31"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" ca="1" si="32"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S76">
-        <f t="shared" ca="1" si="33"/>
-        <v>60000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B77" t="str">
         <f>IFERROR(VLOOKUP(A77,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <f ca="1">IF(C77&lt;&gt;1,OFFSET(D77,-1,0),
@@ -9361,13 +9401,8 @@
         <v>12</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" ref="E77:E88" ca="1" si="35">IF(ISBLANK(F77),"",
-VLOOKUP(F77,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
-      </c>
-      <c r="I77" t="s">
-        <v>116</v>
+        <f t="shared" ca="1" si="44"/>
+        <v/>
       </c>
       <c r="J77">
         <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
@@ -9390,10 +9425,7 @@
         <v>0</v>
       </c>
       <c r="M77" t="str">
-        <f t="shared" ref="M77:M88" ca="1" si="36">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
-IF(ISBLANK(N77),"",
-VLOOKUP(N77,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
+        <f t="shared" ca="1" si="40"/>
         <v>it</v>
       </c>
       <c r="N77" t="str">
@@ -9404,39 +9436,36 @@
       <c r="O77" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J77-1,$K77+1))</f>
-        <v>Cash_sFestivalTotal</v>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="P77">
         <f ca="1">IF(ISBLANK(OFFSET($I77,-($C77-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J77-1,$K77+2))</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" ref="Q77:Q88" ca="1" si="37">IF(LEN(E77)&lt;&gt;0,E77,
-IF(LEN(M77)&lt;&gt;0,M77,""))</f>
+        <f t="shared" ca="1" si="41"/>
         <v>it</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" ref="R77:R88" ca="1" si="38">IF(LEN(G77)&lt;&gt;0,G77,
-IF(LEN(O77)&lt;&gt;0,O77,""))</f>
-        <v>Cash_sFestivalTotal</v>
+        <f t="shared" ca="1" si="42"/>
+        <v>Cash_sSevenTotal</v>
       </c>
       <c r="S77">
-        <f t="shared" ref="S77:S88" ca="1" si="39">IF(LEN(H77)&lt;&gt;0,H77,
-IF(LEN(P77)&lt;&gt;0,P77,""))</f>
-        <v>500</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>1000</v>
       </c>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B78" t="str">
         <f>IFERROR(VLOOKUP(A78,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C78">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D78">
         <f ca="1">IF(C78&lt;&gt;1,OFFSET(D78,-1,0),
@@ -9444,7 +9473,7 @@
         <v>12</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="J78">
@@ -9468,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="M78" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N78" t="str">
@@ -9484,31 +9513,31 @@
       <c r="P78">
         <f ca="1">IF(ISBLANK(OFFSET($I78,-($C78-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J78-1,$K78+2))</f>
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="42"/>
         <v>EN</v>
       </c>
       <c r="S78">
-        <f t="shared" ca="1" si="39"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B79" t="str">
         <f>IFERROR(VLOOKUP(A79,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <f ca="1">IF(C79&lt;&gt;1,OFFSET(D79,-1,0),
@@ -9516,7 +9545,7 @@
         <v>12</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="44"/>
         <v/>
       </c>
       <c r="J79">
@@ -9540,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="M79" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="40"/>
         <v>cu</v>
       </c>
       <c r="N79" t="str">
@@ -9556,19 +9585,19 @@
       <c r="P79">
         <f ca="1">IF(ISBLANK(OFFSET($I79,-($C79-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J79-1,$K79+2))</f>
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="41"/>
         <v>cu</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="42"/>
         <v>GO</v>
       </c>
       <c r="S79">
-        <f t="shared" ca="1" si="39"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="43"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="80" spans="1:19">
@@ -9580,7 +9609,7 @@
         <v/>
       </c>
       <c r="C80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D80">
         <f ca="1">IF(C80&lt;&gt;1,OFFSET(D80,-1,0),
@@ -9588,8 +9617,13 @@
         <v>12</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" ca="1" si="35"/>
-        <v/>
+        <f t="shared" ref="E80:E91" ca="1" si="45">IF(ISBLANK(F80),"",
+VLOOKUP(F80,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I80" t="s">
+        <v>116</v>
       </c>
       <c r="J80">
         <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
@@ -9612,35 +9646,41 @@
         <v>0</v>
       </c>
       <c r="M80" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
+        <f t="shared" ref="M80:M91" ca="1" si="46">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
+IF(ISBLANK(N80),"",
+VLOOKUP(N80,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>it</v>
       </c>
       <c r="N80" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J80-1,$K80))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O80" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J80-1,$K80+1))</f>
-        <v>EN</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P80">
         <f ca="1">IF(ISBLANK(OFFSET($I80,-($C80-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J80-1,$K80+2))</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q80" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>cu</v>
+        <f t="shared" ref="Q80:Q91" ca="1" si="47">IF(LEN(E80)&lt;&gt;0,E80,
+IF(LEN(M80)&lt;&gt;0,M80,""))</f>
+        <v>it</v>
       </c>
       <c r="R80" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>EN</v>
+        <f t="shared" ref="R80:R91" ca="1" si="48">IF(LEN(G80)&lt;&gt;0,G80,
+IF(LEN(O80)&lt;&gt;0,O80,""))</f>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S80">
-        <f t="shared" ca="1" si="39"/>
-        <v>300</v>
+        <f t="shared" ref="S80:S91" ca="1" si="49">IF(LEN(H80)&lt;&gt;0,H80,
+IF(LEN(P80)&lt;&gt;0,P80,""))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:19">
@@ -9652,7 +9692,7 @@
         <v/>
       </c>
       <c r="C81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81">
         <f ca="1">IF(C81&lt;&gt;1,OFFSET(D81,-1,0),
@@ -9660,7 +9700,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J81">
@@ -9684,7 +9724,7 @@
         <v>0</v>
       </c>
       <c r="M81" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N81" t="str">
@@ -9700,19 +9740,19 @@
       <c r="P81">
         <f ca="1">IF(ISBLANK(OFFSET($I81,-($C81-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J81-1,$K81+2))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q81" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v>EN</v>
       </c>
       <c r="S81">
-        <f t="shared" ca="1" si="39"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>75</v>
       </c>
     </row>
     <row r="82" spans="1:19">
@@ -9724,7 +9764,7 @@
         <v/>
       </c>
       <c r="C82">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D82">
         <f ca="1">IF(C82&lt;&gt;1,OFFSET(D82,-1,0),
@@ -9732,7 +9772,7 @@
         <v>12</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J82">
@@ -9756,7 +9796,7 @@
         <v>1</v>
       </c>
       <c r="M82" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N82" t="str">
@@ -9772,19 +9812,19 @@
       <c r="P82">
         <f ca="1">IF(ISBLANK(OFFSET($I82,-($C82-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J82-1,$K82+2))</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q82" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R82" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v>GO</v>
       </c>
       <c r="S82">
-        <f t="shared" ca="1" si="39"/>
-        <v>40000</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="83" spans="1:19">
@@ -9796,7 +9836,7 @@
         <v/>
       </c>
       <c r="C83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D83">
         <f ca="1">IF(C83&lt;&gt;1,OFFSET(D83,-1,0),
@@ -9804,7 +9844,7 @@
         <v>12</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J83">
@@ -9828,35 +9868,35 @@
         <v>0</v>
       </c>
       <c r="M83" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>cu</v>
       </c>
       <c r="N83" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J83-1,$K83))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O83" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J83-1,$K83+1))</f>
-        <v>Cash_sFestivalTotal</v>
+        <v>EN</v>
       </c>
       <c r="P83">
         <f ca="1">IF(ISBLANK(OFFSET($I83,-($C83-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J83-1,$K83+2))</f>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q83" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>cu</v>
       </c>
       <c r="R83" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>Cash_sFestivalTotal</v>
+        <f t="shared" ca="1" si="48"/>
+        <v>EN</v>
       </c>
       <c r="S83">
-        <f t="shared" ca="1" si="39"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>300</v>
       </c>
     </row>
     <row r="84" spans="1:19">
@@ -9868,7 +9908,7 @@
         <v/>
       </c>
       <c r="C84">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D84">
         <f ca="1">IF(C84&lt;&gt;1,OFFSET(D84,-1,0),
@@ -9876,7 +9916,7 @@
         <v>12</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J84">
@@ -9900,7 +9940,7 @@
         <v>0</v>
       </c>
       <c r="M84" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N84" t="str">
@@ -9916,19 +9956,19 @@
       <c r="P84">
         <f ca="1">IF(ISBLANK(OFFSET($I84,-($C84-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J84-1,$K84+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q84" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R84" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v>EN</v>
       </c>
       <c r="S84">
-        <f t="shared" ca="1" si="39"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:19">
@@ -9940,7 +9980,7 @@
         <v/>
       </c>
       <c r="C85">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <f ca="1">IF(C85&lt;&gt;1,OFFSET(D85,-1,0),
@@ -9948,7 +9988,7 @@
         <v>12</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J85">
@@ -9972,7 +10012,7 @@
         <v>1</v>
       </c>
       <c r="M85" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N85" t="str">
@@ -9988,19 +10028,19 @@
       <c r="P85">
         <f ca="1">IF(ISBLANK(OFFSET($I85,-($C85-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J85-1,$K85+2))</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="Q85" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R85" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v>GO</v>
       </c>
       <c r="S85">
-        <f t="shared" ca="1" si="39"/>
-        <v>60000</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="86" spans="1:19">
@@ -10012,7 +10052,7 @@
         <v/>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D86">
         <f ca="1">IF(C86&lt;&gt;1,OFFSET(D86,-1,0),
@@ -10020,7 +10060,7 @@
         <v>12</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J86">
@@ -10044,35 +10084,35 @@
         <v>0</v>
       </c>
       <c r="M86" t="str">
-        <f t="shared" ca="1" si="36"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>it</v>
       </c>
       <c r="N86" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J86-1,$K86))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O86" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J86-1,$K86+1))</f>
-        <v>EN</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P86">
         <f ca="1">IF(ISBLANK(OFFSET($I86,-($C86-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J86-1,$K86+2))</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="Q86" t="str">
-        <f t="shared" ca="1" si="37"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>it</v>
       </c>
       <c r="R86" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v>EN</v>
+        <f t="shared" ca="1" si="48"/>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S86">
-        <f t="shared" ca="1" si="39"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="87" spans="1:19">
@@ -10084,7 +10124,7 @@
         <v/>
       </c>
       <c r="C87">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <f ca="1">IF(C87&lt;&gt;1,OFFSET(D87,-1,0),
@@ -10092,7 +10132,7 @@
         <v>12</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J87">
@@ -10116,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="M87" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N87" t="str">
@@ -10132,19 +10172,19 @@
       <c r="P87">
         <f ca="1">IF(ISBLANK(OFFSET($I87,-($C87-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J87-1,$K87+2))</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Q87" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R87" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v>EN</v>
       </c>
       <c r="S87">
-        <f t="shared" ca="1" si="39"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:19">
@@ -10156,7 +10196,7 @@
         <v/>
       </c>
       <c r="C88">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <f ca="1">IF(C88&lt;&gt;1,OFFSET(D88,-1,0),
@@ -10164,7 +10204,7 @@
         <v>12</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" ca="1" si="35"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J88">
@@ -10188,7 +10228,7 @@
         <v>1</v>
       </c>
       <c r="M88" t="str">
-        <f t="shared" ca="1" si="36"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N88" t="str">
@@ -10204,31 +10244,31 @@
       <c r="P88">
         <f ca="1">IF(ISBLANK(OFFSET($I88,-($C88-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J88-1,$K88+2))</f>
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="Q88" t="str">
-        <f t="shared" ca="1" si="37"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" ca="1" si="38"/>
+        <f t="shared" ca="1" si="48"/>
         <v>GO</v>
       </c>
       <c r="S88">
-        <f t="shared" ca="1" si="39"/>
-        <v>10000</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B89" t="str">
         <f>IFERROR(VLOOKUP(A89,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D89">
         <f ca="1">IF(C89&lt;&gt;1,OFFSET(D89,-1,0),
@@ -10236,13 +10276,8 @@
         <v>12</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" ref="E89:E100" ca="1" si="40">IF(ISBLANK(F89),"",
-VLOOKUP(F89,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
-      </c>
-      <c r="I89" t="s">
-        <v>118</v>
+        <f t="shared" ca="1" si="45"/>
+        <v/>
       </c>
       <c r="J89">
         <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
@@ -10265,53 +10300,47 @@
         <v>0</v>
       </c>
       <c r="M89" t="str">
-        <f t="shared" ref="M89:M100" ca="1" si="41">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
-IF(ISBLANK(N89),"",
-VLOOKUP(N89,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="46"/>
+        <v>cu</v>
       </c>
       <c r="N89" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J89-1,$K89))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O89" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J89-1,$K89+1))</f>
-        <v>Cash_sFestivalTotal</v>
+        <v>EN</v>
       </c>
       <c r="P89">
         <f ca="1">IF(ISBLANK(OFFSET($I89,-($C89-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J89-1,$K89+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q89" t="str">
-        <f t="shared" ref="Q89:Q100" ca="1" si="42">IF(LEN(E89)&lt;&gt;0,E89,
-IF(LEN(M89)&lt;&gt;0,M89,""))</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="47"/>
+        <v>cu</v>
       </c>
       <c r="R89" t="str">
-        <f t="shared" ref="R89:R100" ca="1" si="43">IF(LEN(G89)&lt;&gt;0,G89,
-IF(LEN(O89)&lt;&gt;0,O89,""))</f>
-        <v>Cash_sFestivalTotal</v>
+        <f t="shared" ca="1" si="48"/>
+        <v>EN</v>
       </c>
       <c r="S89">
-        <f t="shared" ref="S89:S100" ca="1" si="44">IF(LEN(H89)&lt;&gt;0,H89,
-IF(LEN(P89)&lt;&gt;0,P89,""))</f>
-        <v>500</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:19">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B90" t="str">
         <f>IFERROR(VLOOKUP(A90,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C90">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D90">
         <f ca="1">IF(C90&lt;&gt;1,OFFSET(D90,-1,0),
@@ -10319,7 +10348,7 @@
         <v>12</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J90">
@@ -10343,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="M90" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N90" t="str">
@@ -10359,31 +10388,31 @@
       <c r="P90">
         <f ca="1">IF(ISBLANK(OFFSET($I90,-($C90-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J90-1,$K90+2))</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q90" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R90" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="48"/>
         <v>EN</v>
       </c>
       <c r="S90">
-        <f t="shared" ca="1" si="44"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B91" t="str">
         <f>IFERROR(VLOOKUP(A91,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C91">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D91">
         <f ca="1">IF(C91&lt;&gt;1,OFFSET(D91,-1,0),
@@ -10391,7 +10420,7 @@
         <v>12</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="45"/>
         <v/>
       </c>
       <c r="J91">
@@ -10415,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="M91" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="46"/>
         <v>cu</v>
       </c>
       <c r="N91" t="str">
@@ -10431,19 +10460,19 @@
       <c r="P91">
         <f ca="1">IF(ISBLANK(OFFSET($I91,-($C91-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J91-1,$K91+2))</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q91" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="47"/>
         <v>cu</v>
       </c>
       <c r="R91" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="48"/>
         <v>GO</v>
       </c>
       <c r="S91">
-        <f t="shared" ca="1" si="44"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="49"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="92" spans="1:19">
@@ -10455,7 +10484,7 @@
         <v/>
       </c>
       <c r="C92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D92">
         <f ca="1">IF(C92&lt;&gt;1,OFFSET(D92,-1,0),
@@ -10463,8 +10492,13 @@
         <v>12</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" ca="1" si="40"/>
-        <v/>
+        <f t="shared" ref="E92:E103" ca="1" si="50">IF(ISBLANK(F92),"",
+VLOOKUP(F92,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I92" t="s">
+        <v>118</v>
       </c>
       <c r="J92">
         <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
@@ -10487,35 +10521,41 @@
         <v>0</v>
       </c>
       <c r="M92" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>cu</v>
+        <f t="shared" ref="M92:M103" ca="1" si="51">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
+IF(ISBLANK(N92),"",
+VLOOKUP(N92,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>it</v>
       </c>
       <c r="N92" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J92-1,$K92))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O92" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J92-1,$K92+1))</f>
-        <v>EN</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P92">
         <f ca="1">IF(ISBLANK(OFFSET($I92,-($C92-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J92-1,$K92+2))</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q92" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
+        <f t="shared" ref="Q92:Q103" ca="1" si="52">IF(LEN(E92)&lt;&gt;0,E92,
+IF(LEN(M92)&lt;&gt;0,M92,""))</f>
+        <v>it</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>EN</v>
+        <f t="shared" ref="R92:R103" ca="1" si="53">IF(LEN(G92)&lt;&gt;0,G92,
+IF(LEN(O92)&lt;&gt;0,O92,""))</f>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S92">
-        <f t="shared" ca="1" si="44"/>
-        <v>300</v>
+        <f t="shared" ref="S92:S103" ca="1" si="54">IF(LEN(H92)&lt;&gt;0,H92,
+IF(LEN(P92)&lt;&gt;0,P92,""))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:19">
@@ -10527,7 +10567,7 @@
         <v/>
       </c>
       <c r="C93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93">
         <f ca="1">IF(C93&lt;&gt;1,OFFSET(D93,-1,0),
@@ -10535,7 +10575,7 @@
         <v>12</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J93">
@@ -10559,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="M93" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N93" t="str">
@@ -10575,19 +10615,19 @@
       <c r="P93">
         <f ca="1">IF(ISBLANK(OFFSET($I93,-($C93-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J93-1,$K93+2))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q93" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R93" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v>EN</v>
       </c>
       <c r="S93">
-        <f t="shared" ca="1" si="44"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:19">
@@ -10599,7 +10639,7 @@
         <v/>
       </c>
       <c r="C94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D94">
         <f ca="1">IF(C94&lt;&gt;1,OFFSET(D94,-1,0),
@@ -10607,7 +10647,7 @@
         <v>12</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J94">
@@ -10631,7 +10671,7 @@
         <v>1</v>
       </c>
       <c r="M94" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N94" t="str">
@@ -10647,19 +10687,19 @@
       <c r="P94">
         <f ca="1">IF(ISBLANK(OFFSET($I94,-($C94-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J94-1,$K94+2))</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q94" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R94" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v>GO</v>
       </c>
       <c r="S94">
-        <f t="shared" ca="1" si="44"/>
-        <v>40000</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="95" spans="1:19">
@@ -10671,7 +10711,7 @@
         <v/>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D95">
         <f ca="1">IF(C95&lt;&gt;1,OFFSET(D95,-1,0),
@@ -10679,7 +10719,7 @@
         <v>12</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J95">
@@ -10703,35 +10743,35 @@
         <v>0</v>
       </c>
       <c r="M95" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
       </c>
       <c r="N95" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J95-1,$K95))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O95" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J95-1,$K95+1))</f>
-        <v>Cash_sFestivalTotal</v>
+        <v>EN</v>
       </c>
       <c r="P95">
         <f ca="1">IF(ISBLANK(OFFSET($I95,-($C95-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J95-1,$K95+2))</f>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q95" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>cu</v>
       </c>
       <c r="R95" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>Cash_sFestivalTotal</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>EN</v>
       </c>
       <c r="S95">
-        <f t="shared" ca="1" si="44"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:19">
@@ -10743,7 +10783,7 @@
         <v/>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <f ca="1">IF(C96&lt;&gt;1,OFFSET(D96,-1,0),
@@ -10751,7 +10791,7 @@
         <v>12</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J96">
@@ -10775,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="M96" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N96" t="str">
@@ -10791,19 +10831,19 @@
       <c r="P96">
         <f ca="1">IF(ISBLANK(OFFSET($I96,-($C96-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J96-1,$K96+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q96" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R96" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v>EN</v>
       </c>
       <c r="S96">
-        <f t="shared" ca="1" si="44"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:19">
@@ -10815,7 +10855,7 @@
         <v/>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D97">
         <f ca="1">IF(C97&lt;&gt;1,OFFSET(D97,-1,0),
@@ -10823,7 +10863,7 @@
         <v>12</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J97">
@@ -10847,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="M97" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N97" t="str">
@@ -10863,19 +10903,19 @@
       <c r="P97">
         <f ca="1">IF(ISBLANK(OFFSET($I97,-($C97-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J97-1,$K97+2))</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="Q97" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R97" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v>GO</v>
       </c>
       <c r="S97">
-        <f t="shared" ca="1" si="44"/>
-        <v>60000</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="98" spans="1:19">
@@ -10887,7 +10927,7 @@
         <v/>
       </c>
       <c r="C98">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D98">
         <f ca="1">IF(C98&lt;&gt;1,OFFSET(D98,-1,0),
@@ -10895,7 +10935,7 @@
         <v>12</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J98">
@@ -10919,35 +10959,35 @@
         <v>0</v>
       </c>
       <c r="M98" t="str">
-        <f t="shared" ca="1" si="41"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>it</v>
       </c>
       <c r="N98" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J98-1,$K98))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O98" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J98-1,$K98+1))</f>
-        <v>EN</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P98">
         <f ca="1">IF(ISBLANK(OFFSET($I98,-($C98-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J98-1,$K98+2))</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="Q98" t="str">
-        <f t="shared" ca="1" si="42"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>it</v>
       </c>
       <c r="R98" t="str">
-        <f t="shared" ca="1" si="43"/>
-        <v>EN</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S98">
-        <f t="shared" ca="1" si="44"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="99" spans="1:19">
@@ -10959,7 +10999,7 @@
         <v/>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D99">
         <f ca="1">IF(C99&lt;&gt;1,OFFSET(D99,-1,0),
@@ -10967,7 +11007,7 @@
         <v>12</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J99">
@@ -10991,7 +11031,7 @@
         <v>0</v>
       </c>
       <c r="M99" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N99" t="str">
@@ -11007,19 +11047,19 @@
       <c r="P99">
         <f ca="1">IF(ISBLANK(OFFSET($I99,-($C99-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J99-1,$K99+2))</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Q99" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R99" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v>EN</v>
       </c>
       <c r="S99">
-        <f t="shared" ca="1" si="44"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:19">
@@ -11031,7 +11071,7 @@
         <v/>
       </c>
       <c r="C100">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D100">
         <f ca="1">IF(C100&lt;&gt;1,OFFSET(D100,-1,0),
@@ -11039,7 +11079,7 @@
         <v>12</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" ca="1" si="40"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J100">
@@ -11063,7 +11103,7 @@
         <v>1</v>
       </c>
       <c r="M100" t="str">
-        <f t="shared" ca="1" si="41"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N100" t="str">
@@ -11079,31 +11119,31 @@
       <c r="P100">
         <f ca="1">IF(ISBLANK(OFFSET($I100,-($C100-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J100-1,$K100+2))</f>
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="Q100" t="str">
-        <f t="shared" ca="1" si="42"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R100" t="str">
-        <f t="shared" ca="1" si="43"/>
+        <f t="shared" ca="1" si="53"/>
         <v>GO</v>
       </c>
       <c r="S100">
-        <f t="shared" ca="1" si="44"/>
-        <v>10000</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="101" spans="1:19">
       <c r="A101" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B101" t="str">
         <f>IFERROR(VLOOKUP(A101,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D101">
         <f ca="1">IF(C101&lt;&gt;1,OFFSET(D101,-1,0),
@@ -11111,13 +11151,8 @@
         <v>12</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" ref="E101:E112" ca="1" si="45">IF(ISBLANK(F101),"",
-VLOOKUP(F101,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-)</f>
-        <v/>
-      </c>
-      <c r="I101" t="s">
-        <v>120</v>
+        <f t="shared" ca="1" si="50"/>
+        <v/>
       </c>
       <c r="J101">
         <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
@@ -11140,53 +11175,47 @@
         <v>0</v>
       </c>
       <c r="M101" t="str">
-        <f t="shared" ref="M101:M112" ca="1" si="46">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
-IF(ISBLANK(N101),"",
-VLOOKUP(N101,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
-))</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="51"/>
+        <v>cu</v>
       </c>
       <c r="N101" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J101-1,$K101))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O101" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J101-1,$K101+1))</f>
-        <v>Cash_sFestivalTotal</v>
+        <v>EN</v>
       </c>
       <c r="P101">
         <f ca="1">IF(ISBLANK(OFFSET($I101,-($C101-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J101-1,$K101+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q101" t="str">
-        <f t="shared" ref="Q101:Q112" ca="1" si="47">IF(LEN(E101)&lt;&gt;0,E101,
-IF(LEN(M101)&lt;&gt;0,M101,""))</f>
-        <v>it</v>
+        <f t="shared" ca="1" si="52"/>
+        <v>cu</v>
       </c>
       <c r="R101" t="str">
-        <f t="shared" ref="R101:R112" ca="1" si="48">IF(LEN(G101)&lt;&gt;0,G101,
-IF(LEN(O101)&lt;&gt;0,O101,""))</f>
-        <v>Cash_sFestivalTotal</v>
+        <f t="shared" ca="1" si="53"/>
+        <v>EN</v>
       </c>
       <c r="S101">
-        <f t="shared" ref="S101:S112" ca="1" si="49">IF(LEN(H101)&lt;&gt;0,H101,
-IF(LEN(P101)&lt;&gt;0,P101,""))</f>
-        <v>500</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:19">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B102" t="str">
         <f>IFERROR(VLOOKUP(A102,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D102">
         <f ca="1">IF(C102&lt;&gt;1,OFFSET(D102,-1,0),
@@ -11194,7 +11223,7 @@
         <v>12</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J102">
@@ -11218,7 +11247,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N102" t="str">
@@ -11234,31 +11263,31 @@
       <c r="P102">
         <f ca="1">IF(ISBLANK(OFFSET($I102,-($C102-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J102-1,$K102+2))</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="Q102" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R102" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="53"/>
         <v>EN</v>
       </c>
       <c r="S102">
-        <f t="shared" ca="1" si="49"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:19">
       <c r="A103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B103" t="str">
         <f>IFERROR(VLOOKUP(A103,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
         <v/>
       </c>
       <c r="C103">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D103">
         <f ca="1">IF(C103&lt;&gt;1,OFFSET(D103,-1,0),
@@ -11266,7 +11295,7 @@
         <v>12</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="50"/>
         <v/>
       </c>
       <c r="J103">
@@ -11290,7 +11319,7 @@
         <v>1</v>
       </c>
       <c r="M103" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="51"/>
         <v>cu</v>
       </c>
       <c r="N103" t="str">
@@ -11306,19 +11335,19 @@
       <c r="P103">
         <f ca="1">IF(ISBLANK(OFFSET($I103,-($C103-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J103-1,$K103+2))</f>
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="Q103" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="52"/>
         <v>cu</v>
       </c>
       <c r="R103" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="53"/>
         <v>GO</v>
       </c>
       <c r="S103">
-        <f t="shared" ca="1" si="49"/>
-        <v>20000</v>
+        <f t="shared" ca="1" si="54"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="104" spans="1:19">
@@ -11330,7 +11359,7 @@
         <v/>
       </c>
       <c r="C104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D104">
         <f ca="1">IF(C104&lt;&gt;1,OFFSET(D104,-1,0),
@@ -11338,8 +11367,13 @@
         <v>12</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" ca="1" si="45"/>
-        <v/>
+        <f t="shared" ref="E104:E115" ca="1" si="55">IF(ISBLANK(F104),"",
+VLOOKUP(F104,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I104" t="s">
+        <v>120</v>
       </c>
       <c r="J104">
         <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
@@ -11362,35 +11396,41 @@
         <v>0</v>
       </c>
       <c r="M104" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>cu</v>
+        <f t="shared" ref="M104:M115" ca="1" si="56">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
+IF(ISBLANK(N104),"",
+VLOOKUP(N104,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>it</v>
       </c>
       <c r="N104" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J104-1,$K104))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O104" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J104-1,$K104+1))</f>
-        <v>EN</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P104">
         <f ca="1">IF(ISBLANK(OFFSET($I104,-($C104-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J104-1,$K104+2))</f>
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q104" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>cu</v>
+        <f t="shared" ref="Q104:Q115" ca="1" si="57">IF(LEN(E104)&lt;&gt;0,E104,
+IF(LEN(M104)&lt;&gt;0,M104,""))</f>
+        <v>it</v>
       </c>
       <c r="R104" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>EN</v>
+        <f t="shared" ref="R104:R115" ca="1" si="58">IF(LEN(G104)&lt;&gt;0,G104,
+IF(LEN(O104)&lt;&gt;0,O104,""))</f>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S104">
-        <f t="shared" ca="1" si="49"/>
-        <v>300</v>
+        <f t="shared" ref="S104:S115" ca="1" si="59">IF(LEN(H104)&lt;&gt;0,H104,
+IF(LEN(P104)&lt;&gt;0,P104,""))</f>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:19">
@@ -11402,7 +11442,7 @@
         <v/>
       </c>
       <c r="C105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <f ca="1">IF(C105&lt;&gt;1,OFFSET(D105,-1,0),
@@ -11410,7 +11450,7 @@
         <v>12</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J105">
@@ -11434,7 +11474,7 @@
         <v>0</v>
       </c>
       <c r="M105" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="N105" t="str">
@@ -11450,19 +11490,19 @@
       <c r="P105">
         <f ca="1">IF(ISBLANK(OFFSET($I105,-($C105-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J105-1,$K105+2))</f>
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="Q105" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="R105" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="58"/>
         <v>EN</v>
       </c>
       <c r="S105">
-        <f t="shared" ca="1" si="49"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:19">
@@ -11474,7 +11514,7 @@
         <v/>
       </c>
       <c r="C106">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D106">
         <f ca="1">IF(C106&lt;&gt;1,OFFSET(D106,-1,0),
@@ -11482,7 +11522,7 @@
         <v>12</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J106">
@@ -11506,7 +11546,7 @@
         <v>1</v>
       </c>
       <c r="M106" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="N106" t="str">
@@ -11522,19 +11562,19 @@
       <c r="P106">
         <f ca="1">IF(ISBLANK(OFFSET($I106,-($C106-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J106-1,$K106+2))</f>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="Q106" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="R106" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="58"/>
         <v>GO</v>
       </c>
       <c r="S106">
-        <f t="shared" ca="1" si="49"/>
-        <v>40000</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="107" spans="1:19">
@@ -11546,7 +11586,7 @@
         <v/>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D107">
         <f ca="1">IF(C107&lt;&gt;1,OFFSET(D107,-1,0),
@@ -11554,7 +11594,7 @@
         <v>12</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J107">
@@ -11578,35 +11618,35 @@
         <v>0</v>
       </c>
       <c r="M107" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
       </c>
       <c r="N107" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J107-1,$K107))</f>
-        <v>아이템</v>
+        <v>재화</v>
       </c>
       <c r="O107" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J107-1,$K107+1))</f>
-        <v>Cash_sFestivalTotal</v>
+        <v>EN</v>
       </c>
       <c r="P107">
         <f ca="1">IF(ISBLANK(OFFSET($I107,-($C107-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J107-1,$K107+2))</f>
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="Q107" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>it</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>cu</v>
       </c>
       <c r="R107" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>Cash_sFestivalTotal</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>EN</v>
       </c>
       <c r="S107">
-        <f t="shared" ca="1" si="49"/>
-        <v>1500</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:19">
@@ -11618,7 +11658,7 @@
         <v/>
       </c>
       <c r="C108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D108">
         <f ca="1">IF(C108&lt;&gt;1,OFFSET(D108,-1,0),
@@ -11626,7 +11666,7 @@
         <v>12</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J108">
@@ -11650,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="M108" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="N108" t="str">
@@ -11666,19 +11706,19 @@
       <c r="P108">
         <f ca="1">IF(ISBLANK(OFFSET($I108,-($C108-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J108-1,$K108+2))</f>
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="Q108" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="R108" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="58"/>
         <v>EN</v>
       </c>
       <c r="S108">
-        <f t="shared" ca="1" si="49"/>
-        <v>500</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:19">
@@ -11690,7 +11730,7 @@
         <v/>
       </c>
       <c r="C109">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D109">
         <f ca="1">IF(C109&lt;&gt;1,OFFSET(D109,-1,0),
@@ -11698,7 +11738,7 @@
         <v>12</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J109">
@@ -11722,7 +11762,7 @@
         <v>1</v>
       </c>
       <c r="M109" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="N109" t="str">
@@ -11738,19 +11778,19 @@
       <c r="P109">
         <f ca="1">IF(ISBLANK(OFFSET($I109,-($C109-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J109-1,$K109+2))</f>
-        <v>60000</v>
+        <v>40000</v>
       </c>
       <c r="Q109" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="R109" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="58"/>
         <v>GO</v>
       </c>
       <c r="S109">
-        <f t="shared" ca="1" si="49"/>
-        <v>60000</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="110" spans="1:19">
@@ -11762,7 +11802,7 @@
         <v/>
       </c>
       <c r="C110">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D110">
         <f ca="1">IF(C110&lt;&gt;1,OFFSET(D110,-1,0),
@@ -11770,7 +11810,7 @@
         <v>12</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J110">
@@ -11794,35 +11834,35 @@
         <v>0</v>
       </c>
       <c r="M110" t="str">
-        <f t="shared" ca="1" si="46"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="56"/>
+        <v>it</v>
       </c>
       <c r="N110" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I110,-($C110-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J110-1,$K110))</f>
-        <v>재화</v>
+        <v>아이템</v>
       </c>
       <c r="O110" t="str">
         <f ca="1">IF(ISBLANK(OFFSET($I110,-($C110-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J110-1,$K110+1))</f>
-        <v>EN</v>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="P110">
         <f ca="1">IF(ISBLANK(OFFSET($I110,-($C110-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J110-1,$K110+2))</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="Q110" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>cu</v>
+        <f t="shared" ca="1" si="57"/>
+        <v>it</v>
       </c>
       <c r="R110" t="str">
-        <f t="shared" ca="1" si="48"/>
-        <v>EN</v>
+        <f t="shared" ca="1" si="58"/>
+        <v>Cash_sFestivalTotal</v>
       </c>
       <c r="S110">
-        <f t="shared" ca="1" si="49"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>1500</v>
       </c>
     </row>
     <row r="111" spans="1:19">
@@ -11834,7 +11874,7 @@
         <v/>
       </c>
       <c r="C111">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D111">
         <f ca="1">IF(C111&lt;&gt;1,OFFSET(D111,-1,0),
@@ -11842,7 +11882,7 @@
         <v>12</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J111">
@@ -11866,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="M111" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="N111" t="str">
@@ -11882,19 +11922,19 @@
       <c r="P111">
         <f ca="1">IF(ISBLANK(OFFSET($I111,-($C111-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J111-1,$K111+2))</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="Q111" t="str">
-        <f t="shared" ca="1" si="47"/>
+        <f t="shared" ca="1" si="57"/>
         <v>cu</v>
       </c>
       <c r="R111" t="str">
-        <f t="shared" ca="1" si="48"/>
+        <f t="shared" ca="1" si="58"/>
         <v>EN</v>
       </c>
       <c r="S111">
-        <f t="shared" ca="1" si="49"/>
-        <v>50</v>
+        <f t="shared" ca="1" si="59"/>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:19">
@@ -11906,7 +11946,7 @@
         <v/>
       </c>
       <c r="C112">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D112">
         <f ca="1">IF(C112&lt;&gt;1,OFFSET(D112,-1,0),
@@ -11914,7 +11954,7 @@
         <v>12</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" ca="1" si="45"/>
+        <f t="shared" ca="1" si="55"/>
         <v/>
       </c>
       <c r="J112">
@@ -11938,7 +11978,7 @@
         <v>1</v>
       </c>
       <c r="M112" t="str">
-        <f t="shared" ca="1" si="46"/>
+        <f t="shared" ca="1" si="56"/>
         <v>cu</v>
       </c>
       <c r="N112" t="str">
@@ -11954,25 +11994,241 @@
       <c r="P112">
         <f ca="1">IF(ISBLANK(OFFSET($I112,-($C112-1),0)),"",
 OFFSET([1]ShopProductTable!$A$1,$J112-1,$K112+2))</f>
+        <v>60000</v>
+      </c>
+      <c r="Q112" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>cu</v>
+      </c>
+      <c r="R112" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v>GO</v>
+      </c>
+      <c r="S112">
+        <f t="shared" ca="1" si="59"/>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="str">
+        <f>IFERROR(VLOOKUP(A113,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <f ca="1">IF(C113&lt;&gt;1,OFFSET(D113,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A113,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="J113">
+        <f ca="1">IF(ISBLANK(OFFSET($I113,-($C113-1),0)),"",
+IF($C113=1,MATCH(OFFSET($I113,-($C113-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J113,-1,0)+OFFSET(L113,-1,0)
+))</f>
+        <v>43</v>
+      </c>
+      <c r="K113">
+        <f ca="1">IF(ISBLANK(OFFSET($I113,-($C113-1),0)),"",
+IF($C113=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L113,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K113,-1,0)+4)))</f>
+        <v>14</v>
+      </c>
+      <c r="L113">
+        <f ca="1">IF(ISBLANK(OFFSET($I113,-($C113-1),0)),"",
+IF($K113-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J113-1,$K113-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M113" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="N113" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I113,-($C113-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J113-1,$K113))</f>
+        <v>재화</v>
+      </c>
+      <c r="O113" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I113,-($C113-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J113-1,$K113+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P113">
+        <f ca="1">IF(ISBLANK(OFFSET($I113,-($C113-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J113-1,$K113+2))</f>
+        <v>100</v>
+      </c>
+      <c r="Q113" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>cu</v>
+      </c>
+      <c r="R113" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v>EN</v>
+      </c>
+      <c r="S113">
+        <f t="shared" ca="1" si="59"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19">
+      <c r="A114" t="s">
+        <v>119</v>
+      </c>
+      <c r="B114" t="str">
+        <f>IFERROR(VLOOKUP(A114,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C114">
+        <v>11</v>
+      </c>
+      <c r="D114">
+        <f ca="1">IF(C114&lt;&gt;1,OFFSET(D114,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A114,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="J114">
+        <f ca="1">IF(ISBLANK(OFFSET($I114,-($C114-1),0)),"",
+IF($C114=1,MATCH(OFFSET($I114,-($C114-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J114,-1,0)+OFFSET(L114,-1,0)
+))</f>
+        <v>43</v>
+      </c>
+      <c r="K114">
+        <f ca="1">IF(ISBLANK(OFFSET($I114,-($C114-1),0)),"",
+IF($C114=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L114,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K114,-1,0)+4)))</f>
+        <v>18</v>
+      </c>
+      <c r="L114">
+        <f ca="1">IF(ISBLANK(OFFSET($I114,-($C114-1),0)),"",
+IF($K114-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J114-1,$K114-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M114" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="N114" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I114,-($C114-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J114-1,$K114))</f>
+        <v>재화</v>
+      </c>
+      <c r="O114" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I114,-($C114-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J114-1,$K114+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P114">
+        <f ca="1">IF(ISBLANK(OFFSET($I114,-($C114-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J114-1,$K114+2))</f>
+        <v>50</v>
+      </c>
+      <c r="Q114" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>cu</v>
+      </c>
+      <c r="R114" t="str">
+        <f t="shared" ca="1" si="58"/>
+        <v>EN</v>
+      </c>
+      <c r="S114">
+        <f t="shared" ca="1" si="59"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" t="str">
+        <f>IFERROR(VLOOKUP(A115,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C115">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <f ca="1">IF(C115&lt;&gt;1,OFFSET(D115,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A115,[1]ShopProductTable!$E:$E))</f>
+        <v>12</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" ca="1" si="55"/>
+        <v/>
+      </c>
+      <c r="J115">
+        <f ca="1">IF(ISBLANK(OFFSET($I115,-($C115-1),0)),"",
+IF($C115=1,MATCH(OFFSET($I115,-($C115-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J115,-1,0)+OFFSET(L115,-1,0)
+))</f>
+        <v>43</v>
+      </c>
+      <c r="K115">
+        <f ca="1">IF(ISBLANK(OFFSET($I115,-($C115-1),0)),"",
+IF($C115=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L115,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K115,-1,0)+4)))</f>
+        <v>22</v>
+      </c>
+      <c r="L115">
+        <f ca="1">IF(ISBLANK(OFFSET($I115,-($C115-1),0)),"",
+IF($K115-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J115-1,$K115-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M115" t="str">
+        <f t="shared" ca="1" si="56"/>
+        <v>cu</v>
+      </c>
+      <c r="N115" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I115,-($C115-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J115-1,$K115))</f>
+        <v>재화</v>
+      </c>
+      <c r="O115" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I115,-($C115-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J115-1,$K115+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P115">
+        <f ca="1">IF(ISBLANK(OFFSET($I115,-($C115-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J115-1,$K115+2))</f>
         <v>10000</v>
       </c>
-      <c r="Q112" t="str">
-        <f t="shared" ca="1" si="47"/>
-        <v>cu</v>
-      </c>
-      <c r="R112" t="str">
-        <f t="shared" ca="1" si="48"/>
+      <c r="Q115" t="str">
+        <f t="shared" ca="1" si="57"/>
+        <v>cu</v>
+      </c>
+      <c r="R115" t="str">
+        <f t="shared" ca="1" si="58"/>
         <v>GO</v>
       </c>
-      <c r="S112">
-        <f t="shared" ca="1" si="49"/>
+      <c r="S115">
+        <f t="shared" ca="1" si="59"/>
         <v>10000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F88" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F91" xr:uid="{129E3910-E09D-4789-A040-7E52F7CFC6C3}">
       <formula1>OFFSET(INDIRECT("$A$1"),1,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1,COUNTA(OFFSET(INDIRECT("$A:$A"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1))-1,1)</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C06B33B-3D4E-41E1-A85B-B7243056A7AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83F86C-F4F1-4FCA-8AFF-2EDED8C899F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="132">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,13 @@
   </si>
   <si>
     <t>firstpurchase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysisboost</t>
+  </si>
+  <si>
+    <t>analysisboost_3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1814,6 +1821,39 @@
             <v>autonew</v>
           </cell>
           <cell r="E92">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93" t="str">
+            <v>analysisboost_1</v>
+          </cell>
+          <cell r="D93" t="str">
+            <v>analysisboost</v>
+          </cell>
+          <cell r="E93">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94" t="str">
+            <v>analysisboost_2</v>
+          </cell>
+          <cell r="D94" t="str">
+            <v>analysisboost</v>
+          </cell>
+          <cell r="E94">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95" t="str">
+            <v>analysisboost_3</v>
+          </cell>
+          <cell r="D95" t="str">
+            <v>analysisboost</v>
+          </cell>
+          <cell r="E95">
             <v>4</v>
           </cell>
         </row>
@@ -2129,7 +2169,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -3776,33 +3816,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
-  <dimension ref="A1:W115"/>
+  <dimension ref="A1:V119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="24.625" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="3" width="9" collapsed="1"/>
-    <col min="4" max="4" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="3.5" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="23.875" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="19" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="14" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="15" max="15" width="18.125" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="16" max="16" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="17" max="17" width="9" collapsed="1"/>
+    <col min="2" max="2" width="24.625" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="3.5" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="23.875" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="19" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="14" width="9" customWidth="1" outlineLevel="1"/>
+    <col min="15" max="15" width="18.125" customWidth="1" outlineLevel="1"/>
+    <col min="16" max="16" width="9" customWidth="1" outlineLevel="1"/>
     <col min="18" max="18" width="18.125" customWidth="1"/>
-    <col min="21" max="22" width="9" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="23" max="23" width="9" collapsed="1"/>
+    <col min="21" max="22" width="9" customWidth="1" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="27" customHeight="1">
@@ -12223,6 +12260,313 @@
       <c r="S115">
         <f t="shared" ca="1" si="59"/>
         <v>10000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" t="str">
+        <f>IFERROR(VLOOKUP(A116,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116">
+        <f ca="1">IF(C116&lt;&gt;1,OFFSET(D116,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A116,[1]ShopProductTable!$E:$E))</f>
+        <v>6</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" ref="E116:E118" ca="1" si="60">IF(ISBLANK(F116),"",
+VLOOKUP(F116,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="I116" t="s">
+        <v>131</v>
+      </c>
+      <c r="J116">
+        <f ca="1">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
+IF($C116=1,MATCH(OFFSET($I116,-($C116-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J116,-1,0)+OFFSET(L116,-1,0)
+))</f>
+        <v>95</v>
+      </c>
+      <c r="K116">
+        <f ca="1">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
+IF($C116=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L116,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K116,-1,0)+4)))</f>
+        <v>14</v>
+      </c>
+      <c r="L116">
+        <f ca="1">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
+IF($K116-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J116-1,$K116-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M116" t="str">
+        <f t="shared" ref="M116:M118" ca="1" si="61">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
+IF(ISBLANK(N116),"",
+VLOOKUP(N116,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>it</v>
+      </c>
+      <c r="N116" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J116-1,$K116))</f>
+        <v>아이템</v>
+      </c>
+      <c r="O116" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J116-1,$K116+1))</f>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="P116">
+        <f ca="1">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J116-1,$K116+2))</f>
+        <v>2592000</v>
+      </c>
+      <c r="Q116" t="str">
+        <f t="shared" ref="Q116:Q118" ca="1" si="62">IF(LEN(E116)&lt;&gt;0,E116,
+IF(LEN(M116)&lt;&gt;0,M116,""))</f>
+        <v>it</v>
+      </c>
+      <c r="R116" t="str">
+        <f t="shared" ref="R116:R118" ca="1" si="63">IF(LEN(G116)&lt;&gt;0,G116,
+IF(LEN(O116)&lt;&gt;0,O116,""))</f>
+        <v>Item_cAnalysisBoost</v>
+      </c>
+      <c r="S116">
+        <f t="shared" ref="S116:S118" ca="1" si="64">IF(LEN(H116)&lt;&gt;0,H116,
+IF(LEN(P116)&lt;&gt;0,P116,""))</f>
+        <v>2592000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" t="str">
+        <f>IFERROR(VLOOKUP(A117,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117">
+        <f ca="1">IF(C117&lt;&gt;1,OFFSET(D117,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A117,[1]ShopProductTable!$E:$E))</f>
+        <v>6</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="J117">
+        <f ca="1">IF(ISBLANK(OFFSET($I117,-($C117-1),0)),"",
+IF($C117=1,MATCH(OFFSET($I117,-($C117-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J117,-1,0)+OFFSET(L117,-1,0)
+))</f>
+        <v>95</v>
+      </c>
+      <c r="K117">
+        <f ca="1">IF(ISBLANK(OFFSET($I117,-($C117-1),0)),"",
+IF($C117=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L117,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K117,-1,0)+4)))</f>
+        <v>18</v>
+      </c>
+      <c r="L117">
+        <f ca="1">IF(ISBLANK(OFFSET($I117,-($C117-1),0)),"",
+IF($K117-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J117-1,$K117-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M117" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v>cu</v>
+      </c>
+      <c r="N117" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I117,-($C117-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J117-1,$K117))</f>
+        <v>재화</v>
+      </c>
+      <c r="O117" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I117,-($C117-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J117-1,$K117+1))</f>
+        <v>EN</v>
+      </c>
+      <c r="P117">
+        <f ca="1">IF(ISBLANK(OFFSET($I117,-($C117-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J117-1,$K117+2))</f>
+        <v>1000</v>
+      </c>
+      <c r="Q117" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="R117" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>EN</v>
+      </c>
+      <c r="S117">
+        <f t="shared" ca="1" si="64"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" t="str">
+        <f>IFERROR(VLOOKUP(A118,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C118">
+        <v>3</v>
+      </c>
+      <c r="D118">
+        <f ca="1">IF(C118&lt;&gt;1,OFFSET(D118,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A118,[1]ShopProductTable!$E:$E))</f>
+        <v>6</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" ca="1" si="60"/>
+        <v/>
+      </c>
+      <c r="J118">
+        <f ca="1">IF(ISBLANK(OFFSET($I118,-($C118-1),0)),"",
+IF($C118=1,MATCH(OFFSET($I118,-($C118-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J118,-1,0)+OFFSET(L118,-1,0)
+))</f>
+        <v>95</v>
+      </c>
+      <c r="K118">
+        <f ca="1">IF(ISBLANK(OFFSET($I118,-($C118-1),0)),"",
+IF($C118=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L118,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K118,-1,0)+4)))</f>
+        <v>22</v>
+      </c>
+      <c r="L118">
+        <f ca="1">IF(ISBLANK(OFFSET($I118,-($C118-1),0)),"",
+IF($K118-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J118-1,$K118-1+4))=0,1,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="M118" t="str">
+        <f t="shared" ca="1" si="61"/>
+        <v>cu</v>
+      </c>
+      <c r="N118" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I118,-($C118-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J118-1,$K118))</f>
+        <v>재화</v>
+      </c>
+      <c r="O118" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I118,-($C118-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J118-1,$K118+1))</f>
+        <v>GO</v>
+      </c>
+      <c r="P118">
+        <f ca="1">IF(ISBLANK(OFFSET($I118,-($C118-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J118-1,$K118+2))</f>
+        <v>25000</v>
+      </c>
+      <c r="Q118" t="str">
+        <f t="shared" ca="1" si="62"/>
+        <v>cu</v>
+      </c>
+      <c r="R118" t="str">
+        <f t="shared" ca="1" si="63"/>
+        <v>GO</v>
+      </c>
+      <c r="S118">
+        <f t="shared" ca="1" si="64"/>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19">
+      <c r="A119" t="s">
+        <v>130</v>
+      </c>
+      <c r="B119" t="str">
+        <f>IFERROR(VLOOKUP(A119,EventTypeTable!A:B,MATCH(EventTypeTable!$B$1,EventTypeTable!$A$1:$B$1,0),0),"")</f>
+        <v/>
+      </c>
+      <c r="C119">
+        <v>4</v>
+      </c>
+      <c r="D119">
+        <f ca="1">IF(C119&lt;&gt;1,OFFSET(D119,-1,0),
+SUMIF([1]ShopProductTable!$D:$D,$A119,[1]ShopProductTable!$E:$E))</f>
+        <v>6</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" ref="E119" ca="1" si="65">IF(ISBLANK(F119),"",
+VLOOKUP(F119,OFFSET(INDIRECT("$A:$B"),0,MATCH(F$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+)</f>
+        <v/>
+      </c>
+      <c r="J119">
+        <f ca="1">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",
+IF($C119=1,MATCH(OFFSET($I119,-($C119-1),0),[1]ShopProductTable!$A:$A,0),
+OFFSET(J119,-1,0)+OFFSET(L119,-1,0)
+))</f>
+        <v>95</v>
+      </c>
+      <c r="K119">
+        <f ca="1">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",
+IF($C119=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+IF(OFFSET(L119,-1,0)=1,MATCH("tp1",[1]ShopProductTable!$1:$1,0),
+OFFSET(K119,-1,0)+4)))</f>
+        <v>26</v>
+      </c>
+      <c r="L119">
+        <f ca="1">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",
+IF($K119-1+4=28,1,
+IF(LEN(OFFSET([1]ShopProductTable!$A$1,$J119-1,$K119-1+4))=0,1,0)))</f>
+        <v>1</v>
+      </c>
+      <c r="M119" t="str">
+        <f t="shared" ref="M119" ca="1" si="66">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",
+IF(ISBLANK(N119),"",
+VLOOKUP(N119,OFFSET(INDIRECT("$A:$B"),0,MATCH(N$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)
+))</f>
+        <v>cu</v>
+      </c>
+      <c r="N119" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J119-1,$K119))</f>
+        <v>재화</v>
+      </c>
+      <c r="O119" t="str">
+        <f ca="1">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J119-1,$K119+1))</f>
+        <v>DI</v>
+      </c>
+      <c r="P119">
+        <f ca="1">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",
+OFFSET([1]ShopProductTable!$A$1,$J119-1,$K119+2))</f>
+        <v>750</v>
+      </c>
+      <c r="Q119" t="str">
+        <f t="shared" ref="Q119" ca="1" si="67">IF(LEN(E119)&lt;&gt;0,E119,
+IF(LEN(M119)&lt;&gt;0,M119,""))</f>
+        <v>cu</v>
+      </c>
+      <c r="R119" t="str">
+        <f t="shared" ref="R119" ca="1" si="68">IF(LEN(G119)&lt;&gt;0,G119,
+IF(LEN(O119)&lt;&gt;0,O119,""))</f>
+        <v>DI</v>
+      </c>
+      <c r="S119">
+        <f t="shared" ref="S119" ca="1" si="69">IF(LEN(H119)&lt;&gt;0,H119,
+IF(LEN(P119)&lt;&gt;0,P119,""))</f>
+        <v>750</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectNameless\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF83F86C-F4F1-4FCA-8AFF-2EDED8C899F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C67CD2-A513-449C-A0A0-EE0595F32372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
   <sheets>
     <sheet name="EventTypeTable" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="147">
   <si>
     <t>ev1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,65 @@
   </si>
   <si>
     <t>analysisboost_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquiredspell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매_보유미보유</t>
+  </si>
+  <si>
+    <t>unacquiredspell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquiredcompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acquiredcompanionpp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unacquiredcompanion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ev17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 스펠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미보유 스펠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 동료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미보유 동료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보유 동료 피피</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,6 +709,8 @@
       <sheetName val="LevelPassTable"/>
       <sheetName val="ConsumeItemTable"/>
       <sheetName val="StageClearTable"/>
+      <sheetName val="PickOneSpellTable"/>
+      <sheetName val="PickOneCharacterTable"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1815,18 +1876,18 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>autonew_1</v>
+            <v>analysisboost_1</v>
           </cell>
           <cell r="D92" t="str">
-            <v>autonew</v>
+            <v>analysisboost</v>
           </cell>
           <cell r="E92">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>analysisboost_1</v>
+            <v>analysisboost_2</v>
           </cell>
           <cell r="D93" t="str">
             <v>analysisboost</v>
@@ -1837,30 +1898,76 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>analysisboost_2</v>
+            <v>analysisboost_3</v>
           </cell>
           <cell r="D94" t="str">
             <v>analysisboost</v>
           </cell>
           <cell r="E94">
-            <v>1</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>analysisboost_3</v>
+            <v>ev14_unacquiredspell</v>
           </cell>
           <cell r="D95" t="str">
-            <v>analysisboost</v>
+            <v>ev14</v>
           </cell>
           <cell r="E95">
-            <v>4</v>
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96" t="str">
+            <v>ev14_unacquiredspell</v>
+          </cell>
+          <cell r="D96" t="str">
+            <v>ev14</v>
+          </cell>
+          <cell r="E96">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97" t="str">
+            <v>ev13_acquiredspell_0001</v>
+          </cell>
+          <cell r="D97" t="str">
+            <v>ev13</v>
+          </cell>
+          <cell r="E97">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98" t="str">
+            <v>ev13_acquiredspell_0002</v>
+          </cell>
+          <cell r="D98" t="str">
+            <v>ev13</v>
+          </cell>
+          <cell r="E98">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>ev13_acquiredspell</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>ev13</v>
+          </cell>
+          <cell r="E99">
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2163,13 +2270,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EFEC50C-5C25-4054-9F90-F869D27D6142}">
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2339,27 +2446,27 @@
         <v>1d</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K14" si="1">IF(ISBLANK($Q2),"",YEAR($Q2))</f>
+        <f t="shared" ref="K2:K18" si="1">IF(ISBLANK($Q2),"",YEAR($Q2))</f>
         <v>2023</v>
       </c>
       <c r="L2">
-        <f t="shared" ref="L2:L14" si="2">IF(ISBLANK($Q2),"",MONTH($Q2))</f>
+        <f t="shared" ref="L2:L18" si="2">IF(ISBLANK($Q2),"",MONTH($Q2))</f>
         <v>1</v>
       </c>
       <c r="M2">
-        <f t="shared" ref="M2:M14" si="3">IF(ISBLANK($Q2),"",DAY($Q2))</f>
+        <f t="shared" ref="M2:M18" si="3">IF(ISBLANK($Q2),"",DAY($Q2))</f>
         <v>1</v>
       </c>
       <c r="N2">
-        <f t="shared" ref="N2:N14" si="4">IF(ISBLANK($R2),"",YEAR($R2+1))</f>
+        <f t="shared" ref="N2:N18" si="4">IF(ISBLANK($R2),"",YEAR($R2+1))</f>
         <v>2023</v>
       </c>
       <c r="O2">
-        <f t="shared" ref="O2:O14" si="5">IF(ISBLANK($R2),"",MONTH($R2+1))</f>
+        <f t="shared" ref="O2:O18" si="5">IF(ISBLANK($R2),"",MONTH($R2+1))</f>
         <v>3</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:P14" si="6">IF(ISBLANK($R2),"",DAY($R2+1))</f>
+        <f t="shared" ref="P2:P18" si="6">IF(ISBLANK($R2),"",DAY($R2+1))</f>
         <v>1</v>
       </c>
       <c r="Q2" s="3">
@@ -2430,7 +2537,7 @@
         <f ca="1">"{"&amp;
 IF(LEFT(OFFSET(AD1,COUNTA(AD:AD)-1,0),1)=",",SUBSTITUTE(OFFSET(AD1,COUNTA(AD:AD)-1,0),",","",1),OFFSET(AD1,COUNTA(AD:AD)-1,0))
 &amp;"}"</f>
-        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0}</v>
+        <v>{"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":300,"ev14":300,"ev15":300,"ev16":300,"ev17":300}</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -3551,41 +3658,41 @@
         <v>44985</v>
       </c>
       <c r="S12">
-        <f t="shared" ref="S12:S13" si="34">K12</f>
+        <f t="shared" ref="S12:S14" si="34">K12</f>
         <v>2023</v>
       </c>
       <c r="T12">
-        <f t="shared" ref="T12:T13" si="35">L12</f>
+        <f t="shared" ref="T12:T14" si="35">L12</f>
         <v>1</v>
       </c>
       <c r="U12">
-        <f t="shared" ref="U12:U13" si="36">M12</f>
+        <f t="shared" ref="U12:U14" si="36">M12</f>
         <v>1</v>
       </c>
       <c r="V12">
-        <f t="shared" ref="V12:V13" si="37">N12</f>
+        <f t="shared" ref="V12:V14" si="37">N12</f>
         <v>2023</v>
       </c>
       <c r="W12">
-        <f t="shared" ref="W12:W13" si="38">O12</f>
+        <f t="shared" ref="W12:W14" si="38">O12</f>
         <v>3</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:X13" si="39">P12</f>
+        <f t="shared" ref="X12:X14" si="39">P12</f>
         <v>1</v>
       </c>
       <c r="Y12" t="s">
         <v>47</v>
       </c>
       <c r="Z12">
-        <f t="shared" ref="Z12:Z13" ca="1" si="40">VLOOKUP(Y12,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="Z12:Z14" ca="1" si="40">VLOOKUP(Y12,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>1</v>
       </c>
       <c r="AA12" t="s">
         <v>121</v>
       </c>
       <c r="AB12" s="4">
-        <f t="shared" ref="AB12:AB13" ca="1" si="41">VLOOKUP(AA12,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <f t="shared" ref="AB12:AB14" ca="1" si="41">VLOOKUP(AA12,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
         <v>4</v>
       </c>
       <c r="AC12">
@@ -3713,83 +3820,577 @@
       <c r="A14" t="s">
         <v>45</v>
       </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
       <c r="F14">
         <f ca="1">IF(NOT(ISBLANK(E14)),E14,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A14))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>420</v>
+        <f>24*60*60</f>
+        <v>86400</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
-        <v>7m</v>
+        <f t="shared" ref="H14" si="42">IF(G14/60/60/24*1&gt;=1,INT(G14/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(G14/60/60,24))&gt;0,INT(MOD(G14/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(G14/60,60))&gt;0,INT(MOD(G14/60,60))&amp;"m","")
+&amp;IF(INT(MOD(G14,60))&gt;0,INT(MOD(G14,60))&amp;"s","")</f>
+        <v>1d</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K14" t="str">
+        <f t="shared" ref="J14" si="43">IF(I14/60/60/24*1&gt;=1,INT(I14/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(I14/60/60,24))&gt;0,INT(MOD(I14/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(I14/60,60))&gt;0,INT(MOD(I14/60,60))&amp;"m","")
+&amp;IF(INT(MOD(I14,60))&gt;0,INT(MOD(I14,60))&amp;"s","")</f>
+        <v>5m</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L14" t="str">
+        <v>2023</v>
+      </c>
+      <c r="L14">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M14" t="str">
+        <v>1</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N14" t="str">
+        <v>1</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O14" t="str">
+        <v>2023</v>
+      </c>
+      <c r="O14">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P14" t="str">
+        <v>3</v>
+      </c>
+      <c r="P14">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="T14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="U14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="W14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="X14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="AB14" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>44927</v>
+      </c>
+      <c r="R14" s="3">
+        <v>44985</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="34"/>
+        <v>2023</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="37"/>
+        <v>2023</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="38"/>
+        <v>3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" ca="1" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" ca="1" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
       <c r="AD14" t="str">
         <f t="shared" si="30"/>
-        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":0</v>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":300</v>
       </c>
       <c r="AE14" t="str">
         <f t="shared" si="31"/>
-        <v>"ev13":0</v>
+        <v>"ev13":300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15">
+        <f ca="1">IF(NOT(ISBLANK(E15)),E15,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A15))</f>
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ref="G15:G18" si="44">24*60*60</f>
+        <v>86400</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" ref="H15:H18" si="45">IF(G15/60/60/24*1&gt;=1,INT(G15/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(G15/60/60,24))&gt;0,INT(MOD(G15/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(G15/60,60))&gt;0,INT(MOD(G15/60,60))&amp;"m","")
+&amp;IF(INT(MOD(G15,60))&gt;0,INT(MOD(G15,60))&amp;"s","")</f>
+        <v>1d</v>
+      </c>
+      <c r="I15">
+        <v>300</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" ref="J15:J18" si="46">IF(I15/60/60/24*1&gt;=1,INT(I15/60/60/24)&amp;"d","")
+&amp;IF(INT(MOD(I15/60/60,24))&gt;0,INT(MOD(I15/60/60,24))&amp;"h","")
+&amp;IF(INT(MOD(I15/60,60))&gt;0,INT(MOD(I15/60,60))&amp;"m","")
+&amp;IF(INT(MOD(I15,60))&gt;0,INT(MOD(I15,60))&amp;"s","")</f>
+        <v>5m</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>44927</v>
+      </c>
+      <c r="R15" s="3">
+        <v>44985</v>
+      </c>
+      <c r="S15">
+        <f t="shared" ref="S15:S18" si="47">K15</f>
+        <v>2023</v>
+      </c>
+      <c r="T15">
+        <f t="shared" ref="T15:T18" si="48">L15</f>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" ref="U15:U18" si="49">M15</f>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ref="V15:V18" si="50">N15</f>
+        <v>2023</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ref="W15:W18" si="51">O15</f>
+        <v>3</v>
+      </c>
+      <c r="X15">
+        <f t="shared" ref="X15:X18" si="52">P15</f>
+        <v>1</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" ref="Z15:Z18" ca="1" si="53">VLOOKUP(Y15,OFFSET(INDIRECT("$A:$B"),0,MATCH(Y$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>1</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ref="AB15:AB18" ca="1" si="54">VLOOKUP(AA15,OFFSET(INDIRECT("$A:$B"),0,MATCH(AA$1&amp;"_Verify",INDIRECT("$1:$1"),0)-1),2,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15" t="str">
+        <f t="shared" ref="AD15:AD18" si="55">AD14&amp;","&amp;AE15</f>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":300,"ev14":300</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" ref="AE15:AE18" si="56">""""&amp;$A15&amp;""""&amp;""&amp;":"&amp;I15</f>
+        <v>"ev14":300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16">
+        <f ca="1">IF(NOT(ISBLANK(E16)),E16,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A16))</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="44"/>
+        <v>86400</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="45"/>
+        <v>1d</v>
+      </c>
+      <c r="I16">
+        <v>300</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="46"/>
+        <v>5m</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>44927</v>
+      </c>
+      <c r="R16" s="3">
+        <v>44985</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="47"/>
+        <v>2023</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" ca="1" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" ca="1" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16" t="str">
+        <f t="shared" si="55"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":300,"ev14":300,"ev15":300</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="56"/>
+        <v>"ev15":300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17">
+        <f ca="1">IF(NOT(ISBLANK(E17)),E17,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A17))</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="44"/>
+        <v>86400</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="45"/>
+        <v>1d</v>
+      </c>
+      <c r="I17">
+        <v>300</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="46"/>
+        <v>5m</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>44927</v>
+      </c>
+      <c r="R17" s="3">
+        <v>44985</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="47"/>
+        <v>2023</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" ca="1" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" ca="1" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17" t="str">
+        <f t="shared" si="55"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":300,"ev14":300,"ev15":300,"ev16":300</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="56"/>
+        <v>"ev16":300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18">
+        <f ca="1">IF(NOT(ISBLANK(E18)),E18,
+COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A18))</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="44"/>
+        <v>86400</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="45"/>
+        <v>1d</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="46"/>
+        <v>5m</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>2023</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="4"/>
+        <v>2023</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>44927</v>
+      </c>
+      <c r="R18" s="3">
+        <v>44985</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="47"/>
+        <v>2023</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="50"/>
+        <v>2023</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="51"/>
+        <v>3</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="52"/>
+        <v>1</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" ca="1" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ca="1" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18" t="str">
+        <f t="shared" si="55"/>
+        <v>"ev1":86400,"ev2":0,"ev3":691200,"ev4":172800,"ev5":86400,"ev6":2592000,"ev7":600,"ev8":0,"ev9":0,"ev10":0,"ev11":0,"ev12":0,"ev13":300,"ev14":300,"ev15":300,"ev16":300,"ev17":300</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="56"/>
+        <v>"ev17":300</v>
       </c>
     </row>
   </sheetData>
@@ -3818,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0EA1-07D4-4A6F-9B9B-399A2656E852}">
   <dimension ref="A1:V119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D101" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A116" sqref="A116"/>
@@ -12292,7 +12893,7 @@
 IF($C116=1,MATCH(OFFSET($I116,-($C116-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J116,-1,0)+OFFSET(L116,-1,0)
 ))</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K116">
         <f ca="1">IF(ISBLANK(OFFSET($I116,-($C116-1),0)),"",
@@ -12370,7 +12971,7 @@
 IF($C117=1,MATCH(OFFSET($I117,-($C117-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J117,-1,0)+OFFSET(L117,-1,0)
 ))</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K117">
         <f ca="1">IF(ISBLANK(OFFSET($I117,-($C117-1),0)),"",
@@ -12442,7 +13043,7 @@
 IF($C118=1,MATCH(OFFSET($I118,-($C118-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J118,-1,0)+OFFSET(L118,-1,0)
 ))</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K118">
         <f ca="1">IF(ISBLANK(OFFSET($I118,-($C118-1),0)),"",
@@ -12516,7 +13117,7 @@
 IF($C119=1,MATCH(OFFSET($I119,-($C119-1),0),[1]ShopProductTable!$A:$A,0),
 OFFSET(J119,-1,0)+OFFSET(L119,-1,0)
 ))</f>
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K119">
         <f ca="1">IF(ISBLANK(OFFSET($I119,-($C119-1),0)),"",

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C67CD2-A513-449C-A0A0-EE0595F32372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582CD683-EF51-4B39-BAB9-9810FA3875C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -1920,10 +1920,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>ev14_unacquiredspell</v>
+            <v>ev13_acquiredspell_0001</v>
           </cell>
           <cell r="D96" t="str">
-            <v>ev14</v>
+            <v>ev13</v>
           </cell>
           <cell r="E96">
             <v>1</v>
@@ -1931,7 +1931,7 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>ev13_acquiredspell_0001</v>
+            <v>ev13_acquiredspell_0002</v>
           </cell>
           <cell r="D97" t="str">
             <v>ev13</v>
@@ -1942,23 +1942,12 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>ev13_acquiredspell_0002</v>
+            <v>ev13_acquiredspell</v>
           </cell>
           <cell r="D98" t="str">
             <v>ev13</v>
           </cell>
           <cell r="E98">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>ev13_acquiredspell</v>
-          </cell>
-          <cell r="D99" t="str">
-            <v>ev13</v>
-          </cell>
-          <cell r="E99">
             <v>1</v>
           </cell>
         </row>
@@ -2276,7 +2265,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
@@ -2432,7 +2421,7 @@
         <v>300</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:J14" si="0">IF(G2/60/60/24*1&gt;=1,INT(G2/60/60/24)&amp;"d","")
+        <f t="shared" ref="H2:J13" si="0">IF(G2/60/60/24*1&gt;=1,INT(G2/60/60/24)&amp;"d","")
 &amp;IF(INT(MOD(G2/60/60,24))&gt;0,INT(MOD(G2/60/60,24))&amp;"h","")
 &amp;IF(INT(MOD(G2/60,60))&gt;0,INT(MOD(G2/60,60))&amp;"m","")
 &amp;IF(INT(MOD(G2,60))&gt;0,INT(MOD(G2,60))&amp;"s","")</f>
@@ -2480,7 +2469,7 @@
         <v>2023</v>
       </c>
       <c r="T2">
-        <f t="shared" ref="T2:X14" si="7">L2</f>
+        <f t="shared" ref="T2:X10" si="7">L2</f>
         <v>1</v>
       </c>
       <c r="U2">
@@ -2600,7 +2589,7 @@
         <v>44985</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S14" si="9">K3</f>
+        <f t="shared" ref="S3:S10" si="9">K3</f>
         <v>2023</v>
       </c>
       <c r="T3">
@@ -3951,7 +3940,7 @@
       <c r="F15">
         <f ca="1">IF(NOT(ISBLANK(E15)),E15,
 COUNTIF(OFFSET([1]ShopProductTable!$A:$A,0,MATCH("이벤트프로덕트카운트참고",[1]ShopProductTable!$1:$1,0)-1),A15))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" ref="G15:G18" si="44">24*60*60</f>

--- a/Excel/작업Event.xlsx
+++ b/Excel/작업Event.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectNameless\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582CD683-EF51-4B39-BAB9-9810FA3875C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE56D6A-42CB-402E-B341-AD0E5D3BE4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{84B9C2BF-F691-4F82-9977-F0D27C67C948}"/>
   </bookViews>
@@ -1948,6 +1948,39 @@
             <v>ev13</v>
           </cell>
           <cell r="E98">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99" t="str">
+            <v>ev15_unacquiredcompanion</v>
+          </cell>
+          <cell r="D99" t="str">
+            <v>ev15</v>
+          </cell>
+          <cell r="E99">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100" t="str">
+            <v>ev16_acquiredcompanion</v>
+          </cell>
+          <cell r="D100" t="str">
+            <v>ev16</v>
+          </cell>
+          <cell r="E100">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101" t="str">
+            <v>ev17_acquiredcompanionpp</v>
+          </cell>
+          <cell r="D101" t="str">
+            <v>ev17</v>
+          </cell>
+          <cell r="E101">
             <v>1</v>
           </cell>
         </row>
@@ -2265,12 +2298,13 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="3" width="26.5" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1" outlineLevel="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1" outlineLevel="1"/>
@@ -2749,7 +2783,7 @@
         <v>4</v>
       </c>
       <c r="AC4" s="4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD4" t="str">
         <f t="shared" ref="AD4:AD10" si="10">AD3&amp;","&amp;AE4</f>
@@ -2871,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="AC5" s="4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD5" t="str">
         <f t="shared" si="10"/>
@@ -2993,7 +3027,7 @@
         <v>4</v>
       </c>
       <c r="AC6" s="4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD6" t="str">
         <f t="shared" si="10"/>
@@ -3116,7 +3150,7 @@
         <v>4</v>
       </c>
       <c r="AC7" s="4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD7" t="str">
         <f t="shared" si="10"/>
@@ -3228,7 +3262,7 @@
         <v>4</v>
       </c>
       <c r="AC8" s="4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD8" t="str">
         <f t="shared" si="10"/>
@@ -3340,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="AC9" s="4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD9" t="str">
         <f t="shared" si="10"/>
@@ -3452,7 +3486,7 @@
         <v>4</v>
       </c>
       <c r="AC10" s="4">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD10" t="str">
         <f t="shared" si="10"/>
@@ -3570,7 +3604,7 @@
         <v>4</v>
       </c>
       <c r="AC11">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD11" t="str">
         <f t="shared" ref="AD11:AD14" si="30">AD10&amp;","&amp;AE11</f>
@@ -3685,7 +3719,7 @@
         <v>4</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD12" t="str">
         <f t="shared" si="30"/>
@@ -3794,7 +3828,7 @@
         <v>4</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AD13" t="str">
         <f t="shared" si="30"/>
@@ -3810,13 +3844,13 @@
         <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+